--- a/BACKEND.xlsx
+++ b/BACKEND.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Lenovo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\white-give\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="127">
   <si>
     <t>Pathname</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -483,6 +483,38 @@
   <si>
     <t>审核状态：
 "auditing", "passed", "failed"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>err: bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>msg: string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>password: string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>studentNumber: string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>studentSetPassword</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学生修改密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>专家修改密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>expertSetPassword</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -514,12 +546,18 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFAFAFA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="11">
@@ -652,55 +690,55 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -737,6 +775,11 @@
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
   </tableStyles>
+  <colors>
+    <mruColors>
+      <color rgb="FFFAFAFA"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1011,11 +1054,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F86"/>
+  <dimension ref="A1:F90"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D85" sqref="D85"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F8" sqref="F8:F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.83203125" defaultRowHeight="17.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1726,7 +1769,7 @@
       <c r="F66" s="8"/>
     </row>
     <row r="67" spans="1:6" s="13" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="11"/>
+      <c r="A67" s="8"/>
       <c r="B67" s="11"/>
       <c r="C67" s="11"/>
       <c r="D67" s="12"/>
@@ -1735,51 +1778,61 @@
       </c>
       <c r="F67" s="11"/>
     </row>
-    <row r="68" spans="1:6" s="6" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="4" t="s">
+    <row r="68" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="8"/>
+      <c r="B68" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D68" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="E68" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="F68" s="4"/>
+    </row>
+    <row r="69" spans="1:6" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="11"/>
+      <c r="B69" s="11"/>
+      <c r="C69" s="11"/>
+      <c r="D69" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="E69" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="F69" s="11"/>
+    </row>
+    <row r="70" spans="1:6" s="6" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B68" s="4" t="s">
+      <c r="B70" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C68" s="4" t="s">
+      <c r="C70" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="D68" s="5" t="s">
+      <c r="D70" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E68" s="5" t="s">
+      <c r="E70" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="F68" s="4"/>
-    </row>
-    <row r="69" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="8"/>
-      <c r="B69" s="8"/>
-      <c r="C69" s="8"/>
-      <c r="D69" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E69" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F69" s="8"/>
-    </row>
-    <row r="70" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="8"/>
-      <c r="B70" s="8"/>
-      <c r="C70" s="8"/>
-      <c r="D70" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F70" s="8"/>
+      <c r="F70" s="4"/>
     </row>
     <row r="71" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="8"/>
       <c r="B71" s="8"/>
       <c r="C71" s="8"/>
       <c r="D71" s="9" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="E71" s="9" t="s">
+        <v>9</v>
       </c>
       <c r="F71" s="8"/>
     </row>
@@ -1788,7 +1841,7 @@
       <c r="B72" s="8"/>
       <c r="C72" s="8"/>
       <c r="D72" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F72" s="8"/>
     </row>
@@ -1797,203 +1850,244 @@
       <c r="B73" s="8"/>
       <c r="C73" s="8"/>
       <c r="D73" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F73" s="8"/>
+    </row>
+    <row r="74" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="8"/>
+      <c r="B74" s="8"/>
+      <c r="C74" s="8"/>
+      <c r="D74" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F74" s="8"/>
+    </row>
+    <row r="75" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="8"/>
+      <c r="B75" s="8"/>
+      <c r="C75" s="8"/>
+      <c r="D75" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="F73" s="8"/>
-    </row>
-    <row r="74" spans="1:6" s="13" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="8"/>
-      <c r="B74" s="11"/>
-      <c r="C74" s="11"/>
-      <c r="D74" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E74" s="12"/>
-      <c r="F74" s="11"/>
-    </row>
-    <row r="75" spans="1:6" s="6" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="8"/>
-      <c r="B75" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="C75" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="D75" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E75" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="F75" s="4"/>
+      <c r="F75" s="8"/>
     </row>
     <row r="76" spans="1:6" s="13" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="11"/>
+      <c r="A76" s="8"/>
       <c r="B76" s="11"/>
       <c r="C76" s="11"/>
       <c r="D76" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E76" s="12"/>
+      <c r="F76" s="11"/>
+    </row>
+    <row r="77" spans="1:6" s="6" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="8"/>
+      <c r="B77" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E77" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F77" s="4"/>
+    </row>
+    <row r="78" spans="1:6" s="13" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="8"/>
+      <c r="B78" s="11"/>
+      <c r="C78" s="11"/>
+      <c r="D78" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E76" s="12" t="s">
+      <c r="E78" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="F76" s="11"/>
-    </row>
-    <row r="77" spans="1:6" s="6" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="D77" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="E77" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F77" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="8"/>
-      <c r="B78" s="8"/>
-      <c r="C78" s="8"/>
-      <c r="D78" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="E78" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="F78" s="8"/>
+      <c r="F78" s="11"/>
     </row>
     <row r="79" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="8"/>
-      <c r="B79" s="8"/>
-      <c r="C79" s="8"/>
+      <c r="B79" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>126</v>
+      </c>
       <c r="D79" s="9" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="E79" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="F79" s="8"/>
-    </row>
-    <row r="80" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="8"/>
-      <c r="B80" s="8"/>
-      <c r="C80" s="8"/>
+        <v>119</v>
+      </c>
+      <c r="F79" s="4"/>
+    </row>
+    <row r="80" spans="1:6" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="11"/>
+      <c r="B80" s="11"/>
+      <c r="C80" s="11"/>
       <c r="D80" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="F80" s="8"/>
-    </row>
-    <row r="81" spans="1:6" s="13" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="8"/>
-      <c r="B81" s="11"/>
-      <c r="C81" s="11"/>
-      <c r="D81" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="E81" s="12"/>
-      <c r="F81" s="11"/>
-    </row>
-    <row r="82" spans="1:6" s="6" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>122</v>
+      </c>
+      <c r="E80" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="F80" s="11"/>
+    </row>
+    <row r="81" spans="1:6" s="6" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="E81" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F81" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="8"/>
-      <c r="B82" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="C82" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="D82" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="E82" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="F82" s="15" t="s">
-        <v>117</v>
-      </c>
+      <c r="B82" s="8"/>
+      <c r="C82" s="8"/>
+      <c r="D82" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E82" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="F82" s="8"/>
     </row>
     <row r="83" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="8"/>
       <c r="B83" s="8"/>
       <c r="C83" s="8"/>
+      <c r="D83" s="9" t="s">
+        <v>104</v>
+      </c>
       <c r="E83" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="F83" s="8"/>
+    </row>
+    <row r="84" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="8"/>
+      <c r="B84" s="8"/>
+      <c r="C84" s="8"/>
+      <c r="D84" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F84" s="8"/>
+    </row>
+    <row r="85" spans="1:6" s="13" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A85" s="8"/>
+      <c r="B85" s="11"/>
+      <c r="C85" s="11"/>
+      <c r="D85" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="E85" s="12"/>
+      <c r="F85" s="11"/>
+    </row>
+    <row r="86" spans="1:6" s="6" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="8"/>
+      <c r="B86" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D86" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E86" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="F86" s="15" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="8"/>
+      <c r="B87" s="8"/>
+      <c r="C87" s="8"/>
+      <c r="E87" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="F83" s="16"/>
-    </row>
-    <row r="84" spans="1:6" s="13" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="8"/>
-      <c r="B84" s="11"/>
-      <c r="C84" s="11"/>
-      <c r="D84" s="12"/>
-      <c r="E84" s="12" t="s">
+      <c r="F87" s="16"/>
+    </row>
+    <row r="88" spans="1:6" s="13" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A88" s="8"/>
+      <c r="B88" s="11"/>
+      <c r="C88" s="11"/>
+      <c r="D88" s="12"/>
+      <c r="E88" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="F84" s="17"/>
-    </row>
-    <row r="85" spans="1:6" s="6" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="8"/>
-      <c r="B85" s="4" t="s">
+      <c r="F88" s="17"/>
+    </row>
+    <row r="89" spans="1:6" s="6" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="8"/>
+      <c r="B89" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="C85" s="4" t="s">
+      <c r="C89" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="D85" s="5" t="s">
+      <c r="D89" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="E85" s="5" t="s">
+      <c r="E89" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="F85" s="15" t="s">
+      <c r="F89" s="15" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="86" spans="1:6" s="13" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="11"/>
-      <c r="B86" s="11"/>
-      <c r="C86" s="11"/>
-      <c r="D86" s="12" t="s">
+    <row r="90" spans="1:6" s="13" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A90" s="11"/>
+      <c r="B90" s="11"/>
+      <c r="C90" s="11"/>
+      <c r="D90" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E86" s="12" t="s">
+      <c r="E90" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="F86" s="11"/>
+      <c r="F90" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="43">
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="C85:C86"/>
-    <mergeCell ref="F85:F86"/>
-    <mergeCell ref="A77:A86"/>
-    <mergeCell ref="B77:B81"/>
-    <mergeCell ref="C77:C81"/>
-    <mergeCell ref="F77:F81"/>
-    <mergeCell ref="F82:F84"/>
-    <mergeCell ref="C82:C84"/>
-    <mergeCell ref="B82:B84"/>
-    <mergeCell ref="B68:B74"/>
-    <mergeCell ref="C68:C74"/>
-    <mergeCell ref="F68:F74"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="A68:A76"/>
-    <mergeCell ref="F75:F76"/>
-    <mergeCell ref="B60:B64"/>
-    <mergeCell ref="C60:C64"/>
-    <mergeCell ref="F60:F64"/>
-    <mergeCell ref="B65:B67"/>
-    <mergeCell ref="C65:C67"/>
-    <mergeCell ref="F65:F67"/>
+  <mergeCells count="49">
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="A70:A80"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="A11:A69"/>
+    <mergeCell ref="F68:F69"/>
+    <mergeCell ref="A2:A10"/>
+    <mergeCell ref="B11:B21"/>
+    <mergeCell ref="C11:C21"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
     <mergeCell ref="C24:C59"/>
     <mergeCell ref="B24:B59"/>
     <mergeCell ref="F5:F7"/>
@@ -2001,19 +2095,30 @@
     <mergeCell ref="F11:F21"/>
     <mergeCell ref="F22:F23"/>
     <mergeCell ref="F24:F59"/>
-    <mergeCell ref="A2:A10"/>
-    <mergeCell ref="B11:B21"/>
-    <mergeCell ref="C11:C21"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="A11:A67"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="F77:F78"/>
+    <mergeCell ref="B60:B64"/>
+    <mergeCell ref="C60:C64"/>
+    <mergeCell ref="F60:F64"/>
+    <mergeCell ref="B65:B67"/>
+    <mergeCell ref="C65:C67"/>
+    <mergeCell ref="F65:F67"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="B70:B76"/>
+    <mergeCell ref="C70:C76"/>
+    <mergeCell ref="F70:F76"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="C89:C90"/>
+    <mergeCell ref="F89:F90"/>
+    <mergeCell ref="A81:A90"/>
+    <mergeCell ref="B81:B85"/>
+    <mergeCell ref="C81:C85"/>
+    <mergeCell ref="F81:F85"/>
+    <mergeCell ref="F86:F88"/>
+    <mergeCell ref="C86:C88"/>
+    <mergeCell ref="B86:B88"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/BACKEND.xlsx
+++ b/BACKEND.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="131">
   <si>
     <t>Pathname</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -34,10 +34,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>getWork</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Info</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -80,10 +76,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>getApplication</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>studentRegister</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -146,18 +138,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>name: string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>birthday: string</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>educationalBackground: string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>major: string</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -186,10 +170,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>c1EducationalBackground: string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>c1Phone: string</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -204,9 +184,6 @@
     <t>c2StudentNumber: string</t>
   </si>
   <si>
-    <t>c2EducationalBackground: string</t>
-  </si>
-  <si>
     <t>c2Phone: string</t>
   </si>
   <si>
@@ -219,9 +196,6 @@
     <t>c3StudentNumber: string</t>
   </si>
   <si>
-    <t>c3EducationalBackground: string</t>
-  </si>
-  <si>
     <t>c3Phone: string</t>
   </si>
   <si>
@@ -234,9 +208,6 @@
     <t>c4StudentNumber: string</t>
   </si>
   <si>
-    <t>c4EducationalBackground: string</t>
-  </si>
-  <si>
     <t>c4Phone: string</t>
   </si>
   <si>
@@ -348,14 +319,6 @@
   </si>
   <si>
     <t>日期格式："1970-01-01"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取作品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取申请</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -515,6 +478,61 @@
   </si>
   <si>
     <t>expertSetPassword</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getWorkById</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getApplicationById</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据ID获取作品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据ID获取申请</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>email: string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>category: string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c4EduBackground: string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c3EduBackground: string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c2EduBackground: string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c1EduBackground: string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eduBackground: string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name: string</t>
+  </si>
+  <si>
+    <t>department: string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>appCategory: string</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -696,22 +714,10 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -723,10 +729,22 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1054,1026 +1072,1088 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F90"/>
+  <dimension ref="A1:F93"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F8" sqref="F8:F10"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.83203125" defaultRowHeight="17.5" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" style="10" customWidth="1"/>
-    <col min="2" max="2" width="25" style="9" customWidth="1"/>
-    <col min="3" max="3" width="29.1640625" style="9" customWidth="1"/>
-    <col min="4" max="4" width="31.25" style="9" customWidth="1"/>
-    <col min="5" max="5" width="20.83203125" style="9"/>
-    <col min="6" max="6" width="29.1640625" style="9" customWidth="1"/>
-    <col min="7" max="16384" width="20.83203125" style="10"/>
+    <col min="1" max="1" width="16.6640625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="25" style="5" customWidth="1"/>
+    <col min="3" max="3" width="29.1640625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="31.25" style="5" customWidth="1"/>
+    <col min="5" max="5" width="20.83203125" style="5"/>
+    <col min="6" max="6" width="29.1640625" style="5" customWidth="1"/>
+    <col min="7" max="16384" width="20.83203125" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="4" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" s="6" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="13"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="11"/>
+    </row>
+    <row r="4" spans="1:6" s="8" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="13"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="7"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="9" t="s">
+      <c r="F4" s="10"/>
+    </row>
+    <row r="5" spans="1:6" s="4" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="13"/>
+      <c r="B5" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="8"/>
-    </row>
-    <row r="4" spans="1:6" s="13" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="7"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12" t="s">
+      <c r="F5" s="9"/>
+    </row>
+    <row r="6" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="13"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="E6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="11"/>
+    </row>
+    <row r="7" spans="1:6" s="8" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="13"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="10"/>
+    </row>
+    <row r="8" spans="1:6" s="4" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="13"/>
+      <c r="B8" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="11"/>
-    </row>
-    <row r="5" spans="1:6" s="6" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="7"/>
-      <c r="B5" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="5" t="s">
+      <c r="E8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="9"/>
+    </row>
+    <row r="9" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="13"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="E9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="11"/>
+    </row>
+    <row r="10" spans="1:6" s="8" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="14"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="4"/>
-    </row>
-    <row r="6" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="E6" s="9" t="s">
+      <c r="F10" s="10"/>
+    </row>
+    <row r="11" spans="1:6" s="4" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="8"/>
-    </row>
-    <row r="7" spans="1:6" s="13" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="7"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="11"/>
-    </row>
-    <row r="8" spans="1:6" s="6" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="7"/>
-      <c r="B8" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="4"/>
-    </row>
-    <row r="9" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="7"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="E9" s="9" t="s">
+      <c r="F11" s="9"/>
+    </row>
+    <row r="12" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="11"/>
+    </row>
+    <row r="13" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="11"/>
+    </row>
+    <row r="14" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="11"/>
+    </row>
+    <row r="15" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="11"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="11"/>
+    </row>
+    <row r="16" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" s="11"/>
+    </row>
+    <row r="17" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" s="11"/>
+    </row>
+    <row r="18" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="11"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" s="11"/>
+    </row>
+    <row r="19" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="11"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F19" s="11"/>
+    </row>
+    <row r="20" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F20" s="11"/>
+    </row>
+    <row r="21" spans="1:6" s="8" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="11"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" s="7"/>
+      <c r="F21" s="10"/>
+    </row>
+    <row r="22" spans="1:6" s="4" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="11"/>
+      <c r="B22" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="8"/>
-    </row>
-    <row r="10" spans="1:6" s="13" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="14"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="11"/>
-    </row>
-    <row r="11" spans="1:6" s="6" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
+      <c r="F22" s="9"/>
+    </row>
+    <row r="23" spans="1:6" s="8" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="11"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" s="10"/>
+    </row>
+    <row r="24" spans="1:6" s="4" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="11"/>
+      <c r="B24" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" s="4"/>
-    </row>
-    <row r="12" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" s="8"/>
-    </row>
-    <row r="13" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F13" s="8"/>
-    </row>
-    <row r="14" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F14" s="8"/>
-    </row>
-    <row r="15" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F15" s="8"/>
-    </row>
-    <row r="16" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F16" s="8"/>
-    </row>
-    <row r="17" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F17" s="8"/>
-    </row>
-    <row r="18" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="9" t="s">
+    </row>
+    <row r="25" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="11"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25" s="11"/>
+    </row>
+    <row r="26" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="11"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F26" s="11"/>
+    </row>
+    <row r="27" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="11"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E27" s="6"/>
+      <c r="F27" s="11"/>
+    </row>
+    <row r="28" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="11"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E28" s="6"/>
+      <c r="F28" s="11"/>
+    </row>
+    <row r="29" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="11"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F29" s="11"/>
+    </row>
+    <row r="30" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="11"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F30" s="11"/>
+    </row>
+    <row r="31" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="11"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F18" s="8"/>
-    </row>
-    <row r="19" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F19" s="8"/>
-    </row>
-    <row r="20" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F20" s="8"/>
-    </row>
-    <row r="21" spans="1:6" s="13" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="8"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="E21" s="12"/>
-      <c r="F21" s="11"/>
-    </row>
-    <row r="22" spans="1:6" s="6" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="8"/>
-      <c r="B22" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F22" s="4"/>
-    </row>
-    <row r="23" spans="1:6" s="13" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="8"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E23" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="F23" s="11"/>
-    </row>
-    <row r="24" spans="1:6" s="6" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="8"/>
-      <c r="B24" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D24" s="5" t="s">
+      <c r="F31" s="11"/>
+    </row>
+    <row r="32" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="11"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E24" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="8"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F25" s="8"/>
-    </row>
-    <row r="26" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="8"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="9" t="s">
+      <c r="F32" s="11"/>
+    </row>
+    <row r="33" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="11"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E26" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="F26" s="8"/>
-    </row>
-    <row r="27" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="8"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="9" t="s">
+      <c r="F33" s="11"/>
+    </row>
+    <row r="34" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="11"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="F27" s="8"/>
-    </row>
-    <row r="28" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="8"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="9" t="s">
+      <c r="F34" s="11"/>
+    </row>
+    <row r="35" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="11"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="F28" s="8"/>
-    </row>
-    <row r="29" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="8"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F29" s="8"/>
-    </row>
-    <row r="30" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="8"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="9" t="s">
+      <c r="F35" s="11"/>
+    </row>
+    <row r="36" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="11"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F30" s="8"/>
-    </row>
-    <row r="31" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="8"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="9" t="s">
+      <c r="F36" s="11"/>
+    </row>
+    <row r="37" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="11"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="F31" s="8"/>
-    </row>
-    <row r="32" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="8"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="9" t="s">
+      <c r="F37" s="11"/>
+    </row>
+    <row r="38" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="11"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F38" s="11"/>
+    </row>
+    <row r="39" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="11"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="F32" s="8"/>
-    </row>
-    <row r="33" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="8"/>
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="9" t="s">
+      <c r="F39" s="11"/>
+    </row>
+    <row r="40" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="11"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F33" s="8"/>
-    </row>
-    <row r="34" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="8"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="9" t="s">
+      <c r="F40" s="11"/>
+    </row>
+    <row r="41" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="11"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="F34" s="8"/>
-    </row>
-    <row r="35" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="8"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="9" t="s">
+      <c r="F41" s="11"/>
+    </row>
+    <row r="42" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="11"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="F35" s="8"/>
-    </row>
-    <row r="36" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="8"/>
-      <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="9" t="s">
+      <c r="F42" s="11"/>
+    </row>
+    <row r="43" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="11"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="F43" s="11"/>
+    </row>
+    <row r="44" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="11"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="F36" s="8"/>
-    </row>
-    <row r="37" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="8"/>
-      <c r="B37" s="8"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="9" t="s">
+      <c r="F44" s="11"/>
+    </row>
+    <row r="45" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="11"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F37" s="8"/>
-    </row>
-    <row r="38" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="8"/>
-      <c r="B38" s="8"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="9" t="s">
+      <c r="F45" s="11"/>
+    </row>
+    <row r="46" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="11"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="F38" s="8"/>
-    </row>
-    <row r="39" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="8"/>
-      <c r="B39" s="8"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="9" t="s">
+      <c r="F46" s="11"/>
+    </row>
+    <row r="47" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="11"/>
+      <c r="B47" s="11"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="F39" s="8"/>
-    </row>
-    <row r="40" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="8"/>
-      <c r="B40" s="8"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="9" t="s">
+      <c r="F47" s="11"/>
+    </row>
+    <row r="48" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="11"/>
+      <c r="B48" s="11"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="F48" s="11"/>
+    </row>
+    <row r="49" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="11"/>
+      <c r="B49" s="11"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="F40" s="8"/>
-    </row>
-    <row r="41" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="8"/>
-      <c r="B41" s="8"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="9" t="s">
+      <c r="F49" s="11"/>
+    </row>
+    <row r="50" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="11"/>
+      <c r="B50" s="11"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="F41" s="8"/>
-    </row>
-    <row r="42" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="8"/>
-      <c r="B42" s="8"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="9" t="s">
+      <c r="F50" s="11"/>
+    </row>
+    <row r="51" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="11"/>
+      <c r="B51" s="11"/>
+      <c r="C51" s="11"/>
+      <c r="D51" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="F42" s="8"/>
-    </row>
-    <row r="43" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="8"/>
-      <c r="B43" s="8"/>
-      <c r="C43" s="8"/>
-      <c r="D43" s="9" t="s">
+      <c r="F51" s="11"/>
+    </row>
+    <row r="52" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="11"/>
+      <c r="B52" s="11"/>
+      <c r="C52" s="11"/>
+      <c r="D52" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="F43" s="8"/>
-    </row>
-    <row r="44" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="8"/>
-      <c r="B44" s="8"/>
-      <c r="C44" s="8"/>
-      <c r="D44" s="9" t="s">
+      <c r="F52" s="11"/>
+    </row>
+    <row r="53" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="11"/>
+      <c r="B53" s="11"/>
+      <c r="C53" s="11"/>
+      <c r="D53" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F53" s="11"/>
+    </row>
+    <row r="54" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="11"/>
+      <c r="B54" s="11"/>
+      <c r="C54" s="11"/>
+      <c r="D54" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="F44" s="8"/>
-    </row>
-    <row r="45" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="8"/>
-      <c r="B45" s="8"/>
-      <c r="C45" s="8"/>
-      <c r="D45" s="9" t="s">
+      <c r="F54" s="11"/>
+    </row>
+    <row r="55" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="11"/>
+      <c r="B55" s="11"/>
+      <c r="C55" s="11"/>
+      <c r="D55" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="F45" s="8"/>
-    </row>
-    <row r="46" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="8"/>
-      <c r="B46" s="8"/>
-      <c r="C46" s="8"/>
-      <c r="D46" s="9" t="s">
+      <c r="F55" s="11"/>
+    </row>
+    <row r="56" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="11"/>
+      <c r="B56" s="11"/>
+      <c r="C56" s="11"/>
+      <c r="D56" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="F46" s="8"/>
-    </row>
-    <row r="47" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="8"/>
-      <c r="B47" s="8"/>
-      <c r="C47" s="8"/>
-      <c r="D47" s="9" t="s">
+      <c r="F56" s="11"/>
+    </row>
+    <row r="57" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="11"/>
+      <c r="B57" s="11"/>
+      <c r="C57" s="11"/>
+      <c r="D57" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="F47" s="8"/>
-    </row>
-    <row r="48" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="8"/>
-      <c r="B48" s="8"/>
-      <c r="C48" s="8"/>
-      <c r="D48" s="9" t="s">
+      <c r="F57" s="11"/>
+    </row>
+    <row r="58" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="11"/>
+      <c r="B58" s="11"/>
+      <c r="C58" s="11"/>
+      <c r="D58" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="F48" s="8"/>
-    </row>
-    <row r="49" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="8"/>
-      <c r="B49" s="8"/>
-      <c r="C49" s="8"/>
-      <c r="D49" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="F49" s="8"/>
-    </row>
-    <row r="50" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="8"/>
-      <c r="B50" s="8"/>
-      <c r="C50" s="8"/>
-      <c r="D50" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="F50" s="8"/>
-    </row>
-    <row r="51" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="8"/>
-      <c r="B51" s="8"/>
-      <c r="C51" s="8"/>
-      <c r="D51" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="F51" s="8"/>
-    </row>
-    <row r="52" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="8"/>
-      <c r="B52" s="8"/>
-      <c r="C52" s="8"/>
-      <c r="D52" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="F52" s="8"/>
-    </row>
-    <row r="53" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="8"/>
-      <c r="B53" s="8"/>
-      <c r="C53" s="8"/>
-      <c r="D53" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="F53" s="8"/>
-    </row>
-    <row r="54" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="8"/>
-      <c r="B54" s="8"/>
-      <c r="C54" s="8"/>
-      <c r="D54" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="F54" s="8"/>
-    </row>
-    <row r="55" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="8"/>
-      <c r="B55" s="8"/>
-      <c r="C55" s="8"/>
-      <c r="D55" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="F55" s="8"/>
-    </row>
-    <row r="56" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="8"/>
-      <c r="B56" s="8"/>
-      <c r="C56" s="8"/>
-      <c r="D56" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="F56" s="8"/>
-    </row>
-    <row r="57" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="8"/>
-      <c r="B57" s="8"/>
-      <c r="C57" s="8"/>
-      <c r="D57" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="F57" s="8"/>
-    </row>
-    <row r="58" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="8"/>
-      <c r="B58" s="8"/>
-      <c r="C58" s="8"/>
-      <c r="D58" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="F58" s="8"/>
-    </row>
-    <row r="59" spans="1:6" s="13" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="8"/>
+      <c r="F58" s="11"/>
+    </row>
+    <row r="59" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="11"/>
       <c r="B59" s="11"/>
       <c r="C59" s="11"/>
-      <c r="D59" s="12" t="s">
+      <c r="D59" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F59" s="11"/>
+    </row>
+    <row r="60" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="11"/>
+      <c r="B60" s="11"/>
+      <c r="C60" s="11"/>
+      <c r="D60" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F60" s="11"/>
+    </row>
+    <row r="61" spans="1:6" s="8" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="11"/>
+      <c r="B61" s="10"/>
+      <c r="C61" s="10"/>
+      <c r="D61" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E61" s="7"/>
+      <c r="F61" s="10"/>
+    </row>
+    <row r="62" spans="1:6" s="4" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="11"/>
+      <c r="B62" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C62" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E62" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E59" s="12"/>
-      <c r="F59" s="11"/>
-    </row>
-    <row r="60" spans="1:6" s="6" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="8"/>
-      <c r="B60" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D60" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="E60" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="F60" s="4"/>
-    </row>
-    <row r="61" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="8"/>
-      <c r="B61" s="8"/>
-      <c r="C61" s="8"/>
-      <c r="D61" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="E61" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="F61" s="8"/>
-    </row>
-    <row r="62" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="8"/>
-      <c r="B62" s="8"/>
-      <c r="C62" s="8"/>
-      <c r="D62" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="E62" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="F62" s="8"/>
+      <c r="F62" s="9"/>
     </row>
     <row r="63" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="8"/>
-      <c r="B63" s="8"/>
-      <c r="C63" s="8"/>
-      <c r="D63" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="F63" s="8"/>
-    </row>
-    <row r="64" spans="1:6" s="13" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="8"/>
+      <c r="A63" s="11"/>
+      <c r="B63" s="11"/>
+      <c r="C63" s="11"/>
+      <c r="D63" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F63" s="11"/>
+    </row>
+    <row r="64" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="11"/>
       <c r="B64" s="11"/>
       <c r="C64" s="11"/>
-      <c r="D64" s="12" t="s">
+      <c r="D64" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F64" s="11"/>
+    </row>
+    <row r="65" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="11"/>
+      <c r="B65" s="11"/>
+      <c r="C65" s="11"/>
+      <c r="D65" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F65" s="11"/>
+    </row>
+    <row r="66" spans="1:6" s="8" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="11"/>
+      <c r="B66" s="10"/>
+      <c r="C66" s="10"/>
+      <c r="D66" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E66" s="7"/>
+      <c r="F66" s="10"/>
+    </row>
+    <row r="67" spans="1:6" s="4" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="11"/>
+      <c r="B67" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C67" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F67" s="9"/>
+    </row>
+    <row r="68" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="11"/>
+      <c r="B68" s="11"/>
+      <c r="C68" s="11"/>
+      <c r="D68" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="F68" s="11"/>
+    </row>
+    <row r="69" spans="1:6" s="8" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="11"/>
+      <c r="B69" s="10"/>
+      <c r="C69" s="10"/>
+      <c r="D69" s="7"/>
+      <c r="E69" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="E64" s="12"/>
-      <c r="F64" s="11"/>
-    </row>
-    <row r="65" spans="1:6" s="6" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="8"/>
-      <c r="B65" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D65" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E65" s="5" t="s">
+      <c r="F69" s="10"/>
+    </row>
+    <row r="70" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="11"/>
+      <c r="B70" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="C70" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="F70" s="9"/>
+    </row>
+    <row r="71" spans="1:6" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="10"/>
+      <c r="B71" s="10"/>
+      <c r="C71" s="10"/>
+      <c r="D71" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="F71" s="10"/>
+    </row>
+    <row r="72" spans="1:6" s="4" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="B72" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="F65" s="4"/>
-    </row>
-    <row r="66" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="8"/>
-      <c r="B66" s="8"/>
-      <c r="C66" s="8"/>
-      <c r="D66" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="E66" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="F66" s="8"/>
-    </row>
-    <row r="67" spans="1:6" s="13" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="8"/>
-      <c r="B67" s="11"/>
-      <c r="C67" s="11"/>
-      <c r="D67" s="12"/>
-      <c r="E67" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="F67" s="11"/>
-    </row>
-    <row r="68" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="8"/>
-      <c r="B68" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="D68" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="E68" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="F68" s="4"/>
-    </row>
-    <row r="69" spans="1:6" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="11"/>
-      <c r="B69" s="11"/>
-      <c r="C69" s="11"/>
-      <c r="D69" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="E69" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="F69" s="11"/>
-    </row>
-    <row r="70" spans="1:6" s="6" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="B70" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="D70" s="5" t="s">
+      <c r="C72" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F72" s="9"/>
+    </row>
+    <row r="73" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="11"/>
+      <c r="B73" s="11"/>
+      <c r="C73" s="11"/>
+      <c r="D73" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E70" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="F70" s="4"/>
-    </row>
-    <row r="71" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="8"/>
-      <c r="B71" s="8"/>
-      <c r="C71" s="8"/>
-      <c r="D71" s="9" t="s">
+      <c r="E73" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F73" s="11"/>
+    </row>
+    <row r="74" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="11"/>
+      <c r="B74" s="11"/>
+      <c r="C74" s="11"/>
+      <c r="D74" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F74" s="11"/>
+    </row>
+    <row r="75" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="11"/>
+      <c r="B75" s="11"/>
+      <c r="C75" s="11"/>
+      <c r="D75" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E71" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F71" s="8"/>
-    </row>
-    <row r="72" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="8"/>
-      <c r="B72" s="8"/>
-      <c r="C72" s="8"/>
-      <c r="D72" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F72" s="8"/>
-    </row>
-    <row r="73" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="8"/>
-      <c r="B73" s="8"/>
-      <c r="C73" s="8"/>
-      <c r="D73" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F73" s="8"/>
-    </row>
-    <row r="74" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="8"/>
-      <c r="B74" s="8"/>
-      <c r="C74" s="8"/>
-      <c r="D74" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F74" s="8"/>
-    </row>
-    <row r="75" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="8"/>
-      <c r="B75" s="8"/>
-      <c r="C75" s="8"/>
-      <c r="D75" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F75" s="8"/>
-    </row>
-    <row r="76" spans="1:6" s="13" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="8"/>
+      <c r="F75" s="11"/>
+    </row>
+    <row r="76" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="11"/>
       <c r="B76" s="11"/>
       <c r="C76" s="11"/>
-      <c r="D76" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E76" s="12"/>
+      <c r="D76" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="F76" s="11"/>
     </row>
-    <row r="77" spans="1:6" s="6" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="8"/>
-      <c r="B77" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>97</v>
-      </c>
+    <row r="77" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="11"/>
+      <c r="B77" s="11"/>
+      <c r="C77" s="11"/>
       <c r="D77" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E77" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="F77" s="4"/>
-    </row>
-    <row r="78" spans="1:6" s="13" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="8"/>
+        <v>20</v>
+      </c>
+      <c r="F77" s="11"/>
+    </row>
+    <row r="78" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="11"/>
       <c r="B78" s="11"/>
       <c r="C78" s="11"/>
-      <c r="D78" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E78" s="12" t="s">
-        <v>78</v>
+      <c r="D78" s="5" t="s">
+        <v>121</v>
       </c>
       <c r="F78" s="11"/>
     </row>
-    <row r="79" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="8"/>
-      <c r="B79" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="D79" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="E79" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="F79" s="4"/>
-    </row>
-    <row r="80" spans="1:6" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:6" s="8" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="11"/>
+      <c r="B79" s="10"/>
+      <c r="C79" s="10"/>
+      <c r="D79" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="E79" s="7"/>
+      <c r="F79" s="10"/>
+    </row>
+    <row r="80" spans="1:6" s="4" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="11"/>
-      <c r="B80" s="11"/>
-      <c r="C80" s="11"/>
-      <c r="D80" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="E80" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="F80" s="11"/>
-    </row>
-    <row r="81" spans="1:6" s="6" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="B81" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="C81" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="D81" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="E81" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F81" s="4" t="s">
-        <v>7</v>
-      </c>
+      <c r="B80" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C80" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F80" s="9"/>
+    </row>
+    <row r="81" spans="1:6" s="8" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="11"/>
+      <c r="B81" s="10"/>
+      <c r="C81" s="10"/>
+      <c r="D81" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E81" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F81" s="10"/>
     </row>
     <row r="82" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="8"/>
-      <c r="B82" s="8"/>
-      <c r="C82" s="8"/>
-      <c r="D82" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="E82" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="F82" s="8"/>
-    </row>
-    <row r="83" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="8"/>
-      <c r="B83" s="8"/>
-      <c r="C83" s="8"/>
-      <c r="D83" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="E83" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="F83" s="8"/>
-    </row>
-    <row r="84" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="8"/>
-      <c r="B84" s="8"/>
-      <c r="C84" s="8"/>
-      <c r="D84" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="F84" s="8"/>
-    </row>
-    <row r="85" spans="1:6" s="13" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="8"/>
+      <c r="A82" s="11"/>
+      <c r="B82" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="C82" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="E82" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="F82" s="9"/>
+    </row>
+    <row r="83" spans="1:6" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A83" s="10"/>
+      <c r="B83" s="10"/>
+      <c r="C83" s="10"/>
+      <c r="D83" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E83" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="F83" s="10"/>
+    </row>
+    <row r="84" spans="1:6" s="4" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B84" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C84" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F84" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="11"/>
       <c r="B85" s="11"/>
       <c r="C85" s="11"/>
-      <c r="D85" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="E85" s="12"/>
+      <c r="D85" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E85" s="5" t="s">
+        <v>97</v>
+      </c>
       <c r="F85" s="11"/>
     </row>
-    <row r="86" spans="1:6" s="6" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="8"/>
-      <c r="B86" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="C86" s="4" t="s">
-        <v>110</v>
-      </c>
+    <row r="86" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="11"/>
+      <c r="B86" s="11"/>
+      <c r="C86" s="11"/>
       <c r="D86" s="5" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="E86" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="F86" s="11"/>
+    </row>
+    <row r="87" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="11"/>
+      <c r="B87" s="11"/>
+      <c r="C87" s="11"/>
+      <c r="D87" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="F86" s="15" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="8"/>
-      <c r="B87" s="8"/>
-      <c r="C87" s="8"/>
-      <c r="E87" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="F87" s="16"/>
-    </row>
-    <row r="88" spans="1:6" s="13" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A88" s="8"/>
-      <c r="B88" s="11"/>
-      <c r="C88" s="11"/>
-      <c r="D88" s="12"/>
-      <c r="E88" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="F88" s="17"/>
-    </row>
-    <row r="89" spans="1:6" s="6" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="8"/>
-      <c r="B89" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="C89" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="D89" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="E89" s="5" t="s">
-        <v>72</v>
+      <c r="F87" s="11"/>
+    </row>
+    <row r="88" spans="1:6" s="8" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A88" s="11"/>
+      <c r="B88" s="10"/>
+      <c r="C88" s="10"/>
+      <c r="D88" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="E88" s="7"/>
+      <c r="F88" s="10"/>
+    </row>
+    <row r="89" spans="1:6" s="4" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="11"/>
+      <c r="B89" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C89" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>85</v>
       </c>
       <c r="F89" s="15" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" s="13" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="11"/>
       <c r="B90" s="11"/>
       <c r="C90" s="11"/>
-      <c r="D90" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E90" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="F90" s="11"/>
+      <c r="E90" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="F90" s="16"/>
+    </row>
+    <row r="91" spans="1:6" s="8" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A91" s="11"/>
+      <c r="B91" s="10"/>
+      <c r="C91" s="10"/>
+      <c r="D91" s="7"/>
+      <c r="E91" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F91" s="17"/>
+    </row>
+    <row r="92" spans="1:6" s="4" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="11"/>
+      <c r="B92" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="C92" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F92" s="15" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" s="8" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A93" s="10"/>
+      <c r="B93" s="10"/>
+      <c r="C93" s="10"/>
+      <c r="D93" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E93" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F93" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="C79:C80"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="A70:A80"/>
+    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="C92:C93"/>
+    <mergeCell ref="F92:F93"/>
+    <mergeCell ref="A84:A93"/>
+    <mergeCell ref="B84:B88"/>
+    <mergeCell ref="C84:C88"/>
+    <mergeCell ref="F84:F88"/>
+    <mergeCell ref="F89:F91"/>
+    <mergeCell ref="C89:C91"/>
+    <mergeCell ref="B89:B91"/>
+    <mergeCell ref="F80:F81"/>
+    <mergeCell ref="B62:B66"/>
+    <mergeCell ref="C62:C66"/>
+    <mergeCell ref="F62:F66"/>
+    <mergeCell ref="B67:B69"/>
+    <mergeCell ref="C67:C69"/>
+    <mergeCell ref="F67:F69"/>
+    <mergeCell ref="C70:C71"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="B72:B79"/>
+    <mergeCell ref="C72:C79"/>
+    <mergeCell ref="F72:F79"/>
+    <mergeCell ref="B80:B81"/>
+    <mergeCell ref="C80:C81"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="C24:C61"/>
+    <mergeCell ref="B24:B61"/>
+    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="F11:F21"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="F24:F61"/>
+    <mergeCell ref="B82:B83"/>
+    <mergeCell ref="C82:C83"/>
+    <mergeCell ref="F82:F83"/>
+    <mergeCell ref="A72:A83"/>
     <mergeCell ref="F2:F4"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="C2:C4"/>
@@ -2081,44 +2161,11 @@
     <mergeCell ref="C5:C7"/>
     <mergeCell ref="B8:B10"/>
     <mergeCell ref="C8:C10"/>
-    <mergeCell ref="A11:A69"/>
-    <mergeCell ref="F68:F69"/>
+    <mergeCell ref="A11:A71"/>
+    <mergeCell ref="F70:F71"/>
     <mergeCell ref="A2:A10"/>
     <mergeCell ref="B11:B21"/>
     <mergeCell ref="C11:C21"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="C24:C59"/>
-    <mergeCell ref="B24:B59"/>
-    <mergeCell ref="F5:F7"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="F11:F21"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="F24:F59"/>
-    <mergeCell ref="F77:F78"/>
-    <mergeCell ref="B60:B64"/>
-    <mergeCell ref="C60:C64"/>
-    <mergeCell ref="F60:F64"/>
-    <mergeCell ref="B65:B67"/>
-    <mergeCell ref="C65:C67"/>
-    <mergeCell ref="F65:F67"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="B68:B69"/>
-    <mergeCell ref="B70:B76"/>
-    <mergeCell ref="C70:C76"/>
-    <mergeCell ref="F70:F76"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="C77:C78"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="C89:C90"/>
-    <mergeCell ref="F89:F90"/>
-    <mergeCell ref="A81:A90"/>
-    <mergeCell ref="B81:B85"/>
-    <mergeCell ref="C81:C85"/>
-    <mergeCell ref="F81:F85"/>
-    <mergeCell ref="F86:F88"/>
-    <mergeCell ref="C86:C88"/>
-    <mergeCell ref="B86:B88"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/BACKEND.xlsx
+++ b/BACKEND.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="132">
   <si>
     <t>Pathname</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -533,6 +533,10 @@
   </si>
   <si>
     <t>appCategory: string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>innovation: string</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -704,7 +708,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -732,14 +736,26 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -749,15 +765,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1072,11 +1079,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F93"/>
+  <dimension ref="A1:F94"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E19" sqref="E19"/>
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.83203125" defaultRowHeight="17.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1108,13 +1115,13 @@
       </c>
     </row>
     <row r="2" spans="1:6" s="4" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="10" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
@@ -1123,38 +1130,38 @@
       <c r="E2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="10" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="13"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
+      <c r="A3" s="17"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
       <c r="D3" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="11"/>
+      <c r="F3" s="13"/>
     </row>
     <row r="4" spans="1:6" s="8" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="13"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
+      <c r="A4" s="17"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="10"/>
+      <c r="F4" s="11"/>
     </row>
     <row r="5" spans="1:6" s="4" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="13"/>
-      <c r="B5" s="9" t="s">
+      <c r="A5" s="17"/>
+      <c r="B5" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="10" t="s">
         <v>117</v>
       </c>
       <c r="D5" s="3" t="s">
@@ -1163,33 +1170,33 @@
       <c r="E5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="9"/>
+      <c r="F5" s="10"/>
     </row>
     <row r="6" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="13"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
+      <c r="A6" s="17"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
       <c r="E6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="11"/>
+      <c r="F6" s="13"/>
     </row>
     <row r="7" spans="1:6" s="8" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="13"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
+      <c r="A7" s="17"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="10"/>
+      <c r="F7" s="11"/>
     </row>
     <row r="8" spans="1:6" s="4" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="13"/>
-      <c r="B8" s="9" t="s">
+      <c r="A8" s="17"/>
+      <c r="B8" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="10" t="s">
         <v>118</v>
       </c>
       <c r="D8" s="3" t="s">
@@ -1198,35 +1205,35 @@
       <c r="E8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="9"/>
+      <c r="F8" s="10"/>
     </row>
     <row r="9" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="13"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
+      <c r="A9" s="17"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
       <c r="E9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="11"/>
+      <c r="F9" s="13"/>
     </row>
     <row r="10" spans="1:6" s="8" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="14"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
+      <c r="A10" s="18"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="10"/>
+      <c r="F10" s="11"/>
     </row>
     <row r="11" spans="1:6" s="4" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="10" t="s">
         <v>13</v>
       </c>
       <c r="D11" s="3" t="s">
@@ -1235,108 +1242,108 @@
       <c r="E11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="9"/>
+      <c r="F11" s="10"/>
     </row>
     <row r="12" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
+      <c r="A12" s="13"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
       <c r="D12" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F12" s="11"/>
+      <c r="F12" s="13"/>
     </row>
     <row r="13" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
+      <c r="A13" s="13"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
       <c r="D13" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F13" s="11"/>
+      <c r="F13" s="13"/>
     </row>
     <row r="14" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="11"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
+      <c r="A14" s="13"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
       <c r="D14" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F14" s="11"/>
+      <c r="F14" s="13"/>
     </row>
     <row r="15" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="11"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
+      <c r="A15" s="13"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
       <c r="D15" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F15" s="11"/>
+      <c r="F15" s="13"/>
     </row>
     <row r="16" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
+      <c r="A16" s="13"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
       <c r="D16" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F16" s="11"/>
+      <c r="F16" s="13"/>
     </row>
     <row r="17" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
       <c r="D17" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F17" s="11"/>
+      <c r="F17" s="13"/>
     </row>
     <row r="18" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="11"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
+      <c r="A18" s="13"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
       <c r="D18" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F18" s="11"/>
+      <c r="F18" s="13"/>
     </row>
     <row r="19" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="11"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
+      <c r="A19" s="13"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
       <c r="D19" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F19" s="11"/>
+      <c r="F19" s="13"/>
     </row>
     <row r="20" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="11"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
+      <c r="A20" s="13"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
       <c r="D20" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F20" s="11"/>
+      <c r="F20" s="13"/>
     </row>
     <row r="21" spans="1:6" s="8" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="11"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
+      <c r="A21" s="13"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
       <c r="D21" s="7" t="s">
         <v>26</v>
       </c>
       <c r="E21" s="7"/>
-      <c r="F21" s="10"/>
+      <c r="F21" s="11"/>
     </row>
     <row r="22" spans="1:6" s="4" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="11"/>
-      <c r="B22" s="9" t="s">
+      <c r="A22" s="13"/>
+      <c r="B22" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="10" t="s">
         <v>27</v>
       </c>
       <c r="D22" s="3" t="s">
@@ -1345,26 +1352,26 @@
       <c r="E22" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F22" s="9"/>
+      <c r="F22" s="10"/>
     </row>
     <row r="23" spans="1:6" s="8" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="11"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
+      <c r="A23" s="13"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
       <c r="D23" s="7" t="s">
         <v>15</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F23" s="10"/>
+      <c r="F23" s="11"/>
     </row>
     <row r="24" spans="1:6" s="4" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="11"/>
-      <c r="B24" s="9" t="s">
+      <c r="A24" s="13"/>
+      <c r="B24" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="10" t="s">
         <v>28</v>
       </c>
       <c r="D24" s="3" t="s">
@@ -1373,787 +1380,764 @@
       <c r="E24" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F24" s="9" t="s">
+      <c r="F24" s="10" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="11"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
+      <c r="A25" s="13"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
       <c r="D25" s="5" t="s">
         <v>130</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F25" s="11"/>
+      <c r="F25" s="13"/>
     </row>
     <row r="26" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="11"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
+      <c r="A26" s="13"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
       <c r="D26" s="5" t="s">
         <v>128</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="F26" s="11"/>
+      <c r="F26" s="13"/>
     </row>
     <row r="27" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="11"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
+      <c r="A27" s="13"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
       <c r="D27" s="5" t="s">
         <v>26</v>
       </c>
       <c r="E27" s="6"/>
-      <c r="F27" s="11"/>
+      <c r="F27" s="13"/>
     </row>
     <row r="28" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="11"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
+      <c r="A28" s="13"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
       <c r="D28" s="5" t="s">
         <v>29</v>
       </c>
       <c r="E28" s="6"/>
-      <c r="F28" s="11"/>
+      <c r="F28" s="13"/>
     </row>
     <row r="29" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="11"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="11"/>
+      <c r="A29" s="13"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
       <c r="D29" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="F29" s="11"/>
+      <c r="F29" s="13"/>
     </row>
     <row r="30" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="11"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
+      <c r="A30" s="13"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
       <c r="D30" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F30" s="11"/>
+      <c r="F30" s="13"/>
     </row>
     <row r="31" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="11"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
+      <c r="A31" s="13"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
       <c r="D31" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F31" s="11"/>
+      <c r="F31" s="13"/>
     </row>
     <row r="32" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="11"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="11"/>
+      <c r="A32" s="13"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
       <c r="D32" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F32" s="11"/>
+      <c r="F32" s="13"/>
     </row>
     <row r="33" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="11"/>
-      <c r="B33" s="11"/>
-      <c r="C33" s="11"/>
+      <c r="A33" s="13"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="13"/>
       <c r="D33" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F33" s="11"/>
+      <c r="F33" s="13"/>
     </row>
     <row r="34" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="11"/>
-      <c r="B34" s="11"/>
-      <c r="C34" s="11"/>
+      <c r="A34" s="13"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="13"/>
       <c r="D34" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="F34" s="11"/>
+      <c r="F34" s="13"/>
     </row>
     <row r="35" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="11"/>
-      <c r="B35" s="11"/>
-      <c r="C35" s="11"/>
+      <c r="A35" s="13"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="13"/>
       <c r="D35" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="F35" s="11"/>
+      <c r="F35" s="13"/>
     </row>
     <row r="36" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="11"/>
-      <c r="B36" s="11"/>
-      <c r="C36" s="11"/>
+      <c r="A36" s="13"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="13"/>
       <c r="D36" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F36" s="11"/>
+      <c r="F36" s="13"/>
     </row>
     <row r="37" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="11"/>
-      <c r="B37" s="11"/>
-      <c r="C37" s="11"/>
+      <c r="A37" s="13"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="13"/>
       <c r="D37" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="F37" s="11"/>
+      <c r="F37" s="13"/>
     </row>
     <row r="38" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="11"/>
-      <c r="B38" s="11"/>
-      <c r="C38" s="11"/>
+      <c r="A38" s="13"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="13"/>
       <c r="D38" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="F38" s="11"/>
+      <c r="F38" s="13"/>
     </row>
     <row r="39" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="11"/>
-      <c r="B39" s="11"/>
-      <c r="C39" s="11"/>
+      <c r="A39" s="13"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="13"/>
       <c r="D39" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="F39" s="11"/>
+      <c r="F39" s="13"/>
     </row>
     <row r="40" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="11"/>
-      <c r="B40" s="11"/>
-      <c r="C40" s="11"/>
+      <c r="A40" s="13"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="13"/>
       <c r="D40" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F40" s="11"/>
+      <c r="F40" s="13"/>
     </row>
     <row r="41" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="11"/>
-      <c r="B41" s="11"/>
-      <c r="C41" s="11"/>
+      <c r="A41" s="13"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="13"/>
       <c r="D41" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="F41" s="11"/>
+      <c r="F41" s="13"/>
     </row>
     <row r="42" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="11"/>
-      <c r="B42" s="11"/>
-      <c r="C42" s="11"/>
+      <c r="A42" s="13"/>
+      <c r="B42" s="13"/>
+      <c r="C42" s="13"/>
       <c r="D42" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="F42" s="11"/>
+      <c r="F42" s="13"/>
     </row>
     <row r="43" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="11"/>
-      <c r="B43" s="11"/>
-      <c r="C43" s="11"/>
+      <c r="A43" s="13"/>
+      <c r="B43" s="13"/>
+      <c r="C43" s="13"/>
       <c r="D43" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="F43" s="11"/>
+      <c r="F43" s="13"/>
     </row>
     <row r="44" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="11"/>
-      <c r="B44" s="11"/>
-      <c r="C44" s="11"/>
+      <c r="A44" s="13"/>
+      <c r="B44" s="13"/>
+      <c r="C44" s="13"/>
       <c r="D44" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="F44" s="11"/>
+      <c r="F44" s="13"/>
     </row>
     <row r="45" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="11"/>
-      <c r="B45" s="11"/>
-      <c r="C45" s="11"/>
+      <c r="A45" s="13"/>
+      <c r="B45" s="13"/>
+      <c r="C45" s="13"/>
       <c r="D45" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F45" s="11"/>
+      <c r="F45" s="13"/>
     </row>
     <row r="46" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="11"/>
-      <c r="B46" s="11"/>
-      <c r="C46" s="11"/>
+      <c r="A46" s="13"/>
+      <c r="B46" s="13"/>
+      <c r="C46" s="13"/>
       <c r="D46" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="F46" s="11"/>
+      <c r="F46" s="13"/>
     </row>
     <row r="47" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="11"/>
-      <c r="B47" s="11"/>
-      <c r="C47" s="11"/>
+      <c r="A47" s="13"/>
+      <c r="B47" s="13"/>
+      <c r="C47" s="13"/>
       <c r="D47" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="F47" s="11"/>
+      <c r="F47" s="13"/>
     </row>
     <row r="48" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="11"/>
-      <c r="B48" s="11"/>
-      <c r="C48" s="11"/>
+      <c r="A48" s="13"/>
+      <c r="B48" s="13"/>
+      <c r="C48" s="13"/>
       <c r="D48" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="F48" s="11"/>
+      <c r="F48" s="13"/>
     </row>
     <row r="49" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="11"/>
-      <c r="B49" s="11"/>
-      <c r="C49" s="11"/>
+      <c r="A49" s="13"/>
+      <c r="B49" s="13"/>
+      <c r="C49" s="13"/>
       <c r="D49" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="F49" s="11"/>
+      <c r="F49" s="13"/>
     </row>
     <row r="50" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="11"/>
-      <c r="B50" s="11"/>
-      <c r="C50" s="11"/>
+      <c r="A50" s="13"/>
+      <c r="B50" s="13"/>
+      <c r="C50" s="13"/>
       <c r="D50" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="F50" s="11"/>
+      <c r="F50" s="13"/>
     </row>
     <row r="51" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="11"/>
-      <c r="B51" s="11"/>
-      <c r="C51" s="11"/>
+      <c r="A51" s="13"/>
+      <c r="B51" s="13"/>
+      <c r="C51" s="13"/>
       <c r="D51" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="F51" s="11"/>
+      <c r="F51" s="13"/>
     </row>
     <row r="52" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="11"/>
-      <c r="B52" s="11"/>
-      <c r="C52" s="11"/>
+      <c r="A52" s="13"/>
+      <c r="B52" s="13"/>
+      <c r="C52" s="13"/>
       <c r="D52" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="F52" s="11"/>
+      <c r="F52" s="13"/>
     </row>
     <row r="53" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="11"/>
-      <c r="B53" s="11"/>
-      <c r="C53" s="11"/>
+      <c r="A53" s="13"/>
+      <c r="B53" s="13"/>
+      <c r="C53" s="13"/>
       <c r="D53" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="F53" s="11"/>
+      <c r="F53" s="13"/>
     </row>
     <row r="54" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="11"/>
-      <c r="B54" s="11"/>
-      <c r="C54" s="11"/>
+      <c r="A54" s="13"/>
+      <c r="B54" s="13"/>
+      <c r="C54" s="13"/>
       <c r="D54" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="F54" s="11"/>
+      <c r="F54" s="13"/>
     </row>
     <row r="55" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="11"/>
-      <c r="B55" s="11"/>
-      <c r="C55" s="11"/>
+      <c r="A55" s="13"/>
+      <c r="B55" s="13"/>
+      <c r="C55" s="13"/>
       <c r="D55" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="F55" s="11"/>
+      <c r="F55" s="13"/>
     </row>
     <row r="56" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="11"/>
-      <c r="B56" s="11"/>
-      <c r="C56" s="11"/>
+      <c r="A56" s="13"/>
+      <c r="B56" s="13"/>
+      <c r="C56" s="13"/>
       <c r="D56" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="F56" s="11"/>
+      <c r="F56" s="13"/>
     </row>
     <row r="57" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="11"/>
-      <c r="B57" s="11"/>
-      <c r="C57" s="11"/>
+      <c r="A57" s="13"/>
+      <c r="B57" s="13"/>
+      <c r="C57" s="13"/>
       <c r="D57" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="F57" s="11"/>
+      <c r="F57" s="13"/>
     </row>
     <row r="58" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="11"/>
-      <c r="B58" s="11"/>
-      <c r="C58" s="11"/>
-      <c r="D58" s="5" t="s">
+      <c r="A58" s="13"/>
+      <c r="B58" s="13"/>
+      <c r="C58" s="13"/>
+      <c r="D58" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="E58" s="9"/>
+      <c r="F58" s="13"/>
+    </row>
+    <row r="59" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="13"/>
+      <c r="B59" s="13"/>
+      <c r="C59" s="13"/>
+      <c r="D59" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="F58" s="11"/>
-    </row>
-    <row r="59" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="11"/>
-      <c r="B59" s="11"/>
-      <c r="C59" s="11"/>
-      <c r="D59" s="5" t="s">
+      <c r="F59" s="13"/>
+    </row>
+    <row r="60" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="13"/>
+      <c r="B60" s="13"/>
+      <c r="C60" s="13"/>
+      <c r="D60" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="F59" s="11"/>
-    </row>
-    <row r="60" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="11"/>
-      <c r="B60" s="11"/>
-      <c r="C60" s="11"/>
-      <c r="D60" s="5" t="s">
+      <c r="F60" s="13"/>
+    </row>
+    <row r="61" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="13"/>
+      <c r="B61" s="13"/>
+      <c r="C61" s="13"/>
+      <c r="D61" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="F60" s="11"/>
-    </row>
-    <row r="61" spans="1:6" s="8" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="11"/>
-      <c r="B61" s="10"/>
-      <c r="C61" s="10"/>
-      <c r="D61" s="7" t="s">
+      <c r="F61" s="13"/>
+    </row>
+    <row r="62" spans="1:6" s="8" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="13"/>
+      <c r="B62" s="11"/>
+      <c r="C62" s="11"/>
+      <c r="D62" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="E61" s="7"/>
-      <c r="F61" s="10"/>
-    </row>
-    <row r="62" spans="1:6" s="4" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="11"/>
-      <c r="B62" s="9" t="s">
+      <c r="E62" s="7"/>
+      <c r="F62" s="11"/>
+    </row>
+    <row r="63" spans="1:6" s="4" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="13"/>
+      <c r="B63" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="C62" s="9" t="s">
+      <c r="C63" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="D62" s="3" t="s">
+      <c r="D63" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E62" s="3" t="s">
+      <c r="E63" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="F62" s="9"/>
-    </row>
-    <row r="63" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="11"/>
-      <c r="B63" s="11"/>
-      <c r="C63" s="11"/>
-      <c r="D63" s="5" t="s">
+      <c r="F63" s="10"/>
+    </row>
+    <row r="64" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="13"/>
+      <c r="B64" s="13"/>
+      <c r="C64" s="13"/>
+      <c r="D64" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="E63" s="5" t="s">
+      <c r="E64" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="F63" s="11"/>
-    </row>
-    <row r="64" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="11"/>
-      <c r="B64" s="11"/>
-      <c r="C64" s="11"/>
-      <c r="D64" s="5" t="s">
+      <c r="F64" s="13"/>
+    </row>
+    <row r="65" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="13"/>
+      <c r="B65" s="13"/>
+      <c r="C65" s="13"/>
+      <c r="D65" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="E64" s="5" t="s">
+      <c r="E65" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="F64" s="11"/>
-    </row>
-    <row r="65" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="11"/>
-      <c r="B65" s="11"/>
-      <c r="C65" s="11"/>
-      <c r="D65" s="5" t="s">
+      <c r="F65" s="13"/>
+    </row>
+    <row r="66" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="13"/>
+      <c r="B66" s="13"/>
+      <c r="C66" s="13"/>
+      <c r="D66" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="F65" s="11"/>
-    </row>
-    <row r="66" spans="1:6" s="8" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="11"/>
-      <c r="B66" s="10"/>
-      <c r="C66" s="10"/>
-      <c r="D66" s="7" t="s">
+      <c r="F66" s="13"/>
+    </row>
+    <row r="67" spans="1:6" s="8" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="13"/>
+      <c r="B67" s="11"/>
+      <c r="C67" s="11"/>
+      <c r="D67" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="E66" s="7"/>
-      <c r="F66" s="10"/>
-    </row>
-    <row r="67" spans="1:6" s="4" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="11"/>
-      <c r="B67" s="9" t="s">
+      <c r="E67" s="7"/>
+      <c r="F67" s="11"/>
+    </row>
+    <row r="68" spans="1:6" s="4" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="13"/>
+      <c r="B68" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="C67" s="9" t="s">
+      <c r="C68" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="D67" s="3" t="s">
+      <c r="D68" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E67" s="3" t="s">
+      <c r="E68" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="F67" s="9"/>
-    </row>
-    <row r="68" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="11"/>
-      <c r="B68" s="11"/>
-      <c r="C68" s="11"/>
-      <c r="D68" s="5" t="s">
+      <c r="F68" s="10"/>
+    </row>
+    <row r="69" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="13"/>
+      <c r="B69" s="13"/>
+      <c r="C69" s="13"/>
+      <c r="D69" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="E68" s="5" t="s">
+      <c r="E69" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="F68" s="11"/>
-    </row>
-    <row r="69" spans="1:6" s="8" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="11"/>
-      <c r="B69" s="10"/>
-      <c r="C69" s="10"/>
-      <c r="D69" s="7"/>
-      <c r="E69" s="7" t="s">
+      <c r="F69" s="13"/>
+    </row>
+    <row r="70" spans="1:6" s="8" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="13"/>
+      <c r="B70" s="11"/>
+      <c r="C70" s="11"/>
+      <c r="D70" s="7"/>
+      <c r="E70" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="F69" s="10"/>
-    </row>
-    <row r="70" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="11"/>
-      <c r="B70" s="9" t="s">
+      <c r="F70" s="11"/>
+    </row>
+    <row r="71" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="13"/>
+      <c r="B71" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="C70" s="9" t="s">
+      <c r="C71" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="D70" s="5" t="s">
+      <c r="D71" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="E70" s="5" t="s">
+      <c r="E71" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="F70" s="9"/>
-    </row>
-    <row r="71" spans="1:6" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="10"/>
-      <c r="B71" s="10"/>
-      <c r="C71" s="10"/>
-      <c r="D71" s="5" t="s">
+      <c r="F71" s="10"/>
+    </row>
+    <row r="72" spans="1:6" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="11"/>
+      <c r="B72" s="11"/>
+      <c r="C72" s="11"/>
+      <c r="D72" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="E71" s="5" t="s">
+      <c r="E72" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="F71" s="10"/>
-    </row>
-    <row r="72" spans="1:6" s="4" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="9" t="s">
+      <c r="F72" s="11"/>
+    </row>
+    <row r="73" spans="1:6" s="4" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="B72" s="9" t="s">
+      <c r="B73" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="C72" s="9" t="s">
+      <c r="C73" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="D72" s="3" t="s">
+      <c r="D73" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E72" s="3" t="s">
+      <c r="E73" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="F72" s="9"/>
-    </row>
-    <row r="73" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="11"/>
-      <c r="B73" s="11"/>
-      <c r="C73" s="11"/>
-      <c r="D73" s="5" t="s">
+      <c r="F73" s="10"/>
+    </row>
+    <row r="74" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="13"/>
+      <c r="B74" s="13"/>
+      <c r="C74" s="13"/>
+      <c r="D74" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E73" s="5" t="s">
+      <c r="E74" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F73" s="11"/>
-    </row>
-    <row r="74" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="11"/>
-      <c r="B74" s="11"/>
-      <c r="C74" s="11"/>
-      <c r="D74" s="5" t="s">
+      <c r="F74" s="13"/>
+    </row>
+    <row r="75" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="13"/>
+      <c r="B75" s="13"/>
+      <c r="C75" s="13"/>
+      <c r="D75" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F74" s="11"/>
-    </row>
-    <row r="75" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="11"/>
-      <c r="B75" s="11"/>
-      <c r="C75" s="11"/>
-      <c r="D75" s="5" t="s">
+      <c r="F75" s="13"/>
+    </row>
+    <row r="76" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="13"/>
+      <c r="B76" s="13"/>
+      <c r="C76" s="13"/>
+      <c r="D76" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F75" s="11"/>
-    </row>
-    <row r="76" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="11"/>
-      <c r="B76" s="11"/>
-      <c r="C76" s="11"/>
-      <c r="D76" s="5" t="s">
+      <c r="F76" s="13"/>
+    </row>
+    <row r="77" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="13"/>
+      <c r="B77" s="13"/>
+      <c r="C77" s="13"/>
+      <c r="D77" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F76" s="11"/>
-    </row>
-    <row r="77" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="11"/>
-      <c r="B77" s="11"/>
-      <c r="C77" s="11"/>
-      <c r="D77" s="5" t="s">
+      <c r="F77" s="13"/>
+    </row>
+    <row r="78" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="13"/>
+      <c r="B78" s="13"/>
+      <c r="C78" s="13"/>
+      <c r="D78" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F77" s="11"/>
-    </row>
-    <row r="78" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="11"/>
-      <c r="B78" s="11"/>
-      <c r="C78" s="11"/>
-      <c r="D78" s="5" t="s">
+      <c r="F78" s="13"/>
+    </row>
+    <row r="79" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="13"/>
+      <c r="B79" s="13"/>
+      <c r="C79" s="13"/>
+      <c r="D79" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="F78" s="11"/>
-    </row>
-    <row r="79" spans="1:6" s="8" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="11"/>
-      <c r="B79" s="10"/>
-      <c r="C79" s="10"/>
-      <c r="D79" s="7" t="s">
+      <c r="F79" s="13"/>
+    </row>
+    <row r="80" spans="1:6" s="8" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="13"/>
+      <c r="B80" s="11"/>
+      <c r="C80" s="11"/>
+      <c r="D80" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="E79" s="7"/>
-      <c r="F79" s="10"/>
-    </row>
-    <row r="80" spans="1:6" s="4" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="11"/>
-      <c r="B80" s="9" t="s">
+      <c r="E80" s="7"/>
+      <c r="F80" s="11"/>
+    </row>
+    <row r="81" spans="1:6" s="4" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="13"/>
+      <c r="B81" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="C80" s="9" t="s">
+      <c r="C81" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="D80" s="3" t="s">
+      <c r="D81" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E80" s="3" t="s">
+      <c r="E81" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="F80" s="9"/>
-    </row>
-    <row r="81" spans="1:6" s="8" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="11"/>
-      <c r="B81" s="10"/>
-      <c r="C81" s="10"/>
-      <c r="D81" s="7" t="s">
+      <c r="F81" s="10"/>
+    </row>
+    <row r="82" spans="1:6" s="8" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="13"/>
+      <c r="B82" s="11"/>
+      <c r="C82" s="11"/>
+      <c r="D82" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E81" s="7" t="s">
+      <c r="E82" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F81" s="10"/>
-    </row>
-    <row r="82" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="11"/>
-      <c r="B82" s="9" t="s">
+      <c r="F82" s="11"/>
+    </row>
+    <row r="83" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="13"/>
+      <c r="B83" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="C82" s="9" t="s">
+      <c r="C83" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="D82" s="5" t="s">
+      <c r="D83" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="E82" s="5" t="s">
+      <c r="E83" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="F82" s="9"/>
-    </row>
-    <row r="83" spans="1:6" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="10"/>
-      <c r="B83" s="10"/>
-      <c r="C83" s="10"/>
-      <c r="D83" s="5" t="s">
+      <c r="F83" s="10"/>
+    </row>
+    <row r="84" spans="1:6" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A84" s="11"/>
+      <c r="B84" s="11"/>
+      <c r="C84" s="11"/>
+      <c r="D84" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="E83" s="5" t="s">
+      <c r="E84" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="F83" s="10"/>
-    </row>
-    <row r="84" spans="1:6" s="4" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="9" t="s">
+      <c r="F84" s="11"/>
+    </row>
+    <row r="85" spans="1:6" s="4" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="B84" s="9" t="s">
+      <c r="B85" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="C84" s="9" t="s">
+      <c r="C85" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="D84" s="3" t="s">
+      <c r="D85" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="E84" s="3" t="s">
+      <c r="E85" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F84" s="9" t="s">
+      <c r="F85" s="10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="11"/>
-      <c r="B85" s="11"/>
-      <c r="C85" s="11"/>
-      <c r="D85" s="5" t="s">
+    <row r="86" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="13"/>
+      <c r="B86" s="13"/>
+      <c r="C86" s="13"/>
+      <c r="D86" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="E85" s="5" t="s">
+      <c r="E86" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="F85" s="11"/>
-    </row>
-    <row r="86" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="11"/>
-      <c r="B86" s="11"/>
-      <c r="C86" s="11"/>
-      <c r="D86" s="5" t="s">
+      <c r="F86" s="13"/>
+    </row>
+    <row r="87" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="13"/>
+      <c r="B87" s="13"/>
+      <c r="C87" s="13"/>
+      <c r="D87" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="E86" s="5" t="s">
+      <c r="E87" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="F86" s="11"/>
-    </row>
-    <row r="87" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="11"/>
-      <c r="B87" s="11"/>
-      <c r="C87" s="11"/>
-      <c r="D87" s="5" t="s">
+      <c r="F87" s="13"/>
+    </row>
+    <row r="88" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="13"/>
+      <c r="B88" s="13"/>
+      <c r="C88" s="13"/>
+      <c r="D88" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="F87" s="11"/>
-    </row>
-    <row r="88" spans="1:6" s="8" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A88" s="11"/>
-      <c r="B88" s="10"/>
-      <c r="C88" s="10"/>
-      <c r="D88" s="7" t="s">
+      <c r="F88" s="13"/>
+    </row>
+    <row r="89" spans="1:6" s="8" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A89" s="13"/>
+      <c r="B89" s="11"/>
+      <c r="C89" s="11"/>
+      <c r="D89" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="E88" s="7"/>
-      <c r="F88" s="10"/>
-    </row>
-    <row r="89" spans="1:6" s="4" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="11"/>
-      <c r="B89" s="9" t="s">
+      <c r="E89" s="7"/>
+      <c r="F89" s="11"/>
+    </row>
+    <row r="90" spans="1:6" s="4" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="13"/>
+      <c r="B90" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="C89" s="9" t="s">
+      <c r="C90" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="D89" s="3" t="s">
+      <c r="D90" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="E89" s="3" t="s">
+      <c r="E90" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="F89" s="15" t="s">
+      <c r="F90" s="12" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="90" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="11"/>
-      <c r="B90" s="11"/>
-      <c r="C90" s="11"/>
-      <c r="E90" s="5" t="s">
+    <row r="91" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="13"/>
+      <c r="B91" s="13"/>
+      <c r="C91" s="13"/>
+      <c r="E91" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="F90" s="16"/>
-    </row>
-    <row r="91" spans="1:6" s="8" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A91" s="11"/>
-      <c r="B91" s="10"/>
-      <c r="C91" s="10"/>
-      <c r="D91" s="7"/>
-      <c r="E91" s="7" t="s">
+      <c r="F91" s="14"/>
+    </row>
+    <row r="92" spans="1:6" s="8" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A92" s="13"/>
+      <c r="B92" s="11"/>
+      <c r="C92" s="11"/>
+      <c r="D92" s="7"/>
+      <c r="E92" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="F91" s="17"/>
-    </row>
-    <row r="92" spans="1:6" s="4" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="11"/>
-      <c r="B92" s="9" t="s">
+      <c r="F92" s="15"/>
+    </row>
+    <row r="93" spans="1:6" s="4" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="13"/>
+      <c r="B93" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="C92" s="9" t="s">
+      <c r="C93" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="D92" s="3" t="s">
+      <c r="D93" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="E92" s="3" t="s">
+      <c r="E93" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="F92" s="15" t="s">
+      <c r="F93" s="12" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="93" spans="1:6" s="8" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A93" s="10"/>
-      <c r="B93" s="10"/>
-      <c r="C93" s="10"/>
-      <c r="D93" s="7" t="s">
+    <row r="94" spans="1:6" s="8" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A94" s="11"/>
+      <c r="B94" s="11"/>
+      <c r="C94" s="11"/>
+      <c r="D94" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E93" s="7" t="s">
+      <c r="E94" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="F93" s="10"/>
+      <c r="F94" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="B92:B93"/>
-    <mergeCell ref="C92:C93"/>
-    <mergeCell ref="F92:F93"/>
-    <mergeCell ref="A84:A93"/>
-    <mergeCell ref="B84:B88"/>
-    <mergeCell ref="C84:C88"/>
-    <mergeCell ref="F84:F88"/>
-    <mergeCell ref="F89:F91"/>
-    <mergeCell ref="C89:C91"/>
-    <mergeCell ref="B89:B91"/>
-    <mergeCell ref="F80:F81"/>
-    <mergeCell ref="B62:B66"/>
-    <mergeCell ref="C62:C66"/>
-    <mergeCell ref="F62:F66"/>
-    <mergeCell ref="B67:B69"/>
-    <mergeCell ref="C67:C69"/>
-    <mergeCell ref="F67:F69"/>
-    <mergeCell ref="C70:C71"/>
-    <mergeCell ref="B70:B71"/>
-    <mergeCell ref="B72:B79"/>
-    <mergeCell ref="C72:C79"/>
-    <mergeCell ref="F72:F79"/>
-    <mergeCell ref="B80:B81"/>
-    <mergeCell ref="C80:C81"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="C24:C61"/>
-    <mergeCell ref="B24:B61"/>
-    <mergeCell ref="F5:F7"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="F11:F21"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="F24:F61"/>
-    <mergeCell ref="B82:B83"/>
-    <mergeCell ref="C82:C83"/>
-    <mergeCell ref="F82:F83"/>
-    <mergeCell ref="A72:A83"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="C83:C84"/>
+    <mergeCell ref="F83:F84"/>
+    <mergeCell ref="A73:A84"/>
     <mergeCell ref="F2:F4"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="C2:C4"/>
@@ -2161,11 +2145,44 @@
     <mergeCell ref="C5:C7"/>
     <mergeCell ref="B8:B10"/>
     <mergeCell ref="C8:C10"/>
-    <mergeCell ref="A11:A71"/>
-    <mergeCell ref="F70:F71"/>
+    <mergeCell ref="A11:A72"/>
+    <mergeCell ref="F71:F72"/>
     <mergeCell ref="A2:A10"/>
     <mergeCell ref="B11:B21"/>
     <mergeCell ref="C11:C21"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="C24:C62"/>
+    <mergeCell ref="B24:B62"/>
+    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="F11:F21"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="F24:F62"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="B63:B67"/>
+    <mergeCell ref="C63:C67"/>
+    <mergeCell ref="F63:F67"/>
+    <mergeCell ref="B68:B70"/>
+    <mergeCell ref="C68:C70"/>
+    <mergeCell ref="F68:F70"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="B73:B80"/>
+    <mergeCell ref="C73:C80"/>
+    <mergeCell ref="F73:F80"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="C81:C82"/>
+    <mergeCell ref="B93:B94"/>
+    <mergeCell ref="C93:C94"/>
+    <mergeCell ref="F93:F94"/>
+    <mergeCell ref="A85:A94"/>
+    <mergeCell ref="B85:B89"/>
+    <mergeCell ref="C85:C89"/>
+    <mergeCell ref="F85:F89"/>
+    <mergeCell ref="F90:F92"/>
+    <mergeCell ref="C90:C92"/>
+    <mergeCell ref="B90:B92"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/BACKEND.xlsx
+++ b/BACKEND.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="130">
   <si>
     <t>Pathname</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -231,39 +231,82 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>applicationId: int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>err: bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>msg: string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学生根据比赛获取申请</t>
+  </si>
+  <si>
+    <t>studentGetApplicationByMatch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>matchId: int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>workId: int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>applicationId: int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>submitWork</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>applicationId: int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>studentNumber: string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>documentUrlList: string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pictureUrlList: string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>videoUrlList: string</t>
+    <t>msg: string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>data: object</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>专家注册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据时间获取比赛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期格式："1970-01-01"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学生注册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学生登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学生提交申请</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>expertRegister</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>专家</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -271,98 +314,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>msg: string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>workId: int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>学生根据比赛获取申请</t>
-  </si>
-  <si>
-    <t>studentGetApplicationByMatch</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>matchId: int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>msg: string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>data: object</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>专家注册</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据时间获取比赛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期格式："1970-01-01"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>学生</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>学生注册</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>学生登录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>学生提交申请</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>学生提交作品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>expertRegister</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>专家</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>err: bool</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>专家登录</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>expertLogin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c1~c4为合作者</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -537,6 +493,44 @@
   </si>
   <si>
     <t>innovation: string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>url: string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>err: bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deleteFileByUrl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c1~c4为合作者
+提交完成后，后台会自动选择3个专家发送邀请邮件，并向数据库插入评审</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据URL删除文件(待实现)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务器根目录："var/ftp/pub/"
+url格式："data/work/test.txt"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>matchId: int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fileUrl: string</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -544,7 +538,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -563,6 +557,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.499984740745262"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
@@ -708,7 +709,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -739,32 +740,56 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1079,11 +1104,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F94"/>
+  <dimension ref="A1:F91"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E61" sqref="E61"/>
+      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D95" sqref="D95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.83203125" defaultRowHeight="17.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1099,7 +1124,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="2" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -1108,20 +1133,20 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="4" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="C2" s="10" t="s">
+      <c r="A2" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="15" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
@@ -1130,39 +1155,39 @@
       <c r="E2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="10" t="s">
-        <v>77</v>
+      <c r="F2" s="15" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="17"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
+      <c r="A3" s="19"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
       <c r="D3" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="13"/>
+      <c r="F3" s="17"/>
     </row>
     <row r="4" spans="1:6" s="8" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="17"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
+      <c r="A4" s="19"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="11"/>
+      <c r="F4" s="16"/>
     </row>
     <row r="5" spans="1:6" s="4" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="17"/>
-      <c r="B5" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>117</v>
+      <c r="A5" s="19"/>
+      <c r="B5" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>106</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>11</v>
@@ -1170,34 +1195,34 @@
       <c r="E5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="10"/>
+      <c r="F5" s="15"/>
     </row>
     <row r="6" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="17"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
+      <c r="A6" s="19"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
       <c r="E6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="13"/>
+      <c r="F6" s="17"/>
     </row>
     <row r="7" spans="1:6" s="8" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="17"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
+      <c r="A7" s="19"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="11"/>
+      <c r="F7" s="16"/>
     </row>
     <row r="8" spans="1:6" s="4" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="17"/>
-      <c r="B8" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>118</v>
+      <c r="A8" s="19"/>
+      <c r="B8" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>107</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>11</v>
@@ -1205,35 +1230,35 @@
       <c r="E8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="10"/>
+      <c r="F8" s="15"/>
     </row>
     <row r="9" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="17"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
+      <c r="A9" s="19"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
       <c r="E9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="13"/>
+      <c r="F9" s="17"/>
     </row>
     <row r="10" spans="1:6" s="8" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="18"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
+      <c r="A10" s="20"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="11"/>
+      <c r="F10" s="16"/>
     </row>
     <row r="11" spans="1:6" s="4" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="C11" s="10" t="s">
+      <c r="A11" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" s="15" t="s">
         <v>13</v>
       </c>
       <c r="D11" s="3" t="s">
@@ -1242,108 +1267,108 @@
       <c r="E11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="10"/>
+      <c r="F11" s="15"/>
     </row>
     <row r="12" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="13"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
+      <c r="A12" s="17"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
       <c r="D12" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F12" s="13"/>
+      <c r="F12" s="17"/>
     </row>
     <row r="13" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="13"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
+      <c r="A13" s="17"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
       <c r="D13" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F13" s="13"/>
+      <c r="F13" s="17"/>
     </row>
     <row r="14" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="13"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
+      <c r="A14" s="17"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
       <c r="D14" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F14" s="13"/>
+      <c r="F14" s="17"/>
     </row>
     <row r="15" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="13"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
+      <c r="A15" s="17"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
       <c r="D15" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F15" s="13"/>
+      <c r="F15" s="17"/>
     </row>
     <row r="16" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="13"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
+      <c r="A16" s="17"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
       <c r="D16" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F16" s="13"/>
+      <c r="F16" s="17"/>
     </row>
     <row r="17" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="13"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
+      <c r="A17" s="17"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
       <c r="D17" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F17" s="13"/>
+      <c r="F17" s="17"/>
     </row>
     <row r="18" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="13"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
+      <c r="A18" s="17"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
       <c r="D18" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F18" s="13"/>
+      <c r="F18" s="17"/>
     </row>
     <row r="19" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="13"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
+      <c r="A19" s="17"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
       <c r="D19" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F19" s="13"/>
+      <c r="F19" s="17"/>
     </row>
     <row r="20" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="13"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
+      <c r="A20" s="17"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
       <c r="D20" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F20" s="13"/>
+      <c r="F20" s="17"/>
     </row>
     <row r="21" spans="1:6" s="8" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="13"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
+      <c r="A21" s="17"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
       <c r="D21" s="7" t="s">
         <v>26</v>
       </c>
       <c r="E21" s="7"/>
-      <c r="F21" s="11"/>
+      <c r="F21" s="16"/>
     </row>
     <row r="22" spans="1:6" s="4" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="13"/>
-      <c r="B22" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="C22" s="10" t="s">
+      <c r="A22" s="17"/>
+      <c r="B22" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="C22" s="15" t="s">
         <v>27</v>
       </c>
       <c r="D22" s="3" t="s">
@@ -1352,804 +1377,784 @@
       <c r="E22" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F22" s="10"/>
+      <c r="F22" s="15"/>
     </row>
     <row r="23" spans="1:6" s="8" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="13"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
+      <c r="A23" s="17"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
       <c r="D23" s="7" t="s">
         <v>15</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F23" s="11"/>
+      <c r="F23" s="16"/>
     </row>
     <row r="24" spans="1:6" s="4" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="13"/>
-      <c r="B24" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="C24" s="10" t="s">
+      <c r="A24" s="17"/>
+      <c r="B24" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C24" s="15" t="s">
         <v>28</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F24" s="10" t="s">
-        <v>88</v>
+      <c r="F24" s="21" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="13"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
+      <c r="A25" s="17"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
       <c r="D25" s="5" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F25" s="13"/>
+      <c r="F25" s="17"/>
     </row>
     <row r="26" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="13"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
+      <c r="A26" s="17"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
       <c r="D26" s="5" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="F26" s="13"/>
+        <v>55</v>
+      </c>
+      <c r="F26" s="17"/>
     </row>
     <row r="27" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="13"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
+      <c r="A27" s="17"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
       <c r="D27" s="5" t="s">
         <v>26</v>
       </c>
       <c r="E27" s="6"/>
-      <c r="F27" s="13"/>
+      <c r="F27" s="17"/>
     </row>
     <row r="28" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="13"/>
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
+      <c r="A28" s="17"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
       <c r="D28" s="5" t="s">
         <v>29</v>
       </c>
       <c r="E28" s="6"/>
-      <c r="F28" s="13"/>
+      <c r="F28" s="17"/>
     </row>
     <row r="29" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="13"/>
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
+      <c r="A29" s="17"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="17"/>
       <c r="D29" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="F29" s="13"/>
+        <v>116</v>
+      </c>
+      <c r="F29" s="17"/>
     </row>
     <row r="30" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="13"/>
-      <c r="B30" s="13"/>
-      <c r="C30" s="13"/>
+      <c r="A30" s="17"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="17"/>
       <c r="D30" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F30" s="13"/>
+      <c r="F30" s="17"/>
     </row>
     <row r="31" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="13"/>
-      <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
+      <c r="A31" s="17"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="17"/>
       <c r="D31" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F31" s="13"/>
+      <c r="F31" s="17"/>
     </row>
     <row r="32" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="13"/>
-      <c r="B32" s="13"/>
-      <c r="C32" s="13"/>
+      <c r="A32" s="17"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="17"/>
       <c r="D32" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F32" s="13"/>
+      <c r="F32" s="17"/>
     </row>
     <row r="33" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="13"/>
-      <c r="B33" s="13"/>
-      <c r="C33" s="13"/>
+      <c r="A33" s="17"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="17"/>
       <c r="D33" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F33" s="13"/>
+      <c r="F33" s="17"/>
     </row>
     <row r="34" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="13"/>
-      <c r="B34" s="13"/>
-      <c r="C34" s="13"/>
+      <c r="A34" s="17"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="17"/>
       <c r="D34" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="F34" s="13"/>
+      <c r="F34" s="17"/>
     </row>
     <row r="35" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="13"/>
-      <c r="B35" s="13"/>
-      <c r="C35" s="13"/>
+      <c r="A35" s="17"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="17"/>
       <c r="D35" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="F35" s="13"/>
+      <c r="F35" s="17"/>
     </row>
     <row r="36" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="13"/>
-      <c r="B36" s="13"/>
-      <c r="C36" s="13"/>
+      <c r="A36" s="17"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
       <c r="D36" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F36" s="13"/>
+      <c r="F36" s="17"/>
     </row>
     <row r="37" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="13"/>
-      <c r="B37" s="13"/>
-      <c r="C37" s="13"/>
+      <c r="A37" s="17"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="17"/>
       <c r="D37" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="F37" s="13"/>
+      <c r="F37" s="17"/>
     </row>
     <row r="38" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="13"/>
-      <c r="B38" s="13"/>
-      <c r="C38" s="13"/>
+      <c r="A38" s="17"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="17"/>
       <c r="D38" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="F38" s="13"/>
+        <v>115</v>
+      </c>
+      <c r="F38" s="17"/>
     </row>
     <row r="39" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="13"/>
-      <c r="B39" s="13"/>
-      <c r="C39" s="13"/>
+      <c r="A39" s="17"/>
+      <c r="B39" s="17"/>
+      <c r="C39" s="17"/>
       <c r="D39" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="F39" s="13"/>
+      <c r="F39" s="17"/>
     </row>
     <row r="40" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="13"/>
-      <c r="B40" s="13"/>
-      <c r="C40" s="13"/>
+      <c r="A40" s="17"/>
+      <c r="B40" s="17"/>
+      <c r="C40" s="17"/>
       <c r="D40" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F40" s="13"/>
+      <c r="F40" s="17"/>
     </row>
     <row r="41" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="13"/>
-      <c r="B41" s="13"/>
-      <c r="C41" s="13"/>
+      <c r="A41" s="17"/>
+      <c r="B41" s="17"/>
+      <c r="C41" s="17"/>
       <c r="D41" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="F41" s="13"/>
+      <c r="F41" s="17"/>
     </row>
     <row r="42" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="13"/>
-      <c r="B42" s="13"/>
-      <c r="C42" s="13"/>
+      <c r="A42" s="17"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="17"/>
       <c r="D42" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="F42" s="13"/>
+      <c r="F42" s="17"/>
     </row>
     <row r="43" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="13"/>
-      <c r="B43" s="13"/>
-      <c r="C43" s="13"/>
+      <c r="A43" s="17"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="17"/>
       <c r="D43" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="F43" s="13"/>
+        <v>114</v>
+      </c>
+      <c r="F43" s="17"/>
     </row>
     <row r="44" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="13"/>
-      <c r="B44" s="13"/>
-      <c r="C44" s="13"/>
+      <c r="A44" s="17"/>
+      <c r="B44" s="17"/>
+      <c r="C44" s="17"/>
       <c r="D44" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="F44" s="13"/>
+      <c r="F44" s="17"/>
     </row>
     <row r="45" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="13"/>
-      <c r="B45" s="13"/>
-      <c r="C45" s="13"/>
+      <c r="A45" s="17"/>
+      <c r="B45" s="17"/>
+      <c r="C45" s="17"/>
       <c r="D45" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F45" s="13"/>
+      <c r="F45" s="17"/>
     </row>
     <row r="46" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="13"/>
-      <c r="B46" s="13"/>
-      <c r="C46" s="13"/>
+      <c r="A46" s="17"/>
+      <c r="B46" s="17"/>
+      <c r="C46" s="17"/>
       <c r="D46" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="F46" s="13"/>
+      <c r="F46" s="17"/>
     </row>
     <row r="47" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="13"/>
-      <c r="B47" s="13"/>
-      <c r="C47" s="13"/>
+      <c r="A47" s="17"/>
+      <c r="B47" s="17"/>
+      <c r="C47" s="17"/>
       <c r="D47" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="F47" s="13"/>
+      <c r="F47" s="17"/>
     </row>
     <row r="48" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="13"/>
-      <c r="B48" s="13"/>
-      <c r="C48" s="13"/>
+      <c r="A48" s="17"/>
+      <c r="B48" s="17"/>
+      <c r="C48" s="17"/>
       <c r="D48" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="F48" s="13"/>
+        <v>113</v>
+      </c>
+      <c r="F48" s="17"/>
     </row>
     <row r="49" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="13"/>
-      <c r="B49" s="13"/>
-      <c r="C49" s="13"/>
+      <c r="A49" s="17"/>
+      <c r="B49" s="17"/>
+      <c r="C49" s="17"/>
       <c r="D49" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="F49" s="13"/>
+      <c r="F49" s="17"/>
     </row>
     <row r="50" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="13"/>
-      <c r="B50" s="13"/>
-      <c r="C50" s="13"/>
+      <c r="A50" s="17"/>
+      <c r="B50" s="17"/>
+      <c r="C50" s="17"/>
       <c r="D50" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="F50" s="13"/>
+      <c r="F50" s="17"/>
     </row>
     <row r="51" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="13"/>
-      <c r="B51" s="13"/>
-      <c r="C51" s="13"/>
+      <c r="A51" s="17"/>
+      <c r="B51" s="17"/>
+      <c r="C51" s="17"/>
       <c r="D51" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="F51" s="13"/>
+      <c r="F51" s="17"/>
     </row>
     <row r="52" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="13"/>
-      <c r="B52" s="13"/>
-      <c r="C52" s="13"/>
+      <c r="A52" s="17"/>
+      <c r="B52" s="17"/>
+      <c r="C52" s="17"/>
       <c r="D52" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="F52" s="13"/>
+      <c r="F52" s="17"/>
     </row>
     <row r="53" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="13"/>
-      <c r="B53" s="13"/>
-      <c r="C53" s="13"/>
+      <c r="A53" s="17"/>
+      <c r="B53" s="17"/>
+      <c r="C53" s="17"/>
       <c r="D53" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="F53" s="13"/>
+        <v>112</v>
+      </c>
+      <c r="F53" s="17"/>
     </row>
     <row r="54" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="13"/>
-      <c r="B54" s="13"/>
-      <c r="C54" s="13"/>
+      <c r="A54" s="17"/>
+      <c r="B54" s="17"/>
+      <c r="C54" s="17"/>
       <c r="D54" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="F54" s="13"/>
+      <c r="F54" s="17"/>
     </row>
     <row r="55" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="13"/>
-      <c r="B55" s="13"/>
-      <c r="C55" s="13"/>
+      <c r="A55" s="17"/>
+      <c r="B55" s="17"/>
+      <c r="C55" s="17"/>
       <c r="D55" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="F55" s="13"/>
+      <c r="F55" s="17"/>
     </row>
     <row r="56" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="13"/>
-      <c r="B56" s="13"/>
-      <c r="C56" s="13"/>
+      <c r="A56" s="17"/>
+      <c r="B56" s="17"/>
+      <c r="C56" s="17"/>
       <c r="D56" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="F56" s="13"/>
+      <c r="F56" s="17"/>
     </row>
     <row r="57" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="13"/>
-      <c r="B57" s="13"/>
-      <c r="C57" s="13"/>
+      <c r="A57" s="17"/>
+      <c r="B57" s="17"/>
+      <c r="C57" s="17"/>
       <c r="D57" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="F57" s="13"/>
+      <c r="F57" s="17"/>
     </row>
     <row r="58" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="13"/>
-      <c r="B58" s="13"/>
-      <c r="C58" s="13"/>
+      <c r="A58" s="17"/>
+      <c r="B58" s="17"/>
+      <c r="C58" s="17"/>
       <c r="D58" s="9" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="E58" s="9"/>
-      <c r="F58" s="13"/>
+      <c r="F58" s="17"/>
     </row>
     <row r="59" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="13"/>
-      <c r="B59" s="13"/>
-      <c r="C59" s="13"/>
+      <c r="A59" s="17"/>
+      <c r="B59" s="17"/>
+      <c r="C59" s="17"/>
       <c r="D59" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="F59" s="13"/>
+      <c r="F59" s="17"/>
     </row>
     <row r="60" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="13"/>
-      <c r="B60" s="13"/>
-      <c r="C60" s="13"/>
+      <c r="A60" s="17"/>
+      <c r="B60" s="17"/>
+      <c r="C60" s="17"/>
       <c r="D60" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="F60" s="13"/>
+      <c r="F60" s="17"/>
     </row>
     <row r="61" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="13"/>
-      <c r="B61" s="13"/>
-      <c r="C61" s="13"/>
-      <c r="D61" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="F61" s="13"/>
-    </row>
-    <row r="62" spans="1:6" s="8" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="13"/>
-      <c r="B62" s="11"/>
-      <c r="C62" s="11"/>
-      <c r="D62" s="7" t="s">
+      <c r="A61" s="17"/>
+      <c r="B61" s="17"/>
+      <c r="C61" s="17"/>
+      <c r="D61" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="E61" s="10"/>
+      <c r="F61" s="17"/>
+    </row>
+    <row r="62" spans="1:6" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="17"/>
+      <c r="B62" s="17"/>
+      <c r="C62" s="17"/>
+      <c r="D62" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F62" s="17"/>
+    </row>
+    <row r="63" spans="1:6" s="4" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="17"/>
+      <c r="B63" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C63" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E63" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E62" s="7"/>
-      <c r="F62" s="11"/>
-    </row>
-    <row r="63" spans="1:6" s="4" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="13"/>
-      <c r="B63" s="10" t="s">
+      <c r="F63" s="15"/>
+    </row>
+    <row r="64" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="17"/>
+      <c r="B64" s="17"/>
+      <c r="C64" s="17"/>
+      <c r="D64" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F64" s="17"/>
+    </row>
+    <row r="65" spans="1:6" s="8" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="17"/>
+      <c r="B65" s="16"/>
+      <c r="C65" s="16"/>
+      <c r="D65" s="7"/>
+      <c r="E65" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F65" s="16"/>
+    </row>
+    <row r="66" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="17"/>
+      <c r="B66" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="C66" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="F66" s="15"/>
+    </row>
+    <row r="67" spans="1:6" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="16"/>
+      <c r="B67" s="16"/>
+      <c r="C67" s="16"/>
+      <c r="D67" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F67" s="16"/>
+    </row>
+    <row r="68" spans="1:6" s="4" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="B68" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="C68" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F68" s="15"/>
+    </row>
+    <row r="69" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="17"/>
+      <c r="B69" s="17"/>
+      <c r="C69" s="17"/>
+      <c r="D69" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F69" s="17"/>
+    </row>
+    <row r="70" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="17"/>
+      <c r="B70" s="17"/>
+      <c r="C70" s="17"/>
+      <c r="D70" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F70" s="17"/>
+    </row>
+    <row r="71" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="17"/>
+      <c r="B71" s="17"/>
+      <c r="C71" s="17"/>
+      <c r="D71" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F71" s="17"/>
+    </row>
+    <row r="72" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="17"/>
+      <c r="B72" s="17"/>
+      <c r="C72" s="17"/>
+      <c r="D72" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F72" s="17"/>
+    </row>
+    <row r="73" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="17"/>
+      <c r="B73" s="17"/>
+      <c r="C73" s="17"/>
+      <c r="D73" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F73" s="17"/>
+    </row>
+    <row r="74" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="17"/>
+      <c r="B74" s="17"/>
+      <c r="C74" s="17"/>
+      <c r="D74" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="F74" s="17"/>
+    </row>
+    <row r="75" spans="1:6" s="8" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="17"/>
+      <c r="B75" s="16"/>
+      <c r="C75" s="16"/>
+      <c r="D75" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="E75" s="7"/>
+      <c r="F75" s="16"/>
+    </row>
+    <row r="76" spans="1:6" s="4" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="17"/>
+      <c r="B76" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C76" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F76" s="15"/>
+    </row>
+    <row r="77" spans="1:6" s="8" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="17"/>
+      <c r="B77" s="16"/>
+      <c r="C77" s="16"/>
+      <c r="D77" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E77" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F77" s="16"/>
+    </row>
+    <row r="78" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="17"/>
+      <c r="B78" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="C78" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E78" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="F78" s="15"/>
+    </row>
+    <row r="79" spans="1:6" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="16"/>
+      <c r="B79" s="16"/>
+      <c r="C79" s="16"/>
+      <c r="D79" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E79" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F79" s="16"/>
+    </row>
+    <row r="80" spans="1:6" s="4" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="B80" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="C80" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F80" s="15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="17"/>
+      <c r="B81" s="17"/>
+      <c r="C81" s="17"/>
+      <c r="D81" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C63" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E63" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F63" s="10"/>
-    </row>
-    <row r="64" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="13"/>
-      <c r="B64" s="13"/>
-      <c r="C64" s="13"/>
-      <c r="D64" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="E64" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="F64" s="13"/>
-    </row>
-    <row r="65" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="13"/>
-      <c r="B65" s="13"/>
-      <c r="C65" s="13"/>
-      <c r="D65" s="5" t="s">
+      <c r="E81" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="F81" s="17"/>
+    </row>
+    <row r="82" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="17"/>
+      <c r="B82" s="17"/>
+      <c r="C82" s="17"/>
+      <c r="D82" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E82" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F82" s="17"/>
+    </row>
+    <row r="83" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="17"/>
+      <c r="B83" s="17"/>
+      <c r="C83" s="17"/>
+      <c r="D83" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="F83" s="17"/>
+    </row>
+    <row r="84" spans="1:6" s="8" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A84" s="17"/>
+      <c r="B84" s="16"/>
+      <c r="C84" s="16"/>
+      <c r="D84" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="E84" s="7"/>
+      <c r="F84" s="16"/>
+    </row>
+    <row r="85" spans="1:6" s="4" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="17"/>
+      <c r="B85" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="C85" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F85" s="21" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="17"/>
+      <c r="B86" s="17"/>
+      <c r="C86" s="17"/>
+      <c r="E86" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="E65" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="F65" s="13"/>
-    </row>
-    <row r="66" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="13"/>
-      <c r="B66" s="13"/>
-      <c r="C66" s="13"/>
-      <c r="D66" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="F66" s="13"/>
-    </row>
-    <row r="67" spans="1:6" s="8" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="13"/>
-      <c r="B67" s="11"/>
-      <c r="C67" s="11"/>
-      <c r="D67" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E67" s="7"/>
-      <c r="F67" s="11"/>
-    </row>
-    <row r="68" spans="1:6" s="4" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="13"/>
-      <c r="B68" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="C68" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="D68" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E68" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F68" s="10"/>
-    </row>
-    <row r="69" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="13"/>
-      <c r="B69" s="13"/>
-      <c r="C69" s="13"/>
-      <c r="D69" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="E69" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="F69" s="13"/>
-    </row>
-    <row r="70" spans="1:6" s="8" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="13"/>
-      <c r="B70" s="11"/>
-      <c r="C70" s="11"/>
-      <c r="D70" s="7"/>
-      <c r="E70" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="F70" s="11"/>
-    </row>
-    <row r="71" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="13"/>
-      <c r="B71" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="C71" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="D71" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="E71" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="F71" s="10"/>
-    </row>
-    <row r="72" spans="1:6" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="11"/>
-      <c r="B72" s="11"/>
-      <c r="C72" s="11"/>
-      <c r="D72" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="E72" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="F72" s="11"/>
-    </row>
-    <row r="73" spans="1:6" s="4" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="B73" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="C73" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="D73" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E73" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="F73" s="10"/>
-    </row>
-    <row r="74" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="13"/>
-      <c r="B74" s="13"/>
-      <c r="C74" s="13"/>
-      <c r="D74" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E74" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F74" s="13"/>
-    </row>
-    <row r="75" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="13"/>
-      <c r="B75" s="13"/>
-      <c r="C75" s="13"/>
-      <c r="D75" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F75" s="13"/>
-    </row>
-    <row r="76" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="13"/>
-      <c r="B76" s="13"/>
-      <c r="C76" s="13"/>
-      <c r="D76" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F76" s="13"/>
-    </row>
-    <row r="77" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="13"/>
-      <c r="B77" s="13"/>
-      <c r="C77" s="13"/>
-      <c r="D77" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F77" s="13"/>
-    </row>
-    <row r="78" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="13"/>
-      <c r="B78" s="13"/>
-      <c r="C78" s="13"/>
-      <c r="D78" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F78" s="13"/>
-    </row>
-    <row r="79" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="13"/>
-      <c r="B79" s="13"/>
-      <c r="C79" s="13"/>
-      <c r="D79" s="5" t="s">
+      <c r="F86" s="25"/>
+    </row>
+    <row r="87" spans="1:6" s="8" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A87" s="17"/>
+      <c r="B87" s="16"/>
+      <c r="C87" s="16"/>
+      <c r="D87" s="7"/>
+      <c r="E87" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F87" s="26"/>
+    </row>
+    <row r="88" spans="1:6" s="4" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="17"/>
+      <c r="B88" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="C88" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F88" s="21" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" s="8" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A89" s="16"/>
+      <c r="B89" s="16"/>
+      <c r="C89" s="16"/>
+      <c r="D89" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E89" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F89" s="16"/>
+    </row>
+    <row r="90" spans="1:6" s="12" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="F79" s="13"/>
-    </row>
-    <row r="80" spans="1:6" s="8" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="13"/>
-      <c r="B80" s="11"/>
-      <c r="C80" s="11"/>
-      <c r="D80" s="7" t="s">
+      <c r="B90" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="C90" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="D90" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="E80" s="7"/>
-      <c r="F80" s="11"/>
-    </row>
-    <row r="81" spans="1:6" s="4" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="13"/>
-      <c r="B81" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="C81" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="D81" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E81" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F81" s="10"/>
-    </row>
-    <row r="82" spans="1:6" s="8" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="13"/>
-      <c r="B82" s="11"/>
-      <c r="C82" s="11"/>
-      <c r="D82" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E82" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="F82" s="11"/>
-    </row>
-    <row r="83" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="13"/>
-      <c r="B83" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="C83" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="D83" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="E83" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="F83" s="10"/>
-    </row>
-    <row r="84" spans="1:6" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="11"/>
-      <c r="B84" s="11"/>
-      <c r="C84" s="11"/>
-      <c r="D84" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="E84" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="F84" s="11"/>
-    </row>
-    <row r="85" spans="1:6" s="4" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="B85" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="C85" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="D85" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="E85" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F85" s="10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="13"/>
-      <c r="B86" s="13"/>
-      <c r="C86" s="13"/>
-      <c r="D86" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="E86" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="F86" s="13"/>
-    </row>
-    <row r="87" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="13"/>
-      <c r="B87" s="13"/>
-      <c r="C87" s="13"/>
-      <c r="D87" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="E87" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="F87" s="13"/>
-    </row>
-    <row r="88" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="13"/>
-      <c r="B88" s="13"/>
-      <c r="C88" s="13"/>
-      <c r="D88" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="F88" s="13"/>
-    </row>
-    <row r="89" spans="1:6" s="8" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A89" s="13"/>
-      <c r="B89" s="11"/>
-      <c r="C89" s="11"/>
-      <c r="D89" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="E89" s="7"/>
-      <c r="F89" s="11"/>
-    </row>
-    <row r="90" spans="1:6" s="4" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="13"/>
-      <c r="B90" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="C90" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="D90" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="E90" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="F90" s="12" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="13"/>
-      <c r="B91" s="13"/>
-      <c r="C91" s="13"/>
-      <c r="E91" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="F91" s="14"/>
-    </row>
-    <row r="92" spans="1:6" s="8" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A92" s="13"/>
-      <c r="B92" s="11"/>
-      <c r="C92" s="11"/>
-      <c r="D92" s="7"/>
-      <c r="E92" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="F92" s="15"/>
-    </row>
-    <row r="93" spans="1:6" s="4" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="13"/>
-      <c r="B93" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="C93" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="D93" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="E93" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F93" s="12" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" s="8" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A94" s="11"/>
-      <c r="B94" s="11"/>
-      <c r="C94" s="11"/>
-      <c r="D94" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E94" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="F94" s="11"/>
+      <c r="E90" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="F90" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" s="14" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A91" s="23"/>
+      <c r="B91" s="23"/>
+      <c r="C91" s="23"/>
+      <c r="D91" s="13"/>
+      <c r="E91" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="F91" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="49">
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="C83:C84"/>
-    <mergeCell ref="F83:F84"/>
-    <mergeCell ref="A73:A84"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="A11:A72"/>
-    <mergeCell ref="F71:F72"/>
-    <mergeCell ref="A2:A10"/>
-    <mergeCell ref="B11:B21"/>
-    <mergeCell ref="C11:C21"/>
+  <mergeCells count="50">
+    <mergeCell ref="A90:A91"/>
+    <mergeCell ref="B90:B91"/>
+    <mergeCell ref="C90:C91"/>
+    <mergeCell ref="F90:F91"/>
+    <mergeCell ref="B88:B89"/>
+    <mergeCell ref="C88:C89"/>
+    <mergeCell ref="F88:F89"/>
+    <mergeCell ref="A80:A89"/>
+    <mergeCell ref="B80:B84"/>
+    <mergeCell ref="C80:C84"/>
+    <mergeCell ref="F80:F84"/>
+    <mergeCell ref="F85:F87"/>
+    <mergeCell ref="C85:C87"/>
+    <mergeCell ref="B85:B87"/>
+    <mergeCell ref="F76:F77"/>
+    <mergeCell ref="B63:B65"/>
+    <mergeCell ref="C63:C65"/>
+    <mergeCell ref="F63:F65"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="B68:B75"/>
+    <mergeCell ref="C68:C75"/>
+    <mergeCell ref="F68:F75"/>
+    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="C76:C77"/>
     <mergeCell ref="B22:B23"/>
     <mergeCell ref="C22:C23"/>
     <mergeCell ref="C24:C62"/>
@@ -2159,30 +2164,22 @@
     <mergeCell ref="F11:F21"/>
     <mergeCell ref="F22:F23"/>
     <mergeCell ref="F24:F62"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="B63:B67"/>
-    <mergeCell ref="C63:C67"/>
-    <mergeCell ref="F63:F67"/>
-    <mergeCell ref="B68:B70"/>
-    <mergeCell ref="C68:C70"/>
-    <mergeCell ref="F68:F70"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="B73:B80"/>
-    <mergeCell ref="C73:C80"/>
-    <mergeCell ref="F73:F80"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="C81:C82"/>
-    <mergeCell ref="B93:B94"/>
-    <mergeCell ref="C93:C94"/>
-    <mergeCell ref="F93:F94"/>
-    <mergeCell ref="A85:A94"/>
-    <mergeCell ref="B85:B89"/>
-    <mergeCell ref="C85:C89"/>
-    <mergeCell ref="F85:F89"/>
-    <mergeCell ref="F90:F92"/>
-    <mergeCell ref="C90:C92"/>
-    <mergeCell ref="B90:B92"/>
+    <mergeCell ref="B78:B79"/>
+    <mergeCell ref="C78:C79"/>
+    <mergeCell ref="F78:F79"/>
+    <mergeCell ref="A68:A79"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="A11:A67"/>
+    <mergeCell ref="F66:F67"/>
+    <mergeCell ref="A2:A10"/>
+    <mergeCell ref="B11:B21"/>
+    <mergeCell ref="C11:C21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/BACKEND.xlsx
+++ b/BACKEND.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="131">
   <si>
     <t>Pathname</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -236,10 +236,6 @@
   </si>
   <si>
     <t>err: bool</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>msg: string</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -508,29 +504,36 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>deleteFileByUrl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>c1~c4为合作者
 提交完成后，后台会自动选择3个专家发送邀请邮件，并向数据库插入评审</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>根据URL删除文件(待实现)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>服务器根目录："var/ftp/pub/"
-url格式："data/work/test.txt"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>matchId: int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>fileUrl: string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上传文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>upload</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>msg: string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据URL删除文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deleteByUrl</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -538,7 +541,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -564,6 +567,12 @@
     <font>
       <sz val="11"/>
       <color theme="0" tint="-0.499984740745262"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
@@ -709,7 +718,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -743,53 +752,74 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1104,11 +1134,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F91"/>
+  <dimension ref="A1:F97"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D95" sqref="D95"/>
+      <selection pane="bottomLeft" activeCell="C96" sqref="C96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.83203125" defaultRowHeight="17.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1124,7 +1154,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -1133,20 +1163,20 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="4" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="14" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
@@ -1155,12 +1185,12 @@
       <c r="E2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="15" t="s">
-        <v>68</v>
+      <c r="F2" s="14" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="19"/>
+      <c r="A3" s="21"/>
       <c r="B3" s="17"/>
       <c r="C3" s="17"/>
       <c r="D3" s="5" t="s">
@@ -1172,22 +1202,22 @@
       <c r="F3" s="17"/>
     </row>
     <row r="4" spans="1:6" s="8" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="19"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
+      <c r="A4" s="21"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="16"/>
+      <c r="F4" s="15"/>
     </row>
     <row r="5" spans="1:6" s="4" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="19"/>
-      <c r="B5" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>106</v>
+      <c r="A5" s="21"/>
+      <c r="B5" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>105</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>11</v>
@@ -1195,10 +1225,10 @@
       <c r="E5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="15"/>
+      <c r="F5" s="14"/>
     </row>
     <row r="6" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="19"/>
+      <c r="A6" s="21"/>
       <c r="B6" s="17"/>
       <c r="C6" s="17"/>
       <c r="E6" s="5" t="s">
@@ -1207,22 +1237,22 @@
       <c r="F6" s="17"/>
     </row>
     <row r="7" spans="1:6" s="8" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="19"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
+      <c r="A7" s="21"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="16"/>
+      <c r="F7" s="15"/>
     </row>
     <row r="8" spans="1:6" s="4" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="19"/>
-      <c r="B8" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>107</v>
+      <c r="A8" s="21"/>
+      <c r="B8" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>106</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>11</v>
@@ -1230,10 +1260,10 @@
       <c r="E8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="15"/>
+      <c r="F8" s="14"/>
     </row>
     <row r="9" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="19"/>
+      <c r="A9" s="21"/>
       <c r="B9" s="17"/>
       <c r="C9" s="17"/>
       <c r="E9" s="5" t="s">
@@ -1242,23 +1272,23 @@
       <c r="F9" s="17"/>
     </row>
     <row r="10" spans="1:6" s="8" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="20"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
+      <c r="A10" s="22"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="16"/>
+      <c r="F10" s="15"/>
     </row>
     <row r="11" spans="1:6" s="4" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="B11" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="14" t="s">
         <v>13</v>
       </c>
       <c r="D11" s="3" t="s">
@@ -1267,7 +1297,7 @@
       <c r="E11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="15"/>
+      <c r="F11" s="14"/>
     </row>
     <row r="12" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="17"/>
@@ -1355,20 +1385,20 @@
     </row>
     <row r="21" spans="1:6" s="8" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="17"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
       <c r="D21" s="7" t="s">
         <v>26</v>
       </c>
       <c r="E21" s="7"/>
-      <c r="F21" s="16"/>
+      <c r="F21" s="15"/>
     </row>
     <row r="22" spans="1:6" s="4" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="17"/>
-      <c r="B22" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="C22" s="15" t="s">
+      <c r="B22" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22" s="14" t="s">
         <v>27</v>
       </c>
       <c r="D22" s="3" t="s">
@@ -1377,36 +1407,36 @@
       <c r="E22" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F22" s="15"/>
+      <c r="F22" s="14"/>
     </row>
     <row r="23" spans="1:6" s="8" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="17"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
       <c r="D23" s="7" t="s">
         <v>15</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F23" s="16"/>
+      <c r="F23" s="15"/>
     </row>
     <row r="24" spans="1:6" s="4" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="17"/>
-      <c r="B24" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="C24" s="15" t="s">
+      <c r="B24" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="C24" s="14" t="s">
         <v>28</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F24" s="21" t="s">
-        <v>125</v>
+      <c r="F24" s="16" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1414,7 +1444,7 @@
       <c r="B25" s="17"/>
       <c r="C25" s="17"/>
       <c r="D25" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>7</v>
@@ -1426,7 +1456,7 @@
       <c r="B26" s="17"/>
       <c r="C26" s="17"/>
       <c r="D26" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>55</v>
@@ -1458,7 +1488,7 @@
       <c r="B29" s="17"/>
       <c r="C29" s="17"/>
       <c r="D29" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F29" s="17"/>
     </row>
@@ -1539,7 +1569,7 @@
       <c r="B38" s="17"/>
       <c r="C38" s="17"/>
       <c r="D38" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F38" s="17"/>
     </row>
@@ -1584,7 +1614,7 @@
       <c r="B43" s="17"/>
       <c r="C43" s="17"/>
       <c r="D43" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F43" s="17"/>
     </row>
@@ -1629,7 +1659,7 @@
       <c r="B48" s="17"/>
       <c r="C48" s="17"/>
       <c r="D48" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F48" s="17"/>
     </row>
@@ -1674,7 +1704,7 @@
       <c r="B53" s="17"/>
       <c r="C53" s="17"/>
       <c r="D53" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F53" s="17"/>
     </row>
@@ -1719,7 +1749,7 @@
       <c r="B58" s="17"/>
       <c r="C58" s="17"/>
       <c r="D58" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E58" s="9"/>
       <c r="F58" s="17"/>
@@ -1747,7 +1777,7 @@
       <c r="B61" s="17"/>
       <c r="C61" s="17"/>
       <c r="D61" s="10" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E61" s="10"/>
       <c r="F61" s="17"/>
@@ -1757,17 +1787,17 @@
       <c r="B62" s="17"/>
       <c r="C62" s="17"/>
       <c r="D62" s="5" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="F62" s="17"/>
     </row>
     <row r="63" spans="1:6" s="4" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="17"/>
-      <c r="B63" s="15" t="s">
+      <c r="B63" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C63" s="14" t="s">
         <v>58</v>
-      </c>
-      <c r="C63" s="15" t="s">
-        <v>59</v>
       </c>
       <c r="D63" s="3" t="s">
         <v>26</v>
@@ -1775,75 +1805,75 @@
       <c r="E63" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="F63" s="15"/>
+      <c r="F63" s="14"/>
     </row>
     <row r="64" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="17"/>
       <c r="B64" s="17"/>
       <c r="C64" s="17"/>
       <c r="D64" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E64" s="5" t="s">
         <v>60</v>
-      </c>
-      <c r="E64" s="5" t="s">
-        <v>61</v>
       </c>
       <c r="F64" s="17"/>
     </row>
     <row r="65" spans="1:6" s="8" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="17"/>
-      <c r="B65" s="16"/>
-      <c r="C65" s="16"/>
+      <c r="B65" s="15"/>
+      <c r="C65" s="15"/>
       <c r="D65" s="7"/>
       <c r="E65" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="F65" s="16"/>
+        <v>61</v>
+      </c>
+      <c r="F65" s="15"/>
     </row>
     <row r="66" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="17"/>
-      <c r="B66" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="C66" s="15" t="s">
+      <c r="B66" s="14" t="s">
         <v>102</v>
       </c>
+      <c r="C66" s="14" t="s">
+        <v>101</v>
+      </c>
       <c r="D66" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F66" s="14"/>
+    </row>
+    <row r="67" spans="1:6" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="15"/>
+      <c r="B67" s="15"/>
+      <c r="C67" s="15"/>
+      <c r="D67" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="E66" s="5" t="s">
+      <c r="E67" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="F66" s="15"/>
-    </row>
-    <row r="67" spans="1:6" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="16"/>
-      <c r="B67" s="16"/>
-      <c r="C67" s="16"/>
-      <c r="D67" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="E67" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="F67" s="16"/>
+      <c r="F67" s="15"/>
     </row>
     <row r="68" spans="1:6" s="4" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="B68" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="C68" s="15" t="s">
+      <c r="A68" s="14" t="s">
         <v>73</v>
+      </c>
+      <c r="B68" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C68" s="14" t="s">
+        <v>72</v>
       </c>
       <c r="D68" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="F68" s="15"/>
+        <v>74</v>
+      </c>
+      <c r="F68" s="14"/>
     </row>
     <row r="69" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="17"/>
@@ -1898,27 +1928,27 @@
       <c r="B74" s="17"/>
       <c r="C74" s="17"/>
       <c r="D74" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F74" s="17"/>
     </row>
     <row r="75" spans="1:6" s="8" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="17"/>
-      <c r="B75" s="16"/>
-      <c r="C75" s="16"/>
+      <c r="B75" s="15"/>
+      <c r="C75" s="15"/>
       <c r="D75" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E75" s="7"/>
-      <c r="F75" s="16"/>
+      <c r="F75" s="15"/>
     </row>
     <row r="76" spans="1:6" s="4" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="17"/>
-      <c r="B76" s="15" t="s">
+      <c r="B76" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C76" s="14" t="s">
         <v>76</v>
-      </c>
-      <c r="C76" s="15" t="s">
-        <v>77</v>
       </c>
       <c r="D76" s="3" t="s">
         <v>34</v>
@@ -1926,65 +1956,65 @@
       <c r="E76" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="F76" s="15"/>
+      <c r="F76" s="14"/>
     </row>
     <row r="77" spans="1:6" s="8" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="17"/>
-      <c r="B77" s="16"/>
-      <c r="C77" s="16"/>
+      <c r="B77" s="15"/>
+      <c r="C77" s="15"/>
       <c r="D77" s="7" t="s">
         <v>16</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F77" s="16"/>
+        <v>60</v>
+      </c>
+      <c r="F77" s="15"/>
     </row>
     <row r="78" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="17"/>
-      <c r="B78" s="15" t="s">
+      <c r="B78" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="C78" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="C78" s="15" t="s">
-        <v>105</v>
-      </c>
       <c r="D78" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E78" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F78" s="14"/>
+    </row>
+    <row r="79" spans="1:6" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="15"/>
+      <c r="B79" s="15"/>
+      <c r="C79" s="15"/>
+      <c r="D79" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="E78" s="5" t="s">
+      <c r="E79" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="F78" s="15"/>
-    </row>
-    <row r="79" spans="1:6" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="16"/>
-      <c r="B79" s="16"/>
-      <c r="C79" s="16"/>
-      <c r="D79" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="E79" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="F79" s="16"/>
+      <c r="F79" s="15"/>
     </row>
     <row r="80" spans="1:6" s="4" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="15" t="s">
+      <c r="A80" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B80" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="B80" s="15" t="s">
+      <c r="C80" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="C80" s="15" t="s">
+      <c r="D80" s="3" t="s">
         <v>80</v>
-      </c>
-      <c r="D80" s="3" t="s">
-        <v>81</v>
       </c>
       <c r="E80" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F80" s="15" t="s">
+      <c r="F80" s="14" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1993,10 +2023,10 @@
       <c r="B81" s="17"/>
       <c r="C81" s="17"/>
       <c r="D81" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F81" s="17"/>
     </row>
@@ -2005,10 +2035,10 @@
       <c r="B82" s="17"/>
       <c r="C82" s="17"/>
       <c r="D82" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F82" s="17"/>
     </row>
@@ -2017,36 +2047,36 @@
       <c r="B83" s="17"/>
       <c r="C83" s="17"/>
       <c r="D83" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F83" s="17"/>
     </row>
     <row r="84" spans="1:6" s="8" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="17"/>
-      <c r="B84" s="16"/>
-      <c r="C84" s="16"/>
+      <c r="B84" s="15"/>
+      <c r="C84" s="15"/>
       <c r="D84" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E84" s="7"/>
-      <c r="F84" s="16"/>
+      <c r="F84" s="15"/>
     </row>
     <row r="85" spans="1:6" s="4" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="17"/>
-      <c r="B85" s="15" t="s">
+      <c r="B85" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="C85" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="C85" s="15" t="s">
-        <v>89</v>
-      </c>
       <c r="D85" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="F85" s="21" t="s">
-        <v>96</v>
+        <v>74</v>
+      </c>
+      <c r="F85" s="16" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2054,116 +2084,124 @@
       <c r="B86" s="17"/>
       <c r="C86" s="17"/>
       <c r="E86" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="F86" s="25"/>
+        <v>60</v>
+      </c>
+      <c r="F86" s="18"/>
     </row>
     <row r="87" spans="1:6" s="8" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="17"/>
-      <c r="B87" s="16"/>
-      <c r="C87" s="16"/>
+      <c r="B87" s="15"/>
+      <c r="C87" s="15"/>
       <c r="D87" s="7"/>
       <c r="E87" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="F87" s="26"/>
+        <v>89</v>
+      </c>
+      <c r="F87" s="19"/>
     </row>
     <row r="88" spans="1:6" s="4" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="17"/>
-      <c r="B88" s="15" t="s">
+      <c r="B88" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="C88" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="C88" s="15" t="s">
+      <c r="D88" s="3" t="s">
         <v>93</v>
-      </c>
-      <c r="D88" s="3" t="s">
-        <v>94</v>
       </c>
       <c r="E88" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="F88" s="21" t="s">
-        <v>97</v>
+      <c r="F88" s="16" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="89" spans="1:6" s="8" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A89" s="16"/>
-      <c r="B89" s="16"/>
-      <c r="C89" s="16"/>
+      <c r="A89" s="15"/>
+      <c r="B89" s="15"/>
+      <c r="C89" s="15"/>
       <c r="D89" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E89" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="F89" s="16"/>
-    </row>
-    <row r="90" spans="1:6" s="12" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="F89" s="15"/>
+    </row>
+    <row r="90" spans="1:6" s="28" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="B90" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="C90" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="D90" s="26"/>
+      <c r="E90" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="F90" s="27"/>
+    </row>
+    <row r="91" spans="1:6" s="33" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="24"/>
+      <c r="B91" s="24"/>
+      <c r="C91" s="24"/>
+      <c r="D91" s="31"/>
+      <c r="E91" s="31" t="s">
+        <v>128</v>
+      </c>
+      <c r="F91" s="32"/>
+    </row>
+    <row r="92" spans="1:6" s="30" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A92" s="24"/>
+      <c r="B92" s="25"/>
+      <c r="C92" s="25"/>
+      <c r="D92" s="29"/>
+      <c r="E92" s="29" t="s">
         <v>121</v>
       </c>
-      <c r="B90" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="C90" s="22" t="s">
-        <v>124</v>
-      </c>
-      <c r="D90" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="E90" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="F90" s="24" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" s="14" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A91" s="23"/>
-      <c r="B91" s="23"/>
-      <c r="C91" s="23"/>
-      <c r="D91" s="13"/>
-      <c r="E91" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="F91" s="23"/>
+      <c r="F92" s="25"/>
+    </row>
+    <row r="93" spans="1:6" s="11" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="24"/>
+      <c r="B93" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="C93" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="D93" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="E93" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="F93" s="27"/>
+    </row>
+    <row r="94" spans="1:6" s="12" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A94" s="25"/>
+      <c r="B94" s="25"/>
+      <c r="C94" s="25"/>
+      <c r="D94" s="29"/>
+      <c r="E94" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="F94" s="25"/>
+    </row>
+    <row r="96" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F96" s="13"/>
+    </row>
+    <row r="97" spans="2:2" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B97" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="50">
-    <mergeCell ref="A90:A91"/>
-    <mergeCell ref="B90:B91"/>
-    <mergeCell ref="C90:C91"/>
-    <mergeCell ref="F90:F91"/>
-    <mergeCell ref="B88:B89"/>
-    <mergeCell ref="C88:C89"/>
-    <mergeCell ref="F88:F89"/>
-    <mergeCell ref="A80:A89"/>
-    <mergeCell ref="B80:B84"/>
-    <mergeCell ref="C80:C84"/>
-    <mergeCell ref="F80:F84"/>
-    <mergeCell ref="F85:F87"/>
-    <mergeCell ref="C85:C87"/>
-    <mergeCell ref="B85:B87"/>
-    <mergeCell ref="F76:F77"/>
-    <mergeCell ref="B63:B65"/>
-    <mergeCell ref="C63:C65"/>
-    <mergeCell ref="F63:F65"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="B68:B75"/>
-    <mergeCell ref="C68:C75"/>
-    <mergeCell ref="F68:F75"/>
-    <mergeCell ref="B76:B77"/>
-    <mergeCell ref="C76:C77"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="C24:C62"/>
-    <mergeCell ref="B24:B62"/>
-    <mergeCell ref="F5:F7"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="F11:F21"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="F24:F62"/>
+  <mergeCells count="53">
+    <mergeCell ref="B93:B94"/>
+    <mergeCell ref="C93:C94"/>
+    <mergeCell ref="F93:F94"/>
+    <mergeCell ref="A90:A94"/>
     <mergeCell ref="B78:B79"/>
     <mergeCell ref="C78:C79"/>
     <mergeCell ref="F78:F79"/>
@@ -2180,6 +2218,39 @@
     <mergeCell ref="A2:A10"/>
     <mergeCell ref="B11:B21"/>
     <mergeCell ref="C11:C21"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="C24:C62"/>
+    <mergeCell ref="B24:B62"/>
+    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="F11:F21"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="F24:F62"/>
+    <mergeCell ref="F76:F77"/>
+    <mergeCell ref="B63:B65"/>
+    <mergeCell ref="C63:C65"/>
+    <mergeCell ref="F63:F65"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="B68:B75"/>
+    <mergeCell ref="C68:C75"/>
+    <mergeCell ref="F68:F75"/>
+    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="C76:C77"/>
+    <mergeCell ref="B90:B92"/>
+    <mergeCell ref="C90:C92"/>
+    <mergeCell ref="F90:F92"/>
+    <mergeCell ref="B88:B89"/>
+    <mergeCell ref="C88:C89"/>
+    <mergeCell ref="F88:F89"/>
+    <mergeCell ref="A80:A89"/>
+    <mergeCell ref="B80:B84"/>
+    <mergeCell ref="C80:C84"/>
+    <mergeCell ref="F80:F84"/>
+    <mergeCell ref="F85:F87"/>
+    <mergeCell ref="C85:C87"/>
+    <mergeCell ref="B85:B87"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/BACKEND.xlsx
+++ b/BACKEND.xlsx
@@ -2,19 +2,19 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\white-give\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Mac\Home\workspace\white-give\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7005"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="135">
   <si>
     <t>Pathname</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -531,13 +531,33 @@
   </si>
   <si>
     <t>fileUrl: string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pdf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据appId生成pdf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getPdfApplication</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>appId:int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>msg: string</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -583,7 +603,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -703,13 +723,58 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -749,9 +814,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -761,35 +823,56 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1104,25 +1187,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F91"/>
+  <dimension ref="A1:AM93"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D95" sqref="D95"/>
+      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D86" sqref="D86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.83203125" defaultRowHeight="17.5" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="20.875" defaultRowHeight="17.45" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="16.625" style="6" customWidth="1"/>
     <col min="2" max="2" width="25" style="5" customWidth="1"/>
-    <col min="3" max="3" width="29.1640625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="29.125" style="5" customWidth="1"/>
     <col min="4" max="4" width="31.25" style="5" customWidth="1"/>
-    <col min="5" max="5" width="20.83203125" style="5"/>
-    <col min="6" max="6" width="29.1640625" style="5" customWidth="1"/>
-    <col min="7" max="16384" width="20.83203125" style="6"/>
+    <col min="5" max="5" width="20.875" style="5"/>
+    <col min="6" max="6" width="29.125" style="5" customWidth="1"/>
+    <col min="7" max="16384" width="20.875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="17.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>64</v>
       </c>
@@ -1139,14 +1222,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="4" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="18" t="s">
+    <row r="2" spans="1:6" s="4" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="18" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
@@ -1155,38 +1238,38 @@
       <c r="E2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="18" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="19"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
+    <row r="3" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="25"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
       <c r="D3" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="17"/>
-    </row>
-    <row r="4" spans="1:6" s="8" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="19"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
+      <c r="F3" s="21"/>
+    </row>
+    <row r="4" spans="1:6" s="8" customFormat="1" ht="17.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="25"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="16"/>
-    </row>
-    <row r="5" spans="1:6" s="4" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="19"/>
-      <c r="B5" s="15" t="s">
+      <c r="F4" s="19"/>
+    </row>
+    <row r="5" spans="1:6" s="4" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="25"/>
+      <c r="B5" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="18" t="s">
         <v>106</v>
       </c>
       <c r="D5" s="3" t="s">
@@ -1195,33 +1278,33 @@
       <c r="E5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="15"/>
-    </row>
-    <row r="6" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="19"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
+      <c r="F5" s="18"/>
+    </row>
+    <row r="6" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="25"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
       <c r="E6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="17"/>
-    </row>
-    <row r="7" spans="1:6" s="8" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="19"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
+      <c r="F6" s="21"/>
+    </row>
+    <row r="7" spans="1:6" s="8" customFormat="1" ht="17.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="25"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="16"/>
-    </row>
-    <row r="8" spans="1:6" s="4" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="19"/>
-      <c r="B8" s="15" t="s">
+      <c r="F7" s="19"/>
+    </row>
+    <row r="8" spans="1:6" s="4" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="25"/>
+      <c r="B8" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="18" t="s">
         <v>107</v>
       </c>
       <c r="D8" s="3" t="s">
@@ -1230,35 +1313,35 @@
       <c r="E8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="15"/>
-    </row>
-    <row r="9" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="19"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
+      <c r="F8" s="18"/>
+    </row>
+    <row r="9" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="25"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
       <c r="E9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="17"/>
-    </row>
-    <row r="10" spans="1:6" s="8" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="20"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
+      <c r="F9" s="21"/>
+    </row>
+    <row r="10" spans="1:6" s="8" customFormat="1" ht="17.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="26"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="16"/>
-    </row>
-    <row r="11" spans="1:6" s="4" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="15" t="s">
+      <c r="F10" s="19"/>
+    </row>
+    <row r="11" spans="1:6" s="4" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="18" t="s">
         <v>13</v>
       </c>
       <c r="D11" s="3" t="s">
@@ -1267,108 +1350,108 @@
       <c r="E11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="15"/>
-    </row>
-    <row r="12" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="17"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
+      <c r="F11" s="18"/>
+    </row>
+    <row r="12" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="21"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
       <c r="D12" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F12" s="17"/>
-    </row>
-    <row r="13" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="17"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
+      <c r="F12" s="21"/>
+    </row>
+    <row r="13" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="21"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
       <c r="D13" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F13" s="17"/>
-    </row>
-    <row r="14" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="17"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
+      <c r="F13" s="21"/>
+    </row>
+    <row r="14" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="21"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
       <c r="D14" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F14" s="17"/>
-    </row>
-    <row r="15" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="17"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
+      <c r="F14" s="21"/>
+    </row>
+    <row r="15" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="21"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
       <c r="D15" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F15" s="17"/>
-    </row>
-    <row r="16" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="17"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
+      <c r="F15" s="21"/>
+    </row>
+    <row r="16" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="21"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
       <c r="D16" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F16" s="17"/>
-    </row>
-    <row r="17" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="17"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
+      <c r="F16" s="21"/>
+    </row>
+    <row r="17" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="21"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
       <c r="D17" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F17" s="17"/>
-    </row>
-    <row r="18" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="17"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
+      <c r="F17" s="21"/>
+    </row>
+    <row r="18" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="21"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
       <c r="D18" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F18" s="17"/>
-    </row>
-    <row r="19" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="17"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
+      <c r="F18" s="21"/>
+    </row>
+    <row r="19" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="21"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
       <c r="D19" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F19" s="17"/>
-    </row>
-    <row r="20" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="17"/>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
+      <c r="F19" s="21"/>
+    </row>
+    <row r="20" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="21"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
       <c r="D20" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F20" s="17"/>
-    </row>
-    <row r="21" spans="1:6" s="8" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="17"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
+      <c r="F20" s="21"/>
+    </row>
+    <row r="21" spans="1:6" s="8" customFormat="1" ht="17.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="21"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
       <c r="D21" s="7" t="s">
         <v>26</v>
       </c>
       <c r="E21" s="7"/>
-      <c r="F21" s="16"/>
-    </row>
-    <row r="22" spans="1:6" s="4" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="17"/>
-      <c r="B22" s="15" t="s">
+      <c r="F21" s="19"/>
+    </row>
+    <row r="22" spans="1:6" s="4" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="21"/>
+      <c r="B22" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="C22" s="15" t="s">
+      <c r="C22" s="18" t="s">
         <v>27</v>
       </c>
       <c r="D22" s="3" t="s">
@@ -1377,26 +1460,26 @@
       <c r="E22" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F22" s="15"/>
-    </row>
-    <row r="23" spans="1:6" s="8" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="17"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
+      <c r="F22" s="18"/>
+    </row>
+    <row r="23" spans="1:6" s="8" customFormat="1" ht="17.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="21"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
       <c r="D23" s="7" t="s">
         <v>15</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F23" s="16"/>
-    </row>
-    <row r="24" spans="1:6" s="4" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="17"/>
-      <c r="B24" s="15" t="s">
+      <c r="F23" s="19"/>
+    </row>
+    <row r="24" spans="1:6" s="4" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="21"/>
+      <c r="B24" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="C24" s="15" t="s">
+      <c r="C24" s="18" t="s">
         <v>28</v>
       </c>
       <c r="D24" s="3" t="s">
@@ -1405,368 +1488,368 @@
       <c r="E24" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F24" s="21" t="s">
+      <c r="F24" s="20" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="17"/>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
+    <row r="25" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="21"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="21"/>
       <c r="D25" s="5" t="s">
         <v>119</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F25" s="17"/>
-    </row>
-    <row r="26" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="17"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
+      <c r="F25" s="21"/>
+    </row>
+    <row r="26" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="21"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="21"/>
       <c r="D26" s="5" t="s">
         <v>117</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="F26" s="17"/>
-    </row>
-    <row r="27" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="17"/>
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
+      <c r="F26" s="21"/>
+    </row>
+    <row r="27" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="21"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="21"/>
       <c r="D27" s="5" t="s">
         <v>26</v>
       </c>
       <c r="E27" s="6"/>
-      <c r="F27" s="17"/>
-    </row>
-    <row r="28" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="17"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="17"/>
+      <c r="F27" s="21"/>
+    </row>
+    <row r="28" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="21"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="21"/>
       <c r="D28" s="5" t="s">
         <v>29</v>
       </c>
       <c r="E28" s="6"/>
-      <c r="F28" s="17"/>
-    </row>
-    <row r="29" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="17"/>
-      <c r="B29" s="17"/>
-      <c r="C29" s="17"/>
+      <c r="F28" s="21"/>
+    </row>
+    <row r="29" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="21"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="21"/>
       <c r="D29" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="F29" s="17"/>
-    </row>
-    <row r="30" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="17"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
+      <c r="F29" s="21"/>
+    </row>
+    <row r="30" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="21"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="21"/>
       <c r="D30" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F30" s="17"/>
-    </row>
-    <row r="31" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="17"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="17"/>
+      <c r="F30" s="21"/>
+    </row>
+    <row r="31" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="21"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="21"/>
       <c r="D31" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F31" s="17"/>
-    </row>
-    <row r="32" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="17"/>
-      <c r="B32" s="17"/>
-      <c r="C32" s="17"/>
+      <c r="F31" s="21"/>
+    </row>
+    <row r="32" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="21"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="21"/>
       <c r="D32" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F32" s="17"/>
-    </row>
-    <row r="33" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="17"/>
-      <c r="B33" s="17"/>
-      <c r="C33" s="17"/>
+      <c r="F32" s="21"/>
+    </row>
+    <row r="33" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="21"/>
+      <c r="B33" s="21"/>
+      <c r="C33" s="21"/>
       <c r="D33" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F33" s="17"/>
-    </row>
-    <row r="34" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="17"/>
-      <c r="B34" s="17"/>
-      <c r="C34" s="17"/>
+      <c r="F33" s="21"/>
+    </row>
+    <row r="34" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="21"/>
+      <c r="B34" s="21"/>
+      <c r="C34" s="21"/>
       <c r="D34" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="F34" s="17"/>
-    </row>
-    <row r="35" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="17"/>
-      <c r="B35" s="17"/>
-      <c r="C35" s="17"/>
+      <c r="F34" s="21"/>
+    </row>
+    <row r="35" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="21"/>
+      <c r="B35" s="21"/>
+      <c r="C35" s="21"/>
       <c r="D35" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="F35" s="17"/>
-    </row>
-    <row r="36" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="17"/>
-      <c r="B36" s="17"/>
-      <c r="C36" s="17"/>
+      <c r="F35" s="21"/>
+    </row>
+    <row r="36" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="21"/>
+      <c r="B36" s="21"/>
+      <c r="C36" s="21"/>
       <c r="D36" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F36" s="17"/>
-    </row>
-    <row r="37" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="17"/>
-      <c r="B37" s="17"/>
-      <c r="C37" s="17"/>
+      <c r="F36" s="21"/>
+    </row>
+    <row r="37" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="21"/>
+      <c r="B37" s="21"/>
+      <c r="C37" s="21"/>
       <c r="D37" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="F37" s="17"/>
-    </row>
-    <row r="38" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="17"/>
-      <c r="B38" s="17"/>
-      <c r="C38" s="17"/>
+      <c r="F37" s="21"/>
+    </row>
+    <row r="38" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="21"/>
+      <c r="B38" s="21"/>
+      <c r="C38" s="21"/>
       <c r="D38" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="F38" s="17"/>
-    </row>
-    <row r="39" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="17"/>
-      <c r="B39" s="17"/>
-      <c r="C39" s="17"/>
+      <c r="F38" s="21"/>
+    </row>
+    <row r="39" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="21"/>
+      <c r="B39" s="21"/>
+      <c r="C39" s="21"/>
       <c r="D39" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="F39" s="17"/>
-    </row>
-    <row r="40" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="17"/>
-      <c r="B40" s="17"/>
-      <c r="C40" s="17"/>
+      <c r="F39" s="21"/>
+    </row>
+    <row r="40" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="21"/>
+      <c r="B40" s="21"/>
+      <c r="C40" s="21"/>
       <c r="D40" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F40" s="17"/>
-    </row>
-    <row r="41" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="17"/>
-      <c r="B41" s="17"/>
-      <c r="C41" s="17"/>
+      <c r="F40" s="21"/>
+    </row>
+    <row r="41" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="21"/>
+      <c r="B41" s="21"/>
+      <c r="C41" s="21"/>
       <c r="D41" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="F41" s="17"/>
-    </row>
-    <row r="42" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="17"/>
-      <c r="B42" s="17"/>
-      <c r="C42" s="17"/>
+      <c r="F41" s="21"/>
+    </row>
+    <row r="42" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="21"/>
+      <c r="B42" s="21"/>
+      <c r="C42" s="21"/>
       <c r="D42" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="F42" s="17"/>
-    </row>
-    <row r="43" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="17"/>
-      <c r="B43" s="17"/>
-      <c r="C43" s="17"/>
+      <c r="F42" s="21"/>
+    </row>
+    <row r="43" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="21"/>
+      <c r="B43" s="21"/>
+      <c r="C43" s="21"/>
       <c r="D43" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="F43" s="17"/>
-    </row>
-    <row r="44" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="17"/>
-      <c r="B44" s="17"/>
-      <c r="C44" s="17"/>
+      <c r="F43" s="21"/>
+    </row>
+    <row r="44" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="21"/>
+      <c r="B44" s="21"/>
+      <c r="C44" s="21"/>
       <c r="D44" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="F44" s="17"/>
-    </row>
-    <row r="45" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="17"/>
-      <c r="B45" s="17"/>
-      <c r="C45" s="17"/>
+      <c r="F44" s="21"/>
+    </row>
+    <row r="45" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="21"/>
+      <c r="B45" s="21"/>
+      <c r="C45" s="21"/>
       <c r="D45" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F45" s="17"/>
-    </row>
-    <row r="46" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="17"/>
-      <c r="B46" s="17"/>
-      <c r="C46" s="17"/>
+      <c r="F45" s="21"/>
+    </row>
+    <row r="46" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="21"/>
+      <c r="B46" s="21"/>
+      <c r="C46" s="21"/>
       <c r="D46" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="F46" s="17"/>
-    </row>
-    <row r="47" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="17"/>
-      <c r="B47" s="17"/>
-      <c r="C47" s="17"/>
+      <c r="F46" s="21"/>
+    </row>
+    <row r="47" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="21"/>
+      <c r="B47" s="21"/>
+      <c r="C47" s="21"/>
       <c r="D47" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="F47" s="17"/>
-    </row>
-    <row r="48" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="17"/>
-      <c r="B48" s="17"/>
-      <c r="C48" s="17"/>
+      <c r="F47" s="21"/>
+    </row>
+    <row r="48" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="21"/>
+      <c r="B48" s="21"/>
+      <c r="C48" s="21"/>
       <c r="D48" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="F48" s="17"/>
-    </row>
-    <row r="49" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="17"/>
-      <c r="B49" s="17"/>
-      <c r="C49" s="17"/>
+      <c r="F48" s="21"/>
+    </row>
+    <row r="49" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="21"/>
+      <c r="B49" s="21"/>
+      <c r="C49" s="21"/>
       <c r="D49" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="F49" s="17"/>
-    </row>
-    <row r="50" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="17"/>
-      <c r="B50" s="17"/>
-      <c r="C50" s="17"/>
+      <c r="F49" s="21"/>
+    </row>
+    <row r="50" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="21"/>
+      <c r="B50" s="21"/>
+      <c r="C50" s="21"/>
       <c r="D50" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="F50" s="17"/>
-    </row>
-    <row r="51" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="17"/>
-      <c r="B51" s="17"/>
-      <c r="C51" s="17"/>
+      <c r="F50" s="21"/>
+    </row>
+    <row r="51" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="21"/>
+      <c r="B51" s="21"/>
+      <c r="C51" s="21"/>
       <c r="D51" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="F51" s="17"/>
-    </row>
-    <row r="52" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="17"/>
-      <c r="B52" s="17"/>
-      <c r="C52" s="17"/>
+      <c r="F51" s="21"/>
+    </row>
+    <row r="52" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="21"/>
+      <c r="B52" s="21"/>
+      <c r="C52" s="21"/>
       <c r="D52" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="F52" s="17"/>
-    </row>
-    <row r="53" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="17"/>
-      <c r="B53" s="17"/>
-      <c r="C53" s="17"/>
+      <c r="F52" s="21"/>
+    </row>
+    <row r="53" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="21"/>
+      <c r="B53" s="21"/>
+      <c r="C53" s="21"/>
       <c r="D53" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="F53" s="17"/>
-    </row>
-    <row r="54" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="17"/>
-      <c r="B54" s="17"/>
-      <c r="C54" s="17"/>
+      <c r="F53" s="21"/>
+    </row>
+    <row r="54" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="21"/>
+      <c r="B54" s="21"/>
+      <c r="C54" s="21"/>
       <c r="D54" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="F54" s="17"/>
-    </row>
-    <row r="55" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="17"/>
-      <c r="B55" s="17"/>
-      <c r="C55" s="17"/>
+      <c r="F54" s="21"/>
+    </row>
+    <row r="55" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="21"/>
+      <c r="B55" s="21"/>
+      <c r="C55" s="21"/>
       <c r="D55" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="F55" s="17"/>
-    </row>
-    <row r="56" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="17"/>
-      <c r="B56" s="17"/>
-      <c r="C56" s="17"/>
+      <c r="F55" s="21"/>
+    </row>
+    <row r="56" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="21"/>
+      <c r="B56" s="21"/>
+      <c r="C56" s="21"/>
       <c r="D56" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="F56" s="17"/>
-    </row>
-    <row r="57" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="17"/>
-      <c r="B57" s="17"/>
-      <c r="C57" s="17"/>
+      <c r="F56" s="21"/>
+    </row>
+    <row r="57" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="21"/>
+      <c r="B57" s="21"/>
+      <c r="C57" s="21"/>
       <c r="D57" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="F57" s="17"/>
-    </row>
-    <row r="58" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="17"/>
-      <c r="B58" s="17"/>
-      <c r="C58" s="17"/>
+      <c r="F57" s="21"/>
+    </row>
+    <row r="58" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="21"/>
+      <c r="B58" s="21"/>
+      <c r="C58" s="21"/>
       <c r="D58" s="9" t="s">
         <v>120</v>
       </c>
       <c r="E58" s="9"/>
-      <c r="F58" s="17"/>
-    </row>
-    <row r="59" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="17"/>
-      <c r="B59" s="17"/>
-      <c r="C59" s="17"/>
+      <c r="F58" s="21"/>
+    </row>
+    <row r="59" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="21"/>
+      <c r="B59" s="21"/>
+      <c r="C59" s="21"/>
       <c r="D59" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="F59" s="17"/>
-    </row>
-    <row r="60" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="17"/>
-      <c r="B60" s="17"/>
-      <c r="C60" s="17"/>
+      <c r="F59" s="21"/>
+    </row>
+    <row r="60" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="21"/>
+      <c r="B60" s="21"/>
+      <c r="C60" s="21"/>
       <c r="D60" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="F60" s="17"/>
-    </row>
-    <row r="61" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="17"/>
-      <c r="B61" s="17"/>
-      <c r="C61" s="17"/>
+      <c r="F60" s="21"/>
+    </row>
+    <row r="61" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="21"/>
+      <c r="B61" s="21"/>
+      <c r="C61" s="21"/>
       <c r="D61" s="10" t="s">
         <v>129</v>
       </c>
       <c r="E61" s="10"/>
-      <c r="F61" s="17"/>
-    </row>
-    <row r="62" spans="1:6" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="17"/>
-      <c r="B62" s="17"/>
-      <c r="C62" s="17"/>
+      <c r="F61" s="21"/>
+    </row>
+    <row r="62" spans="1:6" ht="17.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="21"/>
+      <c r="B62" s="21"/>
+      <c r="C62" s="21"/>
       <c r="D62" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="F62" s="17"/>
-    </row>
-    <row r="63" spans="1:6" s="4" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="17"/>
-      <c r="B63" s="15" t="s">
+      <c r="F62" s="21"/>
+    </row>
+    <row r="63" spans="1:6" s="4" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="21"/>
+      <c r="B63" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="C63" s="15" t="s">
+      <c r="C63" s="18" t="s">
         <v>59</v>
       </c>
       <c r="D63" s="3" t="s">
@@ -1775,36 +1858,36 @@
       <c r="E63" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="F63" s="15"/>
-    </row>
-    <row r="64" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="17"/>
-      <c r="B64" s="17"/>
-      <c r="C64" s="17"/>
+      <c r="F63" s="18"/>
+    </row>
+    <row r="64" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="21"/>
+      <c r="B64" s="21"/>
+      <c r="C64" s="21"/>
       <c r="D64" s="5" t="s">
         <v>60</v>
       </c>
       <c r="E64" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="F64" s="17"/>
-    </row>
-    <row r="65" spans="1:6" s="8" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="17"/>
-      <c r="B65" s="16"/>
-      <c r="C65" s="16"/>
+      <c r="F64" s="21"/>
+    </row>
+    <row r="65" spans="1:6" s="8" customFormat="1" ht="17.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="21"/>
+      <c r="B65" s="19"/>
+      <c r="C65" s="19"/>
       <c r="D65" s="7"/>
       <c r="E65" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="F65" s="16"/>
-    </row>
-    <row r="66" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="17"/>
-      <c r="B66" s="15" t="s">
+      <c r="F65" s="19"/>
+    </row>
+    <row r="66" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="21"/>
+      <c r="B66" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="C66" s="15" t="s">
+      <c r="C66" s="18" t="s">
         <v>102</v>
       </c>
       <c r="D66" s="5" t="s">
@@ -1813,28 +1896,28 @@
       <c r="E66" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="F66" s="15"/>
-    </row>
-    <row r="67" spans="1:6" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="16"/>
-      <c r="B67" s="16"/>
-      <c r="C67" s="16"/>
+      <c r="F66" s="18"/>
+    </row>
+    <row r="67" spans="1:6" ht="17.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="19"/>
+      <c r="B67" s="19"/>
+      <c r="C67" s="19"/>
       <c r="D67" s="5" t="s">
         <v>101</v>
       </c>
       <c r="E67" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="F67" s="16"/>
-    </row>
-    <row r="68" spans="1:6" s="4" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="15" t="s">
+      <c r="F67" s="19"/>
+    </row>
+    <row r="68" spans="1:6" s="4" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="B68" s="15" t="s">
+      <c r="B68" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="C68" s="15" t="s">
+      <c r="C68" s="18" t="s">
         <v>73</v>
       </c>
       <c r="D68" s="3" t="s">
@@ -1843,81 +1926,81 @@
       <c r="E68" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="F68" s="15"/>
-    </row>
-    <row r="69" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="17"/>
-      <c r="B69" s="17"/>
-      <c r="C69" s="17"/>
+      <c r="F68" s="18"/>
+    </row>
+    <row r="69" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="21"/>
+      <c r="B69" s="21"/>
+      <c r="C69" s="21"/>
       <c r="D69" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E69" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F69" s="17"/>
-    </row>
-    <row r="70" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="17"/>
-      <c r="B70" s="17"/>
-      <c r="C70" s="17"/>
+      <c r="F69" s="21"/>
+    </row>
+    <row r="70" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="21"/>
+      <c r="B70" s="21"/>
+      <c r="C70" s="21"/>
       <c r="D70" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F70" s="17"/>
-    </row>
-    <row r="71" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="17"/>
-      <c r="B71" s="17"/>
-      <c r="C71" s="17"/>
+      <c r="F70" s="21"/>
+    </row>
+    <row r="71" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="21"/>
+      <c r="B71" s="21"/>
+      <c r="C71" s="21"/>
       <c r="D71" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F71" s="17"/>
-    </row>
-    <row r="72" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="17"/>
-      <c r="B72" s="17"/>
-      <c r="C72" s="17"/>
+      <c r="F71" s="21"/>
+    </row>
+    <row r="72" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="21"/>
+      <c r="B72" s="21"/>
+      <c r="C72" s="21"/>
       <c r="D72" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F72" s="17"/>
-    </row>
-    <row r="73" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="17"/>
-      <c r="B73" s="17"/>
-      <c r="C73" s="17"/>
+      <c r="F72" s="21"/>
+    </row>
+    <row r="73" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="21"/>
+      <c r="B73" s="21"/>
+      <c r="C73" s="21"/>
       <c r="D73" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F73" s="17"/>
-    </row>
-    <row r="74" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="17"/>
-      <c r="B74" s="17"/>
-      <c r="C74" s="17"/>
+      <c r="F73" s="21"/>
+    </row>
+    <row r="74" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="21"/>
+      <c r="B74" s="21"/>
+      <c r="C74" s="21"/>
       <c r="D74" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="F74" s="17"/>
-    </row>
-    <row r="75" spans="1:6" s="8" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="17"/>
-      <c r="B75" s="16"/>
-      <c r="C75" s="16"/>
+      <c r="F74" s="21"/>
+    </row>
+    <row r="75" spans="1:6" s="8" customFormat="1" ht="17.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="21"/>
+      <c r="B75" s="19"/>
+      <c r="C75" s="19"/>
       <c r="D75" s="7" t="s">
         <v>111</v>
       </c>
       <c r="E75" s="7"/>
-      <c r="F75" s="16"/>
-    </row>
-    <row r="76" spans="1:6" s="4" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="17"/>
-      <c r="B76" s="15" t="s">
+      <c r="F75" s="19"/>
+    </row>
+    <row r="76" spans="1:6" s="4" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="21"/>
+      <c r="B76" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="C76" s="15" t="s">
+      <c r="C76" s="18" t="s">
         <v>77</v>
       </c>
       <c r="D76" s="3" t="s">
@@ -1926,26 +2009,26 @@
       <c r="E76" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="F76" s="15"/>
-    </row>
-    <row r="77" spans="1:6" s="8" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="17"/>
-      <c r="B77" s="16"/>
-      <c r="C77" s="16"/>
+      <c r="F76" s="18"/>
+    </row>
+    <row r="77" spans="1:6" s="8" customFormat="1" ht="17.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="21"/>
+      <c r="B77" s="19"/>
+      <c r="C77" s="19"/>
       <c r="D77" s="7" t="s">
         <v>16</v>
       </c>
       <c r="E77" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="F77" s="16"/>
-    </row>
-    <row r="78" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="17"/>
-      <c r="B78" s="15" t="s">
+      <c r="F77" s="19"/>
+    </row>
+    <row r="78" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="21"/>
+      <c r="B78" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="C78" s="15" t="s">
+      <c r="C78" s="18" t="s">
         <v>105</v>
       </c>
       <c r="D78" s="5" t="s">
@@ -1954,28 +2037,28 @@
       <c r="E78" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="F78" s="15"/>
-    </row>
-    <row r="79" spans="1:6" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="16"/>
-      <c r="B79" s="16"/>
-      <c r="C79" s="16"/>
+      <c r="F78" s="18"/>
+    </row>
+    <row r="79" spans="1:6" ht="17.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="19"/>
+      <c r="B79" s="19"/>
+      <c r="C79" s="19"/>
       <c r="D79" s="5" t="s">
         <v>101</v>
       </c>
       <c r="E79" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="F79" s="16"/>
-    </row>
-    <row r="80" spans="1:6" s="4" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="15" t="s">
+      <c r="F79" s="19"/>
+    </row>
+    <row r="80" spans="1:6" s="4" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="B80" s="15" t="s">
+      <c r="B80" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="C80" s="15" t="s">
+      <c r="C80" s="18" t="s">
         <v>80</v>
       </c>
       <c r="D80" s="3" t="s">
@@ -1984,59 +2067,59 @@
       <c r="E80" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F80" s="15" t="s">
+      <c r="F80" s="18" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="17"/>
-      <c r="B81" s="17"/>
-      <c r="C81" s="17"/>
+    <row r="81" spans="1:39" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="21"/>
+      <c r="B81" s="21"/>
+      <c r="C81" s="21"/>
       <c r="D81" s="5" t="s">
         <v>82</v>
       </c>
       <c r="E81" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="F81" s="17"/>
-    </row>
-    <row r="82" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="17"/>
-      <c r="B82" s="17"/>
-      <c r="C82" s="17"/>
+      <c r="F81" s="21"/>
+    </row>
+    <row r="82" spans="1:39" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="21"/>
+      <c r="B82" s="21"/>
+      <c r="C82" s="21"/>
       <c r="D82" s="5" t="s">
         <v>83</v>
       </c>
       <c r="E82" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="F82" s="17"/>
-    </row>
-    <row r="83" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="17"/>
-      <c r="B83" s="17"/>
-      <c r="C83" s="17"/>
+      <c r="F82" s="21"/>
+    </row>
+    <row r="83" spans="1:39" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="21"/>
+      <c r="B83" s="21"/>
+      <c r="C83" s="21"/>
       <c r="D83" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="F83" s="17"/>
-    </row>
-    <row r="84" spans="1:6" s="8" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="17"/>
-      <c r="B84" s="16"/>
-      <c r="C84" s="16"/>
+      <c r="F83" s="21"/>
+    </row>
+    <row r="84" spans="1:39" s="8" customFormat="1" ht="17.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="21"/>
+      <c r="B84" s="19"/>
+      <c r="C84" s="19"/>
       <c r="D84" s="7" t="s">
         <v>85</v>
       </c>
       <c r="E84" s="7"/>
-      <c r="F84" s="16"/>
-    </row>
-    <row r="85" spans="1:6" s="4" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="17"/>
-      <c r="B85" s="15" t="s">
+      <c r="F84" s="19"/>
+    </row>
+    <row r="85" spans="1:39" s="4" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="21"/>
+      <c r="B85" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="C85" s="15" t="s">
+      <c r="C85" s="18" t="s">
         <v>89</v>
       </c>
       <c r="D85" s="3" t="s">
@@ -2045,35 +2128,35 @@
       <c r="E85" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="F85" s="21" t="s">
+      <c r="F85" s="20" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="17"/>
-      <c r="B86" s="17"/>
-      <c r="C86" s="17"/>
+    <row r="86" spans="1:39" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="21"/>
+      <c r="B86" s="21"/>
+      <c r="C86" s="21"/>
       <c r="E86" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="F86" s="25"/>
-    </row>
-    <row r="87" spans="1:6" s="8" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="17"/>
-      <c r="B87" s="16"/>
-      <c r="C87" s="16"/>
+      <c r="F86" s="22"/>
+    </row>
+    <row r="87" spans="1:39" s="8" customFormat="1" ht="17.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="21"/>
+      <c r="B87" s="19"/>
+      <c r="C87" s="19"/>
       <c r="D87" s="7"/>
       <c r="E87" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="F87" s="26"/>
-    </row>
-    <row r="88" spans="1:6" s="4" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="17"/>
-      <c r="B88" s="15" t="s">
+      <c r="F87" s="23"/>
+    </row>
+    <row r="88" spans="1:39" s="4" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="21"/>
+      <c r="B88" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="C88" s="15" t="s">
+      <c r="C88" s="18" t="s">
         <v>93</v>
       </c>
       <c r="D88" s="3" t="s">
@@ -2082,30 +2165,30 @@
       <c r="E88" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="F88" s="21" t="s">
+      <c r="F88" s="20" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="89" spans="1:6" s="8" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A89" s="16"/>
-      <c r="B89" s="16"/>
-      <c r="C89" s="16"/>
+    <row r="89" spans="1:39" s="8" customFormat="1" ht="17.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="19"/>
+      <c r="B89" s="19"/>
+      <c r="C89" s="19"/>
       <c r="D89" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E89" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="F89" s="16"/>
-    </row>
-    <row r="90" spans="1:6" s="12" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="22" t="s">
+      <c r="F89" s="19"/>
+    </row>
+    <row r="90" spans="1:39" s="12" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="B90" s="22" t="s">
+      <c r="B90" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="C90" s="22" t="s">
+      <c r="C90" s="16" t="s">
         <v>124</v>
       </c>
       <c r="D90" s="11" t="s">
@@ -2114,56 +2197,121 @@
       <c r="E90" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="F90" s="24" t="s">
+      <c r="F90" s="17" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="91" spans="1:6" s="14" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A91" s="23"/>
-      <c r="B91" s="23"/>
-      <c r="C91" s="23"/>
-      <c r="D91" s="13"/>
-      <c r="E91" s="13" t="s">
+    <row r="91" spans="1:39" s="13" customFormat="1" ht="17.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="27"/>
+      <c r="B91" s="27"/>
+      <c r="C91" s="27"/>
+      <c r="D91" s="28"/>
+      <c r="E91" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="F91" s="23"/>
+      <c r="F91" s="27"/>
+      <c r="G91" s="29"/>
+      <c r="H91" s="29"/>
+      <c r="I91" s="29"/>
+      <c r="J91" s="29"/>
+      <c r="K91" s="29"/>
+      <c r="L91" s="29"/>
+      <c r="M91" s="29"/>
+      <c r="N91" s="29"/>
+      <c r="O91" s="29"/>
+      <c r="P91" s="29"/>
+      <c r="Q91" s="29"/>
+      <c r="R91" s="29"/>
+      <c r="S91" s="29"/>
+      <c r="T91" s="29"/>
+      <c r="U91" s="29"/>
+      <c r="V91" s="29"/>
+      <c r="W91" s="29"/>
+      <c r="X91" s="29"/>
+      <c r="Y91" s="29"/>
+      <c r="Z91" s="29"/>
+      <c r="AA91" s="29"/>
+      <c r="AB91" s="29"/>
+      <c r="AC91" s="29"/>
+      <c r="AD91" s="29"/>
+      <c r="AE91" s="29"/>
+      <c r="AF91" s="29"/>
+      <c r="AG91" s="29"/>
+      <c r="AH91" s="29"/>
+      <c r="AI91" s="29"/>
+      <c r="AJ91" s="29"/>
+      <c r="AK91" s="29"/>
+      <c r="AL91" s="29"/>
+      <c r="AM91" s="29"/>
+    </row>
+    <row r="92" spans="1:39" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="B92" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="C92" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="D92" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="E92" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F92" s="18"/>
+      <c r="G92" s="30"/>
+      <c r="H92" s="30"/>
+      <c r="I92" s="30"/>
+      <c r="J92" s="30"/>
+      <c r="K92" s="30"/>
+      <c r="L92" s="30"/>
+      <c r="M92" s="30"/>
+      <c r="N92" s="30"/>
+      <c r="O92" s="30"/>
+      <c r="P92" s="30"/>
+      <c r="Q92" s="30"/>
+      <c r="R92" s="30"/>
+      <c r="S92" s="30"/>
+      <c r="T92" s="30"/>
+      <c r="U92" s="30"/>
+      <c r="V92" s="30"/>
+      <c r="W92" s="30"/>
+      <c r="X92" s="30"/>
+      <c r="Y92" s="30"/>
+      <c r="Z92" s="30"/>
+      <c r="AA92" s="30"/>
+      <c r="AB92" s="30"/>
+      <c r="AC92" s="30"/>
+      <c r="AD92" s="30"/>
+      <c r="AE92" s="30"/>
+      <c r="AF92" s="30"/>
+      <c r="AG92" s="30"/>
+      <c r="AH92" s="30"/>
+      <c r="AI92" s="30"/>
+      <c r="AJ92" s="30"/>
+      <c r="AK92" s="30"/>
+      <c r="AL92" s="30"/>
+      <c r="AM92" s="30"/>
+    </row>
+    <row r="93" spans="1:39" ht="17.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="32"/>
+      <c r="B93" s="26"/>
+      <c r="C93" s="19"/>
+      <c r="D93" s="19"/>
+      <c r="E93" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="F93" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="50">
-    <mergeCell ref="A90:A91"/>
-    <mergeCell ref="B90:B91"/>
-    <mergeCell ref="C90:C91"/>
-    <mergeCell ref="F90:F91"/>
-    <mergeCell ref="B88:B89"/>
-    <mergeCell ref="C88:C89"/>
-    <mergeCell ref="F88:F89"/>
-    <mergeCell ref="A80:A89"/>
-    <mergeCell ref="B80:B84"/>
-    <mergeCell ref="C80:C84"/>
-    <mergeCell ref="F80:F84"/>
-    <mergeCell ref="F85:F87"/>
-    <mergeCell ref="C85:C87"/>
-    <mergeCell ref="B85:B87"/>
-    <mergeCell ref="F76:F77"/>
-    <mergeCell ref="B63:B65"/>
-    <mergeCell ref="C63:C65"/>
-    <mergeCell ref="F63:F65"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="B68:B75"/>
-    <mergeCell ref="C68:C75"/>
-    <mergeCell ref="F68:F75"/>
-    <mergeCell ref="B76:B77"/>
-    <mergeCell ref="C76:C77"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="C24:C62"/>
-    <mergeCell ref="B24:B62"/>
-    <mergeCell ref="F5:F7"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="F11:F21"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="F24:F62"/>
+  <mergeCells count="55">
+    <mergeCell ref="F92:F93"/>
+    <mergeCell ref="A92:A93"/>
+    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="C92:C93"/>
+    <mergeCell ref="D92:D93"/>
     <mergeCell ref="B78:B79"/>
     <mergeCell ref="C78:C79"/>
     <mergeCell ref="F78:F79"/>
@@ -2180,6 +2328,40 @@
     <mergeCell ref="A2:A10"/>
     <mergeCell ref="B11:B21"/>
     <mergeCell ref="C11:C21"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="C24:C62"/>
+    <mergeCell ref="B24:B62"/>
+    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="F11:F21"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="F24:F62"/>
+    <mergeCell ref="F76:F77"/>
+    <mergeCell ref="B63:B65"/>
+    <mergeCell ref="C63:C65"/>
+    <mergeCell ref="F63:F65"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="B68:B75"/>
+    <mergeCell ref="C68:C75"/>
+    <mergeCell ref="F68:F75"/>
+    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="C76:C77"/>
+    <mergeCell ref="A90:A91"/>
+    <mergeCell ref="B90:B91"/>
+    <mergeCell ref="C90:C91"/>
+    <mergeCell ref="F90:F91"/>
+    <mergeCell ref="B88:B89"/>
+    <mergeCell ref="C88:C89"/>
+    <mergeCell ref="F88:F89"/>
+    <mergeCell ref="A80:A89"/>
+    <mergeCell ref="B80:B84"/>
+    <mergeCell ref="C80:C84"/>
+    <mergeCell ref="F80:F84"/>
+    <mergeCell ref="F85:F87"/>
+    <mergeCell ref="C85:C87"/>
+    <mergeCell ref="B85:B87"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/BACKEND.xlsx
+++ b/BACKEND.xlsx
@@ -2,19 +2,19 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\white-give\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Mac\Home\workspace\white-give\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7005"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="137">
   <si>
     <t>Pathname</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -534,13 +534,36 @@
   </si>
   <si>
     <t>deleteByUrl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>appId:int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getPdfApplication</t>
+  </si>
+  <si>
+    <t>pdf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据appId生成pdf文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件地址 /var/ftp/pub/data/application</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件命名 学号_姓名_申请表格id.pdf</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -718,7 +741,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -767,59 +790,65 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1138,21 +1167,21 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C96" sqref="C96"/>
+      <selection pane="bottomLeft" activeCell="F96" sqref="F96"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.83203125" defaultRowHeight="17.5" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="20.875" defaultRowHeight="17.45" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="16.625" style="6" customWidth="1"/>
     <col min="2" max="2" width="25" style="5" customWidth="1"/>
-    <col min="3" max="3" width="29.1640625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="29.125" style="5" customWidth="1"/>
     <col min="4" max="4" width="31.25" style="5" customWidth="1"/>
-    <col min="5" max="5" width="20.83203125" style="5"/>
-    <col min="6" max="6" width="29.1640625" style="5" customWidth="1"/>
-    <col min="7" max="16384" width="20.83203125" style="6"/>
+    <col min="5" max="5" width="20.875" style="5"/>
+    <col min="6" max="6" width="37" style="5" customWidth="1"/>
+    <col min="7" max="16384" width="20.875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="17.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>63</v>
       </c>
@@ -1169,14 +1198,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="4" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="20" t="s">
+    <row r="2" spans="1:6" s="4" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="26" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
@@ -1185,38 +1214,38 @@
       <c r="E2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="26" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="21"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
+    <row r="3" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="30"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
       <c r="D3" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="17"/>
-    </row>
-    <row r="4" spans="1:6" s="8" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="21"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
+      <c r="F3" s="28"/>
+    </row>
+    <row r="4" spans="1:6" s="8" customFormat="1" ht="17.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="30"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="15"/>
-    </row>
-    <row r="5" spans="1:6" s="4" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="21"/>
-      <c r="B5" s="14" t="s">
+      <c r="F4" s="27"/>
+    </row>
+    <row r="5" spans="1:6" s="4" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="30"/>
+      <c r="B5" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="26" t="s">
         <v>105</v>
       </c>
       <c r="D5" s="3" t="s">
@@ -1225,33 +1254,33 @@
       <c r="E5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="14"/>
-    </row>
-    <row r="6" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="21"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
+      <c r="F5" s="26"/>
+    </row>
+    <row r="6" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="30"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
       <c r="E6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="17"/>
-    </row>
-    <row r="7" spans="1:6" s="8" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="21"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
+      <c r="F6" s="28"/>
+    </row>
+    <row r="7" spans="1:6" s="8" customFormat="1" ht="17.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="30"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="15"/>
-    </row>
-    <row r="8" spans="1:6" s="4" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="21"/>
-      <c r="B8" s="14" t="s">
+      <c r="F7" s="27"/>
+    </row>
+    <row r="8" spans="1:6" s="4" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="30"/>
+      <c r="B8" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="26" t="s">
         <v>106</v>
       </c>
       <c r="D8" s="3" t="s">
@@ -1260,35 +1289,35 @@
       <c r="E8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="14"/>
-    </row>
-    <row r="9" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="21"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
+      <c r="F8" s="26"/>
+    </row>
+    <row r="9" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="30"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
       <c r="E9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="17"/>
-    </row>
-    <row r="10" spans="1:6" s="8" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="22"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
+      <c r="F9" s="28"/>
+    </row>
+    <row r="10" spans="1:6" s="8" customFormat="1" ht="17.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="31"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="15"/>
-    </row>
-    <row r="11" spans="1:6" s="4" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="14" t="s">
+      <c r="F10" s="27"/>
+    </row>
+    <row r="11" spans="1:6" s="4" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="26" t="s">
         <v>13</v>
       </c>
       <c r="D11" s="3" t="s">
@@ -1297,108 +1326,108 @@
       <c r="E11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="14"/>
-    </row>
-    <row r="12" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="17"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
+      <c r="F11" s="26"/>
+    </row>
+    <row r="12" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="28"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="28"/>
       <c r="D12" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F12" s="17"/>
-    </row>
-    <row r="13" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="17"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
+      <c r="F12" s="28"/>
+    </row>
+    <row r="13" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="28"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
       <c r="D13" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F13" s="17"/>
-    </row>
-    <row r="14" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="17"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
+      <c r="F13" s="28"/>
+    </row>
+    <row r="14" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="28"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="28"/>
       <c r="D14" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F14" s="17"/>
-    </row>
-    <row r="15" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="17"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
+      <c r="F14" s="28"/>
+    </row>
+    <row r="15" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="28"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="28"/>
       <c r="D15" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F15" s="17"/>
-    </row>
-    <row r="16" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="17"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
+      <c r="F15" s="28"/>
+    </row>
+    <row r="16" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="28"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="28"/>
       <c r="D16" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F16" s="17"/>
-    </row>
-    <row r="17" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="17"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
+      <c r="F16" s="28"/>
+    </row>
+    <row r="17" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="28"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
       <c r="D17" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F17" s="17"/>
-    </row>
-    <row r="18" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="17"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
+      <c r="F17" s="28"/>
+    </row>
+    <row r="18" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="28"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="28"/>
       <c r="D18" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F18" s="17"/>
-    </row>
-    <row r="19" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="17"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
+      <c r="F18" s="28"/>
+    </row>
+    <row r="19" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="28"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="28"/>
       <c r="D19" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F19" s="17"/>
-    </row>
-    <row r="20" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="17"/>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
+      <c r="F19" s="28"/>
+    </row>
+    <row r="20" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="28"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="28"/>
       <c r="D20" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F20" s="17"/>
-    </row>
-    <row r="21" spans="1:6" s="8" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="17"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
+      <c r="F20" s="28"/>
+    </row>
+    <row r="21" spans="1:6" s="8" customFormat="1" ht="17.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="28"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="27"/>
       <c r="D21" s="7" t="s">
         <v>26</v>
       </c>
       <c r="E21" s="7"/>
-      <c r="F21" s="15"/>
-    </row>
-    <row r="22" spans="1:6" s="4" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="17"/>
-      <c r="B22" s="14" t="s">
+      <c r="F21" s="27"/>
+    </row>
+    <row r="22" spans="1:6" s="4" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="28"/>
+      <c r="B22" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="C22" s="14" t="s">
+      <c r="C22" s="26" t="s">
         <v>27</v>
       </c>
       <c r="D22" s="3" t="s">
@@ -1407,26 +1436,26 @@
       <c r="E22" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F22" s="14"/>
-    </row>
-    <row r="23" spans="1:6" s="8" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="17"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
+      <c r="F22" s="26"/>
+    </row>
+    <row r="23" spans="1:6" s="8" customFormat="1" ht="17.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="28"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="27"/>
       <c r="D23" s="7" t="s">
         <v>15</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F23" s="15"/>
-    </row>
-    <row r="24" spans="1:6" s="4" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="17"/>
-      <c r="B24" s="14" t="s">
+      <c r="F23" s="27"/>
+    </row>
+    <row r="24" spans="1:6" s="4" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="28"/>
+      <c r="B24" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="C24" s="14" t="s">
+      <c r="C24" s="26" t="s">
         <v>28</v>
       </c>
       <c r="D24" s="3" t="s">
@@ -1435,368 +1464,368 @@
       <c r="E24" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F24" s="16" t="s">
+      <c r="F24" s="32" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="17"/>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
+    <row r="25" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="28"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="28"/>
       <c r="D25" s="5" t="s">
         <v>118</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F25" s="17"/>
-    </row>
-    <row r="26" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="17"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
+      <c r="F25" s="28"/>
+    </row>
+    <row r="26" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="28"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="28"/>
       <c r="D26" s="5" t="s">
         <v>116</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="F26" s="17"/>
-    </row>
-    <row r="27" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="17"/>
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
+      <c r="F26" s="28"/>
+    </row>
+    <row r="27" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="28"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="28"/>
       <c r="D27" s="5" t="s">
         <v>26</v>
       </c>
       <c r="E27" s="6"/>
-      <c r="F27" s="17"/>
-    </row>
-    <row r="28" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="17"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="17"/>
+      <c r="F27" s="28"/>
+    </row>
+    <row r="28" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="28"/>
+      <c r="B28" s="28"/>
+      <c r="C28" s="28"/>
       <c r="D28" s="5" t="s">
         <v>29</v>
       </c>
       <c r="E28" s="6"/>
-      <c r="F28" s="17"/>
-    </row>
-    <row r="29" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="17"/>
-      <c r="B29" s="17"/>
-      <c r="C29" s="17"/>
+      <c r="F28" s="28"/>
+    </row>
+    <row r="29" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="28"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="28"/>
       <c r="D29" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="F29" s="17"/>
-    </row>
-    <row r="30" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="17"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
+      <c r="F29" s="28"/>
+    </row>
+    <row r="30" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="28"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="28"/>
       <c r="D30" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F30" s="17"/>
-    </row>
-    <row r="31" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="17"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="17"/>
+      <c r="F30" s="28"/>
+    </row>
+    <row r="31" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="28"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="28"/>
       <c r="D31" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F31" s="17"/>
-    </row>
-    <row r="32" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="17"/>
-      <c r="B32" s="17"/>
-      <c r="C32" s="17"/>
+      <c r="F31" s="28"/>
+    </row>
+    <row r="32" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="28"/>
+      <c r="B32" s="28"/>
+      <c r="C32" s="28"/>
       <c r="D32" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F32" s="17"/>
-    </row>
-    <row r="33" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="17"/>
-      <c r="B33" s="17"/>
-      <c r="C33" s="17"/>
+      <c r="F32" s="28"/>
+    </row>
+    <row r="33" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="28"/>
+      <c r="B33" s="28"/>
+      <c r="C33" s="28"/>
       <c r="D33" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F33" s="17"/>
-    </row>
-    <row r="34" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="17"/>
-      <c r="B34" s="17"/>
-      <c r="C34" s="17"/>
+      <c r="F33" s="28"/>
+    </row>
+    <row r="34" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="28"/>
+      <c r="B34" s="28"/>
+      <c r="C34" s="28"/>
       <c r="D34" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="F34" s="17"/>
-    </row>
-    <row r="35" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="17"/>
-      <c r="B35" s="17"/>
-      <c r="C35" s="17"/>
+      <c r="F34" s="28"/>
+    </row>
+    <row r="35" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="28"/>
+      <c r="B35" s="28"/>
+      <c r="C35" s="28"/>
       <c r="D35" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="F35" s="17"/>
-    </row>
-    <row r="36" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="17"/>
-      <c r="B36" s="17"/>
-      <c r="C36" s="17"/>
+      <c r="F35" s="28"/>
+    </row>
+    <row r="36" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="28"/>
+      <c r="B36" s="28"/>
+      <c r="C36" s="28"/>
       <c r="D36" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F36" s="17"/>
-    </row>
-    <row r="37" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="17"/>
-      <c r="B37" s="17"/>
-      <c r="C37" s="17"/>
+      <c r="F36" s="28"/>
+    </row>
+    <row r="37" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="28"/>
+      <c r="B37" s="28"/>
+      <c r="C37" s="28"/>
       <c r="D37" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="F37" s="17"/>
-    </row>
-    <row r="38" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="17"/>
-      <c r="B38" s="17"/>
-      <c r="C38" s="17"/>
+      <c r="F37" s="28"/>
+    </row>
+    <row r="38" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="28"/>
+      <c r="B38" s="28"/>
+      <c r="C38" s="28"/>
       <c r="D38" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="F38" s="17"/>
-    </row>
-    <row r="39" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="17"/>
-      <c r="B39" s="17"/>
-      <c r="C39" s="17"/>
+      <c r="F38" s="28"/>
+    </row>
+    <row r="39" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="28"/>
+      <c r="B39" s="28"/>
+      <c r="C39" s="28"/>
       <c r="D39" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="F39" s="17"/>
-    </row>
-    <row r="40" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="17"/>
-      <c r="B40" s="17"/>
-      <c r="C40" s="17"/>
+      <c r="F39" s="28"/>
+    </row>
+    <row r="40" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="28"/>
+      <c r="B40" s="28"/>
+      <c r="C40" s="28"/>
       <c r="D40" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F40" s="17"/>
-    </row>
-    <row r="41" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="17"/>
-      <c r="B41" s="17"/>
-      <c r="C41" s="17"/>
+      <c r="F40" s="28"/>
+    </row>
+    <row r="41" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="28"/>
+      <c r="B41" s="28"/>
+      <c r="C41" s="28"/>
       <c r="D41" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="F41" s="17"/>
-    </row>
-    <row r="42" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="17"/>
-      <c r="B42" s="17"/>
-      <c r="C42" s="17"/>
+      <c r="F41" s="28"/>
+    </row>
+    <row r="42" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="28"/>
+      <c r="B42" s="28"/>
+      <c r="C42" s="28"/>
       <c r="D42" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="F42" s="17"/>
-    </row>
-    <row r="43" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="17"/>
-      <c r="B43" s="17"/>
-      <c r="C43" s="17"/>
+      <c r="F42" s="28"/>
+    </row>
+    <row r="43" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="28"/>
+      <c r="B43" s="28"/>
+      <c r="C43" s="28"/>
       <c r="D43" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="F43" s="17"/>
-    </row>
-    <row r="44" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="17"/>
-      <c r="B44" s="17"/>
-      <c r="C44" s="17"/>
+      <c r="F43" s="28"/>
+    </row>
+    <row r="44" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="28"/>
+      <c r="B44" s="28"/>
+      <c r="C44" s="28"/>
       <c r="D44" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="F44" s="17"/>
-    </row>
-    <row r="45" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="17"/>
-      <c r="B45" s="17"/>
-      <c r="C45" s="17"/>
+      <c r="F44" s="28"/>
+    </row>
+    <row r="45" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="28"/>
+      <c r="B45" s="28"/>
+      <c r="C45" s="28"/>
       <c r="D45" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F45" s="17"/>
-    </row>
-    <row r="46" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="17"/>
-      <c r="B46" s="17"/>
-      <c r="C46" s="17"/>
+      <c r="F45" s="28"/>
+    </row>
+    <row r="46" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="28"/>
+      <c r="B46" s="28"/>
+      <c r="C46" s="28"/>
       <c r="D46" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="F46" s="17"/>
-    </row>
-    <row r="47" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="17"/>
-      <c r="B47" s="17"/>
-      <c r="C47" s="17"/>
+      <c r="F46" s="28"/>
+    </row>
+    <row r="47" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="28"/>
+      <c r="B47" s="28"/>
+      <c r="C47" s="28"/>
       <c r="D47" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="F47" s="17"/>
-    </row>
-    <row r="48" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="17"/>
-      <c r="B48" s="17"/>
-      <c r="C48" s="17"/>
+      <c r="F47" s="28"/>
+    </row>
+    <row r="48" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="28"/>
+      <c r="B48" s="28"/>
+      <c r="C48" s="28"/>
       <c r="D48" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="F48" s="17"/>
-    </row>
-    <row r="49" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="17"/>
-      <c r="B49" s="17"/>
-      <c r="C49" s="17"/>
+      <c r="F48" s="28"/>
+    </row>
+    <row r="49" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="28"/>
+      <c r="B49" s="28"/>
+      <c r="C49" s="28"/>
       <c r="D49" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="F49" s="17"/>
-    </row>
-    <row r="50" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="17"/>
-      <c r="B50" s="17"/>
-      <c r="C50" s="17"/>
+      <c r="F49" s="28"/>
+    </row>
+    <row r="50" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="28"/>
+      <c r="B50" s="28"/>
+      <c r="C50" s="28"/>
       <c r="D50" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="F50" s="17"/>
-    </row>
-    <row r="51" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="17"/>
-      <c r="B51" s="17"/>
-      <c r="C51" s="17"/>
+      <c r="F50" s="28"/>
+    </row>
+    <row r="51" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="28"/>
+      <c r="B51" s="28"/>
+      <c r="C51" s="28"/>
       <c r="D51" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="F51" s="17"/>
-    </row>
-    <row r="52" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="17"/>
-      <c r="B52" s="17"/>
-      <c r="C52" s="17"/>
+      <c r="F51" s="28"/>
+    </row>
+    <row r="52" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="28"/>
+      <c r="B52" s="28"/>
+      <c r="C52" s="28"/>
       <c r="D52" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="F52" s="17"/>
-    </row>
-    <row r="53" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="17"/>
-      <c r="B53" s="17"/>
-      <c r="C53" s="17"/>
+      <c r="F52" s="28"/>
+    </row>
+    <row r="53" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="28"/>
+      <c r="B53" s="28"/>
+      <c r="C53" s="28"/>
       <c r="D53" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="F53" s="17"/>
-    </row>
-    <row r="54" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="17"/>
-      <c r="B54" s="17"/>
-      <c r="C54" s="17"/>
+      <c r="F53" s="28"/>
+    </row>
+    <row r="54" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="28"/>
+      <c r="B54" s="28"/>
+      <c r="C54" s="28"/>
       <c r="D54" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="F54" s="17"/>
-    </row>
-    <row r="55" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="17"/>
-      <c r="B55" s="17"/>
-      <c r="C55" s="17"/>
+      <c r="F54" s="28"/>
+    </row>
+    <row r="55" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="28"/>
+      <c r="B55" s="28"/>
+      <c r="C55" s="28"/>
       <c r="D55" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="F55" s="17"/>
-    </row>
-    <row r="56" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="17"/>
-      <c r="B56" s="17"/>
-      <c r="C56" s="17"/>
+      <c r="F55" s="28"/>
+    </row>
+    <row r="56" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="28"/>
+      <c r="B56" s="28"/>
+      <c r="C56" s="28"/>
       <c r="D56" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="F56" s="17"/>
-    </row>
-    <row r="57" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="17"/>
-      <c r="B57" s="17"/>
-      <c r="C57" s="17"/>
+      <c r="F56" s="28"/>
+    </row>
+    <row r="57" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="28"/>
+      <c r="B57" s="28"/>
+      <c r="C57" s="28"/>
       <c r="D57" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="F57" s="17"/>
-    </row>
-    <row r="58" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="17"/>
-      <c r="B58" s="17"/>
-      <c r="C58" s="17"/>
+      <c r="F57" s="28"/>
+    </row>
+    <row r="58" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="28"/>
+      <c r="B58" s="28"/>
+      <c r="C58" s="28"/>
       <c r="D58" s="9" t="s">
         <v>119</v>
       </c>
       <c r="E58" s="9"/>
-      <c r="F58" s="17"/>
-    </row>
-    <row r="59" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="17"/>
-      <c r="B59" s="17"/>
-      <c r="C59" s="17"/>
+      <c r="F58" s="28"/>
+    </row>
+    <row r="59" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="28"/>
+      <c r="B59" s="28"/>
+      <c r="C59" s="28"/>
       <c r="D59" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="F59" s="17"/>
-    </row>
-    <row r="60" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="17"/>
-      <c r="B60" s="17"/>
-      <c r="C60" s="17"/>
+      <c r="F59" s="28"/>
+    </row>
+    <row r="60" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="28"/>
+      <c r="B60" s="28"/>
+      <c r="C60" s="28"/>
       <c r="D60" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="F60" s="17"/>
-    </row>
-    <row r="61" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="17"/>
-      <c r="B61" s="17"/>
-      <c r="C61" s="17"/>
+      <c r="F60" s="28"/>
+    </row>
+    <row r="61" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="28"/>
+      <c r="B61" s="28"/>
+      <c r="C61" s="28"/>
       <c r="D61" s="10" t="s">
         <v>125</v>
       </c>
       <c r="E61" s="10"/>
-      <c r="F61" s="17"/>
-    </row>
-    <row r="62" spans="1:6" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="17"/>
-      <c r="B62" s="17"/>
-      <c r="C62" s="17"/>
+      <c r="F61" s="28"/>
+    </row>
+    <row r="62" spans="1:6" ht="17.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="28"/>
+      <c r="B62" s="28"/>
+      <c r="C62" s="28"/>
       <c r="D62" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="F62" s="17"/>
-    </row>
-    <row r="63" spans="1:6" s="4" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="17"/>
-      <c r="B63" s="14" t="s">
+      <c r="F62" s="28"/>
+    </row>
+    <row r="63" spans="1:6" s="4" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="28"/>
+      <c r="B63" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="C63" s="14" t="s">
+      <c r="C63" s="26" t="s">
         <v>58</v>
       </c>
       <c r="D63" s="3" t="s">
@@ -1805,36 +1834,36 @@
       <c r="E63" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="F63" s="14"/>
-    </row>
-    <row r="64" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="17"/>
-      <c r="B64" s="17"/>
-      <c r="C64" s="17"/>
+      <c r="F63" s="26"/>
+    </row>
+    <row r="64" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="28"/>
+      <c r="B64" s="28"/>
+      <c r="C64" s="28"/>
       <c r="D64" s="5" t="s">
         <v>59</v>
       </c>
       <c r="E64" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="F64" s="17"/>
-    </row>
-    <row r="65" spans="1:6" s="8" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="17"/>
-      <c r="B65" s="15"/>
-      <c r="C65" s="15"/>
+      <c r="F64" s="28"/>
+    </row>
+    <row r="65" spans="1:6" s="8" customFormat="1" ht="17.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="28"/>
+      <c r="B65" s="27"/>
+      <c r="C65" s="27"/>
       <c r="D65" s="7"/>
       <c r="E65" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="F65" s="15"/>
-    </row>
-    <row r="66" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="17"/>
-      <c r="B66" s="14" t="s">
+      <c r="F65" s="27"/>
+    </row>
+    <row r="66" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="28"/>
+      <c r="B66" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="C66" s="14" t="s">
+      <c r="C66" s="26" t="s">
         <v>101</v>
       </c>
       <c r="D66" s="5" t="s">
@@ -1843,28 +1872,28 @@
       <c r="E66" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="F66" s="14"/>
-    </row>
-    <row r="67" spans="1:6" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="15"/>
-      <c r="B67" s="15"/>
-      <c r="C67" s="15"/>
+      <c r="F66" s="26"/>
+    </row>
+    <row r="67" spans="1:6" ht="17.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="27"/>
+      <c r="B67" s="27"/>
+      <c r="C67" s="27"/>
       <c r="D67" s="5" t="s">
         <v>100</v>
       </c>
       <c r="E67" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="F67" s="15"/>
-    </row>
-    <row r="68" spans="1:6" s="4" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="14" t="s">
+      <c r="F67" s="27"/>
+    </row>
+    <row r="68" spans="1:6" s="4" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="B68" s="14" t="s">
+      <c r="B68" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="C68" s="14" t="s">
+      <c r="C68" s="26" t="s">
         <v>72</v>
       </c>
       <c r="D68" s="3" t="s">
@@ -1873,81 +1902,81 @@
       <c r="E68" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="F68" s="14"/>
-    </row>
-    <row r="69" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="17"/>
-      <c r="B69" s="17"/>
-      <c r="C69" s="17"/>
+      <c r="F68" s="26"/>
+    </row>
+    <row r="69" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="28"/>
+      <c r="B69" s="28"/>
+      <c r="C69" s="28"/>
       <c r="D69" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E69" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F69" s="17"/>
-    </row>
-    <row r="70" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="17"/>
-      <c r="B70" s="17"/>
-      <c r="C70" s="17"/>
+      <c r="F69" s="28"/>
+    </row>
+    <row r="70" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="28"/>
+      <c r="B70" s="28"/>
+      <c r="C70" s="28"/>
       <c r="D70" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F70" s="17"/>
-    </row>
-    <row r="71" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="17"/>
-      <c r="B71" s="17"/>
-      <c r="C71" s="17"/>
+      <c r="F70" s="28"/>
+    </row>
+    <row r="71" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="28"/>
+      <c r="B71" s="28"/>
+      <c r="C71" s="28"/>
       <c r="D71" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F71" s="17"/>
-    </row>
-    <row r="72" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="17"/>
-      <c r="B72" s="17"/>
-      <c r="C72" s="17"/>
+      <c r="F71" s="28"/>
+    </row>
+    <row r="72" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="28"/>
+      <c r="B72" s="28"/>
+      <c r="C72" s="28"/>
       <c r="D72" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F72" s="17"/>
-    </row>
-    <row r="73" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="17"/>
-      <c r="B73" s="17"/>
-      <c r="C73" s="17"/>
+      <c r="F72" s="28"/>
+    </row>
+    <row r="73" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="28"/>
+      <c r="B73" s="28"/>
+      <c r="C73" s="28"/>
       <c r="D73" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F73" s="17"/>
-    </row>
-    <row r="74" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="17"/>
-      <c r="B74" s="17"/>
-      <c r="C74" s="17"/>
+      <c r="F73" s="28"/>
+    </row>
+    <row r="74" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="28"/>
+      <c r="B74" s="28"/>
+      <c r="C74" s="28"/>
       <c r="D74" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="F74" s="17"/>
-    </row>
-    <row r="75" spans="1:6" s="8" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="17"/>
-      <c r="B75" s="15"/>
-      <c r="C75" s="15"/>
+      <c r="F74" s="28"/>
+    </row>
+    <row r="75" spans="1:6" s="8" customFormat="1" ht="17.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="28"/>
+      <c r="B75" s="27"/>
+      <c r="C75" s="27"/>
       <c r="D75" s="7" t="s">
         <v>110</v>
       </c>
       <c r="E75" s="7"/>
-      <c r="F75" s="15"/>
-    </row>
-    <row r="76" spans="1:6" s="4" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="17"/>
-      <c r="B76" s="14" t="s">
+      <c r="F75" s="27"/>
+    </row>
+    <row r="76" spans="1:6" s="4" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="28"/>
+      <c r="B76" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="C76" s="14" t="s">
+      <c r="C76" s="26" t="s">
         <v>76</v>
       </c>
       <c r="D76" s="3" t="s">
@@ -1956,26 +1985,26 @@
       <c r="E76" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="F76" s="14"/>
-    </row>
-    <row r="77" spans="1:6" s="8" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="17"/>
-      <c r="B77" s="15"/>
-      <c r="C77" s="15"/>
+      <c r="F76" s="26"/>
+    </row>
+    <row r="77" spans="1:6" s="8" customFormat="1" ht="17.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="28"/>
+      <c r="B77" s="27"/>
+      <c r="C77" s="27"/>
       <c r="D77" s="7" t="s">
         <v>16</v>
       </c>
       <c r="E77" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F77" s="15"/>
-    </row>
-    <row r="78" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="17"/>
-      <c r="B78" s="14" t="s">
+      <c r="F77" s="27"/>
+    </row>
+    <row r="78" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="28"/>
+      <c r="B78" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="C78" s="14" t="s">
+      <c r="C78" s="26" t="s">
         <v>104</v>
       </c>
       <c r="D78" s="5" t="s">
@@ -1984,28 +2013,28 @@
       <c r="E78" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="F78" s="14"/>
-    </row>
-    <row r="79" spans="1:6" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="15"/>
-      <c r="B79" s="15"/>
-      <c r="C79" s="15"/>
+      <c r="F78" s="26"/>
+    </row>
+    <row r="79" spans="1:6" ht="17.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="27"/>
+      <c r="B79" s="27"/>
+      <c r="C79" s="27"/>
       <c r="D79" s="5" t="s">
         <v>100</v>
       </c>
       <c r="E79" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="F79" s="15"/>
-    </row>
-    <row r="80" spans="1:6" s="4" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="14" t="s">
+      <c r="F79" s="27"/>
+    </row>
+    <row r="80" spans="1:6" s="4" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="B80" s="14" t="s">
+      <c r="B80" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="C80" s="14" t="s">
+      <c r="C80" s="26" t="s">
         <v>79</v>
       </c>
       <c r="D80" s="3" t="s">
@@ -2014,59 +2043,59 @@
       <c r="E80" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F80" s="14" t="s">
+      <c r="F80" s="26" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="17"/>
-      <c r="B81" s="17"/>
-      <c r="C81" s="17"/>
+    <row r="81" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="28"/>
+      <c r="B81" s="28"/>
+      <c r="C81" s="28"/>
       <c r="D81" s="5" t="s">
         <v>81</v>
       </c>
       <c r="E81" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="F81" s="17"/>
-    </row>
-    <row r="82" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="17"/>
-      <c r="B82" s="17"/>
-      <c r="C82" s="17"/>
+      <c r="F81" s="28"/>
+    </row>
+    <row r="82" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="28"/>
+      <c r="B82" s="28"/>
+      <c r="C82" s="28"/>
       <c r="D82" s="5" t="s">
         <v>82</v>
       </c>
       <c r="E82" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="F82" s="17"/>
-    </row>
-    <row r="83" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="17"/>
-      <c r="B83" s="17"/>
-      <c r="C83" s="17"/>
+      <c r="F82" s="28"/>
+    </row>
+    <row r="83" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="28"/>
+      <c r="B83" s="28"/>
+      <c r="C83" s="28"/>
       <c r="D83" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="F83" s="17"/>
-    </row>
-    <row r="84" spans="1:6" s="8" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="17"/>
-      <c r="B84" s="15"/>
-      <c r="C84" s="15"/>
+      <c r="F83" s="28"/>
+    </row>
+    <row r="84" spans="1:6" s="8" customFormat="1" ht="17.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="28"/>
+      <c r="B84" s="27"/>
+      <c r="C84" s="27"/>
       <c r="D84" s="7" t="s">
         <v>84</v>
       </c>
       <c r="E84" s="7"/>
-      <c r="F84" s="15"/>
-    </row>
-    <row r="85" spans="1:6" s="4" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="17"/>
-      <c r="B85" s="14" t="s">
+      <c r="F84" s="27"/>
+    </row>
+    <row r="85" spans="1:6" s="4" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="28"/>
+      <c r="B85" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="C85" s="14" t="s">
+      <c r="C85" s="26" t="s">
         <v>88</v>
       </c>
       <c r="D85" s="3" t="s">
@@ -2075,35 +2104,35 @@
       <c r="E85" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="F85" s="16" t="s">
+      <c r="F85" s="32" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="17"/>
-      <c r="B86" s="17"/>
-      <c r="C86" s="17"/>
+    <row r="86" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="28"/>
+      <c r="B86" s="28"/>
+      <c r="C86" s="28"/>
       <c r="E86" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="F86" s="18"/>
-    </row>
-    <row r="87" spans="1:6" s="8" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="17"/>
-      <c r="B87" s="15"/>
-      <c r="C87" s="15"/>
+      <c r="F86" s="34"/>
+    </row>
+    <row r="87" spans="1:6" s="8" customFormat="1" ht="17.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="28"/>
+      <c r="B87" s="27"/>
+      <c r="C87" s="27"/>
       <c r="D87" s="7"/>
       <c r="E87" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F87" s="19"/>
-    </row>
-    <row r="88" spans="1:6" s="4" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="17"/>
-      <c r="B88" s="14" t="s">
+      <c r="F87" s="35"/>
+    </row>
+    <row r="88" spans="1:6" s="4" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="28"/>
+      <c r="B88" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="C88" s="14" t="s">
+      <c r="C88" s="26" t="s">
         <v>92</v>
       </c>
       <c r="D88" s="3" t="s">
@@ -2112,105 +2141,140 @@
       <c r="E88" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="F88" s="16" t="s">
+      <c r="F88" s="32" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="89" spans="1:6" s="8" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A89" s="15"/>
-      <c r="B89" s="15"/>
-      <c r="C89" s="15"/>
+    <row r="89" spans="1:6" s="8" customFormat="1" ht="17.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="27"/>
+      <c r="B89" s="27"/>
+      <c r="C89" s="27"/>
       <c r="D89" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E89" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="F89" s="15"/>
-    </row>
-    <row r="90" spans="1:6" s="28" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="23" t="s">
+      <c r="F89" s="27"/>
+    </row>
+    <row r="90" spans="1:6" s="17" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="B90" s="23" t="s">
+      <c r="B90" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="C90" s="23" t="s">
+      <c r="C90" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="D90" s="26"/>
-      <c r="E90" s="26" t="s">
+      <c r="D90" s="16"/>
+      <c r="E90" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="F90" s="27"/>
-    </row>
-    <row r="91" spans="1:6" s="33" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="24"/>
-      <c r="B91" s="24"/>
-      <c r="C91" s="24"/>
-      <c r="D91" s="31"/>
-      <c r="E91" s="31" t="s">
+      <c r="F90" s="24"/>
+    </row>
+    <row r="91" spans="1:6" s="21" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="25"/>
+      <c r="B91" s="25"/>
+      <c r="C91" s="25"/>
+      <c r="D91" s="20"/>
+      <c r="E91" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="F91" s="32"/>
-    </row>
-    <row r="92" spans="1:6" s="30" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A92" s="24"/>
-      <c r="B92" s="25"/>
-      <c r="C92" s="25"/>
-      <c r="D92" s="29"/>
-      <c r="E92" s="29" t="s">
+      <c r="F91" s="33"/>
+    </row>
+    <row r="92" spans="1:6" s="19" customFormat="1" ht="17.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="25"/>
+      <c r="B92" s="23"/>
+      <c r="C92" s="23"/>
+      <c r="D92" s="18"/>
+      <c r="E92" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="F92" s="25"/>
-    </row>
-    <row r="93" spans="1:6" s="11" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="24"/>
-      <c r="B93" s="23" t="s">
+      <c r="F92" s="23"/>
+    </row>
+    <row r="93" spans="1:6" s="11" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="25"/>
+      <c r="B93" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="C93" s="23" t="s">
+      <c r="C93" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="D93" s="26" t="s">
+      <c r="D93" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="E93" s="26" t="s">
+      <c r="E93" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="F93" s="27"/>
-    </row>
-    <row r="94" spans="1:6" s="12" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A94" s="25"/>
-      <c r="B94" s="25"/>
-      <c r="C94" s="25"/>
-      <c r="D94" s="29"/>
-      <c r="E94" s="29" t="s">
+      <c r="F93" s="24"/>
+    </row>
+    <row r="94" spans="1:6" s="12" customFormat="1" ht="17.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="23"/>
+      <c r="B94" s="23"/>
+      <c r="C94" s="23"/>
+      <c r="D94" s="18"/>
+      <c r="E94" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="F94" s="25"/>
-    </row>
-    <row r="96" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F96" s="13"/>
-    </row>
-    <row r="97" spans="2:2" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F94" s="23"/>
+    </row>
+    <row r="95" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="B95" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="C95" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="D95" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="E95" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F95" s="14" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="17.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="27"/>
+      <c r="B96" s="27"/>
+      <c r="C96" s="27"/>
+      <c r="D96" s="15"/>
+      <c r="E96" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="F96" s="15" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B97" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="53">
-    <mergeCell ref="B93:B94"/>
-    <mergeCell ref="C93:C94"/>
-    <mergeCell ref="F93:F94"/>
-    <mergeCell ref="A90:A94"/>
-    <mergeCell ref="B78:B79"/>
-    <mergeCell ref="C78:C79"/>
-    <mergeCell ref="F78:F79"/>
-    <mergeCell ref="A68:A79"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C5:C7"/>
+  <mergeCells count="56">
+    <mergeCell ref="C95:C96"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="F90:F92"/>
+    <mergeCell ref="B88:B89"/>
+    <mergeCell ref="C88:C89"/>
+    <mergeCell ref="F88:F89"/>
+    <mergeCell ref="A80:A89"/>
+    <mergeCell ref="B80:B84"/>
+    <mergeCell ref="C80:C84"/>
+    <mergeCell ref="F80:F84"/>
+    <mergeCell ref="F85:F87"/>
+    <mergeCell ref="C85:C87"/>
+    <mergeCell ref="B85:B87"/>
+    <mergeCell ref="B63:B65"/>
+    <mergeCell ref="C63:C65"/>
+    <mergeCell ref="F63:F65"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="B66:B67"/>
     <mergeCell ref="B8:B10"/>
     <mergeCell ref="C8:C10"/>
     <mergeCell ref="A11:A67"/>
@@ -2227,12 +2291,20 @@
     <mergeCell ref="F11:F21"/>
     <mergeCell ref="F22:F23"/>
     <mergeCell ref="F24:F62"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="B93:B94"/>
+    <mergeCell ref="C93:C94"/>
+    <mergeCell ref="F93:F94"/>
+    <mergeCell ref="A90:A94"/>
+    <mergeCell ref="B78:B79"/>
+    <mergeCell ref="C78:C79"/>
+    <mergeCell ref="F78:F79"/>
+    <mergeCell ref="A68:A79"/>
     <mergeCell ref="F76:F77"/>
-    <mergeCell ref="B63:B65"/>
-    <mergeCell ref="C63:C65"/>
-    <mergeCell ref="F63:F65"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="B66:B67"/>
     <mergeCell ref="B68:B75"/>
     <mergeCell ref="C68:C75"/>
     <mergeCell ref="F68:F75"/>
@@ -2240,17 +2312,6 @@
     <mergeCell ref="C76:C77"/>
     <mergeCell ref="B90:B92"/>
     <mergeCell ref="C90:C92"/>
-    <mergeCell ref="F90:F92"/>
-    <mergeCell ref="B88:B89"/>
-    <mergeCell ref="C88:C89"/>
-    <mergeCell ref="F88:F89"/>
-    <mergeCell ref="A80:A89"/>
-    <mergeCell ref="B80:B84"/>
-    <mergeCell ref="C80:C84"/>
-    <mergeCell ref="F80:F84"/>
-    <mergeCell ref="F85:F87"/>
-    <mergeCell ref="C85:C87"/>
-    <mergeCell ref="B85:B87"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/BACKEND.xlsx
+++ b/BACKEND.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="152">
   <si>
     <t>Pathname</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -502,14 +502,6 @@
   </si>
   <si>
     <t>deleteByUrl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>专家根据审核状态获取申请</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>expertGetApplicationByState</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -568,10 +560,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>setApplicationScore</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>applicationId: int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -584,6 +572,46 @@
   </si>
   <si>
     <t>score: double</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>err: bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>专家接受/拒绝评审</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>setAssessmentScore</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>accept: bool</t>
+  </si>
+  <si>
+    <t>若 accept = false，
+则后台会自动选择1个专家发送邀请邮件，并向数据库插入评审</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>专家根据评审审核状态获取申请</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>expertGetApplicationByAssessmentState</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>expertAcceptAssessment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>applicationId: int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>expertId: int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -642,7 +670,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -782,24 +810,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -845,25 +862,64 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -878,44 +934,8 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1230,18 +1250,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F108"/>
+  <dimension ref="A1:F109"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A91" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E92" sqref="E92"/>
+      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D83" sqref="D83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.83203125" defaultRowHeight="17.5" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.6640625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="25" style="4" customWidth="1"/>
-    <col min="3" max="3" width="29.1640625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="29.1640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="37.5" style="4" customWidth="1"/>
     <col min="4" max="4" width="31.25" style="4" customWidth="1"/>
     <col min="5" max="5" width="20.83203125" style="4"/>
     <col min="6" max="6" width="29.1640625" style="4" customWidth="1"/>
@@ -1266,13 +1286,13 @@
       </c>
     </row>
     <row r="2" spans="1:6" s="3" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="24" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="10" t="s">
@@ -1281,38 +1301,38 @@
       <c r="E2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="F2" s="24" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="30"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
+      <c r="A3" s="33"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
       <c r="D3" s="12" t="s">
         <v>4</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="28"/>
+      <c r="F3" s="25"/>
     </row>
     <row r="4" spans="1:6" s="6" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="30"/>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
+      <c r="A4" s="33"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
       <c r="D4" s="11"/>
       <c r="E4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="27"/>
+      <c r="F4" s="26"/>
     </row>
     <row r="5" spans="1:6" s="3" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="30"/>
-      <c r="B5" s="26" t="s">
+      <c r="A5" s="33"/>
+      <c r="B5" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="24" t="s">
         <v>99</v>
       </c>
       <c r="D5" s="10" t="s">
@@ -1321,34 +1341,34 @@
       <c r="E5" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="26"/>
+      <c r="F5" s="24"/>
     </row>
     <row r="6" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="30"/>
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
+      <c r="A6" s="33"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
       <c r="D6" s="12"/>
       <c r="E6" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="28"/>
+      <c r="F6" s="25"/>
     </row>
     <row r="7" spans="1:6" s="6" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="30"/>
-      <c r="B7" s="27"/>
-      <c r="C7" s="27"/>
+      <c r="A7" s="33"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
       <c r="D7" s="11"/>
       <c r="E7" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="27"/>
+      <c r="F7" s="26"/>
     </row>
     <row r="8" spans="1:6" s="3" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="30"/>
-      <c r="B8" s="26" t="s">
+      <c r="A8" s="33"/>
+      <c r="B8" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="24" t="s">
         <v>100</v>
       </c>
       <c r="D8" s="10" t="s">
@@ -1357,36 +1377,36 @@
       <c r="E8" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="26"/>
+      <c r="F8" s="24"/>
     </row>
     <row r="9" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="30"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="28"/>
+      <c r="A9" s="33"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
       <c r="D9" s="12"/>
       <c r="E9" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="28"/>
+      <c r="F9" s="25"/>
     </row>
     <row r="10" spans="1:6" s="6" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="31"/>
-      <c r="B10" s="27"/>
-      <c r="C10" s="27"/>
+      <c r="A10" s="34"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="26"/>
       <c r="D10" s="11"/>
       <c r="E10" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="27"/>
+      <c r="F10" s="26"/>
     </row>
     <row r="11" spans="1:6" s="3" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="26" t="s">
+      <c r="A11" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="C11" s="26" t="s">
+      <c r="C11" s="24" t="s">
         <v>13</v>
       </c>
       <c r="D11" s="10" t="s">
@@ -1395,116 +1415,116 @@
       <c r="E11" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="26"/>
+      <c r="F11" s="24"/>
     </row>
     <row r="12" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="28"/>
-      <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
+      <c r="A12" s="25"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
       <c r="D12" s="12" t="s">
         <v>16</v>
       </c>
       <c r="E12" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F12" s="28"/>
+      <c r="F12" s="25"/>
     </row>
     <row r="13" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="28"/>
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
+      <c r="A13" s="25"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
       <c r="D13" s="12" t="s">
         <v>17</v>
       </c>
       <c r="E13" s="12"/>
-      <c r="F13" s="28"/>
+      <c r="F13" s="25"/>
     </row>
     <row r="14" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="28"/>
-      <c r="B14" s="28"/>
-      <c r="C14" s="28"/>
+      <c r="A14" s="25"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
       <c r="D14" s="12" t="s">
         <v>18</v>
       </c>
       <c r="E14" s="12"/>
-      <c r="F14" s="28"/>
+      <c r="F14" s="25"/>
     </row>
     <row r="15" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="28"/>
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
+      <c r="A15" s="25"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
       <c r="D15" s="12" t="s">
         <v>19</v>
       </c>
       <c r="E15" s="12"/>
-      <c r="F15" s="28"/>
+      <c r="F15" s="25"/>
     </row>
     <row r="16" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="28"/>
-      <c r="B16" s="28"/>
-      <c r="C16" s="28"/>
+      <c r="A16" s="25"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
       <c r="D16" s="12" t="s">
         <v>20</v>
       </c>
       <c r="E16" s="12"/>
-      <c r="F16" s="28"/>
+      <c r="F16" s="25"/>
     </row>
     <row r="17" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="28"/>
-      <c r="B17" s="28"/>
-      <c r="C17" s="28"/>
+      <c r="A17" s="25"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
       <c r="D17" s="12" t="s">
         <v>21</v>
       </c>
       <c r="E17" s="12"/>
-      <c r="F17" s="28"/>
+      <c r="F17" s="25"/>
     </row>
     <row r="18" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="28"/>
-      <c r="B18" s="28"/>
-      <c r="C18" s="28"/>
+      <c r="A18" s="25"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
       <c r="D18" s="12" t="s">
         <v>22</v>
       </c>
       <c r="E18" s="12"/>
-      <c r="F18" s="28"/>
+      <c r="F18" s="25"/>
     </row>
     <row r="19" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="28"/>
-      <c r="B19" s="28"/>
-      <c r="C19" s="28"/>
+      <c r="A19" s="25"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="25"/>
       <c r="D19" s="12" t="s">
         <v>23</v>
       </c>
       <c r="E19" s="12"/>
-      <c r="F19" s="28"/>
+      <c r="F19" s="25"/>
     </row>
     <row r="20" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="28"/>
-      <c r="B20" s="28"/>
-      <c r="C20" s="28"/>
+      <c r="A20" s="25"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
       <c r="D20" s="12" t="s">
         <v>24</v>
       </c>
       <c r="E20" s="12"/>
-      <c r="F20" s="28"/>
+      <c r="F20" s="25"/>
     </row>
     <row r="21" spans="1:6" s="6" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="28"/>
-      <c r="B21" s="27"/>
-      <c r="C21" s="27"/>
+      <c r="A21" s="25"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="26"/>
       <c r="D21" s="11" t="s">
         <v>26</v>
       </c>
       <c r="E21" s="11"/>
-      <c r="F21" s="27"/>
+      <c r="F21" s="26"/>
     </row>
     <row r="22" spans="1:6" s="3" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="28"/>
-      <c r="B22" s="26" t="s">
+      <c r="A22" s="25"/>
+      <c r="B22" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="C22" s="26" t="s">
+      <c r="C22" s="24" t="s">
         <v>27</v>
       </c>
       <c r="D22" s="10" t="s">
@@ -1513,36 +1533,36 @@
       <c r="E22" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F22" s="26"/>
+      <c r="F22" s="24"/>
     </row>
     <row r="23" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="28"/>
-      <c r="B23" s="28"/>
-      <c r="C23" s="28"/>
+      <c r="A23" s="25"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="25"/>
       <c r="D23" s="12" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E23" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F23" s="28"/>
+      <c r="F23" s="25"/>
     </row>
     <row r="24" spans="1:6" s="6" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="28"/>
-      <c r="B24" s="27"/>
-      <c r="C24" s="27"/>
+      <c r="A24" s="25"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="26"/>
       <c r="D24" s="11"/>
       <c r="E24" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F24" s="27"/>
+      <c r="F24" s="26"/>
     </row>
     <row r="25" spans="1:6" s="3" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="28"/>
-      <c r="B25" s="26" t="s">
+      <c r="A25" s="25"/>
+      <c r="B25" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="C25" s="26" t="s">
+      <c r="C25" s="24" t="s">
         <v>28</v>
       </c>
       <c r="D25" s="10" t="s">
@@ -1551,400 +1571,400 @@
       <c r="E25" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F25" s="32" t="s">
-        <v>137</v>
+      <c r="F25" s="27" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="28"/>
-      <c r="B26" s="28"/>
-      <c r="C26" s="28"/>
+      <c r="A26" s="25"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="25"/>
       <c r="D26" s="12" t="s">
         <v>112</v>
       </c>
       <c r="E26" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="F26" s="28"/>
+      <c r="F26" s="25"/>
     </row>
     <row r="27" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="28"/>
-      <c r="B27" s="28"/>
-      <c r="C27" s="28"/>
+      <c r="A27" s="25"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="25"/>
       <c r="D27" s="12" t="s">
         <v>110</v>
       </c>
       <c r="E27" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="F27" s="28"/>
+      <c r="F27" s="25"/>
     </row>
     <row r="28" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="28"/>
-      <c r="B28" s="28"/>
-      <c r="C28" s="28"/>
+      <c r="A28" s="25"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="25"/>
       <c r="D28" s="12" t="s">
         <v>26</v>
       </c>
       <c r="E28" s="5"/>
-      <c r="F28" s="28"/>
+      <c r="F28" s="25"/>
     </row>
     <row r="29" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="28"/>
-      <c r="B29" s="28"/>
-      <c r="C29" s="28"/>
+      <c r="A29" s="25"/>
+      <c r="B29" s="25"/>
+      <c r="C29" s="25"/>
       <c r="D29" s="12" t="s">
         <v>29</v>
       </c>
       <c r="E29" s="5"/>
-      <c r="F29" s="28"/>
+      <c r="F29" s="25"/>
     </row>
     <row r="30" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="28"/>
-      <c r="B30" s="28"/>
-      <c r="C30" s="28"/>
+      <c r="A30" s="25"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="25"/>
       <c r="D30" s="12" t="s">
         <v>109</v>
       </c>
       <c r="E30" s="12"/>
-      <c r="F30" s="28"/>
+      <c r="F30" s="25"/>
     </row>
     <row r="31" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="28"/>
-      <c r="B31" s="28"/>
-      <c r="C31" s="28"/>
+      <c r="A31" s="25"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="25"/>
       <c r="D31" s="12" t="s">
         <v>30</v>
       </c>
       <c r="E31" s="12"/>
-      <c r="F31" s="28"/>
+      <c r="F31" s="25"/>
     </row>
     <row r="32" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="28"/>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
+      <c r="A32" s="25"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="25"/>
       <c r="D32" s="12" t="s">
         <v>24</v>
       </c>
       <c r="E32" s="12"/>
-      <c r="F32" s="28"/>
+      <c r="F32" s="25"/>
     </row>
     <row r="33" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="28"/>
-      <c r="B33" s="28"/>
-      <c r="C33" s="28"/>
+      <c r="A33" s="25"/>
+      <c r="B33" s="25"/>
+      <c r="C33" s="25"/>
       <c r="D33" s="12" t="s">
         <v>31</v>
       </c>
       <c r="E33" s="12"/>
-      <c r="F33" s="28"/>
+      <c r="F33" s="25"/>
     </row>
     <row r="34" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="28"/>
-      <c r="B34" s="28"/>
-      <c r="C34" s="28"/>
+      <c r="A34" s="25"/>
+      <c r="B34" s="25"/>
+      <c r="C34" s="25"/>
       <c r="D34" s="12" t="s">
         <v>32</v>
       </c>
       <c r="E34" s="12"/>
-      <c r="F34" s="28"/>
+      <c r="F34" s="25"/>
     </row>
     <row r="35" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="28"/>
-      <c r="B35" s="28"/>
-      <c r="C35" s="28"/>
+      <c r="A35" s="25"/>
+      <c r="B35" s="25"/>
+      <c r="C35" s="25"/>
       <c r="D35" s="12" t="s">
         <v>33</v>
       </c>
       <c r="E35" s="12"/>
-      <c r="F35" s="28"/>
+      <c r="F35" s="25"/>
     </row>
     <row r="36" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="28"/>
-      <c r="B36" s="28"/>
-      <c r="C36" s="28"/>
+      <c r="A36" s="25"/>
+      <c r="B36" s="25"/>
+      <c r="C36" s="25"/>
       <c r="D36" s="12" t="s">
         <v>34</v>
       </c>
       <c r="E36" s="12"/>
-      <c r="F36" s="28"/>
+      <c r="F36" s="25"/>
     </row>
     <row r="37" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="28"/>
-      <c r="B37" s="28"/>
-      <c r="C37" s="28"/>
+      <c r="A37" s="25"/>
+      <c r="B37" s="25"/>
+      <c r="C37" s="25"/>
       <c r="D37" s="12" t="s">
         <v>35</v>
       </c>
       <c r="E37" s="12"/>
-      <c r="F37" s="28"/>
+      <c r="F37" s="25"/>
     </row>
     <row r="38" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="28"/>
-      <c r="B38" s="28"/>
-      <c r="C38" s="28"/>
+      <c r="A38" s="25"/>
+      <c r="B38" s="25"/>
+      <c r="C38" s="25"/>
       <c r="D38" s="12" t="s">
         <v>36</v>
       </c>
       <c r="E38" s="12"/>
-      <c r="F38" s="28"/>
+      <c r="F38" s="25"/>
     </row>
     <row r="39" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="28"/>
-      <c r="B39" s="28"/>
-      <c r="C39" s="28"/>
+      <c r="A39" s="25"/>
+      <c r="B39" s="25"/>
+      <c r="C39" s="25"/>
       <c r="D39" s="12" t="s">
         <v>108</v>
       </c>
       <c r="E39" s="12"/>
-      <c r="F39" s="28"/>
+      <c r="F39" s="25"/>
     </row>
     <row r="40" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="28"/>
-      <c r="B40" s="28"/>
-      <c r="C40" s="28"/>
+      <c r="A40" s="25"/>
+      <c r="B40" s="25"/>
+      <c r="C40" s="25"/>
       <c r="D40" s="12" t="s">
         <v>37</v>
       </c>
       <c r="E40" s="12"/>
-      <c r="F40" s="28"/>
+      <c r="F40" s="25"/>
     </row>
     <row r="41" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="28"/>
-      <c r="B41" s="28"/>
-      <c r="C41" s="28"/>
+      <c r="A41" s="25"/>
+      <c r="B41" s="25"/>
+      <c r="C41" s="25"/>
       <c r="D41" s="12" t="s">
         <v>38</v>
       </c>
       <c r="E41" s="12"/>
-      <c r="F41" s="28"/>
+      <c r="F41" s="25"/>
     </row>
     <row r="42" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="28"/>
-      <c r="B42" s="28"/>
-      <c r="C42" s="28"/>
+      <c r="A42" s="25"/>
+      <c r="B42" s="25"/>
+      <c r="C42" s="25"/>
       <c r="D42" s="12" t="s">
         <v>39</v>
       </c>
       <c r="E42" s="12"/>
-      <c r="F42" s="28"/>
+      <c r="F42" s="25"/>
     </row>
     <row r="43" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="28"/>
-      <c r="B43" s="28"/>
-      <c r="C43" s="28"/>
+      <c r="A43" s="25"/>
+      <c r="B43" s="25"/>
+      <c r="C43" s="25"/>
       <c r="D43" s="12" t="s">
         <v>40</v>
       </c>
       <c r="E43" s="12"/>
-      <c r="F43" s="28"/>
+      <c r="F43" s="25"/>
     </row>
     <row r="44" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="28"/>
-      <c r="B44" s="28"/>
-      <c r="C44" s="28"/>
+      <c r="A44" s="25"/>
+      <c r="B44" s="25"/>
+      <c r="C44" s="25"/>
       <c r="D44" s="12" t="s">
         <v>107</v>
       </c>
       <c r="E44" s="12"/>
-      <c r="F44" s="28"/>
+      <c r="F44" s="25"/>
     </row>
     <row r="45" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="28"/>
-      <c r="B45" s="28"/>
-      <c r="C45" s="28"/>
+      <c r="A45" s="25"/>
+      <c r="B45" s="25"/>
+      <c r="C45" s="25"/>
       <c r="D45" s="12" t="s">
         <v>41</v>
       </c>
       <c r="E45" s="12"/>
-      <c r="F45" s="28"/>
+      <c r="F45" s="25"/>
     </row>
     <row r="46" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="28"/>
-      <c r="B46" s="28"/>
-      <c r="C46" s="28"/>
+      <c r="A46" s="25"/>
+      <c r="B46" s="25"/>
+      <c r="C46" s="25"/>
       <c r="D46" s="12" t="s">
         <v>42</v>
       </c>
       <c r="E46" s="12"/>
-      <c r="F46" s="28"/>
+      <c r="F46" s="25"/>
     </row>
     <row r="47" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="28"/>
-      <c r="B47" s="28"/>
-      <c r="C47" s="28"/>
+      <c r="A47" s="25"/>
+      <c r="B47" s="25"/>
+      <c r="C47" s="25"/>
       <c r="D47" s="12" t="s">
         <v>43</v>
       </c>
       <c r="E47" s="12"/>
-      <c r="F47" s="28"/>
+      <c r="F47" s="25"/>
     </row>
     <row r="48" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="28"/>
-      <c r="B48" s="28"/>
-      <c r="C48" s="28"/>
+      <c r="A48" s="25"/>
+      <c r="B48" s="25"/>
+      <c r="C48" s="25"/>
       <c r="D48" s="12" t="s">
         <v>44</v>
       </c>
       <c r="E48" s="12"/>
-      <c r="F48" s="28"/>
+      <c r="F48" s="25"/>
     </row>
     <row r="49" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="28"/>
-      <c r="B49" s="28"/>
-      <c r="C49" s="28"/>
+      <c r="A49" s="25"/>
+      <c r="B49" s="25"/>
+      <c r="C49" s="25"/>
       <c r="D49" s="12" t="s">
         <v>106</v>
       </c>
       <c r="E49" s="12"/>
-      <c r="F49" s="28"/>
+      <c r="F49" s="25"/>
     </row>
     <row r="50" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="28"/>
-      <c r="B50" s="28"/>
-      <c r="C50" s="28"/>
+      <c r="A50" s="25"/>
+      <c r="B50" s="25"/>
+      <c r="C50" s="25"/>
       <c r="D50" s="12" t="s">
         <v>45</v>
       </c>
       <c r="E50" s="12"/>
-      <c r="F50" s="28"/>
+      <c r="F50" s="25"/>
     </row>
     <row r="51" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="28"/>
-      <c r="B51" s="28"/>
-      <c r="C51" s="28"/>
+      <c r="A51" s="25"/>
+      <c r="B51" s="25"/>
+      <c r="C51" s="25"/>
       <c r="D51" s="12" t="s">
         <v>46</v>
       </c>
       <c r="E51" s="12"/>
-      <c r="F51" s="28"/>
+      <c r="F51" s="25"/>
     </row>
     <row r="52" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="28"/>
-      <c r="B52" s="28"/>
-      <c r="C52" s="28"/>
+      <c r="A52" s="25"/>
+      <c r="B52" s="25"/>
+      <c r="C52" s="25"/>
       <c r="D52" s="12" t="s">
         <v>47</v>
       </c>
       <c r="E52" s="12"/>
-      <c r="F52" s="28"/>
+      <c r="F52" s="25"/>
     </row>
     <row r="53" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="28"/>
-      <c r="B53" s="28"/>
-      <c r="C53" s="28"/>
+      <c r="A53" s="25"/>
+      <c r="B53" s="25"/>
+      <c r="C53" s="25"/>
       <c r="D53" s="12" t="s">
         <v>48</v>
       </c>
       <c r="E53" s="12"/>
-      <c r="F53" s="28"/>
+      <c r="F53" s="25"/>
     </row>
     <row r="54" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="28"/>
-      <c r="B54" s="28"/>
-      <c r="C54" s="28"/>
+      <c r="A54" s="25"/>
+      <c r="B54" s="25"/>
+      <c r="C54" s="25"/>
       <c r="D54" s="12" t="s">
         <v>105</v>
       </c>
       <c r="E54" s="12"/>
-      <c r="F54" s="28"/>
+      <c r="F54" s="25"/>
     </row>
     <row r="55" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="28"/>
-      <c r="B55" s="28"/>
-      <c r="C55" s="28"/>
+      <c r="A55" s="25"/>
+      <c r="B55" s="25"/>
+      <c r="C55" s="25"/>
       <c r="D55" s="12" t="s">
         <v>49</v>
       </c>
       <c r="E55" s="12"/>
-      <c r="F55" s="28"/>
+      <c r="F55" s="25"/>
     </row>
     <row r="56" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="28"/>
-      <c r="B56" s="28"/>
-      <c r="C56" s="28"/>
+      <c r="A56" s="25"/>
+      <c r="B56" s="25"/>
+      <c r="C56" s="25"/>
       <c r="D56" s="12" t="s">
         <v>50</v>
       </c>
       <c r="E56" s="12"/>
-      <c r="F56" s="28"/>
+      <c r="F56" s="25"/>
     </row>
     <row r="57" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="28"/>
-      <c r="B57" s="28"/>
-      <c r="C57" s="28"/>
+      <c r="A57" s="25"/>
+      <c r="B57" s="25"/>
+      <c r="C57" s="25"/>
       <c r="D57" s="12" t="s">
         <v>51</v>
       </c>
       <c r="E57" s="12"/>
-      <c r="F57" s="28"/>
+      <c r="F57" s="25"/>
     </row>
     <row r="58" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="28"/>
-      <c r="B58" s="28"/>
-      <c r="C58" s="28"/>
+      <c r="A58" s="25"/>
+      <c r="B58" s="25"/>
+      <c r="C58" s="25"/>
       <c r="D58" s="12" t="s">
         <v>52</v>
       </c>
       <c r="E58" s="12"/>
-      <c r="F58" s="28"/>
+      <c r="F58" s="25"/>
     </row>
     <row r="59" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="28"/>
-      <c r="B59" s="28"/>
-      <c r="C59" s="28"/>
+      <c r="A59" s="25"/>
+      <c r="B59" s="25"/>
+      <c r="C59" s="25"/>
       <c r="D59" s="12" t="s">
         <v>113</v>
       </c>
       <c r="E59" s="12"/>
-      <c r="F59" s="28"/>
+      <c r="F59" s="25"/>
     </row>
     <row r="60" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="28"/>
-      <c r="B60" s="28"/>
-      <c r="C60" s="28"/>
+      <c r="A60" s="25"/>
+      <c r="B60" s="25"/>
+      <c r="C60" s="25"/>
       <c r="D60" s="12" t="s">
         <v>53</v>
       </c>
       <c r="E60" s="12"/>
-      <c r="F60" s="28"/>
+      <c r="F60" s="25"/>
     </row>
     <row r="61" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="28"/>
-      <c r="B61" s="28"/>
-      <c r="C61" s="28"/>
+      <c r="A61" s="25"/>
+      <c r="B61" s="25"/>
+      <c r="C61" s="25"/>
       <c r="D61" s="12" t="s">
         <v>54</v>
       </c>
       <c r="E61" s="12"/>
-      <c r="F61" s="28"/>
+      <c r="F61" s="25"/>
     </row>
     <row r="62" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="28"/>
-      <c r="B62" s="28"/>
-      <c r="C62" s="28"/>
+      <c r="A62" s="25"/>
+      <c r="B62" s="25"/>
+      <c r="C62" s="25"/>
       <c r="D62" s="12" t="s">
         <v>118</v>
       </c>
       <c r="E62" s="12"/>
-      <c r="F62" s="28"/>
+      <c r="F62" s="25"/>
     </row>
     <row r="63" spans="1:6" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="28"/>
-      <c r="B63" s="28"/>
-      <c r="C63" s="28"/>
+      <c r="A63" s="25"/>
+      <c r="B63" s="25"/>
+      <c r="C63" s="25"/>
       <c r="D63" s="12" t="s">
         <v>117</v>
       </c>
       <c r="E63" s="12"/>
-      <c r="F63" s="28"/>
+      <c r="F63" s="25"/>
     </row>
     <row r="64" spans="1:6" s="3" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="28"/>
-      <c r="B64" s="26" t="s">
+      <c r="A64" s="25"/>
+      <c r="B64" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="C64" s="26" t="s">
+      <c r="C64" s="24" t="s">
         <v>58</v>
       </c>
       <c r="D64" s="10" t="s">
@@ -1953,36 +1973,36 @@
       <c r="E64" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="F64" s="26"/>
+      <c r="F64" s="24"/>
     </row>
     <row r="65" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="28"/>
-      <c r="B65" s="28"/>
-      <c r="C65" s="28"/>
+      <c r="A65" s="25"/>
+      <c r="B65" s="25"/>
+      <c r="C65" s="25"/>
       <c r="D65" s="12" t="s">
         <v>59</v>
       </c>
       <c r="E65" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="F65" s="28"/>
+      <c r="F65" s="25"/>
     </row>
     <row r="66" spans="1:6" s="6" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="28"/>
-      <c r="B66" s="27"/>
-      <c r="C66" s="27"/>
+      <c r="A66" s="25"/>
+      <c r="B66" s="26"/>
+      <c r="C66" s="26"/>
       <c r="D66" s="11"/>
       <c r="E66" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="F66" s="27"/>
+      <c r="F66" s="26"/>
     </row>
     <row r="67" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="28"/>
-      <c r="B67" s="26" t="s">
+      <c r="A67" s="25"/>
+      <c r="B67" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="C67" s="26" t="s">
+      <c r="C67" s="24" t="s">
         <v>95</v>
       </c>
       <c r="D67" s="12" t="s">
@@ -1991,28 +2011,28 @@
       <c r="E67" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="F67" s="26"/>
+      <c r="F67" s="24"/>
     </row>
     <row r="68" spans="1:6" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="27"/>
-      <c r="B68" s="27"/>
-      <c r="C68" s="27"/>
+      <c r="A68" s="26"/>
+      <c r="B68" s="26"/>
+      <c r="C68" s="26"/>
       <c r="D68" s="12" t="s">
         <v>93</v>
       </c>
       <c r="E68" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="F68" s="27"/>
+      <c r="F68" s="26"/>
     </row>
     <row r="69" spans="1:6" s="3" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="26" t="s">
+      <c r="A69" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="B69" s="26" t="s">
+      <c r="B69" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="C69" s="26" t="s">
+      <c r="C69" s="24" t="s">
         <v>72</v>
       </c>
       <c r="D69" s="10" t="s">
@@ -2021,86 +2041,86 @@
       <c r="E69" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="F69" s="26"/>
+      <c r="F69" s="24"/>
     </row>
     <row r="70" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="28"/>
-      <c r="B70" s="28"/>
-      <c r="C70" s="28"/>
+      <c r="A70" s="25"/>
+      <c r="B70" s="25"/>
+      <c r="C70" s="25"/>
       <c r="D70" s="12" t="s">
         <v>16</v>
       </c>
       <c r="E70" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F70" s="28"/>
+      <c r="F70" s="25"/>
     </row>
     <row r="71" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="28"/>
-      <c r="B71" s="28"/>
-      <c r="C71" s="28"/>
+      <c r="A71" s="25"/>
+      <c r="B71" s="25"/>
+      <c r="C71" s="25"/>
       <c r="D71" s="12" t="s">
         <v>17</v>
       </c>
       <c r="E71" s="12"/>
-      <c r="F71" s="28"/>
+      <c r="F71" s="25"/>
     </row>
     <row r="72" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="28"/>
-      <c r="B72" s="28"/>
-      <c r="C72" s="28"/>
+      <c r="A72" s="25"/>
+      <c r="B72" s="25"/>
+      <c r="C72" s="25"/>
       <c r="D72" s="12" t="s">
         <v>18</v>
       </c>
       <c r="E72" s="5"/>
-      <c r="F72" s="28"/>
+      <c r="F72" s="25"/>
     </row>
     <row r="73" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="28"/>
-      <c r="B73" s="28"/>
-      <c r="C73" s="28"/>
+      <c r="A73" s="25"/>
+      <c r="B73" s="25"/>
+      <c r="C73" s="25"/>
       <c r="D73" s="12" t="s">
         <v>19</v>
       </c>
       <c r="E73" s="12"/>
-      <c r="F73" s="28"/>
+      <c r="F73" s="25"/>
     </row>
     <row r="74" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="28"/>
-      <c r="B74" s="28"/>
-      <c r="C74" s="28"/>
+      <c r="A74" s="25"/>
+      <c r="B74" s="25"/>
+      <c r="C74" s="25"/>
       <c r="D74" s="12" t="s">
         <v>20</v>
       </c>
       <c r="E74" s="12"/>
-      <c r="F74" s="28"/>
+      <c r="F74" s="25"/>
     </row>
     <row r="75" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="28"/>
-      <c r="B75" s="28"/>
-      <c r="C75" s="28"/>
+      <c r="A75" s="25"/>
+      <c r="B75" s="25"/>
+      <c r="C75" s="25"/>
       <c r="D75" s="12" t="s">
         <v>103</v>
       </c>
       <c r="E75" s="12"/>
-      <c r="F75" s="28"/>
+      <c r="F75" s="25"/>
     </row>
     <row r="76" spans="1:6" s="6" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="28"/>
-      <c r="B76" s="27"/>
-      <c r="C76" s="27"/>
+      <c r="A76" s="25"/>
+      <c r="B76" s="26"/>
+      <c r="C76" s="26"/>
       <c r="D76" s="11" t="s">
         <v>104</v>
       </c>
       <c r="E76" s="11"/>
-      <c r="F76" s="27"/>
+      <c r="F76" s="26"/>
     </row>
     <row r="77" spans="1:6" s="3" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="28"/>
-      <c r="B77" s="26" t="s">
+      <c r="A77" s="25"/>
+      <c r="B77" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="C77" s="26" t="s">
+      <c r="C77" s="24" t="s">
         <v>76</v>
       </c>
       <c r="D77" s="10" t="s">
@@ -2109,36 +2129,36 @@
       <c r="E77" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="F77" s="26"/>
+      <c r="F77" s="24"/>
     </row>
     <row r="78" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="28"/>
-      <c r="B78" s="28"/>
-      <c r="C78" s="28"/>
+      <c r="A78" s="25"/>
+      <c r="B78" s="25"/>
+      <c r="C78" s="25"/>
       <c r="D78" s="12" t="s">
         <v>15</v>
       </c>
       <c r="E78" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="F78" s="28"/>
+        <v>130</v>
+      </c>
+      <c r="F78" s="25"/>
     </row>
     <row r="79" spans="1:6" s="6" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="28"/>
-      <c r="B79" s="27"/>
-      <c r="C79" s="27"/>
+      <c r="A79" s="25"/>
+      <c r="B79" s="26"/>
+      <c r="C79" s="26"/>
       <c r="D79" s="11"/>
       <c r="E79" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="F79" s="27"/>
+        <v>131</v>
+      </c>
+      <c r="F79" s="26"/>
     </row>
     <row r="80" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="28"/>
-      <c r="B80" s="26" t="s">
+      <c r="A80" s="25"/>
+      <c r="B80" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="C80" s="26" t="s">
+      <c r="C80" s="24" t="s">
         <v>98</v>
       </c>
       <c r="D80" s="12" t="s">
@@ -2147,341 +2167,363 @@
       <c r="E80" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="F80" s="26"/>
+      <c r="F80" s="24"/>
     </row>
     <row r="81" spans="1:6" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="28"/>
-      <c r="B81" s="27"/>
-      <c r="C81" s="27"/>
+      <c r="A81" s="25"/>
+      <c r="B81" s="26"/>
+      <c r="C81" s="26"/>
       <c r="D81" s="12" t="s">
         <v>93</v>
       </c>
       <c r="E81" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="F81" s="27"/>
+      <c r="F81" s="26"/>
     </row>
     <row r="82" spans="1:6" s="3" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="28"/>
-      <c r="B82" s="26" t="s">
+      <c r="A82" s="25"/>
+      <c r="B82" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="C82" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="D82" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="E82" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="C82" s="26" t="s">
+      <c r="F82" s="27"/>
+    </row>
+    <row r="83" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="25"/>
+      <c r="B83" s="25"/>
+      <c r="C83" s="25"/>
+      <c r="D83" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="E83" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="D82" s="10" t="s">
+      <c r="F83" s="28"/>
+    </row>
+    <row r="84" spans="1:6" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A84" s="25"/>
+      <c r="B84" s="26"/>
+      <c r="C84" s="26"/>
+      <c r="D84" s="23"/>
+      <c r="E84" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="F84" s="29"/>
+    </row>
+    <row r="85" spans="1:6" s="3" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="25"/>
+      <c r="B85" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="C85" s="24" t="s">
+        <v>149</v>
+      </c>
+      <c r="D85" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="E85" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="E82" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="F82" s="32"/>
-    </row>
-    <row r="83" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="28"/>
-      <c r="B83" s="28"/>
-      <c r="C83" s="28"/>
-      <c r="D83" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="E83" s="12" t="s">
+      <c r="F85" s="27" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="25"/>
+      <c r="B86" s="25"/>
+      <c r="C86" s="25"/>
+      <c r="D86" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="E86" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="F86" s="28"/>
+    </row>
+    <row r="87" spans="1:6" s="6" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A87" s="25"/>
+      <c r="B87" s="26"/>
+      <c r="C87" s="26"/>
+      <c r="D87" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="E87" s="22"/>
+      <c r="F87" s="29"/>
+    </row>
+    <row r="88" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="25"/>
+      <c r="B88" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="C88" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="D88" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="E88" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="F88" s="27"/>
+    </row>
+    <row r="89" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="25"/>
+      <c r="B89" s="25"/>
+      <c r="C89" s="25"/>
+      <c r="D89" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="E89" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F89" s="28"/>
+    </row>
+    <row r="90" spans="1:6" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A90" s="26"/>
+      <c r="B90" s="26"/>
+      <c r="C90" s="26"/>
+      <c r="D90" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="E90" s="12"/>
+      <c r="F90" s="29"/>
+    </row>
+    <row r="91" spans="1:6" s="3" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="B91" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="C91" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="D91" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="E91" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F91" s="24" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="25"/>
+      <c r="B92" s="25"/>
+      <c r="C92" s="25"/>
+      <c r="D92" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="E92" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="F92" s="25"/>
+    </row>
+    <row r="93" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="25"/>
+      <c r="B93" s="25"/>
+      <c r="C93" s="25"/>
+      <c r="D93" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="E93" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="F93" s="25"/>
+    </row>
+    <row r="94" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="25"/>
+      <c r="B94" s="25"/>
+      <c r="C94" s="25"/>
+      <c r="D94" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="E94" s="12"/>
+      <c r="F94" s="25"/>
+    </row>
+    <row r="95" spans="1:6" s="6" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A95" s="25"/>
+      <c r="B95" s="26"/>
+      <c r="C95" s="26"/>
+      <c r="D95" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="F95" s="26"/>
+    </row>
+    <row r="96" spans="1:6" s="3" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="25"/>
+      <c r="B96" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="C96" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="D96" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="E96" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="F96" s="27"/>
+    </row>
+    <row r="97" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="25"/>
+      <c r="B97" s="25"/>
+      <c r="C97" s="31"/>
+      <c r="D97" s="12"/>
+      <c r="E97" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="F97" s="28"/>
+    </row>
+    <row r="98" spans="1:6" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A98" s="25"/>
+      <c r="B98" s="25"/>
+      <c r="C98" s="31"/>
+      <c r="D98" s="12"/>
+      <c r="E98" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="F98" s="28"/>
+    </row>
+    <row r="99" spans="1:6" s="3" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="25"/>
+      <c r="B99" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="C99" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="D99" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="E99" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="F99" s="27" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="25"/>
+      <c r="B100" s="25"/>
+      <c r="C100" s="25"/>
+      <c r="D100" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="F83" s="34"/>
-    </row>
-    <row r="84" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="28"/>
-      <c r="B84" s="28"/>
-      <c r="C84" s="28"/>
-      <c r="D84" s="12"/>
-      <c r="E84" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="F84" s="34"/>
-    </row>
-    <row r="85" spans="1:6" s="6" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="28"/>
-      <c r="B85" s="27"/>
-      <c r="C85" s="27"/>
-      <c r="D85" s="11"/>
-      <c r="E85" s="11"/>
-      <c r="F85" s="35"/>
-    </row>
-    <row r="86" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="28"/>
-      <c r="B86" s="26" t="s">
-        <v>139</v>
-      </c>
-      <c r="C86" s="26" t="s">
-        <v>140</v>
-      </c>
-      <c r="D86" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="E86" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="F86" s="32"/>
-    </row>
-    <row r="87" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="28"/>
-      <c r="B87" s="28"/>
-      <c r="C87" s="28"/>
-      <c r="D87" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="E87" s="12" t="s">
+      <c r="E100" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F100" s="28"/>
+    </row>
+    <row r="101" spans="1:6" s="6" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A101" s="26"/>
+      <c r="B101" s="26"/>
+      <c r="C101" s="26"/>
+      <c r="E101" s="11"/>
+      <c r="F101" s="26"/>
+    </row>
+    <row r="102" spans="1:6" s="16" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="35" t="s">
+        <v>114</v>
+      </c>
+      <c r="B102" s="35" t="s">
+        <v>119</v>
+      </c>
+      <c r="C102" s="35" t="s">
+        <v>120</v>
+      </c>
+      <c r="D102" s="15"/>
+      <c r="E102" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="F102" s="37"/>
+    </row>
+    <row r="103" spans="1:6" s="20" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="38"/>
+      <c r="B103" s="38"/>
+      <c r="C103" s="38"/>
+      <c r="D103" s="19"/>
+      <c r="E103" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="F103" s="39"/>
+    </row>
+    <row r="104" spans="1:6" s="18" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A104" s="38"/>
+      <c r="B104" s="36"/>
+      <c r="C104" s="36"/>
+      <c r="D104" s="17"/>
+      <c r="E104" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="F104" s="36"/>
+    </row>
+    <row r="105" spans="1:6" s="7" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="38"/>
+      <c r="B105" s="35" t="s">
+        <v>122</v>
+      </c>
+      <c r="C105" s="35" t="s">
+        <v>123</v>
+      </c>
+      <c r="D105" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="E105" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F105" s="37"/>
+    </row>
+    <row r="106" spans="1:6" s="8" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A106" s="36"/>
+      <c r="B106" s="36"/>
+      <c r="C106" s="36"/>
+      <c r="D106" s="17"/>
+      <c r="E106" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="F87" s="34"/>
-    </row>
-    <row r="88" spans="1:6" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A88" s="27"/>
-      <c r="B88" s="27"/>
-      <c r="C88" s="27"/>
-      <c r="D88" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="E88" s="12"/>
-      <c r="F88" s="35"/>
-    </row>
-    <row r="89" spans="1:6" s="3" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="B89" s="26" t="s">
-        <v>78</v>
-      </c>
-      <c r="C89" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="D89" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="E89" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F89" s="26" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="28"/>
-      <c r="B90" s="28"/>
-      <c r="C90" s="28"/>
-      <c r="D90" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="E90" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="F90" s="28"/>
-    </row>
-    <row r="91" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="28"/>
-      <c r="B91" s="28"/>
-      <c r="C91" s="28"/>
-      <c r="D91" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="E91" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="F91" s="28"/>
-    </row>
-    <row r="92" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="28"/>
-      <c r="B92" s="28"/>
-      <c r="C92" s="28"/>
-      <c r="D92" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="E92" s="12"/>
-      <c r="F92" s="28"/>
-    </row>
-    <row r="93" spans="1:6" s="6" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A93" s="28"/>
-      <c r="B93" s="27"/>
-      <c r="C93" s="27"/>
-      <c r="D93" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="F93" s="27"/>
-    </row>
-    <row r="94" spans="1:6" s="3" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="28"/>
-      <c r="B94" s="26" t="s">
-        <v>87</v>
-      </c>
-      <c r="C94" s="37" t="s">
-        <v>88</v>
-      </c>
-      <c r="D94" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="E94" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="F94" s="32"/>
-    </row>
-    <row r="95" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="28"/>
-      <c r="B95" s="28"/>
-      <c r="C95" s="36"/>
-      <c r="D95" s="12"/>
-      <c r="E95" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="F95" s="34"/>
-    </row>
-    <row r="96" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="28"/>
-      <c r="B96" s="28"/>
-      <c r="C96" s="36"/>
-      <c r="D96" s="12"/>
-      <c r="E96" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="F96" s="34"/>
-    </row>
-    <row r="97" spans="1:6" s="6" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A97" s="28"/>
-      <c r="B97" s="27"/>
-      <c r="C97" s="38"/>
-      <c r="D97" s="11"/>
-      <c r="E97" s="15"/>
-      <c r="F97" s="35"/>
-    </row>
-    <row r="98" spans="1:6" s="3" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="28"/>
-      <c r="B98" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="C98" s="26" t="s">
-        <v>135</v>
-      </c>
-      <c r="D98" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="E98" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="F98" s="32" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="28"/>
-      <c r="B99" s="28"/>
-      <c r="C99" s="28"/>
-      <c r="D99" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="E99" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="F99" s="34"/>
-    </row>
-    <row r="100" spans="1:6" s="6" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A100" s="27"/>
-      <c r="B100" s="27"/>
-      <c r="C100" s="27"/>
-      <c r="E100" s="11"/>
-      <c r="F100" s="27"/>
-    </row>
-    <row r="101" spans="1:6" s="17" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="22" t="s">
-        <v>114</v>
-      </c>
-      <c r="B101" s="22" t="s">
-        <v>119</v>
-      </c>
-      <c r="C101" s="22" t="s">
-        <v>120</v>
-      </c>
-      <c r="D101" s="16"/>
-      <c r="E101" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="F101" s="24"/>
-    </row>
-    <row r="102" spans="1:6" s="21" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="25"/>
-      <c r="B102" s="25"/>
-      <c r="C102" s="25"/>
-      <c r="D102" s="20"/>
-      <c r="E102" s="20" t="s">
-        <v>121</v>
-      </c>
-      <c r="F102" s="33"/>
-    </row>
-    <row r="103" spans="1:6" s="19" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A103" s="25"/>
-      <c r="B103" s="23"/>
-      <c r="C103" s="23"/>
-      <c r="D103" s="18"/>
-      <c r="E103" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="F103" s="23"/>
-    </row>
-    <row r="104" spans="1:6" s="7" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="25"/>
-      <c r="B104" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="C104" s="22" t="s">
-        <v>123</v>
-      </c>
-      <c r="D104" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="E104" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F104" s="24"/>
-    </row>
-    <row r="105" spans="1:6" s="8" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A105" s="23"/>
-      <c r="B105" s="23"/>
-      <c r="C105" s="23"/>
-      <c r="D105" s="18"/>
-      <c r="E105" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="F105" s="23"/>
-    </row>
-    <row r="107" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F107" s="9"/>
+      <c r="F106" s="36"/>
     </row>
     <row r="108" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B108" s="9"/>
+      <c r="F108" s="9"/>
+    </row>
+    <row r="109" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B109" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="59">
-    <mergeCell ref="C86:C88"/>
-    <mergeCell ref="B86:B88"/>
-    <mergeCell ref="A69:A88"/>
-    <mergeCell ref="F86:F88"/>
-    <mergeCell ref="B82:B85"/>
-    <mergeCell ref="C82:C85"/>
-    <mergeCell ref="F82:F85"/>
-    <mergeCell ref="F101:F103"/>
-    <mergeCell ref="B98:B100"/>
-    <mergeCell ref="C98:C100"/>
-    <mergeCell ref="F98:F100"/>
-    <mergeCell ref="A89:A100"/>
-    <mergeCell ref="B89:B93"/>
-    <mergeCell ref="C89:C93"/>
-    <mergeCell ref="F89:F93"/>
-    <mergeCell ref="F94:F97"/>
-    <mergeCell ref="C94:C97"/>
-    <mergeCell ref="B94:B97"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="C64:C66"/>
-    <mergeCell ref="F64:F66"/>
-    <mergeCell ref="C67:C68"/>
-    <mergeCell ref="B67:B68"/>
+  <mergeCells count="62">
+    <mergeCell ref="B105:B106"/>
+    <mergeCell ref="C105:C106"/>
+    <mergeCell ref="F105:F106"/>
+    <mergeCell ref="A102:A106"/>
+    <mergeCell ref="B80:B81"/>
+    <mergeCell ref="C80:C81"/>
+    <mergeCell ref="F80:F81"/>
+    <mergeCell ref="B102:B104"/>
+    <mergeCell ref="C102:C104"/>
+    <mergeCell ref="F102:F104"/>
+    <mergeCell ref="B99:B101"/>
+    <mergeCell ref="C99:C101"/>
+    <mergeCell ref="F99:F101"/>
+    <mergeCell ref="A91:A101"/>
+    <mergeCell ref="B91:B95"/>
+    <mergeCell ref="C91:C95"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:C7"/>
     <mergeCell ref="B8:B10"/>
     <mergeCell ref="C8:C10"/>
     <mergeCell ref="A11:A68"/>
@@ -2498,26 +2540,31 @@
     <mergeCell ref="F11:F21"/>
     <mergeCell ref="F22:F24"/>
     <mergeCell ref="F25:F63"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="B104:B105"/>
-    <mergeCell ref="C104:C105"/>
-    <mergeCell ref="F104:F105"/>
-    <mergeCell ref="A101:A105"/>
-    <mergeCell ref="B80:B81"/>
-    <mergeCell ref="C80:C81"/>
-    <mergeCell ref="F80:F81"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="C64:C66"/>
+    <mergeCell ref="F64:F66"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="F91:F95"/>
+    <mergeCell ref="F96:F98"/>
+    <mergeCell ref="C96:C98"/>
+    <mergeCell ref="B96:B98"/>
+    <mergeCell ref="C88:C90"/>
+    <mergeCell ref="B88:B90"/>
+    <mergeCell ref="A69:A90"/>
+    <mergeCell ref="F88:F90"/>
+    <mergeCell ref="B82:B84"/>
+    <mergeCell ref="C82:C84"/>
+    <mergeCell ref="F82:F84"/>
     <mergeCell ref="F77:F79"/>
     <mergeCell ref="B69:B76"/>
     <mergeCell ref="C69:C76"/>
     <mergeCell ref="F69:F76"/>
     <mergeCell ref="B77:B79"/>
     <mergeCell ref="C77:C79"/>
-    <mergeCell ref="B101:B103"/>
-    <mergeCell ref="C101:C103"/>
+    <mergeCell ref="B85:B87"/>
+    <mergeCell ref="C85:C87"/>
+    <mergeCell ref="F85:F87"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/BACKEND.xlsx
+++ b/BACKEND.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="151">
   <si>
     <t>Pathname</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -219,10 +219,6 @@
   </si>
   <si>
     <t>根据时间获取比赛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期格式："1970-01-01"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -596,6 +592,34 @@
   <si>
     <t>若 accept = false，
 则后台会自动选择1个其他专家发送邀请邮件，并向数据库插入评审</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enrollmentYear: string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学生注销</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>studentLogout</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>msg: string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>studentNumber: string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>专家注销</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>expertLogout</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -654,7 +678,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -794,13 +818,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -882,7 +917,37 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -892,19 +957,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -929,6 +982,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1243,16 +1299,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F96"/>
+  <dimension ref="A1:F100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F73" sqref="F73:F75"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F67" sqref="F67:F68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.83203125" defaultRowHeight="17.5" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="8.33203125" style="5" customWidth="1"/>
     <col min="2" max="2" width="29.1640625" style="4" customWidth="1"/>
     <col min="3" max="3" width="37.5" style="4" customWidth="1"/>
     <col min="4" max="4" width="31.25" style="4" customWidth="1"/>
@@ -1279,13 +1335,13 @@
       </c>
     </row>
     <row r="2" spans="1:6" s="3" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="33" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="9" t="s">
@@ -1294,12 +1350,10 @@
       <c r="E2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="31" t="s">
-        <v>50</v>
-      </c>
+      <c r="F2" s="33"/>
     </row>
     <row r="3" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="38"/>
+      <c r="A3" s="44"/>
       <c r="B3" s="34"/>
       <c r="C3" s="34"/>
       <c r="D3" s="11" t="s">
@@ -1311,22 +1365,22 @@
       <c r="F3" s="34"/>
     </row>
     <row r="4" spans="1:6" s="6" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="38"/>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
+      <c r="A4" s="44"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
       <c r="D4" s="10"/>
       <c r="E4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="32"/>
+      <c r="F4" s="35"/>
     </row>
     <row r="5" spans="1:6" s="3" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="38"/>
-      <c r="B5" s="31" t="s">
-        <v>84</v>
-      </c>
-      <c r="C5" s="31" t="s">
-        <v>82</v>
+      <c r="A5" s="44"/>
+      <c r="B5" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="C5" s="33" t="s">
+        <v>81</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>10</v>
@@ -1334,10 +1388,10 @@
       <c r="E5" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="31"/>
+      <c r="F5" s="33"/>
     </row>
     <row r="6" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="38"/>
+      <c r="A6" s="44"/>
       <c r="B6" s="34"/>
       <c r="C6" s="34"/>
       <c r="D6" s="11"/>
@@ -1347,22 +1401,22 @@
       <c r="F6" s="34"/>
     </row>
     <row r="7" spans="1:6" s="6" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="38"/>
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
+      <c r="A7" s="44"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="35"/>
       <c r="D7" s="10"/>
       <c r="E7" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="32"/>
+      <c r="F7" s="35"/>
     </row>
     <row r="8" spans="1:6" s="3" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="38"/>
-      <c r="B8" s="31" t="s">
-        <v>85</v>
-      </c>
-      <c r="C8" s="31" t="s">
-        <v>83</v>
+      <c r="A8" s="44"/>
+      <c r="B8" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>82</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>10</v>
@@ -1370,10 +1424,10 @@
       <c r="E8" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="31"/>
+      <c r="F8" s="33"/>
     </row>
     <row r="9" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="38"/>
+      <c r="A9" s="44"/>
       <c r="B9" s="34"/>
       <c r="C9" s="34"/>
       <c r="D9" s="11"/>
@@ -1383,41 +1437,41 @@
       <c r="F9" s="34"/>
     </row>
     <row r="10" spans="1:6" s="6" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="39"/>
-      <c r="B10" s="32"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="10"/>
+      <c r="A10" s="45"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="28"/>
       <c r="E10" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="32"/>
+      <c r="F10" s="35"/>
     </row>
     <row r="11" spans="1:6" s="3" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="31" t="s">
+      <c r="A11" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="B11" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="C11" s="31" t="s">
+      <c r="C11" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="9" t="s">
+      <c r="D11" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="31"/>
+      <c r="F11" s="33"/>
     </row>
     <row r="12" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="34"/>
       <c r="B12" s="34"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="11" t="s">
+      <c r="C12" s="47"/>
+      <c r="D12" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="31" t="s">
         <v>7</v>
       </c>
       <c r="F12" s="34"/>
@@ -1425,99 +1479,99 @@
     <row r="13" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="34"/>
       <c r="B13" s="34"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" s="11"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="31"/>
       <c r="F13" s="34"/>
     </row>
     <row r="14" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="34"/>
       <c r="B14" s="34"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" s="11"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="31"/>
       <c r="F14" s="34"/>
     </row>
     <row r="15" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="34"/>
       <c r="B15" s="34"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E15" s="11"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="31"/>
       <c r="F15" s="34"/>
     </row>
     <row r="16" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="34"/>
       <c r="B16" s="34"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E16" s="11"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="31"/>
       <c r="F16" s="34"/>
     </row>
     <row r="17" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="34"/>
       <c r="B17" s="34"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17" s="11"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="31"/>
       <c r="F17" s="34"/>
     </row>
     <row r="18" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="34"/>
       <c r="B18" s="34"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18" s="11"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" s="31"/>
       <c r="F18" s="34"/>
     </row>
     <row r="19" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="34"/>
       <c r="B19" s="34"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E19" s="11"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="31"/>
       <c r="F19" s="34"/>
     </row>
     <row r="20" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="34"/>
       <c r="B20" s="34"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20" s="11"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" s="31"/>
       <c r="F20" s="34"/>
     </row>
     <row r="21" spans="1:6" s="6" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="34"/>
-      <c r="B21" s="32"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E21" s="10"/>
-      <c r="F21" s="32"/>
+      <c r="B21" s="35"/>
+      <c r="C21" s="49"/>
+      <c r="D21" s="29" t="s">
+        <v>144</v>
+      </c>
+      <c r="E21" s="32"/>
+      <c r="F21" s="35"/>
     </row>
     <row r="22" spans="1:6" s="3" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="34"/>
-      <c r="B22" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="C22" s="31" t="s">
+      <c r="B22" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D22" s="9" t="s">
@@ -1526,14 +1580,14 @@
       <c r="E22" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F22" s="31"/>
+      <c r="F22" s="33"/>
     </row>
     <row r="23" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="34"/>
       <c r="B23" s="34"/>
       <c r="C23" s="34"/>
       <c r="D23" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E23" s="11" t="s">
         <v>7</v>
@@ -1542,64 +1596,68 @@
     </row>
     <row r="24" spans="1:6" s="6" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="34"/>
-      <c r="B24" s="32"/>
-      <c r="C24" s="32"/>
+      <c r="B24" s="35"/>
+      <c r="C24" s="35"/>
       <c r="D24" s="10"/>
       <c r="E24" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F24" s="32"/>
-    </row>
-    <row r="25" spans="1:6" s="3" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F24" s="35"/>
+    </row>
+    <row r="25" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="34"/>
-      <c r="B25" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="C25" s="31" t="s">
+      <c r="B25" s="33" t="s">
+        <v>145</v>
+      </c>
+      <c r="C25" s="33" t="s">
+        <v>146</v>
+      </c>
+      <c r="D25" s="28" t="s">
+        <v>148</v>
+      </c>
+      <c r="E25" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25" s="33"/>
+    </row>
+    <row r="26" spans="1:6" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="34"/>
+      <c r="B26" s="35"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="F26" s="35"/>
+    </row>
+    <row r="27" spans="1:6" s="3" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="34"/>
+      <c r="B27" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="D25" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="E25" s="9" t="s">
+      <c r="D27" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="E27" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F25" s="35" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="34"/>
-      <c r="B26" s="34"/>
-      <c r="C26" s="34"/>
-      <c r="D26" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="E26" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F26" s="34"/>
-    </row>
-    <row r="27" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="34"/>
-      <c r="B27" s="34"/>
-      <c r="C27" s="34"/>
-      <c r="D27" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="E27" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="F27" s="34"/>
+      <c r="F27" s="41" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="28" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="34"/>
       <c r="B28" s="34"/>
       <c r="C28" s="34"/>
       <c r="D28" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E28" s="5"/>
+        <v>90</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>6</v>
+      </c>
       <c r="F28" s="34"/>
     </row>
     <row r="29" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1607,9 +1665,11 @@
       <c r="B29" s="34"/>
       <c r="C29" s="34"/>
       <c r="D29" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="E29" s="5"/>
+        <v>88</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>38</v>
+      </c>
       <c r="F29" s="34"/>
     </row>
     <row r="30" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1617,9 +1677,9 @@
       <c r="B30" s="34"/>
       <c r="C30" s="34"/>
       <c r="D30" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="E30" s="11"/>
+        <v>25</v>
+      </c>
+      <c r="E30" s="5"/>
       <c r="F30" s="34"/>
     </row>
     <row r="31" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1627,9 +1687,9 @@
       <c r="B31" s="34"/>
       <c r="C31" s="34"/>
       <c r="D31" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E31" s="11"/>
+        <v>28</v>
+      </c>
+      <c r="E31" s="5"/>
       <c r="F31" s="34"/>
     </row>
     <row r="32" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1637,7 +1697,7 @@
       <c r="B32" s="34"/>
       <c r="C32" s="34"/>
       <c r="D32" s="11" t="s">
-        <v>23</v>
+        <v>87</v>
       </c>
       <c r="E32" s="11"/>
       <c r="F32" s="34"/>
@@ -1647,7 +1707,7 @@
       <c r="B33" s="34"/>
       <c r="C33" s="34"/>
       <c r="D33" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E33" s="11"/>
       <c r="F33" s="34"/>
@@ -1657,7 +1717,7 @@
       <c r="B34" s="34"/>
       <c r="C34" s="34"/>
       <c r="D34" s="11" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="E34" s="11"/>
       <c r="F34" s="34"/>
@@ -1667,7 +1727,7 @@
       <c r="B35" s="34"/>
       <c r="C35" s="34"/>
       <c r="D35" s="11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E35" s="11"/>
       <c r="F35" s="34"/>
@@ -1677,7 +1737,7 @@
       <c r="B36" s="34"/>
       <c r="C36" s="34"/>
       <c r="D36" s="11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E36" s="11"/>
       <c r="F36" s="34"/>
@@ -1687,7 +1747,7 @@
       <c r="B37" s="34"/>
       <c r="C37" s="34"/>
       <c r="D37" s="11" t="s">
-        <v>139</v>
+        <v>32</v>
       </c>
       <c r="E37" s="11"/>
       <c r="F37" s="34"/>
@@ -1697,7 +1757,7 @@
       <c r="B38" s="34"/>
       <c r="C38" s="34"/>
       <c r="D38" s="11" t="s">
-        <v>140</v>
+        <v>33</v>
       </c>
       <c r="E38" s="11"/>
       <c r="F38" s="34"/>
@@ -1707,7 +1767,7 @@
       <c r="B39" s="34"/>
       <c r="C39" s="34"/>
       <c r="D39" s="11" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E39" s="11"/>
       <c r="F39" s="34"/>
@@ -1717,7 +1777,7 @@
       <c r="B40" s="34"/>
       <c r="C40" s="34"/>
       <c r="D40" s="11" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E40" s="11"/>
       <c r="F40" s="34"/>
@@ -1727,7 +1787,7 @@
       <c r="B41" s="34"/>
       <c r="C41" s="34"/>
       <c r="D41" s="11" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E41" s="11"/>
       <c r="F41" s="34"/>
@@ -1737,7 +1797,7 @@
       <c r="B42" s="34"/>
       <c r="C42" s="34"/>
       <c r="D42" s="11" t="s">
-        <v>34</v>
+        <v>141</v>
       </c>
       <c r="E42" s="11"/>
       <c r="F42" s="34"/>
@@ -1747,7 +1807,7 @@
       <c r="B43" s="34"/>
       <c r="C43" s="34"/>
       <c r="D43" s="11" t="s">
-        <v>35</v>
+        <v>142</v>
       </c>
       <c r="E43" s="11"/>
       <c r="F43" s="34"/>
@@ -1757,7 +1817,7 @@
       <c r="B44" s="34"/>
       <c r="C44" s="34"/>
       <c r="D44" s="11" t="s">
-        <v>92</v>
+        <v>34</v>
       </c>
       <c r="E44" s="11"/>
       <c r="F44" s="34"/>
@@ -1767,7 +1827,7 @@
       <c r="B45" s="34"/>
       <c r="C45" s="34"/>
       <c r="D45" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E45" s="11"/>
       <c r="F45" s="34"/>
@@ -1777,7 +1837,7 @@
       <c r="B46" s="34"/>
       <c r="C46" s="34"/>
       <c r="D46" s="11" t="s">
-        <v>37</v>
+        <v>91</v>
       </c>
       <c r="E46" s="11"/>
       <c r="F46" s="34"/>
@@ -1787,135 +1847,135 @@
       <c r="B47" s="34"/>
       <c r="C47" s="34"/>
       <c r="D47" s="11" t="s">
-        <v>97</v>
+        <v>36</v>
       </c>
       <c r="E47" s="11"/>
       <c r="F47" s="34"/>
     </row>
-    <row r="48" spans="1:6" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="34"/>
       <c r="B48" s="34"/>
       <c r="C48" s="34"/>
       <c r="D48" s="11" t="s">
-        <v>96</v>
+        <v>37</v>
       </c>
       <c r="E48" s="11"/>
       <c r="F48" s="34"/>
     </row>
-    <row r="49" spans="1:6" s="3" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="34"/>
-      <c r="B49" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="C49" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="D49" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E49" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="F49" s="31"/>
-    </row>
-    <row r="50" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="34"/>
+      <c r="C49" s="34"/>
+      <c r="D49" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="E49" s="11"/>
+      <c r="F49" s="34"/>
+    </row>
+    <row r="50" spans="1:6" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="34"/>
       <c r="B50" s="34"/>
       <c r="C50" s="34"/>
       <c r="D50" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="E50" s="11" t="s">
-        <v>43</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="E50" s="11"/>
       <c r="F50" s="34"/>
     </row>
-    <row r="51" spans="1:6" s="6" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:6" s="3" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="34"/>
-      <c r="B51" s="32"/>
-      <c r="C51" s="32"/>
-      <c r="D51" s="10"/>
-      <c r="E51" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="F51" s="32"/>
+      <c r="B51" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="C51" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="D51" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E51" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F51" s="33"/>
     </row>
     <row r="52" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="34"/>
-      <c r="B52" s="31" t="s">
-        <v>79</v>
-      </c>
-      <c r="C52" s="31" t="s">
+      <c r="B52" s="34"/>
+      <c r="C52" s="34"/>
+      <c r="D52" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E52" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F52" s="34"/>
+    </row>
+    <row r="53" spans="1:6" s="6" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="34"/>
+      <c r="B53" s="35"/>
+      <c r="C53" s="35"/>
+      <c r="D53" s="10"/>
+      <c r="E53" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" s="35"/>
+    </row>
+    <row r="54" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="34"/>
+      <c r="B54" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="D52" s="11" t="s">
+      <c r="C54" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="E52" s="11" t="s">
+      <c r="D54" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="E54" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="F54" s="33"/>
+    </row>
+    <row r="55" spans="1:6" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="35"/>
+      <c r="B55" s="35"/>
+      <c r="C55" s="35"/>
+      <c r="D55" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="E55" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="F52" s="31"/>
-    </row>
-    <row r="53" spans="1:6" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="32"/>
-      <c r="B53" s="32"/>
-      <c r="C53" s="32"/>
-      <c r="D53" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="E53" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="F53" s="32"/>
-    </row>
-    <row r="54" spans="1:6" s="3" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="31" t="s">
+      <c r="F55" s="35"/>
+    </row>
+    <row r="56" spans="1:6" s="3" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="B56" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="C56" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="D56" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E56" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="B54" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="C54" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="D54" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E54" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="F54" s="31"/>
-    </row>
-    <row r="55" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="34"/>
-      <c r="B55" s="34"/>
-      <c r="C55" s="34"/>
-      <c r="D55" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E55" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="F55" s="34"/>
-    </row>
-    <row r="56" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="34"/>
-      <c r="B56" s="34"/>
-      <c r="C56" s="34"/>
-      <c r="D56" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E56" s="11"/>
-      <c r="F56" s="34"/>
+      <c r="F56" s="33"/>
     </row>
     <row r="57" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="34"/>
       <c r="B57" s="34"/>
       <c r="C57" s="34"/>
       <c r="D57" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E57" s="5"/>
+        <v>15</v>
+      </c>
+      <c r="E57" s="11" t="s">
+        <v>7</v>
+      </c>
       <c r="F57" s="34"/>
     </row>
     <row r="58" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1923,7 +1983,7 @@
       <c r="B58" s="34"/>
       <c r="C58" s="34"/>
       <c r="D58" s="11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E58" s="11"/>
       <c r="F58" s="34"/>
@@ -1933,9 +1993,9 @@
       <c r="B59" s="34"/>
       <c r="C59" s="34"/>
       <c r="D59" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E59" s="11"/>
+        <v>17</v>
+      </c>
+      <c r="E59" s="5"/>
       <c r="F59" s="34"/>
     </row>
     <row r="60" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1943,529 +2003,581 @@
       <c r="B60" s="34"/>
       <c r="C60" s="34"/>
       <c r="D60" s="11" t="s">
-        <v>86</v>
+        <v>18</v>
       </c>
       <c r="E60" s="11"/>
       <c r="F60" s="34"/>
     </row>
-    <row r="61" spans="1:6" s="6" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="34"/>
-      <c r="B61" s="32"/>
-      <c r="C61" s="32"/>
-      <c r="D61" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="E61" s="10"/>
-      <c r="F61" s="32"/>
-    </row>
-    <row r="62" spans="1:6" s="3" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B61" s="34"/>
+      <c r="C61" s="34"/>
+      <c r="D61" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E61" s="11"/>
+      <c r="F61" s="34"/>
+    </row>
+    <row r="62" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="34"/>
-      <c r="B62" s="31" t="s">
+      <c r="B62" s="34"/>
+      <c r="C62" s="34"/>
+      <c r="D62" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="E62" s="11"/>
+      <c r="F62" s="34"/>
+    </row>
+    <row r="63" spans="1:6" s="6" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="34"/>
+      <c r="B63" s="35"/>
+      <c r="C63" s="35"/>
+      <c r="D63" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="E63" s="10"/>
+      <c r="F63" s="35"/>
+    </row>
+    <row r="64" spans="1:6" s="3" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="34"/>
+      <c r="B64" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="C64" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="C62" s="31" t="s">
-        <v>59</v>
-      </c>
-      <c r="D62" s="9" t="s">
+      <c r="D64" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E62" s="9" t="s">
+      <c r="E64" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="F62" s="31"/>
-    </row>
-    <row r="63" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="34"/>
-      <c r="B63" s="34"/>
-      <c r="C63" s="34"/>
-      <c r="D63" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E63" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="F63" s="34"/>
-    </row>
-    <row r="64" spans="1:6" s="6" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="34"/>
-      <c r="B64" s="32"/>
-      <c r="C64" s="32"/>
-      <c r="D64" s="10"/>
-      <c r="E64" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="F64" s="32"/>
+      <c r="F64" s="33"/>
     </row>
     <row r="65" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="34"/>
-      <c r="B65" s="31" t="s">
+      <c r="B65" s="34"/>
+      <c r="C65" s="34"/>
+      <c r="D65" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E65" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="F65" s="34"/>
+    </row>
+    <row r="66" spans="1:6" s="6" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="34"/>
+      <c r="B66" s="35"/>
+      <c r="C66" s="35"/>
+      <c r="D66" s="10"/>
+      <c r="E66" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F66" s="35"/>
+    </row>
+    <row r="67" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="34"/>
+      <c r="B67" s="33" t="s">
+        <v>149</v>
+      </c>
+      <c r="C67" s="33" t="s">
+        <v>150</v>
+      </c>
+      <c r="D67" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E67" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="F67" s="33"/>
+    </row>
+    <row r="68" spans="1:6" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="34"/>
+      <c r="B68" s="35"/>
+      <c r="C68" s="35"/>
+      <c r="D68" s="29"/>
+      <c r="E68" s="29" t="s">
+        <v>147</v>
+      </c>
+      <c r="F68" s="35"/>
+    </row>
+    <row r="69" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="34"/>
+      <c r="B69" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="C69" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="C65" s="31" t="s">
-        <v>81</v>
-      </c>
-      <c r="D65" s="11" t="s">
+      <c r="D69" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E65" s="11" t="s">
+      <c r="E69" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="F69" s="33"/>
+    </row>
+    <row r="70" spans="1:6" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="34"/>
+      <c r="B70" s="35"/>
+      <c r="C70" s="35"/>
+      <c r="D70" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="E70" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="F65" s="31"/>
-    </row>
-    <row r="66" spans="1:6" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="34"/>
-      <c r="B66" s="32"/>
-      <c r="C66" s="32"/>
-      <c r="D66" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="E66" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="F66" s="32"/>
-    </row>
-    <row r="67" spans="1:6" s="3" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="34"/>
-      <c r="B67" s="31" t="s">
+      <c r="F70" s="35"/>
+    </row>
+    <row r="71" spans="1:6" s="3" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="34"/>
+      <c r="B71" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="C71" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="C67" s="31" t="s">
+      <c r="D71" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="E71" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="F71" s="41"/>
+    </row>
+    <row r="72" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="34"/>
+      <c r="B72" s="34"/>
+      <c r="C72" s="34"/>
+      <c r="D72" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="E72" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="F72" s="42"/>
+    </row>
+    <row r="73" spans="1:6" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="34"/>
+      <c r="B73" s="35"/>
+      <c r="C73" s="35"/>
+      <c r="D73" s="22"/>
+      <c r="E73" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="F73" s="48"/>
+    </row>
+    <row r="74" spans="1:6" s="3" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="34"/>
+      <c r="B74" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="C74" s="33" t="s">
         <v>122</v>
       </c>
-      <c r="D67" s="20" t="s">
-        <v>114</v>
-      </c>
-      <c r="E67" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="F67" s="35"/>
-    </row>
-    <row r="68" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="34"/>
-      <c r="B68" s="34"/>
-      <c r="C68" s="34"/>
-      <c r="D68" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="E68" s="22" t="s">
-        <v>102</v>
-      </c>
-      <c r="F68" s="36"/>
-    </row>
-    <row r="69" spans="1:6" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="34"/>
-      <c r="B69" s="32"/>
-      <c r="C69" s="32"/>
-      <c r="D69" s="22"/>
-      <c r="E69" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="F69" s="42"/>
-    </row>
-    <row r="70" spans="1:6" s="3" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="34"/>
-      <c r="B70" s="31" t="s">
-        <v>118</v>
-      </c>
-      <c r="C70" s="31" t="s">
+      <c r="D74" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="E74" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="F74" s="41" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="34"/>
+      <c r="B75" s="34"/>
+      <c r="C75" s="34"/>
+      <c r="D75" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="D70" s="20" t="s">
-        <v>125</v>
-      </c>
-      <c r="E70" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="F70" s="35" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="34"/>
-      <c r="B71" s="34"/>
-      <c r="C71" s="34"/>
-      <c r="D71" s="22" t="s">
-        <v>124</v>
-      </c>
-      <c r="E71" s="22" t="s">
+      <c r="E75" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="F71" s="36"/>
-    </row>
-    <row r="72" spans="1:6" s="6" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="34"/>
-      <c r="B72" s="32"/>
-      <c r="C72" s="32"/>
-      <c r="D72" s="21" t="s">
-        <v>120</v>
-      </c>
-      <c r="E72" s="21"/>
-      <c r="F72" s="42"/>
-    </row>
-    <row r="73" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="34"/>
-      <c r="B73" s="31" t="s">
-        <v>126</v>
-      </c>
-      <c r="C73" s="31" t="s">
+      <c r="F75" s="42"/>
+    </row>
+    <row r="76" spans="1:6" s="6" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="34"/>
+      <c r="B76" s="35"/>
+      <c r="C76" s="35"/>
+      <c r="D76" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="D73" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="E73" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="F73" s="35"/>
-    </row>
-    <row r="74" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="34"/>
-      <c r="B74" s="34"/>
-      <c r="C74" s="34"/>
-      <c r="D74" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="E74" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="F74" s="36"/>
-    </row>
-    <row r="75" spans="1:6" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="32"/>
-      <c r="B75" s="32"/>
-      <c r="C75" s="32"/>
-      <c r="D75" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="E75" s="11"/>
-      <c r="F75" s="42"/>
-    </row>
-    <row r="76" spans="1:6" s="3" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="B76" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="C76" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="D76" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="E76" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F76" s="31"/>
+      <c r="E76" s="21"/>
+      <c r="F76" s="48"/>
     </row>
     <row r="77" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="34"/>
-      <c r="B77" s="34"/>
-      <c r="C77" s="34"/>
+      <c r="B77" s="33" t="s">
+        <v>125</v>
+      </c>
+      <c r="C77" s="33" t="s">
+        <v>118</v>
+      </c>
       <c r="D77" s="11" t="s">
-        <v>64</v>
+        <v>113</v>
       </c>
       <c r="E77" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="F77" s="34"/>
+        <v>114</v>
+      </c>
+      <c r="F77" s="41"/>
     </row>
     <row r="78" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="34"/>
       <c r="B78" s="34"/>
       <c r="C78" s="34"/>
       <c r="D78" s="11" t="s">
-        <v>65</v>
+        <v>112</v>
       </c>
       <c r="E78" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="F78" s="34"/>
-    </row>
-    <row r="79" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="34"/>
-      <c r="B79" s="34"/>
-      <c r="C79" s="34"/>
+        <v>7</v>
+      </c>
+      <c r="F78" s="42"/>
+    </row>
+    <row r="79" spans="1:6" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="35"/>
+      <c r="B79" s="35"/>
+      <c r="C79" s="35"/>
       <c r="D79" s="11" t="s">
-        <v>66</v>
+        <v>115</v>
       </c>
       <c r="E79" s="11"/>
-      <c r="F79" s="34"/>
-    </row>
-    <row r="80" spans="1:6" s="6" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="34"/>
-      <c r="B80" s="32"/>
-      <c r="C80" s="32"/>
-      <c r="D80" s="10" t="s">
+      <c r="F79" s="48"/>
+    </row>
+    <row r="80" spans="1:6" s="3" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="B80" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="C80" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="D80" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E80" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F80" s="33"/>
+    </row>
+    <row r="81" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="34"/>
+      <c r="B81" s="34"/>
+      <c r="C81" s="34"/>
+      <c r="D81" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="E81" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="F80" s="32"/>
-    </row>
-    <row r="81" spans="1:6" s="3" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="34"/>
-      <c r="B81" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="C81" s="40" t="s">
-        <v>71</v>
-      </c>
-      <c r="D81" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="E81" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="F81" s="35"/>
+      <c r="F81" s="34"/>
     </row>
     <row r="82" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="34"/>
       <c r="B82" s="34"/>
-      <c r="C82" s="41"/>
-      <c r="D82" s="11"/>
-      <c r="E82" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="F82" s="36"/>
-    </row>
-    <row r="83" spans="1:6" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C82" s="34"/>
+      <c r="D82" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E82" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="F82" s="34"/>
+    </row>
+    <row r="83" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="34"/>
       <c r="B83" s="34"/>
-      <c r="C83" s="41"/>
-      <c r="D83" s="11"/>
-      <c r="E83" s="13" t="s">
+      <c r="C83" s="34"/>
+      <c r="D83" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="E83" s="11"/>
+      <c r="F83" s="34"/>
+    </row>
+    <row r="84" spans="1:6" s="6" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A84" s="34"/>
+      <c r="B84" s="35"/>
+      <c r="C84" s="35"/>
+      <c r="D84" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="F84" s="35"/>
+    </row>
+    <row r="85" spans="1:6" s="3" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="34"/>
+      <c r="B85" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="C85" s="46" t="s">
+        <v>70</v>
+      </c>
+      <c r="D85" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E85" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="F85" s="41"/>
+    </row>
+    <row r="86" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="34"/>
+      <c r="B86" s="34"/>
+      <c r="C86" s="47"/>
+      <c r="D86" s="11"/>
+      <c r="E86" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F86" s="42"/>
+    </row>
+    <row r="87" spans="1:6" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A87" s="34"/>
+      <c r="B87" s="34"/>
+      <c r="C87" s="47"/>
+      <c r="D87" s="11"/>
+      <c r="E87" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="F87" s="42"/>
+    </row>
+    <row r="88" spans="1:6" s="3" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="34"/>
+      <c r="B88" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="C88" s="33" t="s">
         <v>109</v>
       </c>
-      <c r="F83" s="36"/>
-    </row>
-    <row r="84" spans="1:6" s="3" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="34"/>
-      <c r="B84" s="31" t="s">
-        <v>73</v>
-      </c>
-      <c r="C84" s="31" t="s">
-        <v>110</v>
-      </c>
-      <c r="D84" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="E84" s="9" t="s">
+      <c r="D88" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="E88" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="F84" s="35" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="34"/>
-      <c r="B85" s="34"/>
-      <c r="C85" s="34"/>
-      <c r="D85" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="E85" s="11" t="s">
+      <c r="F88" s="41" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="34"/>
+      <c r="B89" s="34"/>
+      <c r="C89" s="34"/>
+      <c r="D89" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E89" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="F85" s="36"/>
-    </row>
-    <row r="86" spans="1:6" s="6" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="32"/>
-      <c r="B86" s="32"/>
-      <c r="C86" s="32"/>
-      <c r="E86" s="10"/>
-      <c r="F86" s="32"/>
-    </row>
-    <row r="87" spans="1:6" s="15" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="27" t="s">
-        <v>93</v>
-      </c>
-      <c r="B87" s="27" t="s">
+      <c r="F89" s="42"/>
+    </row>
+    <row r="90" spans="1:6" s="6" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A90" s="35"/>
+      <c r="B90" s="35"/>
+      <c r="C90" s="35"/>
+      <c r="E90" s="10"/>
+      <c r="F90" s="35"/>
+    </row>
+    <row r="91" spans="1:6" s="15" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="B91" s="36" t="s">
+        <v>97</v>
+      </c>
+      <c r="C91" s="36" t="s">
         <v>98</v>
       </c>
-      <c r="C87" s="27" t="s">
+      <c r="D91" s="14"/>
+      <c r="E91" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="F91" s="39"/>
+    </row>
+    <row r="92" spans="1:6" s="19" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="37"/>
+      <c r="B92" s="37"/>
+      <c r="C92" s="37"/>
+      <c r="D92" s="18"/>
+      <c r="E92" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="D87" s="14"/>
-      <c r="E87" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="F87" s="29"/>
-    </row>
-    <row r="88" spans="1:6" s="19" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="30"/>
-      <c r="B88" s="30"/>
-      <c r="C88" s="30"/>
-      <c r="D88" s="18"/>
-      <c r="E88" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="F88" s="33"/>
-    </row>
-    <row r="89" spans="1:6" s="17" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A89" s="30"/>
-      <c r="B89" s="28"/>
-      <c r="C89" s="28"/>
-      <c r="D89" s="16"/>
-      <c r="E89" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="F89" s="28"/>
-    </row>
-    <row r="90" spans="1:6" s="19" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="30"/>
-      <c r="B90" s="27" t="s">
-        <v>127</v>
-      </c>
-      <c r="C90" s="27" t="s">
-        <v>128</v>
-      </c>
-      <c r="D90" s="26" t="s">
-        <v>129</v>
-      </c>
-      <c r="E90" s="26"/>
-      <c r="F90" s="27"/>
-    </row>
-    <row r="91" spans="1:6" s="19" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A91" s="30"/>
-      <c r="B91" s="28"/>
-      <c r="C91" s="28"/>
-      <c r="D91" s="26" t="s">
-        <v>130</v>
-      </c>
-      <c r="E91" s="26"/>
-      <c r="F91" s="28"/>
-    </row>
-    <row r="92" spans="1:6" s="7" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="30"/>
-      <c r="B92" s="27" t="s">
-        <v>137</v>
-      </c>
-      <c r="C92" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="D92" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="E92" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F92" s="29"/>
-    </row>
-    <row r="93" spans="1:6" s="8" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A93" s="30"/>
-      <c r="B93" s="28"/>
-      <c r="C93" s="28"/>
+      <c r="F92" s="40"/>
+    </row>
+    <row r="93" spans="1:6" s="17" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A93" s="37"/>
+      <c r="B93" s="38"/>
+      <c r="C93" s="38"/>
       <c r="D93" s="16"/>
       <c r="E93" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="F93" s="38"/>
+    </row>
+    <row r="94" spans="1:6" s="19" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="37"/>
+      <c r="B94" s="36" t="s">
+        <v>126</v>
+      </c>
+      <c r="C94" s="36" t="s">
+        <v>127</v>
+      </c>
+      <c r="D94" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="E94" s="26"/>
+      <c r="F94" s="36"/>
+    </row>
+    <row r="95" spans="1:6" s="19" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A95" s="37"/>
+      <c r="B95" s="38"/>
+      <c r="C95" s="38"/>
+      <c r="D95" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="E95" s="26"/>
+      <c r="F95" s="38"/>
+    </row>
+    <row r="96" spans="1:6" s="7" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="37"/>
+      <c r="B96" s="36" t="s">
+        <v>136</v>
+      </c>
+      <c r="C96" s="36" t="s">
+        <v>137</v>
+      </c>
+      <c r="D96" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="E96" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F96" s="39"/>
+    </row>
+    <row r="97" spans="1:6" s="8" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A97" s="37"/>
+      <c r="B97" s="38"/>
+      <c r="C97" s="38"/>
+      <c r="D97" s="16"/>
+      <c r="E97" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="F93" s="28"/>
-    </row>
-    <row r="94" spans="1:6" s="3" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="30"/>
-      <c r="B94" s="31" t="s">
+      <c r="F97" s="38"/>
+    </row>
+    <row r="98" spans="1:6" s="3" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="37"/>
+      <c r="B98" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="C98" s="33" t="s">
         <v>131</v>
       </c>
-      <c r="C94" s="31" t="s">
-        <v>132</v>
-      </c>
-      <c r="D94" s="23" t="s">
+      <c r="D98" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="E98" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="F98" s="33"/>
+    </row>
+    <row r="99" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="37"/>
+      <c r="B99" s="34"/>
+      <c r="C99" s="34"/>
+      <c r="D99" s="24"/>
+      <c r="E99" s="24" t="s">
         <v>134</v>
       </c>
-      <c r="E94" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="F94" s="31"/>
-    </row>
-    <row r="95" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="30"/>
-      <c r="B95" s="34"/>
-      <c r="C95" s="34"/>
-      <c r="D95" s="24"/>
-      <c r="E95" s="24" t="s">
+      <c r="F99" s="34"/>
+    </row>
+    <row r="100" spans="1:6" s="6" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A100" s="38"/>
+      <c r="B100" s="35"/>
+      <c r="C100" s="35"/>
+      <c r="D100" s="25"/>
+      <c r="E100" s="25" t="s">
         <v>135</v>
       </c>
-      <c r="F95" s="34"/>
-    </row>
-    <row r="96" spans="1:6" s="6" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A96" s="28"/>
-      <c r="B96" s="32"/>
-      <c r="C96" s="32"/>
-      <c r="D96" s="25"/>
-      <c r="E96" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="F96" s="32"/>
+      <c r="F100" s="35"/>
     </row>
   </sheetData>
-  <mergeCells count="68">
-    <mergeCell ref="F90:F91"/>
-    <mergeCell ref="C90:C91"/>
-    <mergeCell ref="B90:B91"/>
-    <mergeCell ref="A87:A96"/>
-    <mergeCell ref="B94:B96"/>
-    <mergeCell ref="C94:C96"/>
-    <mergeCell ref="F94:F96"/>
-    <mergeCell ref="A54:A75"/>
-    <mergeCell ref="F73:F75"/>
-    <mergeCell ref="B67:B69"/>
-    <mergeCell ref="C67:C69"/>
-    <mergeCell ref="F67:F69"/>
-    <mergeCell ref="F62:F64"/>
-    <mergeCell ref="B54:B61"/>
-    <mergeCell ref="C54:C61"/>
-    <mergeCell ref="F54:F61"/>
-    <mergeCell ref="B62:B64"/>
-    <mergeCell ref="C62:C64"/>
-    <mergeCell ref="B70:B72"/>
-    <mergeCell ref="C70:C72"/>
-    <mergeCell ref="F70:F72"/>
-    <mergeCell ref="F76:F80"/>
-    <mergeCell ref="F81:F83"/>
-    <mergeCell ref="C81:C83"/>
-    <mergeCell ref="B81:B83"/>
-    <mergeCell ref="C73:C75"/>
-    <mergeCell ref="B73:B75"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="C49:C51"/>
-    <mergeCell ref="F49:F51"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="B52:B53"/>
+  <mergeCells count="74">
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="F67:F68"/>
+    <mergeCell ref="F94:F95"/>
+    <mergeCell ref="C94:C95"/>
+    <mergeCell ref="B94:B95"/>
+    <mergeCell ref="A91:A100"/>
+    <mergeCell ref="B98:B100"/>
+    <mergeCell ref="C98:C100"/>
+    <mergeCell ref="F98:F100"/>
+    <mergeCell ref="B96:B97"/>
+    <mergeCell ref="C96:C97"/>
+    <mergeCell ref="F96:F97"/>
+    <mergeCell ref="A56:A79"/>
+    <mergeCell ref="F77:F79"/>
+    <mergeCell ref="B71:B73"/>
+    <mergeCell ref="C71:C73"/>
+    <mergeCell ref="F71:F73"/>
+    <mergeCell ref="F64:F66"/>
+    <mergeCell ref="B56:B63"/>
+    <mergeCell ref="C56:C63"/>
+    <mergeCell ref="F56:F63"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="C64:C66"/>
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="C74:C76"/>
+    <mergeCell ref="F74:F76"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="C51:C53"/>
+    <mergeCell ref="F51:F53"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="B54:B55"/>
     <mergeCell ref="B8:B10"/>
     <mergeCell ref="C8:C10"/>
-    <mergeCell ref="A11:A53"/>
-    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="A11:A55"/>
+    <mergeCell ref="F54:F55"/>
     <mergeCell ref="A2:A10"/>
     <mergeCell ref="B11:B21"/>
     <mergeCell ref="C11:C21"/>
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="C22:C24"/>
-    <mergeCell ref="C25:C48"/>
-    <mergeCell ref="B25:B48"/>
+    <mergeCell ref="C27:C50"/>
+    <mergeCell ref="B27:B50"/>
     <mergeCell ref="F5:F7"/>
     <mergeCell ref="F8:F10"/>
     <mergeCell ref="F11:F21"/>
     <mergeCell ref="F22:F24"/>
-    <mergeCell ref="F25:F48"/>
+    <mergeCell ref="F27:F50"/>
     <mergeCell ref="F2:F4"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="C2:C4"/>
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="C5:C7"/>
-    <mergeCell ref="B92:B93"/>
-    <mergeCell ref="C92:C93"/>
-    <mergeCell ref="F92:F93"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="B87:B89"/>
-    <mergeCell ref="C87:C89"/>
-    <mergeCell ref="F87:F89"/>
-    <mergeCell ref="B84:B86"/>
-    <mergeCell ref="C84:C86"/>
-    <mergeCell ref="F84:F86"/>
-    <mergeCell ref="A76:A86"/>
-    <mergeCell ref="B76:B80"/>
-    <mergeCell ref="C76:C80"/>
+    <mergeCell ref="A80:A90"/>
+    <mergeCell ref="B80:B84"/>
+    <mergeCell ref="C80:C84"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="B91:B93"/>
+    <mergeCell ref="C91:C93"/>
+    <mergeCell ref="F91:F93"/>
+    <mergeCell ref="B88:B90"/>
+    <mergeCell ref="C88:C90"/>
+    <mergeCell ref="F88:F90"/>
+    <mergeCell ref="F80:F84"/>
+    <mergeCell ref="F85:F87"/>
+    <mergeCell ref="C85:C87"/>
+    <mergeCell ref="B85:B87"/>
+    <mergeCell ref="C77:C79"/>
+    <mergeCell ref="B77:B79"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/BACKEND.xlsx
+++ b/BACKEND.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="178">
   <si>
     <t>Pathname</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -721,6 +721,10 @@
   </si>
   <si>
     <t>expertModifyInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pdfUrl: string</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -918,7 +922,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -997,6 +1001,30 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1006,28 +1034,10 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1346,11 +1356,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E136"/>
+  <dimension ref="A1:E137"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F88" sqref="F88"/>
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E62" sqref="E62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.83203125" defaultRowHeight="17.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1379,13 +1389,13 @@
       </c>
     </row>
     <row r="2" spans="1:5" s="3" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="31" t="s">
         <v>165</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="34" t="s">
         <v>166</v>
       </c>
       <c r="D2" s="11"/>
@@ -1394,28 +1404,28 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="27"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="27"/>
+      <c r="A3" s="35"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="35"/>
       <c r="E3" s="12" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="5" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="27"/>
-      <c r="B4" s="31"/>
-      <c r="C4" s="28"/>
+      <c r="A4" s="35"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="36"/>
       <c r="D4" s="13"/>
       <c r="E4" s="13" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="3" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="27"/>
-      <c r="B5" s="29" t="s">
+      <c r="A5" s="35"/>
+      <c r="B5" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="34" t="s">
         <v>71</v>
       </c>
       <c r="D5" s="11" t="s">
@@ -1426,28 +1436,28 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="27"/>
-      <c r="B6" s="30"/>
-      <c r="C6" s="27"/>
+      <c r="A6" s="35"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="35"/>
       <c r="E6" s="12" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:5" s="5" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="27"/>
-      <c r="B7" s="31"/>
-      <c r="C7" s="28"/>
+      <c r="A7" s="35"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="36"/>
       <c r="D7" s="13"/>
       <c r="E7" s="13" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:5" s="3" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="27"/>
-      <c r="B8" s="29" t="s">
+      <c r="A8" s="35"/>
+      <c r="B8" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="34" t="s">
         <v>72</v>
       </c>
       <c r="D8" s="11" t="s">
@@ -1458,28 +1468,28 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="27"/>
-      <c r="B9" s="30"/>
-      <c r="C9" s="27"/>
+      <c r="A9" s="35"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="35"/>
       <c r="E9" s="12" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:5" s="5" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="27"/>
-      <c r="B10" s="31"/>
-      <c r="C10" s="28"/>
+      <c r="A10" s="35"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="36"/>
       <c r="D10" s="12"/>
       <c r="E10" s="13" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:5" s="3" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="27"/>
-      <c r="B11" s="29" t="s">
+      <c r="A11" s="35"/>
+      <c r="B11" s="31" t="s">
         <v>143</v>
       </c>
-      <c r="C11" s="26" t="s">
+      <c r="C11" s="34" t="s">
         <v>144</v>
       </c>
       <c r="D11" s="11" t="s">
@@ -1490,30 +1500,30 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="27"/>
-      <c r="B12" s="30"/>
-      <c r="C12" s="27"/>
+      <c r="A12" s="35"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="35"/>
       <c r="E12" s="12" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:5" s="5" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="28"/>
-      <c r="B13" s="31"/>
-      <c r="C13" s="28"/>
+      <c r="A13" s="36"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="36"/>
       <c r="D13" s="12"/>
       <c r="E13" s="13" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:5" s="3" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="26" t="s">
+      <c r="A14" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="B14" s="29" t="s">
+      <c r="B14" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="26" t="s">
+      <c r="C14" s="34" t="s">
         <v>8</v>
       </c>
       <c r="D14" s="11" t="s">
@@ -1524,9 +1534,9 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="27"/>
-      <c r="B15" s="30"/>
-      <c r="C15" s="27"/>
+      <c r="A15" s="35"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="35"/>
       <c r="D15" s="12" t="s">
         <v>9</v>
       </c>
@@ -1535,84 +1545,84 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="27"/>
-      <c r="B16" s="30"/>
-      <c r="C16" s="27"/>
+      <c r="A16" s="35"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="35"/>
       <c r="D16" s="12" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="27"/>
-      <c r="B17" s="30"/>
-      <c r="C17" s="27"/>
+      <c r="A17" s="35"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="35"/>
       <c r="D17" s="12" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="27"/>
-      <c r="B18" s="30"/>
-      <c r="C18" s="27"/>
+      <c r="A18" s="35"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="35"/>
       <c r="D18" s="12" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="27"/>
-      <c r="B19" s="30"/>
-      <c r="C19" s="27"/>
+      <c r="A19" s="35"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="35"/>
       <c r="D19" s="12" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="27"/>
-      <c r="B20" s="30"/>
-      <c r="C20" s="27"/>
+      <c r="A20" s="35"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="35"/>
       <c r="D20" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="27"/>
-      <c r="B21" s="30"/>
-      <c r="C21" s="27"/>
+      <c r="A21" s="35"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="35"/>
       <c r="D21" s="12" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="27"/>
-      <c r="B22" s="30"/>
-      <c r="C22" s="27"/>
+      <c r="A22" s="35"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="35"/>
       <c r="D22" s="12" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="27"/>
-      <c r="B23" s="30"/>
-      <c r="C23" s="27"/>
+      <c r="A23" s="35"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="35"/>
       <c r="D23" s="12" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:5" s="5" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="27"/>
-      <c r="B24" s="31"/>
-      <c r="C24" s="28"/>
+      <c r="A24" s="35"/>
+      <c r="B24" s="33"/>
+      <c r="C24" s="36"/>
       <c r="D24" s="13" t="s">
         <v>127</v>
       </c>
       <c r="E24" s="13"/>
     </row>
     <row r="25" spans="1:5" s="3" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="27"/>
-      <c r="B25" s="29" t="s">
+      <c r="A25" s="35"/>
+      <c r="B25" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="C25" s="26" t="s">
+      <c r="C25" s="34" t="s">
         <v>22</v>
       </c>
       <c r="D25" s="11" t="s">
@@ -1623,9 +1633,9 @@
       </c>
     </row>
     <row r="26" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="27"/>
-      <c r="B26" s="30"/>
-      <c r="C26" s="27"/>
+      <c r="A26" s="35"/>
+      <c r="B26" s="32"/>
+      <c r="C26" s="35"/>
       <c r="D26" s="12" t="s">
         <v>93</v>
       </c>
@@ -1634,20 +1644,20 @@
       </c>
     </row>
     <row r="27" spans="1:5" s="5" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="27"/>
-      <c r="B27" s="31"/>
-      <c r="C27" s="28"/>
+      <c r="A27" s="35"/>
+      <c r="B27" s="33"/>
+      <c r="C27" s="36"/>
       <c r="D27" s="13"/>
       <c r="E27" s="13" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="27"/>
-      <c r="B28" s="29" t="s">
+      <c r="A28" s="35"/>
+      <c r="B28" s="31" t="s">
         <v>128</v>
       </c>
-      <c r="C28" s="26" t="s">
+      <c r="C28" s="34" t="s">
         <v>129</v>
       </c>
       <c r="D28" s="12" t="s">
@@ -1658,19 +1668,19 @@
       </c>
     </row>
     <row r="29" spans="1:5" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="27"/>
-      <c r="B29" s="31"/>
-      <c r="C29" s="28"/>
+      <c r="A29" s="35"/>
+      <c r="B29" s="33"/>
+      <c r="C29" s="36"/>
       <c r="E29" s="12" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="30" spans="1:5" s="3" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="27"/>
-      <c r="B30" s="29" t="s">
+      <c r="A30" s="35"/>
+      <c r="B30" s="31" t="s">
         <v>173</v>
       </c>
-      <c r="C30" s="26" t="s">
+      <c r="C30" s="34" t="s">
         <v>174</v>
       </c>
       <c r="D30" s="23" t="s">
@@ -1681,9 +1691,9 @@
       </c>
     </row>
     <row r="31" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="27"/>
-      <c r="B31" s="30"/>
-      <c r="C31" s="27"/>
+      <c r="A31" s="35"/>
+      <c r="B31" s="32"/>
+      <c r="C31" s="35"/>
       <c r="D31" s="24" t="s">
         <v>9</v>
       </c>
@@ -1692,83 +1702,83 @@
       </c>
     </row>
     <row r="32" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="27"/>
-      <c r="B32" s="30"/>
-      <c r="C32" s="27"/>
+      <c r="A32" s="35"/>
+      <c r="B32" s="32"/>
+      <c r="C32" s="35"/>
       <c r="D32" s="24" t="s">
         <v>12</v>
       </c>
       <c r="E32" s="24"/>
     </row>
     <row r="33" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="27"/>
-      <c r="B33" s="30"/>
-      <c r="C33" s="27"/>
+      <c r="A33" s="35"/>
+      <c r="B33" s="32"/>
+      <c r="C33" s="35"/>
       <c r="D33" s="24" t="s">
         <v>13</v>
       </c>
       <c r="E33" s="24"/>
     </row>
     <row r="34" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="27"/>
-      <c r="B34" s="30"/>
-      <c r="C34" s="27"/>
+      <c r="A34" s="35"/>
+      <c r="B34" s="32"/>
+      <c r="C34" s="35"/>
       <c r="D34" s="24" t="s">
         <v>14</v>
       </c>
       <c r="E34" s="24"/>
     </row>
     <row r="35" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="27"/>
-      <c r="B35" s="30"/>
-      <c r="C35" s="27"/>
+      <c r="A35" s="35"/>
+      <c r="B35" s="32"/>
+      <c r="C35" s="35"/>
       <c r="D35" s="24" t="s">
         <v>15</v>
       </c>
       <c r="E35" s="24"/>
     </row>
     <row r="36" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="27"/>
-      <c r="B36" s="30"/>
-      <c r="C36" s="27"/>
+      <c r="A36" s="35"/>
+      <c r="B36" s="32"/>
+      <c r="C36" s="35"/>
       <c r="D36" s="24" t="s">
         <v>16</v>
       </c>
       <c r="E36" s="24"/>
     </row>
     <row r="37" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="27"/>
-      <c r="B37" s="30"/>
-      <c r="C37" s="27"/>
+      <c r="A37" s="35"/>
+      <c r="B37" s="32"/>
+      <c r="C37" s="35"/>
       <c r="D37" s="24" t="s">
         <v>17</v>
       </c>
       <c r="E37" s="24"/>
     </row>
     <row r="38" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="27"/>
-      <c r="B38" s="30"/>
-      <c r="C38" s="27"/>
+      <c r="A38" s="35"/>
+      <c r="B38" s="32"/>
+      <c r="C38" s="35"/>
       <c r="D38" s="24" t="s">
         <v>18</v>
       </c>
       <c r="E38" s="24"/>
     </row>
     <row r="39" spans="1:5" s="5" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="27"/>
-      <c r="B39" s="31"/>
-      <c r="C39" s="28"/>
+      <c r="A39" s="35"/>
+      <c r="B39" s="33"/>
+      <c r="C39" s="36"/>
       <c r="D39" s="25" t="s">
         <v>19</v>
       </c>
       <c r="E39" s="25"/>
     </row>
     <row r="40" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="27"/>
-      <c r="B40" s="29" t="s">
+      <c r="A40" s="35"/>
+      <c r="B40" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="C40" s="26" t="s">
+      <c r="C40" s="34" t="s">
         <v>23</v>
       </c>
       <c r="D40" s="24" t="s">
@@ -1779,9 +1789,9 @@
       </c>
     </row>
     <row r="41" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="27"/>
-      <c r="B41" s="30"/>
-      <c r="C41" s="27"/>
+      <c r="A41" s="35"/>
+      <c r="B41" s="32"/>
+      <c r="C41" s="35"/>
       <c r="D41" s="12" t="s">
         <v>80</v>
       </c>
@@ -1790,9 +1800,9 @@
       </c>
     </row>
     <row r="42" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="27"/>
-      <c r="B42" s="30"/>
-      <c r="C42" s="27"/>
+      <c r="A42" s="35"/>
+      <c r="B42" s="32"/>
+      <c r="C42" s="35"/>
       <c r="D42" s="12" t="s">
         <v>78</v>
       </c>
@@ -1801,1007 +1811,1020 @@
       </c>
     </row>
     <row r="43" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="27"/>
-      <c r="B43" s="30"/>
-      <c r="C43" s="27"/>
+      <c r="A43" s="35"/>
+      <c r="B43" s="32"/>
+      <c r="C43" s="35"/>
       <c r="D43" s="12" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="27"/>
-      <c r="B44" s="30"/>
-      <c r="C44" s="27"/>
+      <c r="A44" s="35"/>
+      <c r="B44" s="32"/>
+      <c r="C44" s="35"/>
       <c r="D44" s="12" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="27"/>
-      <c r="B45" s="30"/>
-      <c r="C45" s="27"/>
+      <c r="A45" s="35"/>
+      <c r="B45" s="32"/>
+      <c r="C45" s="35"/>
       <c r="D45" s="12" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="27"/>
-      <c r="B46" s="30"/>
-      <c r="C46" s="27"/>
+      <c r="A46" s="35"/>
+      <c r="B46" s="32"/>
+      <c r="C46" s="35"/>
       <c r="D46" s="12" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="27"/>
-      <c r="B47" s="30"/>
-      <c r="C47" s="27"/>
+      <c r="A47" s="35"/>
+      <c r="B47" s="32"/>
+      <c r="C47" s="35"/>
       <c r="D47" s="12" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="27"/>
-      <c r="B48" s="30"/>
-      <c r="C48" s="27"/>
+      <c r="A48" s="35"/>
+      <c r="B48" s="32"/>
+      <c r="C48" s="35"/>
       <c r="D48" s="12" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="27"/>
-      <c r="B49" s="30"/>
-      <c r="C49" s="27"/>
+      <c r="A49" s="35"/>
+      <c r="B49" s="32"/>
+      <c r="C49" s="35"/>
       <c r="D49" s="12" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="27"/>
-      <c r="B50" s="30"/>
-      <c r="C50" s="27"/>
+      <c r="A50" s="35"/>
+      <c r="B50" s="32"/>
+      <c r="C50" s="35"/>
       <c r="D50" s="12" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="27"/>
-      <c r="B51" s="30"/>
-      <c r="C51" s="27"/>
+      <c r="A51" s="35"/>
+      <c r="B51" s="32"/>
+      <c r="C51" s="35"/>
       <c r="D51" s="12" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="27"/>
-      <c r="B52" s="30"/>
-      <c r="C52" s="27"/>
+      <c r="A52" s="35"/>
+      <c r="B52" s="32"/>
+      <c r="C52" s="35"/>
       <c r="D52" s="12" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="27"/>
-      <c r="B53" s="30"/>
-      <c r="C53" s="27"/>
+      <c r="A53" s="35"/>
+      <c r="B53" s="32"/>
+      <c r="C53" s="35"/>
       <c r="D53" s="12" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="27"/>
-      <c r="B54" s="30"/>
-      <c r="C54" s="27"/>
+      <c r="A54" s="35"/>
+      <c r="B54" s="32"/>
+      <c r="C54" s="35"/>
       <c r="D54" s="12" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="27"/>
-      <c r="B55" s="30"/>
-      <c r="C55" s="27"/>
+      <c r="A55" s="35"/>
+      <c r="B55" s="32"/>
+      <c r="C55" s="35"/>
       <c r="D55" s="12" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="27"/>
-      <c r="B56" s="30"/>
-      <c r="C56" s="27"/>
+      <c r="A56" s="35"/>
+      <c r="B56" s="32"/>
+      <c r="C56" s="35"/>
       <c r="D56" s="12" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="27"/>
-      <c r="B57" s="30"/>
-      <c r="C57" s="27"/>
+      <c r="A57" s="35"/>
+      <c r="B57" s="32"/>
+      <c r="C57" s="35"/>
       <c r="D57" s="12" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="27"/>
-      <c r="B58" s="30"/>
-      <c r="C58" s="27"/>
+      <c r="A58" s="35"/>
+      <c r="B58" s="32"/>
+      <c r="C58" s="35"/>
       <c r="D58" s="12" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="27"/>
-      <c r="B59" s="30"/>
-      <c r="C59" s="27"/>
+      <c r="A59" s="35"/>
+      <c r="B59" s="32"/>
+      <c r="C59" s="35"/>
       <c r="D59" s="12" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="27"/>
-      <c r="B60" s="30"/>
-      <c r="C60" s="27"/>
+      <c r="A60" s="35"/>
+      <c r="B60" s="32"/>
+      <c r="C60" s="35"/>
       <c r="D60" s="12" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="27"/>
-      <c r="B61" s="30"/>
-      <c r="C61" s="27"/>
+      <c r="A61" s="35"/>
+      <c r="B61" s="32"/>
+      <c r="C61" s="35"/>
       <c r="D61" s="12" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="27"/>
-      <c r="B62" s="30"/>
-      <c r="C62" s="27"/>
+      <c r="A62" s="35"/>
+      <c r="B62" s="32"/>
+      <c r="C62" s="35"/>
       <c r="D62" s="12" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="27"/>
-      <c r="B63" s="30"/>
-      <c r="C63" s="27"/>
+      <c r="A63" s="35"/>
+      <c r="B63" s="32"/>
+      <c r="C63" s="35"/>
       <c r="D63" s="20" t="s">
         <v>160</v>
       </c>
       <c r="E63" s="20"/>
     </row>
     <row r="64" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="27"/>
-      <c r="B64" s="30"/>
-      <c r="C64" s="27"/>
+      <c r="A64" s="35"/>
+      <c r="B64" s="32"/>
+      <c r="C64" s="35"/>
       <c r="D64" s="20" t="s">
         <v>161</v>
       </c>
       <c r="E64" s="20"/>
     </row>
-    <row r="65" spans="1:5" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="27"/>
-      <c r="B65" s="30"/>
-      <c r="C65" s="27"/>
+    <row r="65" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="35"/>
+      <c r="B65" s="32"/>
+      <c r="C65" s="35"/>
       <c r="D65" s="12" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="66" spans="1:5" s="3" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="27"/>
-      <c r="B66" s="29" t="s">
+    <row r="66" spans="1:5" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="35"/>
+      <c r="B66" s="27"/>
+      <c r="C66" s="26"/>
+      <c r="D66" s="26" t="s">
+        <v>177</v>
+      </c>
+      <c r="E66" s="26"/>
+    </row>
+    <row r="67" spans="1:5" s="3" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="35"/>
+      <c r="B67" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="C66" s="26" t="s">
+      <c r="C67" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="D66" s="11" t="s">
+      <c r="D67" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E66" s="11" t="s">
+      <c r="E67" s="11" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="27"/>
-      <c r="B67" s="30"/>
-      <c r="C67" s="27"/>
-      <c r="D67" s="12" t="s">
+    <row r="68" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="35"/>
+      <c r="B68" s="32"/>
+      <c r="C68" s="35"/>
+      <c r="D68" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E67" s="12" t="s">
+      <c r="E68" s="12" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="68" spans="1:5" s="5" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="27"/>
-      <c r="B68" s="31"/>
-      <c r="C68" s="28"/>
-      <c r="D68" s="13"/>
-      <c r="E68" s="13" t="s">
+    <row r="69" spans="1:5" s="5" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="35"/>
+      <c r="B69" s="33"/>
+      <c r="C69" s="36"/>
+      <c r="D69" s="13"/>
+      <c r="E69" s="13" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="27"/>
-      <c r="B69" s="29" t="s">
+    <row r="70" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="35"/>
+      <c r="B70" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="C69" s="26" t="s">
+      <c r="C70" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="D69" s="12" t="s">
+      <c r="D70" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="E69" s="12" t="s">
+      <c r="E70" s="12" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="28"/>
-      <c r="B70" s="31"/>
-      <c r="C70" s="28"/>
-      <c r="D70" s="12" t="s">
+    <row r="71" spans="1:5" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="36"/>
+      <c r="B71" s="33"/>
+      <c r="C71" s="36"/>
+      <c r="D71" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="E70" s="12" t="s">
+      <c r="E71" s="12" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="71" spans="1:5" s="3" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="26" t="s">
+    <row r="72" spans="1:5" s="3" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="B71" s="29" t="s">
+      <c r="B72" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="C71" s="26" t="s">
+      <c r="C72" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="D71" s="11" t="s">
+      <c r="D72" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E71" s="11" t="s">
+      <c r="E72" s="11" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="27"/>
-      <c r="B72" s="30"/>
-      <c r="C72" s="27"/>
-      <c r="D72" s="12" t="s">
+    <row r="73" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="35"/>
+      <c r="B73" s="32"/>
+      <c r="C73" s="35"/>
+      <c r="D73" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E72" s="12" t="s">
+      <c r="E73" s="12" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="27"/>
-      <c r="B73" s="30"/>
-      <c r="C73" s="27"/>
-      <c r="D73" s="12" t="s">
+    <row r="74" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="35"/>
+      <c r="B74" s="32"/>
+      <c r="C74" s="35"/>
+      <c r="D74" s="12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="27"/>
-      <c r="B74" s="30"/>
-      <c r="C74" s="27"/>
-      <c r="D74" s="12" t="s">
+    <row r="75" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="35"/>
+      <c r="B75" s="32"/>
+      <c r="C75" s="35"/>
+      <c r="D75" s="12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="27"/>
-      <c r="B75" s="30"/>
-      <c r="C75" s="27"/>
-      <c r="D75" s="12" t="s">
+    <row r="76" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="35"/>
+      <c r="B76" s="32"/>
+      <c r="C76" s="35"/>
+      <c r="D76" s="12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="27"/>
-      <c r="B76" s="30"/>
-      <c r="C76" s="27"/>
-      <c r="D76" s="12" t="s">
+    <row r="77" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="35"/>
+      <c r="B77" s="32"/>
+      <c r="C77" s="35"/>
+      <c r="D77" s="12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="27"/>
-      <c r="B77" s="30"/>
-      <c r="C77" s="27"/>
-      <c r="D77" s="12" t="s">
+    <row r="78" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="35"/>
+      <c r="B78" s="32"/>
+      <c r="C78" s="35"/>
+      <c r="D78" s="12" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="78" spans="1:5" s="5" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="27"/>
-      <c r="B78" s="31"/>
-      <c r="C78" s="28"/>
-      <c r="D78" s="13" t="s">
+    <row r="79" spans="1:5" s="5" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="35"/>
+      <c r="B79" s="33"/>
+      <c r="C79" s="36"/>
+      <c r="D79" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="E78" s="13"/>
-    </row>
-    <row r="79" spans="1:5" s="3" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="27"/>
-      <c r="B79" s="29" t="s">
+      <c r="E79" s="13"/>
+    </row>
+    <row r="80" spans="1:5" s="3" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="35"/>
+      <c r="B80" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="C79" s="26" t="s">
+      <c r="C80" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="D79" s="11" t="s">
+      <c r="D80" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="E79" s="11" t="s">
+      <c r="E80" s="11" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="27"/>
-      <c r="B80" s="30"/>
-      <c r="C80" s="27"/>
-      <c r="D80" s="12" t="s">
+    <row r="81" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="35"/>
+      <c r="B81" s="32"/>
+      <c r="C81" s="35"/>
+      <c r="D81" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E80" s="12" t="s">
+      <c r="E81" s="12" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="81" spans="1:5" s="5" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="27"/>
-      <c r="B81" s="31"/>
-      <c r="C81" s="28"/>
-      <c r="D81" s="13"/>
-      <c r="E81" s="13" t="s">
+    <row r="82" spans="1:5" s="5" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="35"/>
+      <c r="B82" s="33"/>
+      <c r="C82" s="36"/>
+      <c r="D82" s="13"/>
+      <c r="E82" s="13" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="27"/>
-      <c r="B82" s="29" t="s">
+    <row r="83" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="35"/>
+      <c r="B83" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="C82" s="26" t="s">
+      <c r="C83" s="34" t="s">
         <v>133</v>
       </c>
-      <c r="D82" s="11" t="s">
+      <c r="D83" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E82" s="11" t="s">
+      <c r="E83" s="11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="27"/>
-      <c r="B83" s="31"/>
-      <c r="C83" s="28"/>
-      <c r="D83" s="13"/>
-      <c r="E83" s="13" t="s">
+    <row r="84" spans="1:5" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A84" s="35"/>
+      <c r="B84" s="33"/>
+      <c r="C84" s="36"/>
+      <c r="D84" s="13"/>
+      <c r="E84" s="13" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="84" spans="1:5" s="3" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="27"/>
-      <c r="B84" s="29" t="s">
+    <row r="85" spans="1:5" s="3" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="35"/>
+      <c r="B85" s="31" t="s">
         <v>175</v>
       </c>
-      <c r="C84" s="26" t="s">
+      <c r="C85" s="34" t="s">
         <v>176</v>
       </c>
-      <c r="D84" s="23" t="s">
+      <c r="D85" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="E84" s="23" t="s">
+      <c r="E85" s="23" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="27"/>
-      <c r="B85" s="30"/>
-      <c r="C85" s="27"/>
-      <c r="D85" s="24" t="s">
+    <row r="86" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="35"/>
+      <c r="B86" s="32"/>
+      <c r="C86" s="35"/>
+      <c r="D86" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="E85" s="24" t="s">
+      <c r="E86" s="24" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="27"/>
-      <c r="B86" s="30"/>
-      <c r="C86" s="27"/>
-      <c r="D86" s="24" t="s">
+    <row r="87" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="35"/>
+      <c r="B87" s="32"/>
+      <c r="C87" s="35"/>
+      <c r="D87" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="E86" s="24"/>
-    </row>
-    <row r="87" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="27"/>
-      <c r="B87" s="30"/>
-      <c r="C87" s="27"/>
-      <c r="D87" s="24" t="s">
+      <c r="E87" s="24"/>
+    </row>
+    <row r="88" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="35"/>
+      <c r="B88" s="32"/>
+      <c r="C88" s="35"/>
+      <c r="D88" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="E87" s="24"/>
-    </row>
-    <row r="88" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="27"/>
-      <c r="B88" s="30"/>
-      <c r="C88" s="27"/>
-      <c r="D88" s="24" t="s">
+      <c r="E88" s="24"/>
+    </row>
+    <row r="89" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="35"/>
+      <c r="B89" s="32"/>
+      <c r="C89" s="35"/>
+      <c r="D89" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="E88" s="24"/>
-    </row>
-    <row r="89" spans="1:5" s="5" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A89" s="27"/>
-      <c r="B89" s="31"/>
-      <c r="C89" s="28"/>
-      <c r="D89" s="25" t="s">
+      <c r="E89" s="24"/>
+    </row>
+    <row r="90" spans="1:5" s="5" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A90" s="35"/>
+      <c r="B90" s="33"/>
+      <c r="C90" s="36"/>
+      <c r="D90" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="E89" s="25"/>
-    </row>
-    <row r="90" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="27"/>
-      <c r="B90" s="29" t="s">
+      <c r="E90" s="25"/>
+    </row>
+    <row r="91" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="35"/>
+      <c r="B91" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="C90" s="26" t="s">
+      <c r="C91" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="D90" s="12" t="s">
+      <c r="D91" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E90" s="12" t="s">
+      <c r="E91" s="12" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A91" s="27"/>
-      <c r="B91" s="31"/>
-      <c r="C91" s="28"/>
-      <c r="D91" s="12" t="s">
+    <row r="92" spans="1:5" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A92" s="35"/>
+      <c r="B92" s="33"/>
+      <c r="C92" s="36"/>
+      <c r="D92" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="E91" s="12" t="s">
+      <c r="E92" s="12" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="92" spans="1:5" s="3" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="27"/>
-      <c r="B92" s="29" t="s">
+    <row r="93" spans="1:5" s="3" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="35"/>
+      <c r="B93" s="31" t="s">
         <v>106</v>
       </c>
-      <c r="C92" s="26" t="s">
+      <c r="C93" s="34" t="s">
         <v>107</v>
       </c>
-      <c r="D92" s="11" t="s">
+      <c r="D93" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="E92" s="11" t="s">
+      <c r="E93" s="11" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="27"/>
-      <c r="B93" s="30"/>
-      <c r="C93" s="27"/>
-      <c r="D93" s="12" t="s">
+    <row r="94" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="35"/>
+      <c r="B94" s="32"/>
+      <c r="C94" s="35"/>
+      <c r="D94" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="E93" s="12" t="s">
+      <c r="E94" s="12" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A94" s="27"/>
-      <c r="B94" s="31"/>
-      <c r="C94" s="28"/>
-      <c r="E94" s="12" t="s">
+    <row r="95" spans="1:5" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A95" s="35"/>
+      <c r="B95" s="33"/>
+      <c r="C95" s="36"/>
+      <c r="E95" s="12" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="95" spans="1:5" s="3" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="27"/>
-      <c r="B95" s="29" t="s">
+    <row r="96" spans="1:5" s="3" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="35"/>
+      <c r="B96" s="31" t="s">
         <v>103</v>
       </c>
-      <c r="C95" s="26" t="s">
+      <c r="C96" s="34" t="s">
         <v>108</v>
       </c>
-      <c r="D95" s="11" t="s">
+      <c r="D96" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="E95" s="11" t="s">
+      <c r="E96" s="11" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="27"/>
-      <c r="B96" s="30"/>
-      <c r="C96" s="27"/>
-      <c r="D96" s="12" t="s">
+    <row r="97" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="35"/>
+      <c r="B97" s="32"/>
+      <c r="C97" s="35"/>
+      <c r="D97" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="E96" s="12" t="s">
+      <c r="E97" s="12" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="1:5" s="5" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A97" s="27"/>
-      <c r="B97" s="31"/>
-      <c r="C97" s="28"/>
-      <c r="D97" s="13" t="s">
+    <row r="98" spans="1:5" s="5" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A98" s="35"/>
+      <c r="B98" s="33"/>
+      <c r="C98" s="36"/>
+      <c r="D98" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="E97" s="13"/>
-    </row>
-    <row r="98" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="27"/>
-      <c r="B98" s="29" t="s">
+      <c r="E98" s="13"/>
+    </row>
+    <row r="99" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="35"/>
+      <c r="B99" s="31" t="s">
         <v>111</v>
       </c>
-      <c r="C98" s="26" t="s">
+      <c r="C99" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="D98" s="12" t="s">
+      <c r="D99" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="E98" s="12" t="s">
+      <c r="E99" s="12" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="27"/>
-      <c r="B99" s="30"/>
-      <c r="C99" s="27"/>
-      <c r="D99" s="12" t="s">
+    <row r="100" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="35"/>
+      <c r="B100" s="32"/>
+      <c r="C100" s="35"/>
+      <c r="D100" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="E99" s="12" t="s">
+      <c r="E100" s="12" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A100" s="28"/>
-      <c r="B100" s="31"/>
-      <c r="C100" s="28"/>
-      <c r="D100" s="12" t="s">
+    <row r="101" spans="1:5" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A101" s="36"/>
+      <c r="B101" s="33"/>
+      <c r="C101" s="36"/>
+      <c r="D101" s="12" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="101" spans="1:5" s="3" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="26" t="s">
+    <row r="102" spans="1:5" s="3" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="B101" s="29" t="s">
+      <c r="B102" s="31" t="s">
         <v>134</v>
       </c>
-      <c r="C101" s="26" t="s">
+      <c r="C102" s="34" t="s">
         <v>137</v>
       </c>
-      <c r="D101" s="11" t="s">
+      <c r="D102" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="E101" s="11" t="s">
+      <c r="E102" s="11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="27"/>
-      <c r="B102" s="30"/>
-      <c r="C102" s="27"/>
-      <c r="D102" s="12" t="s">
+    <row r="103" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="35"/>
+      <c r="B103" s="32"/>
+      <c r="C103" s="35"/>
+      <c r="D103" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E102" s="12" t="s">
+      <c r="E103" s="12" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="1:5" s="5" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A103" s="27"/>
-      <c r="B103" s="31"/>
-      <c r="C103" s="28"/>
-      <c r="D103" s="13"/>
-      <c r="E103" s="13" t="s">
+    <row r="104" spans="1:5" s="5" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A104" s="35"/>
+      <c r="B104" s="33"/>
+      <c r="C104" s="36"/>
+      <c r="D104" s="13"/>
+      <c r="E104" s="13" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="104" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="27"/>
-      <c r="B104" s="29" t="s">
+    <row r="105" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="35"/>
+      <c r="B105" s="31" t="s">
         <v>135</v>
       </c>
-      <c r="C104" s="26" t="s">
+      <c r="C105" s="34" t="s">
         <v>138</v>
       </c>
-      <c r="D104" s="11" t="s">
+      <c r="D105" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="E104" s="11" t="s">
+      <c r="E105" s="11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="105" spans="1:5" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A105" s="27"/>
-      <c r="B105" s="31"/>
-      <c r="C105" s="28"/>
-      <c r="D105" s="13"/>
-      <c r="E105" s="13" t="s">
+    <row r="106" spans="1:5" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A106" s="35"/>
+      <c r="B106" s="33"/>
+      <c r="C106" s="36"/>
+      <c r="D106" s="13"/>
+      <c r="E106" s="13" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="27"/>
-      <c r="B106" s="29" t="s">
+    <row r="107" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="35"/>
+      <c r="B107" s="31" t="s">
         <v>136</v>
       </c>
-      <c r="C106" s="26" t="s">
+      <c r="C107" s="34" t="s">
         <v>139</v>
       </c>
-      <c r="D106" s="12" t="s">
+      <c r="D107" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="E106" s="12" t="s">
+      <c r="E107" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="107" spans="1:5" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A107" s="27"/>
-      <c r="B107" s="31"/>
-      <c r="C107" s="28"/>
-      <c r="D107" s="12" t="s">
+    <row r="108" spans="1:5" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A108" s="35"/>
+      <c r="B108" s="33"/>
+      <c r="C108" s="36"/>
+      <c r="D108" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E107" s="12" t="s">
+      <c r="E108" s="12" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="108" spans="1:5" s="3" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="27"/>
-      <c r="B108" s="29" t="s">
+    <row r="109" spans="1:5" s="3" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="35"/>
+      <c r="B109" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="C108" s="26" t="s">
+      <c r="C109" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="D108" s="11" t="s">
+      <c r="D109" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="E108" s="11" t="s">
+      <c r="E109" s="11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="109" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="27"/>
-      <c r="B109" s="30"/>
-      <c r="C109" s="27"/>
-      <c r="D109" s="12" t="s">
+    <row r="110" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="35"/>
+      <c r="B110" s="32"/>
+      <c r="C110" s="35"/>
+      <c r="D110" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="E109" s="12" t="s">
+      <c r="E110" s="12" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="110" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="27"/>
-      <c r="B110" s="30"/>
-      <c r="C110" s="27"/>
-      <c r="D110" s="12" t="s">
+    <row r="111" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="35"/>
+      <c r="B111" s="32"/>
+      <c r="C111" s="35"/>
+      <c r="D111" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="E110" s="12" t="s">
+      <c r="E111" s="12" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="111" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="27"/>
-      <c r="B111" s="30"/>
-      <c r="C111" s="27"/>
-      <c r="D111" s="12" t="s">
+    <row r="112" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="35"/>
+      <c r="B112" s="32"/>
+      <c r="C112" s="35"/>
+      <c r="D112" s="12" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="112" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="27"/>
-      <c r="B112" s="30"/>
-      <c r="C112" s="27"/>
-      <c r="D112" s="24" t="s">
+    <row r="113" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="35"/>
+      <c r="B113" s="32"/>
+      <c r="C113" s="35"/>
+      <c r="D113" s="24" t="s">
         <v>170</v>
       </c>
-      <c r="E112" s="24"/>
-    </row>
-    <row r="113" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="27"/>
-      <c r="B113" s="30"/>
-      <c r="C113" s="27"/>
-      <c r="D113" s="24" t="s">
+      <c r="E113" s="24"/>
+    </row>
+    <row r="114" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="35"/>
+      <c r="B114" s="32"/>
+      <c r="C114" s="35"/>
+      <c r="D114" s="24" t="s">
         <v>171</v>
       </c>
-      <c r="E113" s="24"/>
-    </row>
-    <row r="114" spans="1:5" s="5" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A114" s="27"/>
-      <c r="B114" s="31"/>
-      <c r="C114" s="28"/>
-      <c r="D114" s="13" t="s">
+      <c r="E114" s="24"/>
+    </row>
+    <row r="115" spans="1:5" s="5" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A115" s="35"/>
+      <c r="B115" s="33"/>
+      <c r="C115" s="36"/>
+      <c r="D115" s="13" t="s">
         <v>172</v>
       </c>
-      <c r="E114" s="13"/>
-    </row>
-    <row r="115" spans="1:5" s="3" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="27"/>
-      <c r="B115" s="29" t="s">
+      <c r="E115" s="13"/>
+    </row>
+    <row r="116" spans="1:5" s="3" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="35"/>
+      <c r="B116" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="C115" s="26" t="s">
+      <c r="C116" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="D115" s="11" t="s">
+      <c r="D116" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="E115" s="11" t="s">
+      <c r="E116" s="11" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="116" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="27"/>
-      <c r="B116" s="30"/>
-      <c r="C116" s="27"/>
-      <c r="E116" s="12" t="s">
+    <row r="117" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="35"/>
+      <c r="B117" s="32"/>
+      <c r="C117" s="35"/>
+      <c r="E117" s="12" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="117" spans="1:5" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A117" s="27"/>
-      <c r="B117" s="30"/>
-      <c r="C117" s="27"/>
-      <c r="E117" s="12" t="s">
+    <row r="118" spans="1:5" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A118" s="35"/>
+      <c r="B118" s="32"/>
+      <c r="C118" s="35"/>
+      <c r="E118" s="12" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="118" spans="1:5" s="3" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="27"/>
-      <c r="B118" s="26" t="s">
+    <row r="119" spans="1:5" s="3" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="35"/>
+      <c r="B119" s="34" t="s">
         <v>147</v>
       </c>
-      <c r="C118" s="26" t="s">
+      <c r="C119" s="34" t="s">
         <v>146</v>
       </c>
-      <c r="D118" s="11" t="s">
+      <c r="D119" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="E118" s="11" t="s">
+      <c r="E119" s="11" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="119" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="27"/>
-      <c r="B119" s="27"/>
-      <c r="C119" s="27"/>
-      <c r="E119" s="12" t="s">
+    <row r="120" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="35"/>
+      <c r="B120" s="35"/>
+      <c r="C120" s="35"/>
+      <c r="E120" s="12" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="120" spans="1:5" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A120" s="27"/>
-      <c r="B120" s="28"/>
-      <c r="C120" s="28"/>
-      <c r="E120" s="12" t="s">
+    <row r="121" spans="1:5" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A121" s="35"/>
+      <c r="B121" s="36"/>
+      <c r="C121" s="36"/>
+      <c r="E121" s="12" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="121" spans="1:5" s="3" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="27"/>
-      <c r="B121" s="26" t="s">
+    <row r="122" spans="1:5" s="3" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="35"/>
+      <c r="B122" s="34" t="s">
         <v>153</v>
       </c>
-      <c r="C121" s="26" t="s">
+      <c r="C122" s="34" t="s">
         <v>154</v>
       </c>
-      <c r="D121" s="11" t="s">
+      <c r="D122" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="E121" s="11" t="s">
+      <c r="E122" s="11" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="122" spans="1:5" s="5" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A122" s="27"/>
-      <c r="B122" s="28"/>
-      <c r="C122" s="28"/>
-      <c r="D122" s="13" t="s">
+    <row r="123" spans="1:5" s="5" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A123" s="35"/>
+      <c r="B123" s="36"/>
+      <c r="C123" s="36"/>
+      <c r="D123" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="E122" s="13" t="s">
+      <c r="E123" s="13" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="123" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="27"/>
-      <c r="B123" s="29" t="s">
+    <row r="124" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="35"/>
+      <c r="B124" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="C123" s="26" t="s">
+      <c r="C124" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="D123" s="12" t="s">
+      <c r="D124" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="E123" s="12" t="s">
+      <c r="E124" s="12" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="124" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="27"/>
-      <c r="B124" s="30"/>
-      <c r="C124" s="27"/>
-      <c r="D124" s="12" t="s">
+    <row r="125" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="35"/>
+      <c r="B125" s="32"/>
+      <c r="C125" s="35"/>
+      <c r="D125" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="E124" s="12" t="s">
+      <c r="E125" s="12" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="125" spans="1:5" s="5" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A125" s="28"/>
-      <c r="B125" s="31"/>
-      <c r="C125" s="28"/>
-      <c r="D125" s="13"/>
-      <c r="E125" s="13"/>
-    </row>
-    <row r="126" spans="1:5" s="8" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="32" t="s">
+    <row r="126" spans="1:5" s="5" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A126" s="36"/>
+      <c r="B126" s="33"/>
+      <c r="C126" s="36"/>
+      <c r="D126" s="13"/>
+      <c r="E126" s="13"/>
+    </row>
+    <row r="127" spans="1:5" s="8" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="B126" s="34" t="s">
+      <c r="B127" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="C126" s="32" t="s">
+      <c r="C127" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="D126" s="14"/>
-      <c r="E126" s="14" t="s">
+      <c r="D127" s="14"/>
+      <c r="E127" s="14" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="127" spans="1:5" s="10" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="36"/>
-      <c r="B127" s="37"/>
-      <c r="C127" s="36"/>
-      <c r="D127" s="15"/>
-      <c r="E127" s="15" t="s">
+    <row r="128" spans="1:5" s="10" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="29"/>
+      <c r="B128" s="39"/>
+      <c r="C128" s="29"/>
+      <c r="D128" s="15"/>
+      <c r="E128" s="15" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="128" spans="1:5" s="10" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="36"/>
-      <c r="B128" s="37"/>
-      <c r="C128" s="36"/>
-      <c r="D128" s="18"/>
-      <c r="E128" s="18" t="s">
-        <v>156</v>
-      </c>
-    </row>
     <row r="129" spans="1:5" s="10" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="36"/>
-      <c r="B129" s="37"/>
-      <c r="C129" s="36"/>
+      <c r="A129" s="29"/>
+      <c r="B129" s="39"/>
+      <c r="C129" s="29"/>
       <c r="D129" s="18"/>
       <c r="E129" s="18" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" s="10" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="29"/>
+      <c r="B130" s="39"/>
+      <c r="C130" s="29"/>
+      <c r="D130" s="18"/>
+      <c r="E130" s="18" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="130" spans="1:5" s="9" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A130" s="36"/>
-      <c r="B130" s="35"/>
-      <c r="C130" s="33"/>
-      <c r="D130" s="16"/>
-      <c r="E130" s="16" t="s">
+    <row r="131" spans="1:5" s="9" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A131" s="29"/>
+      <c r="B131" s="38"/>
+      <c r="C131" s="30"/>
+      <c r="D131" s="16"/>
+      <c r="E131" s="16" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="131" spans="1:5" s="10" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A131" s="36"/>
-      <c r="B131" s="22" t="s">
+    <row r="132" spans="1:5" s="10" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A132" s="29"/>
+      <c r="B132" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="C131" s="21" t="s">
+      <c r="C132" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="D131" s="15" t="s">
+      <c r="D132" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="E131" s="15" t="s">
+      <c r="E132" s="15" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="132" spans="1:5" s="6" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="36"/>
-      <c r="B132" s="34" t="s">
+    <row r="133" spans="1:5" s="6" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="29"/>
+      <c r="B133" s="37" t="s">
         <v>120</v>
       </c>
-      <c r="C132" s="32" t="s">
+      <c r="C133" s="28" t="s">
         <v>121</v>
       </c>
-      <c r="D132" s="14" t="s">
+      <c r="D133" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="E132" s="14" t="s">
+      <c r="E133" s="14" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="133" spans="1:5" s="7" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A133" s="36"/>
-      <c r="B133" s="35"/>
-      <c r="C133" s="33"/>
-      <c r="D133" s="16"/>
-      <c r="E133" s="16" t="s">
+    <row r="134" spans="1:5" s="7" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A134" s="29"/>
+      <c r="B134" s="38"/>
+      <c r="C134" s="30"/>
+      <c r="D134" s="16"/>
+      <c r="E134" s="16" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="134" spans="1:5" s="3" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="36"/>
-      <c r="B134" s="29" t="s">
+    <row r="135" spans="1:5" s="3" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A135" s="29"/>
+      <c r="B135" s="31" t="s">
         <v>114</v>
       </c>
-      <c r="C134" s="26" t="s">
+      <c r="C135" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="D134" s="11" t="s">
+      <c r="D135" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="E134" s="11" t="s">
+      <c r="E135" s="11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="135" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="36"/>
-      <c r="B135" s="30"/>
-      <c r="C135" s="27"/>
-      <c r="E135" s="12" t="s">
+    <row r="136" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A136" s="29"/>
+      <c r="B136" s="32"/>
+      <c r="C136" s="35"/>
+      <c r="E136" s="12" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="136" spans="1:5" s="5" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A136" s="33"/>
-      <c r="B136" s="31"/>
-      <c r="C136" s="28"/>
-      <c r="D136" s="13"/>
-      <c r="E136" s="13" t="s">
+    <row r="137" spans="1:5" s="5" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A137" s="30"/>
+      <c r="B137" s="33"/>
+      <c r="C137" s="36"/>
+      <c r="D137" s="13"/>
+      <c r="E137" s="13" t="s">
         <v>119</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="65">
-    <mergeCell ref="A126:A136"/>
-    <mergeCell ref="B134:B136"/>
-    <mergeCell ref="C134:C136"/>
-    <mergeCell ref="B132:B133"/>
-    <mergeCell ref="C132:C133"/>
-    <mergeCell ref="B126:B130"/>
-    <mergeCell ref="C126:C130"/>
-    <mergeCell ref="A71:A100"/>
-    <mergeCell ref="B92:B94"/>
-    <mergeCell ref="C92:C94"/>
-    <mergeCell ref="B71:B78"/>
-    <mergeCell ref="C71:C78"/>
-    <mergeCell ref="B79:B81"/>
-    <mergeCell ref="C79:C81"/>
-    <mergeCell ref="B95:B97"/>
-    <mergeCell ref="C95:C97"/>
-    <mergeCell ref="B90:B91"/>
-    <mergeCell ref="C90:C91"/>
-    <mergeCell ref="B82:B83"/>
-    <mergeCell ref="C82:C83"/>
-    <mergeCell ref="C98:C100"/>
-    <mergeCell ref="B98:B100"/>
-    <mergeCell ref="B84:B89"/>
-    <mergeCell ref="A14:A70"/>
+    <mergeCell ref="A102:A126"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="A2:A13"/>
+    <mergeCell ref="B119:B121"/>
+    <mergeCell ref="C119:C121"/>
+    <mergeCell ref="B122:B123"/>
+    <mergeCell ref="C122:C123"/>
+    <mergeCell ref="B102:B104"/>
+    <mergeCell ref="C102:C104"/>
+    <mergeCell ref="B105:B106"/>
+    <mergeCell ref="C105:C106"/>
+    <mergeCell ref="B109:B115"/>
+    <mergeCell ref="C109:C115"/>
+    <mergeCell ref="B124:B126"/>
+    <mergeCell ref="C124:C126"/>
+    <mergeCell ref="C116:C118"/>
+    <mergeCell ref="B116:B118"/>
+    <mergeCell ref="B107:B108"/>
+    <mergeCell ref="C107:C108"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="C85:C90"/>
+    <mergeCell ref="A14:A71"/>
     <mergeCell ref="B14:B24"/>
     <mergeCell ref="C14:C24"/>
     <mergeCell ref="B25:B27"/>
@@ -2810,39 +2833,35 @@
     <mergeCell ref="B40:B65"/>
     <mergeCell ref="B28:B29"/>
     <mergeCell ref="C28:C29"/>
-    <mergeCell ref="B66:B68"/>
-    <mergeCell ref="C66:C68"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="B67:B69"/>
+    <mergeCell ref="C67:C69"/>
+    <mergeCell ref="C70:C71"/>
+    <mergeCell ref="B70:B71"/>
     <mergeCell ref="B30:B39"/>
     <mergeCell ref="C30:C39"/>
-    <mergeCell ref="C115:C117"/>
-    <mergeCell ref="B115:B117"/>
-    <mergeCell ref="B106:B107"/>
-    <mergeCell ref="C106:C107"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="C84:C89"/>
-    <mergeCell ref="A101:A125"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="A2:A13"/>
-    <mergeCell ref="B118:B120"/>
-    <mergeCell ref="C118:C120"/>
-    <mergeCell ref="B121:B122"/>
-    <mergeCell ref="C121:C122"/>
-    <mergeCell ref="B101:B103"/>
-    <mergeCell ref="C101:C103"/>
-    <mergeCell ref="B104:B105"/>
-    <mergeCell ref="C104:C105"/>
-    <mergeCell ref="B108:B114"/>
-    <mergeCell ref="C108:C114"/>
-    <mergeCell ref="B123:B125"/>
-    <mergeCell ref="C123:C125"/>
+    <mergeCell ref="A72:A101"/>
+    <mergeCell ref="B93:B95"/>
+    <mergeCell ref="C93:C95"/>
+    <mergeCell ref="B72:B79"/>
+    <mergeCell ref="C72:C79"/>
+    <mergeCell ref="B80:B82"/>
+    <mergeCell ref="C80:C82"/>
+    <mergeCell ref="B96:B98"/>
+    <mergeCell ref="C96:C98"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="C91:C92"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="C83:C84"/>
+    <mergeCell ref="C99:C101"/>
+    <mergeCell ref="B99:B101"/>
+    <mergeCell ref="B85:B90"/>
+    <mergeCell ref="A127:A137"/>
+    <mergeCell ref="B135:B137"/>
+    <mergeCell ref="C135:C137"/>
+    <mergeCell ref="B133:B134"/>
+    <mergeCell ref="C133:C134"/>
+    <mergeCell ref="B127:B131"/>
+    <mergeCell ref="C127:C131"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/BACKEND.xlsx
+++ b/BACKEND.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="180">
   <si>
     <t>Pathname</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -725,6 +725,14 @@
   </si>
   <si>
     <t>pdfUrl: string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>studentGetApplication</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学生获取申请</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -922,7 +930,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1007,6 +1015,33 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1014,24 +1049,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1356,11 +1373,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E137"/>
+  <dimension ref="A1:E140"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E62" sqref="E62"/>
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E70" sqref="E70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.83203125" defaultRowHeight="17.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1389,13 +1406,13 @@
       </c>
     </row>
     <row r="2" spans="1:5" s="3" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="34" t="s">
         <v>165</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="31" t="s">
         <v>166</v>
       </c>
       <c r="D2" s="11"/>
@@ -1404,28 +1421,28 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="35"/>
-      <c r="B3" s="32"/>
-      <c r="C3" s="35"/>
+      <c r="A3" s="32"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="32"/>
       <c r="E3" s="12" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="5" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="35"/>
-      <c r="B4" s="33"/>
-      <c r="C4" s="36"/>
+      <c r="A4" s="32"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="33"/>
       <c r="D4" s="13"/>
       <c r="E4" s="13" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="3" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="35"/>
-      <c r="B5" s="31" t="s">
+      <c r="A5" s="32"/>
+      <c r="B5" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="C5" s="34" t="s">
+      <c r="C5" s="31" t="s">
         <v>71</v>
       </c>
       <c r="D5" s="11" t="s">
@@ -1436,28 +1453,28 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="35"/>
-      <c r="B6" s="32"/>
-      <c r="C6" s="35"/>
+      <c r="A6" s="32"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="32"/>
       <c r="E6" s="12" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:5" s="5" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="35"/>
-      <c r="B7" s="33"/>
-      <c r="C7" s="36"/>
+      <c r="A7" s="32"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="33"/>
       <c r="D7" s="13"/>
       <c r="E7" s="13" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:5" s="3" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="35"/>
-      <c r="B8" s="31" t="s">
+      <c r="A8" s="32"/>
+      <c r="B8" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="C8" s="34" t="s">
+      <c r="C8" s="31" t="s">
         <v>72</v>
       </c>
       <c r="D8" s="11" t="s">
@@ -1468,28 +1485,28 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="35"/>
-      <c r="B9" s="32"/>
-      <c r="C9" s="35"/>
+      <c r="A9" s="32"/>
+      <c r="B9" s="35"/>
+      <c r="C9" s="32"/>
       <c r="E9" s="12" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:5" s="5" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="35"/>
-      <c r="B10" s="33"/>
-      <c r="C10" s="36"/>
+      <c r="A10" s="32"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="33"/>
       <c r="D10" s="12"/>
       <c r="E10" s="13" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:5" s="3" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="35"/>
-      <c r="B11" s="31" t="s">
+      <c r="A11" s="32"/>
+      <c r="B11" s="34" t="s">
         <v>143</v>
       </c>
-      <c r="C11" s="34" t="s">
+      <c r="C11" s="31" t="s">
         <v>144</v>
       </c>
       <c r="D11" s="11" t="s">
@@ -1500,30 +1517,30 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="35"/>
-      <c r="B12" s="32"/>
-      <c r="C12" s="35"/>
+      <c r="A12" s="32"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="32"/>
       <c r="E12" s="12" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:5" s="5" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="36"/>
-      <c r="B13" s="33"/>
-      <c r="C13" s="36"/>
+      <c r="A13" s="33"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="33"/>
       <c r="D13" s="12"/>
       <c r="E13" s="13" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:5" s="3" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="34" t="s">
+      <c r="A14" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="B14" s="31" t="s">
+      <c r="B14" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="34" t="s">
+      <c r="C14" s="31" t="s">
         <v>8</v>
       </c>
       <c r="D14" s="11" t="s">
@@ -1534,9 +1551,9 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="35"/>
-      <c r="B15" s="32"/>
-      <c r="C15" s="35"/>
+      <c r="A15" s="32"/>
+      <c r="B15" s="35"/>
+      <c r="C15" s="32"/>
       <c r="D15" s="12" t="s">
         <v>9</v>
       </c>
@@ -1545,84 +1562,84 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="35"/>
-      <c r="B16" s="32"/>
-      <c r="C16" s="35"/>
+      <c r="A16" s="32"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="32"/>
       <c r="D16" s="12" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="35"/>
-      <c r="B17" s="32"/>
-      <c r="C17" s="35"/>
+      <c r="A17" s="32"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="32"/>
       <c r="D17" s="12" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="35"/>
-      <c r="B18" s="32"/>
-      <c r="C18" s="35"/>
+      <c r="A18" s="32"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="32"/>
       <c r="D18" s="12" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="35"/>
-      <c r="B19" s="32"/>
-      <c r="C19" s="35"/>
+      <c r="A19" s="32"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="32"/>
       <c r="D19" s="12" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="35"/>
-      <c r="B20" s="32"/>
-      <c r="C20" s="35"/>
+      <c r="A20" s="32"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="32"/>
       <c r="D20" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="35"/>
-      <c r="B21" s="32"/>
-      <c r="C21" s="35"/>
+      <c r="A21" s="32"/>
+      <c r="B21" s="35"/>
+      <c r="C21" s="32"/>
       <c r="D21" s="12" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="35"/>
-      <c r="B22" s="32"/>
-      <c r="C22" s="35"/>
+      <c r="A22" s="32"/>
+      <c r="B22" s="35"/>
+      <c r="C22" s="32"/>
       <c r="D22" s="12" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="35"/>
-      <c r="B23" s="32"/>
-      <c r="C23" s="35"/>
+      <c r="A23" s="32"/>
+      <c r="B23" s="35"/>
+      <c r="C23" s="32"/>
       <c r="D23" s="12" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:5" s="5" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="35"/>
-      <c r="B24" s="33"/>
-      <c r="C24" s="36"/>
+      <c r="A24" s="32"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="33"/>
       <c r="D24" s="13" t="s">
         <v>127</v>
       </c>
       <c r="E24" s="13"/>
     </row>
     <row r="25" spans="1:5" s="3" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="35"/>
-      <c r="B25" s="31" t="s">
+      <c r="A25" s="32"/>
+      <c r="B25" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="C25" s="34" t="s">
+      <c r="C25" s="31" t="s">
         <v>22</v>
       </c>
       <c r="D25" s="11" t="s">
@@ -1633,9 +1650,9 @@
       </c>
     </row>
     <row r="26" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="35"/>
-      <c r="B26" s="32"/>
-      <c r="C26" s="35"/>
+      <c r="A26" s="32"/>
+      <c r="B26" s="35"/>
+      <c r="C26" s="32"/>
       <c r="D26" s="12" t="s">
         <v>93</v>
       </c>
@@ -1644,20 +1661,20 @@
       </c>
     </row>
     <row r="27" spans="1:5" s="5" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="35"/>
-      <c r="B27" s="33"/>
-      <c r="C27" s="36"/>
+      <c r="A27" s="32"/>
+      <c r="B27" s="36"/>
+      <c r="C27" s="33"/>
       <c r="D27" s="13"/>
       <c r="E27" s="13" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="35"/>
-      <c r="B28" s="31" t="s">
+      <c r="A28" s="32"/>
+      <c r="B28" s="34" t="s">
         <v>128</v>
       </c>
-      <c r="C28" s="34" t="s">
+      <c r="C28" s="31" t="s">
         <v>129</v>
       </c>
       <c r="D28" s="12" t="s">
@@ -1668,19 +1685,19 @@
       </c>
     </row>
     <row r="29" spans="1:5" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="35"/>
-      <c r="B29" s="33"/>
-      <c r="C29" s="36"/>
+      <c r="A29" s="32"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="33"/>
       <c r="E29" s="12" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="30" spans="1:5" s="3" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="35"/>
-      <c r="B30" s="31" t="s">
+      <c r="A30" s="32"/>
+      <c r="B30" s="34" t="s">
         <v>173</v>
       </c>
-      <c r="C30" s="34" t="s">
+      <c r="C30" s="31" t="s">
         <v>174</v>
       </c>
       <c r="D30" s="23" t="s">
@@ -1691,9 +1708,9 @@
       </c>
     </row>
     <row r="31" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="35"/>
-      <c r="B31" s="32"/>
-      <c r="C31" s="35"/>
+      <c r="A31" s="32"/>
+      <c r="B31" s="35"/>
+      <c r="C31" s="32"/>
       <c r="D31" s="24" t="s">
         <v>9</v>
       </c>
@@ -1702,83 +1719,83 @@
       </c>
     </row>
     <row r="32" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="35"/>
-      <c r="B32" s="32"/>
-      <c r="C32" s="35"/>
+      <c r="A32" s="32"/>
+      <c r="B32" s="35"/>
+      <c r="C32" s="32"/>
       <c r="D32" s="24" t="s">
         <v>12</v>
       </c>
       <c r="E32" s="24"/>
     </row>
     <row r="33" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="35"/>
-      <c r="B33" s="32"/>
-      <c r="C33" s="35"/>
+      <c r="A33" s="32"/>
+      <c r="B33" s="35"/>
+      <c r="C33" s="32"/>
       <c r="D33" s="24" t="s">
         <v>13</v>
       </c>
       <c r="E33" s="24"/>
     </row>
     <row r="34" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="35"/>
-      <c r="B34" s="32"/>
-      <c r="C34" s="35"/>
+      <c r="A34" s="32"/>
+      <c r="B34" s="35"/>
+      <c r="C34" s="32"/>
       <c r="D34" s="24" t="s">
         <v>14</v>
       </c>
       <c r="E34" s="24"/>
     </row>
     <row r="35" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="35"/>
-      <c r="B35" s="32"/>
-      <c r="C35" s="35"/>
+      <c r="A35" s="32"/>
+      <c r="B35" s="35"/>
+      <c r="C35" s="32"/>
       <c r="D35" s="24" t="s">
         <v>15</v>
       </c>
       <c r="E35" s="24"/>
     </row>
     <row r="36" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="35"/>
-      <c r="B36" s="32"/>
-      <c r="C36" s="35"/>
+      <c r="A36" s="32"/>
+      <c r="B36" s="35"/>
+      <c r="C36" s="32"/>
       <c r="D36" s="24" t="s">
         <v>16</v>
       </c>
       <c r="E36" s="24"/>
     </row>
     <row r="37" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="35"/>
-      <c r="B37" s="32"/>
-      <c r="C37" s="35"/>
+      <c r="A37" s="32"/>
+      <c r="B37" s="35"/>
+      <c r="C37" s="32"/>
       <c r="D37" s="24" t="s">
         <v>17</v>
       </c>
       <c r="E37" s="24"/>
     </row>
     <row r="38" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="35"/>
-      <c r="B38" s="32"/>
-      <c r="C38" s="35"/>
+      <c r="A38" s="32"/>
+      <c r="B38" s="35"/>
+      <c r="C38" s="32"/>
       <c r="D38" s="24" t="s">
         <v>18</v>
       </c>
       <c r="E38" s="24"/>
     </row>
     <row r="39" spans="1:5" s="5" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="35"/>
-      <c r="B39" s="33"/>
-      <c r="C39" s="36"/>
+      <c r="A39" s="32"/>
+      <c r="B39" s="36"/>
+      <c r="C39" s="33"/>
       <c r="D39" s="25" t="s">
         <v>19</v>
       </c>
       <c r="E39" s="25"/>
     </row>
     <row r="40" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="35"/>
-      <c r="B40" s="31" t="s">
+      <c r="A40" s="32"/>
+      <c r="B40" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="C40" s="34" t="s">
+      <c r="C40" s="31" t="s">
         <v>23</v>
       </c>
       <c r="D40" s="24" t="s">
@@ -1789,9 +1806,9 @@
       </c>
     </row>
     <row r="41" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="35"/>
-      <c r="B41" s="32"/>
-      <c r="C41" s="35"/>
+      <c r="A41" s="32"/>
+      <c r="B41" s="35"/>
+      <c r="C41" s="32"/>
       <c r="D41" s="12" t="s">
         <v>80</v>
       </c>
@@ -1800,9 +1817,9 @@
       </c>
     </row>
     <row r="42" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="35"/>
-      <c r="B42" s="32"/>
-      <c r="C42" s="35"/>
+      <c r="A42" s="32"/>
+      <c r="B42" s="35"/>
+      <c r="C42" s="32"/>
       <c r="D42" s="12" t="s">
         <v>78</v>
       </c>
@@ -1811,193 +1828,193 @@
       </c>
     </row>
     <row r="43" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="35"/>
-      <c r="B43" s="32"/>
-      <c r="C43" s="35"/>
+      <c r="A43" s="32"/>
+      <c r="B43" s="35"/>
+      <c r="C43" s="32"/>
       <c r="D43" s="12" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="35"/>
-      <c r="B44" s="32"/>
-      <c r="C44" s="35"/>
+      <c r="A44" s="32"/>
+      <c r="B44" s="35"/>
+      <c r="C44" s="32"/>
       <c r="D44" s="12" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="35"/>
-      <c r="B45" s="32"/>
-      <c r="C45" s="35"/>
+      <c r="A45" s="32"/>
+      <c r="B45" s="35"/>
+      <c r="C45" s="32"/>
       <c r="D45" s="12" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="35"/>
-      <c r="B46" s="32"/>
-      <c r="C46" s="35"/>
+      <c r="A46" s="32"/>
+      <c r="B46" s="35"/>
+      <c r="C46" s="32"/>
       <c r="D46" s="12" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="35"/>
-      <c r="B47" s="32"/>
-      <c r="C47" s="35"/>
+      <c r="A47" s="32"/>
+      <c r="B47" s="35"/>
+      <c r="C47" s="32"/>
       <c r="D47" s="12" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="35"/>
-      <c r="B48" s="32"/>
-      <c r="C48" s="35"/>
+      <c r="A48" s="32"/>
+      <c r="B48" s="35"/>
+      <c r="C48" s="32"/>
       <c r="D48" s="12" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="35"/>
-      <c r="B49" s="32"/>
-      <c r="C49" s="35"/>
+      <c r="A49" s="32"/>
+      <c r="B49" s="35"/>
+      <c r="C49" s="32"/>
       <c r="D49" s="12" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="35"/>
-      <c r="B50" s="32"/>
-      <c r="C50" s="35"/>
+      <c r="A50" s="32"/>
+      <c r="B50" s="35"/>
+      <c r="C50" s="32"/>
       <c r="D50" s="12" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="35"/>
-      <c r="B51" s="32"/>
-      <c r="C51" s="35"/>
+      <c r="A51" s="32"/>
+      <c r="B51" s="35"/>
+      <c r="C51" s="32"/>
       <c r="D51" s="12" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="35"/>
-      <c r="B52" s="32"/>
-      <c r="C52" s="35"/>
+      <c r="A52" s="32"/>
+      <c r="B52" s="35"/>
+      <c r="C52" s="32"/>
       <c r="D52" s="12" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="35"/>
-      <c r="B53" s="32"/>
-      <c r="C53" s="35"/>
+      <c r="A53" s="32"/>
+      <c r="B53" s="35"/>
+      <c r="C53" s="32"/>
       <c r="D53" s="12" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="35"/>
-      <c r="B54" s="32"/>
-      <c r="C54" s="35"/>
+      <c r="A54" s="32"/>
+      <c r="B54" s="35"/>
+      <c r="C54" s="32"/>
       <c r="D54" s="12" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="35"/>
-      <c r="B55" s="32"/>
-      <c r="C55" s="35"/>
+      <c r="A55" s="32"/>
+      <c r="B55" s="35"/>
+      <c r="C55" s="32"/>
       <c r="D55" s="12" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="35"/>
-      <c r="B56" s="32"/>
-      <c r="C56" s="35"/>
+      <c r="A56" s="32"/>
+      <c r="B56" s="35"/>
+      <c r="C56" s="32"/>
       <c r="D56" s="12" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="35"/>
-      <c r="B57" s="32"/>
-      <c r="C57" s="35"/>
+      <c r="A57" s="32"/>
+      <c r="B57" s="35"/>
+      <c r="C57" s="32"/>
       <c r="D57" s="12" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="35"/>
-      <c r="B58" s="32"/>
-      <c r="C58" s="35"/>
+      <c r="A58" s="32"/>
+      <c r="B58" s="35"/>
+      <c r="C58" s="32"/>
       <c r="D58" s="12" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="35"/>
-      <c r="B59" s="32"/>
-      <c r="C59" s="35"/>
+      <c r="A59" s="32"/>
+      <c r="B59" s="35"/>
+      <c r="C59" s="32"/>
       <c r="D59" s="12" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="35"/>
-      <c r="B60" s="32"/>
-      <c r="C60" s="35"/>
+      <c r="A60" s="32"/>
+      <c r="B60" s="35"/>
+      <c r="C60" s="32"/>
       <c r="D60" s="12" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="35"/>
-      <c r="B61" s="32"/>
-      <c r="C61" s="35"/>
+      <c r="A61" s="32"/>
+      <c r="B61" s="35"/>
+      <c r="C61" s="32"/>
       <c r="D61" s="12" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="35"/>
-      <c r="B62" s="32"/>
-      <c r="C62" s="35"/>
+      <c r="A62" s="32"/>
+      <c r="B62" s="35"/>
+      <c r="C62" s="32"/>
       <c r="D62" s="12" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="35"/>
-      <c r="B63" s="32"/>
-      <c r="C63" s="35"/>
+      <c r="A63" s="32"/>
+      <c r="B63" s="35"/>
+      <c r="C63" s="32"/>
       <c r="D63" s="20" t="s">
         <v>160</v>
       </c>
       <c r="E63" s="20"/>
     </row>
     <row r="64" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="35"/>
-      <c r="B64" s="32"/>
-      <c r="C64" s="35"/>
+      <c r="A64" s="32"/>
+      <c r="B64" s="35"/>
+      <c r="C64" s="32"/>
       <c r="D64" s="20" t="s">
         <v>161</v>
       </c>
       <c r="E64" s="20"/>
     </row>
     <row r="65" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="35"/>
-      <c r="B65" s="32"/>
-      <c r="C65" s="35"/>
+      <c r="A65" s="32"/>
+      <c r="B65" s="35"/>
+      <c r="C65" s="32"/>
       <c r="D65" s="12" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="35"/>
+      <c r="A66" s="32"/>
       <c r="B66" s="27"/>
       <c r="C66" s="26"/>
       <c r="D66" s="26" t="s">
@@ -2006,825 +2023,854 @@
       <c r="E66" s="26"/>
     </row>
     <row r="67" spans="1:5" s="3" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="35"/>
-      <c r="B67" s="31" t="s">
+      <c r="A67" s="32"/>
+      <c r="B67" s="34" t="s">
+        <v>179</v>
+      </c>
+      <c r="C67" s="31" t="s">
+        <v>178</v>
+      </c>
+      <c r="D67" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E67" s="28" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="32"/>
+      <c r="B68" s="35"/>
+      <c r="C68" s="32"/>
+      <c r="D68" s="29"/>
+      <c r="E68" s="29" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" s="5" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="32"/>
+      <c r="B69" s="36"/>
+      <c r="C69" s="33"/>
+      <c r="D69" s="30"/>
+      <c r="E69" s="30" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" s="3" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="32"/>
+      <c r="B70" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="C67" s="34" t="s">
+      <c r="C70" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="D67" s="11" t="s">
+      <c r="D70" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E67" s="11" t="s">
+      <c r="E70" s="11" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="35"/>
-      <c r="B68" s="32"/>
-      <c r="C68" s="35"/>
-      <c r="D68" s="12" t="s">
+    <row r="71" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="32"/>
+      <c r="B71" s="35"/>
+      <c r="C71" s="32"/>
+      <c r="D71" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E68" s="12" t="s">
+      <c r="E71" s="12" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="69" spans="1:5" s="5" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="35"/>
-      <c r="B69" s="33"/>
-      <c r="C69" s="36"/>
-      <c r="D69" s="13"/>
-      <c r="E69" s="13" t="s">
+    <row r="72" spans="1:5" s="5" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="32"/>
+      <c r="B72" s="36"/>
+      <c r="C72" s="33"/>
+      <c r="D72" s="13"/>
+      <c r="E72" s="13" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="35"/>
-      <c r="B70" s="31" t="s">
+    <row r="73" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="32"/>
+      <c r="B73" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="C70" s="34" t="s">
+      <c r="C73" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="D70" s="12" t="s">
+      <c r="D73" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="E70" s="12" t="s">
+      <c r="E73" s="12" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="36"/>
-      <c r="B71" s="33"/>
-      <c r="C71" s="36"/>
-      <c r="D71" s="12" t="s">
+    <row r="74" spans="1:5" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="33"/>
+      <c r="B74" s="36"/>
+      <c r="C74" s="33"/>
+      <c r="D74" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="E71" s="12" t="s">
+      <c r="E74" s="12" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="72" spans="1:5" s="3" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="34" t="s">
+    <row r="75" spans="1:5" s="3" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="B72" s="31" t="s">
+      <c r="B75" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="C72" s="34" t="s">
+      <c r="C75" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="D72" s="11" t="s">
+      <c r="D75" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E72" s="11" t="s">
+      <c r="E75" s="11" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="35"/>
-      <c r="B73" s="32"/>
-      <c r="C73" s="35"/>
-      <c r="D73" s="12" t="s">
+    <row r="76" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="32"/>
+      <c r="B76" s="35"/>
+      <c r="C76" s="32"/>
+      <c r="D76" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E73" s="12" t="s">
+      <c r="E76" s="12" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="35"/>
-      <c r="B74" s="32"/>
-      <c r="C74" s="35"/>
-      <c r="D74" s="12" t="s">
+    <row r="77" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="32"/>
+      <c r="B77" s="35"/>
+      <c r="C77" s="32"/>
+      <c r="D77" s="12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="35"/>
-      <c r="B75" s="32"/>
-      <c r="C75" s="35"/>
-      <c r="D75" s="12" t="s">
+    <row r="78" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="32"/>
+      <c r="B78" s="35"/>
+      <c r="C78" s="32"/>
+      <c r="D78" s="12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="35"/>
-      <c r="B76" s="32"/>
-      <c r="C76" s="35"/>
-      <c r="D76" s="12" t="s">
+    <row r="79" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="32"/>
+      <c r="B79" s="35"/>
+      <c r="C79" s="32"/>
+      <c r="D79" s="12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="35"/>
-      <c r="B77" s="32"/>
-      <c r="C77" s="35"/>
-      <c r="D77" s="12" t="s">
+    <row r="80" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="32"/>
+      <c r="B80" s="35"/>
+      <c r="C80" s="32"/>
+      <c r="D80" s="12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="35"/>
-      <c r="B78" s="32"/>
-      <c r="C78" s="35"/>
-      <c r="D78" s="12" t="s">
+    <row r="81" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="32"/>
+      <c r="B81" s="35"/>
+      <c r="C81" s="32"/>
+      <c r="D81" s="12" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="79" spans="1:5" s="5" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="35"/>
-      <c r="B79" s="33"/>
-      <c r="C79" s="36"/>
-      <c r="D79" s="13" t="s">
+    <row r="82" spans="1:5" s="5" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="32"/>
+      <c r="B82" s="36"/>
+      <c r="C82" s="33"/>
+      <c r="D82" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="E79" s="13"/>
-    </row>
-    <row r="80" spans="1:5" s="3" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="35"/>
-      <c r="B80" s="31" t="s">
+      <c r="E82" s="13"/>
+    </row>
+    <row r="83" spans="1:5" s="3" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="32"/>
+      <c r="B83" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="C80" s="34" t="s">
+      <c r="C83" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="D80" s="11" t="s">
+      <c r="D83" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="E80" s="11" t="s">
+      <c r="E83" s="11" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="35"/>
-      <c r="B81" s="32"/>
-      <c r="C81" s="35"/>
-      <c r="D81" s="12" t="s">
+    <row r="84" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="32"/>
+      <c r="B84" s="35"/>
+      <c r="C84" s="32"/>
+      <c r="D84" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E81" s="12" t="s">
+      <c r="E84" s="12" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="82" spans="1:5" s="5" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="35"/>
-      <c r="B82" s="33"/>
-      <c r="C82" s="36"/>
-      <c r="D82" s="13"/>
-      <c r="E82" s="13" t="s">
+    <row r="85" spans="1:5" s="5" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A85" s="32"/>
+      <c r="B85" s="36"/>
+      <c r="C85" s="33"/>
+      <c r="D85" s="13"/>
+      <c r="E85" s="13" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="35"/>
-      <c r="B83" s="31" t="s">
+    <row r="86" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="32"/>
+      <c r="B86" s="34" t="s">
         <v>132</v>
       </c>
-      <c r="C83" s="34" t="s">
+      <c r="C86" s="31" t="s">
         <v>133</v>
       </c>
-      <c r="D83" s="11" t="s">
+      <c r="D86" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E83" s="11" t="s">
+      <c r="E86" s="11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="35"/>
-      <c r="B84" s="33"/>
-      <c r="C84" s="36"/>
-      <c r="D84" s="13"/>
-      <c r="E84" s="13" t="s">
+    <row r="87" spans="1:5" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A87" s="32"/>
+      <c r="B87" s="36"/>
+      <c r="C87" s="33"/>
+      <c r="D87" s="13"/>
+      <c r="E87" s="13" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="85" spans="1:5" s="3" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="35"/>
-      <c r="B85" s="31" t="s">
+    <row r="88" spans="1:5" s="3" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="32"/>
+      <c r="B88" s="34" t="s">
         <v>175</v>
       </c>
-      <c r="C85" s="34" t="s">
+      <c r="C88" s="31" t="s">
         <v>176</v>
       </c>
-      <c r="D85" s="23" t="s">
+      <c r="D88" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="E85" s="23" t="s">
+      <c r="E88" s="23" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="35"/>
-      <c r="B86" s="32"/>
-      <c r="C86" s="35"/>
-      <c r="D86" s="24" t="s">
+    <row r="89" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="32"/>
+      <c r="B89" s="35"/>
+      <c r="C89" s="32"/>
+      <c r="D89" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="E86" s="24" t="s">
+      <c r="E89" s="24" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="35"/>
-      <c r="B87" s="32"/>
-      <c r="C87" s="35"/>
-      <c r="D87" s="24" t="s">
+    <row r="90" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="32"/>
+      <c r="B90" s="35"/>
+      <c r="C90" s="32"/>
+      <c r="D90" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="E87" s="24"/>
-    </row>
-    <row r="88" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="35"/>
-      <c r="B88" s="32"/>
-      <c r="C88" s="35"/>
-      <c r="D88" s="24" t="s">
+      <c r="E90" s="24"/>
+    </row>
+    <row r="91" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="32"/>
+      <c r="B91" s="35"/>
+      <c r="C91" s="32"/>
+      <c r="D91" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="E88" s="24"/>
-    </row>
-    <row r="89" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="35"/>
-      <c r="B89" s="32"/>
-      <c r="C89" s="35"/>
-      <c r="D89" s="24" t="s">
+      <c r="E91" s="24"/>
+    </row>
+    <row r="92" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="32"/>
+      <c r="B92" s="35"/>
+      <c r="C92" s="32"/>
+      <c r="D92" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="E89" s="24"/>
-    </row>
-    <row r="90" spans="1:5" s="5" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A90" s="35"/>
-      <c r="B90" s="33"/>
-      <c r="C90" s="36"/>
-      <c r="D90" s="25" t="s">
+      <c r="E92" s="24"/>
+    </row>
+    <row r="93" spans="1:5" s="5" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A93" s="32"/>
+      <c r="B93" s="36"/>
+      <c r="C93" s="33"/>
+      <c r="D93" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="E90" s="25"/>
-    </row>
-    <row r="91" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="35"/>
-      <c r="B91" s="31" t="s">
+      <c r="E93" s="25"/>
+    </row>
+    <row r="94" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="32"/>
+      <c r="B94" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="C91" s="34" t="s">
+      <c r="C94" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="D91" s="12" t="s">
+      <c r="D94" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E91" s="12" t="s">
+      <c r="E94" s="12" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A92" s="35"/>
-      <c r="B92" s="33"/>
-      <c r="C92" s="36"/>
-      <c r="D92" s="12" t="s">
+    <row r="95" spans="1:5" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A95" s="32"/>
+      <c r="B95" s="36"/>
+      <c r="C95" s="33"/>
+      <c r="D95" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="E92" s="12" t="s">
+      <c r="E95" s="12" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="93" spans="1:5" s="3" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="35"/>
-      <c r="B93" s="31" t="s">
+    <row r="96" spans="1:5" s="3" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="32"/>
+      <c r="B96" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="C93" s="34" t="s">
+      <c r="C96" s="31" t="s">
         <v>107</v>
       </c>
-      <c r="D93" s="11" t="s">
+      <c r="D96" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="E93" s="11" t="s">
+      <c r="E96" s="11" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="35"/>
-      <c r="B94" s="32"/>
-      <c r="C94" s="35"/>
-      <c r="D94" s="12" t="s">
+    <row r="97" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="32"/>
+      <c r="B97" s="35"/>
+      <c r="C97" s="32"/>
+      <c r="D97" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="E94" s="12" t="s">
+      <c r="E97" s="12" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A95" s="35"/>
-      <c r="B95" s="33"/>
-      <c r="C95" s="36"/>
-      <c r="E95" s="12" t="s">
+    <row r="98" spans="1:5" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A98" s="32"/>
+      <c r="B98" s="36"/>
+      <c r="C98" s="33"/>
+      <c r="E98" s="12" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="96" spans="1:5" s="3" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="35"/>
-      <c r="B96" s="31" t="s">
+    <row r="99" spans="1:5" s="3" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="32"/>
+      <c r="B99" s="34" t="s">
         <v>103</v>
       </c>
-      <c r="C96" s="34" t="s">
+      <c r="C99" s="31" t="s">
         <v>108</v>
       </c>
-      <c r="D96" s="11" t="s">
+      <c r="D99" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="E96" s="11" t="s">
+      <c r="E99" s="11" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="35"/>
-      <c r="B97" s="32"/>
-      <c r="C97" s="35"/>
-      <c r="D97" s="12" t="s">
+    <row r="100" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="32"/>
+      <c r="B100" s="35"/>
+      <c r="C100" s="32"/>
+      <c r="D100" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="E97" s="12" t="s">
+      <c r="E100" s="12" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:5" s="5" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A98" s="35"/>
-      <c r="B98" s="33"/>
-      <c r="C98" s="36"/>
-      <c r="D98" s="13" t="s">
+    <row r="101" spans="1:5" s="5" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A101" s="32"/>
+      <c r="B101" s="36"/>
+      <c r="C101" s="33"/>
+      <c r="D101" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="E98" s="13"/>
-    </row>
-    <row r="99" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="35"/>
-      <c r="B99" s="31" t="s">
+      <c r="E101" s="13"/>
+    </row>
+    <row r="102" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="32"/>
+      <c r="B102" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="C99" s="34" t="s">
+      <c r="C102" s="31" t="s">
         <v>104</v>
       </c>
-      <c r="D99" s="12" t="s">
+      <c r="D102" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="E99" s="12" t="s">
+      <c r="E102" s="12" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="35"/>
-      <c r="B100" s="32"/>
-      <c r="C100" s="35"/>
-      <c r="D100" s="12" t="s">
+    <row r="103" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="32"/>
+      <c r="B103" s="35"/>
+      <c r="C103" s="32"/>
+      <c r="D103" s="12" t="s">
         <v>98</v>
-      </c>
-      <c r="E100" s="12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A101" s="36"/>
-      <c r="B101" s="33"/>
-      <c r="C101" s="36"/>
-      <c r="D101" s="12" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" s="3" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="34" t="s">
-        <v>152</v>
-      </c>
-      <c r="B102" s="31" t="s">
-        <v>134</v>
-      </c>
-      <c r="C102" s="34" t="s">
-        <v>137</v>
-      </c>
-      <c r="D102" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="E102" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="35"/>
-      <c r="B103" s="32"/>
-      <c r="C103" s="35"/>
-      <c r="D103" s="12" t="s">
-        <v>10</v>
       </c>
       <c r="E103" s="12" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="104" spans="1:5" s="5" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A104" s="35"/>
-      <c r="B104" s="33"/>
-      <c r="C104" s="36"/>
-      <c r="D104" s="13"/>
-      <c r="E104" s="13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="35"/>
-      <c r="B105" s="31" t="s">
-        <v>135</v>
-      </c>
-      <c r="C105" s="34" t="s">
-        <v>138</v>
+    <row r="104" spans="1:5" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A104" s="33"/>
+      <c r="B104" s="36"/>
+      <c r="C104" s="33"/>
+      <c r="D104" s="12" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" s="3" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="31" t="s">
+        <v>152</v>
+      </c>
+      <c r="B105" s="34" t="s">
+        <v>134</v>
+      </c>
+      <c r="C105" s="31" t="s">
+        <v>137</v>
       </c>
       <c r="D105" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E105" s="11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A106" s="35"/>
-      <c r="B106" s="33"/>
-      <c r="C106" s="36"/>
-      <c r="D106" s="13"/>
-      <c r="E106" s="13" t="s">
+    <row r="106" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="32"/>
+      <c r="B106" s="35"/>
+      <c r="C106" s="32"/>
+      <c r="D106" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E106" s="12" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="107" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="35"/>
-      <c r="B107" s="31" t="s">
+    <row r="107" spans="1:5" s="5" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A107" s="32"/>
+      <c r="B107" s="36"/>
+      <c r="C107" s="33"/>
+      <c r="D107" s="13"/>
+      <c r="E107" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="32"/>
+      <c r="B108" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="C108" s="31" t="s">
+        <v>138</v>
+      </c>
+      <c r="D108" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="E108" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A109" s="32"/>
+      <c r="B109" s="36"/>
+      <c r="C109" s="33"/>
+      <c r="D109" s="13"/>
+      <c r="E109" s="13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="32"/>
+      <c r="B110" s="34" t="s">
         <v>136</v>
       </c>
-      <c r="C107" s="34" t="s">
+      <c r="C110" s="31" t="s">
         <v>139</v>
       </c>
-      <c r="D107" s="12" t="s">
+      <c r="D110" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="E107" s="12" t="s">
+      <c r="E110" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="108" spans="1:5" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A108" s="35"/>
-      <c r="B108" s="33"/>
-      <c r="C108" s="36"/>
-      <c r="D108" s="12" t="s">
+    <row r="111" spans="1:5" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A111" s="32"/>
+      <c r="B111" s="36"/>
+      <c r="C111" s="33"/>
+      <c r="D111" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E108" s="12" t="s">
+      <c r="E111" s="12" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="109" spans="1:5" s="3" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="35"/>
-      <c r="B109" s="31" t="s">
+    <row r="112" spans="1:5" s="3" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="32"/>
+      <c r="B112" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="C109" s="34" t="s">
+      <c r="C112" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="D109" s="11" t="s">
+      <c r="D112" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="E109" s="11" t="s">
+      <c r="E112" s="11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="110" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="35"/>
-      <c r="B110" s="32"/>
-      <c r="C110" s="35"/>
-      <c r="D110" s="12" t="s">
+    <row r="113" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="32"/>
+      <c r="B113" s="35"/>
+      <c r="C113" s="32"/>
+      <c r="D113" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="E110" s="12" t="s">
+      <c r="E113" s="12" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="111" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="35"/>
-      <c r="B111" s="32"/>
-      <c r="C111" s="35"/>
-      <c r="D111" s="12" t="s">
+    <row r="114" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="32"/>
+      <c r="B114" s="35"/>
+      <c r="C114" s="32"/>
+      <c r="D114" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="E111" s="12" t="s">
+      <c r="E114" s="12" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="112" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="35"/>
-      <c r="B112" s="32"/>
-      <c r="C112" s="35"/>
-      <c r="D112" s="12" t="s">
+    <row r="115" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="32"/>
+      <c r="B115" s="35"/>
+      <c r="C115" s="32"/>
+      <c r="D115" s="12" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="113" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="35"/>
-      <c r="B113" s="32"/>
-      <c r="C113" s="35"/>
-      <c r="D113" s="24" t="s">
+    <row r="116" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="32"/>
+      <c r="B116" s="35"/>
+      <c r="C116" s="32"/>
+      <c r="D116" s="24" t="s">
         <v>170</v>
       </c>
-      <c r="E113" s="24"/>
-    </row>
-    <row r="114" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="35"/>
-      <c r="B114" s="32"/>
-      <c r="C114" s="35"/>
-      <c r="D114" s="24" t="s">
+      <c r="E116" s="24"/>
+    </row>
+    <row r="117" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="32"/>
+      <c r="B117" s="35"/>
+      <c r="C117" s="32"/>
+      <c r="D117" s="24" t="s">
         <v>171</v>
       </c>
-      <c r="E114" s="24"/>
-    </row>
-    <row r="115" spans="1:5" s="5" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A115" s="35"/>
-      <c r="B115" s="33"/>
-      <c r="C115" s="36"/>
-      <c r="D115" s="13" t="s">
+      <c r="E117" s="24"/>
+    </row>
+    <row r="118" spans="1:5" s="5" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A118" s="32"/>
+      <c r="B118" s="36"/>
+      <c r="C118" s="33"/>
+      <c r="D118" s="13" t="s">
         <v>172</v>
       </c>
-      <c r="E115" s="13"/>
-    </row>
-    <row r="116" spans="1:5" s="3" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="35"/>
-      <c r="B116" s="31" t="s">
+      <c r="E118" s="13"/>
+    </row>
+    <row r="119" spans="1:5" s="3" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="32"/>
+      <c r="B119" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="C116" s="34" t="s">
+      <c r="C119" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="D116" s="11" t="s">
+      <c r="D119" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="E116" s="11" t="s">
+      <c r="E119" s="11" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="117" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="35"/>
-      <c r="B117" s="32"/>
-      <c r="C117" s="35"/>
-      <c r="E117" s="12" t="s">
+    <row r="120" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="32"/>
+      <c r="B120" s="35"/>
+      <c r="C120" s="32"/>
+      <c r="E120" s="12" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="118" spans="1:5" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A118" s="35"/>
-      <c r="B118" s="32"/>
-      <c r="C118" s="35"/>
-      <c r="E118" s="12" t="s">
+    <row r="121" spans="1:5" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A121" s="32"/>
+      <c r="B121" s="35"/>
+      <c r="C121" s="32"/>
+      <c r="E121" s="12" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="119" spans="1:5" s="3" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="35"/>
-      <c r="B119" s="34" t="s">
+    <row r="122" spans="1:5" s="3" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="32"/>
+      <c r="B122" s="31" t="s">
         <v>147</v>
       </c>
-      <c r="C119" s="34" t="s">
+      <c r="C122" s="31" t="s">
         <v>146</v>
       </c>
-      <c r="D119" s="11" t="s">
+      <c r="D122" s="11" t="s">
         <v>148</v>
-      </c>
-      <c r="E119" s="11" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="35"/>
-      <c r="B120" s="35"/>
-      <c r="C120" s="35"/>
-      <c r="E120" s="12" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A121" s="35"/>
-      <c r="B121" s="36"/>
-      <c r="C121" s="36"/>
-      <c r="E121" s="12" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" s="3" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="35"/>
-      <c r="B122" s="34" t="s">
-        <v>153</v>
-      </c>
-      <c r="C122" s="34" t="s">
-        <v>154</v>
-      </c>
-      <c r="D122" s="11" t="s">
-        <v>34</v>
       </c>
       <c r="E122" s="11" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="123" spans="1:5" s="5" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A123" s="35"/>
-      <c r="B123" s="36"/>
-      <c r="C123" s="36"/>
-      <c r="D123" s="13" t="s">
+    <row r="123" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="32"/>
+      <c r="B123" s="32"/>
+      <c r="C123" s="32"/>
+      <c r="E123" s="12" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A124" s="32"/>
+      <c r="B124" s="33"/>
+      <c r="C124" s="33"/>
+      <c r="E124" s="12" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" s="3" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="32"/>
+      <c r="B125" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="C125" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="D125" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E125" s="11" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" s="5" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A126" s="32"/>
+      <c r="B126" s="33"/>
+      <c r="C126" s="33"/>
+      <c r="D126" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="E123" s="13" t="s">
+      <c r="E126" s="13" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="124" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="35"/>
-      <c r="B124" s="31" t="s">
+    <row r="127" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="32"/>
+      <c r="B127" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="C124" s="34" t="s">
+      <c r="C127" s="31" t="s">
         <v>97</v>
       </c>
-      <c r="D124" s="12" t="s">
+      <c r="D127" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="E124" s="12" t="s">
+      <c r="E127" s="12" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="125" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="35"/>
-      <c r="B125" s="32"/>
-      <c r="C125" s="35"/>
-      <c r="D125" s="12" t="s">
+    <row r="128" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="32"/>
+      <c r="B128" s="35"/>
+      <c r="C128" s="32"/>
+      <c r="D128" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="E125" s="12" t="s">
+      <c r="E128" s="12" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="126" spans="1:5" s="5" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A126" s="36"/>
-      <c r="B126" s="33"/>
-      <c r="C126" s="36"/>
-      <c r="D126" s="13"/>
-      <c r="E126" s="13"/>
-    </row>
-    <row r="127" spans="1:5" s="8" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="28" t="s">
+    <row r="129" spans="1:5" s="5" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A129" s="33"/>
+      <c r="B129" s="36"/>
+      <c r="C129" s="33"/>
+      <c r="D129" s="13"/>
+      <c r="E129" s="13"/>
+    </row>
+    <row r="130" spans="1:5" s="8" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="B127" s="37" t="s">
+      <c r="B130" s="40" t="s">
         <v>85</v>
       </c>
-      <c r="C127" s="28" t="s">
+      <c r="C130" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="D127" s="14"/>
-      <c r="E127" s="14" t="s">
+      <c r="D130" s="14"/>
+      <c r="E130" s="14" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="128" spans="1:5" s="10" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="29"/>
-      <c r="B128" s="39"/>
-      <c r="C128" s="29"/>
-      <c r="D128" s="15"/>
-      <c r="E128" s="15" t="s">
+    <row r="131" spans="1:5" s="10" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="38"/>
+      <c r="B131" s="42"/>
+      <c r="C131" s="38"/>
+      <c r="D131" s="15"/>
+      <c r="E131" s="15" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="129" spans="1:5" s="10" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="29"/>
-      <c r="B129" s="39"/>
-      <c r="C129" s="29"/>
-      <c r="D129" s="18"/>
-      <c r="E129" s="18" t="s">
+    <row r="132" spans="1:5" s="10" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="38"/>
+      <c r="B132" s="42"/>
+      <c r="C132" s="38"/>
+      <c r="D132" s="18"/>
+      <c r="E132" s="18" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="130" spans="1:5" s="10" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="29"/>
-      <c r="B130" s="39"/>
-      <c r="C130" s="29"/>
-      <c r="D130" s="18"/>
-      <c r="E130" s="18" t="s">
+    <row r="133" spans="1:5" s="10" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="38"/>
+      <c r="B133" s="42"/>
+      <c r="C133" s="38"/>
+      <c r="D133" s="18"/>
+      <c r="E133" s="18" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="131" spans="1:5" s="9" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A131" s="29"/>
-      <c r="B131" s="38"/>
-      <c r="C131" s="30"/>
-      <c r="D131" s="16"/>
-      <c r="E131" s="16" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" s="10" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A132" s="29"/>
-      <c r="B132" s="22" t="s">
-        <v>112</v>
-      </c>
-      <c r="C132" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="D132" s="15" t="s">
-        <v>163</v>
-      </c>
-      <c r="E132" s="15" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" s="6" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="29"/>
-      <c r="B133" s="37" t="s">
-        <v>120</v>
-      </c>
-      <c r="C133" s="28" t="s">
-        <v>121</v>
-      </c>
-      <c r="D133" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="E133" s="14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" s="7" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A134" s="29"/>
-      <c r="B134" s="38"/>
-      <c r="C134" s="30"/>
+    <row r="134" spans="1:5" s="9" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A134" s="38"/>
+      <c r="B134" s="41"/>
+      <c r="C134" s="39"/>
       <c r="D134" s="16"/>
       <c r="E134" s="16" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" s="10" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A135" s="38"/>
+      <c r="B135" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="C135" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="D135" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="E135" s="15" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" s="6" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A136" s="38"/>
+      <c r="B136" s="40" t="s">
+        <v>120</v>
+      </c>
+      <c r="C136" s="37" t="s">
+        <v>121</v>
+      </c>
+      <c r="D136" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="E136" s="14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" s="7" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A137" s="38"/>
+      <c r="B137" s="41"/>
+      <c r="C137" s="39"/>
+      <c r="D137" s="16"/>
+      <c r="E137" s="16" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="135" spans="1:5" s="3" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="29"/>
-      <c r="B135" s="31" t="s">
+    <row r="138" spans="1:5" s="3" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A138" s="38"/>
+      <c r="B138" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="C135" s="34" t="s">
+      <c r="C138" s="31" t="s">
         <v>115</v>
       </c>
-      <c r="D135" s="11" t="s">
+      <c r="D138" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="E135" s="11" t="s">
+      <c r="E138" s="11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="136" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="29"/>
-      <c r="B136" s="32"/>
-      <c r="C136" s="35"/>
-      <c r="E136" s="12" t="s">
+    <row r="139" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A139" s="38"/>
+      <c r="B139" s="35"/>
+      <c r="C139" s="32"/>
+      <c r="E139" s="12" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="137" spans="1:5" s="5" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A137" s="30"/>
-      <c r="B137" s="33"/>
-      <c r="C137" s="36"/>
-      <c r="D137" s="13"/>
-      <c r="E137" s="13" t="s">
+    <row r="140" spans="1:5" s="5" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A140" s="39"/>
+      <c r="B140" s="36"/>
+      <c r="C140" s="33"/>
+      <c r="D140" s="13"/>
+      <c r="E140" s="13" t="s">
         <v>119</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="65">
-    <mergeCell ref="A102:A126"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="A2:A13"/>
-    <mergeCell ref="B119:B121"/>
-    <mergeCell ref="C119:C121"/>
-    <mergeCell ref="B122:B123"/>
-    <mergeCell ref="C122:C123"/>
+  <mergeCells count="67">
+    <mergeCell ref="A130:A140"/>
+    <mergeCell ref="B138:B140"/>
+    <mergeCell ref="C138:C140"/>
+    <mergeCell ref="B136:B137"/>
+    <mergeCell ref="C136:C137"/>
+    <mergeCell ref="B130:B134"/>
+    <mergeCell ref="C130:C134"/>
+    <mergeCell ref="A75:A104"/>
+    <mergeCell ref="B96:B98"/>
+    <mergeCell ref="C96:C98"/>
+    <mergeCell ref="B75:B82"/>
+    <mergeCell ref="C75:C82"/>
+    <mergeCell ref="B83:B85"/>
+    <mergeCell ref="C83:C85"/>
+    <mergeCell ref="B99:B101"/>
+    <mergeCell ref="C99:C101"/>
+    <mergeCell ref="B94:B95"/>
+    <mergeCell ref="C94:C95"/>
+    <mergeCell ref="B86:B87"/>
+    <mergeCell ref="C86:C87"/>
+    <mergeCell ref="C102:C104"/>
     <mergeCell ref="B102:B104"/>
-    <mergeCell ref="C102:C104"/>
-    <mergeCell ref="B105:B106"/>
-    <mergeCell ref="C105:C106"/>
-    <mergeCell ref="B109:B115"/>
-    <mergeCell ref="C109:C115"/>
-    <mergeCell ref="B124:B126"/>
-    <mergeCell ref="C124:C126"/>
-    <mergeCell ref="C116:C118"/>
-    <mergeCell ref="B116:B118"/>
-    <mergeCell ref="B107:B108"/>
-    <mergeCell ref="C107:C108"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="C85:C90"/>
-    <mergeCell ref="A14:A71"/>
+    <mergeCell ref="B88:B93"/>
+    <mergeCell ref="A14:A74"/>
     <mergeCell ref="B14:B24"/>
     <mergeCell ref="C14:C24"/>
     <mergeCell ref="B25:B27"/>
@@ -2833,35 +2879,41 @@
     <mergeCell ref="B40:B65"/>
     <mergeCell ref="B28:B29"/>
     <mergeCell ref="C28:C29"/>
-    <mergeCell ref="B67:B69"/>
-    <mergeCell ref="C67:C69"/>
-    <mergeCell ref="C70:C71"/>
-    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="B70:B72"/>
+    <mergeCell ref="C70:C72"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="B73:B74"/>
     <mergeCell ref="B30:B39"/>
     <mergeCell ref="C30:C39"/>
-    <mergeCell ref="A72:A101"/>
-    <mergeCell ref="B93:B95"/>
-    <mergeCell ref="C93:C95"/>
-    <mergeCell ref="B72:B79"/>
-    <mergeCell ref="C72:C79"/>
-    <mergeCell ref="B80:B82"/>
-    <mergeCell ref="C80:C82"/>
-    <mergeCell ref="B96:B98"/>
-    <mergeCell ref="C96:C98"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="C91:C92"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="C83:C84"/>
-    <mergeCell ref="C99:C101"/>
-    <mergeCell ref="B99:B101"/>
-    <mergeCell ref="B85:B90"/>
-    <mergeCell ref="A127:A137"/>
-    <mergeCell ref="B135:B137"/>
-    <mergeCell ref="C135:C137"/>
-    <mergeCell ref="B133:B134"/>
-    <mergeCell ref="C133:C134"/>
-    <mergeCell ref="B127:B131"/>
-    <mergeCell ref="C127:C131"/>
+    <mergeCell ref="B67:B69"/>
+    <mergeCell ref="C119:C121"/>
+    <mergeCell ref="B119:B121"/>
+    <mergeCell ref="B110:B111"/>
+    <mergeCell ref="C110:C111"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="C88:C93"/>
+    <mergeCell ref="C67:C69"/>
+    <mergeCell ref="A105:A129"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="A2:A13"/>
+    <mergeCell ref="B122:B124"/>
+    <mergeCell ref="C122:C124"/>
+    <mergeCell ref="B125:B126"/>
+    <mergeCell ref="C125:C126"/>
+    <mergeCell ref="B105:B107"/>
+    <mergeCell ref="C105:C107"/>
+    <mergeCell ref="B108:B109"/>
+    <mergeCell ref="C108:C109"/>
+    <mergeCell ref="B112:B118"/>
+    <mergeCell ref="C112:C118"/>
+    <mergeCell ref="B127:B129"/>
+    <mergeCell ref="C127:C129"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/BACKEND.xlsx
+++ b/BACKEND.xlsx
@@ -24,15 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="180">
-  <si>
-    <t>Pathname</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Info</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="181">
   <si>
     <t>msg: string</t>
   </si>
@@ -190,14 +182,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>接口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>通用</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -434,10 +418,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>setAssessmentScore</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>accept: bool</t>
   </si>
   <si>
@@ -461,10 +441,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>专家设置审核评分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>下载文件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -733,6 +709,34 @@
   </si>
   <si>
     <t>学生获取申请</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>专家设置评审</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>expertSetAssessment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>comment: string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pathname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>interface</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -930,7 +934,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1024,6 +1028,27 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1031,24 +1056,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1373,11 +1380,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E140"/>
+  <dimension ref="A1:E141"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E70" sqref="E70"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.83203125" defaultRowHeight="17.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1393,1483 +1400,1500 @@
     <row r="1" spans="1:5" s="1" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2"/>
       <c r="B1" s="19" t="s">
-        <v>42</v>
+        <v>180</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>0</v>
+        <v>177</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>1</v>
+        <v>178</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>43</v>
+        <v>179</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="3" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="B2" s="34" t="s">
-        <v>165</v>
-      </c>
-      <c r="C2" s="31" t="s">
-        <v>166</v>
+      <c r="A2" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="35" t="s">
+        <v>159</v>
+      </c>
+      <c r="C2" s="38" t="s">
+        <v>160</v>
       </c>
       <c r="D2" s="11"/>
       <c r="E2" s="11" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="32"/>
-      <c r="B3" s="35"/>
-      <c r="C3" s="32"/>
+      <c r="A3" s="39"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="39"/>
       <c r="E3" s="12" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="5" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="32"/>
-      <c r="B4" s="36"/>
-      <c r="C4" s="33"/>
+      <c r="A4" s="39"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="40"/>
       <c r="D4" s="13"/>
       <c r="E4" s="13" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="3" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="32"/>
-      <c r="B5" s="34" t="s">
-        <v>73</v>
-      </c>
-      <c r="C5" s="31" t="s">
-        <v>71</v>
+      <c r="A5" s="39"/>
+      <c r="B5" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" s="38" t="s">
+        <v>67</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="32"/>
-      <c r="B6" s="35"/>
-      <c r="C6" s="32"/>
+      <c r="A6" s="39"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="39"/>
       <c r="E6" s="12" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:5" s="5" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="32"/>
-      <c r="B7" s="36"/>
-      <c r="C7" s="33"/>
+      <c r="A7" s="39"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="40"/>
       <c r="D7" s="13"/>
       <c r="E7" s="13" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:5" s="3" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="32"/>
-      <c r="B8" s="34" t="s">
-        <v>74</v>
-      </c>
-      <c r="C8" s="31" t="s">
-        <v>72</v>
+      <c r="A8" s="39"/>
+      <c r="B8" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" s="38" t="s">
+        <v>68</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="32"/>
-      <c r="B9" s="35"/>
-      <c r="C9" s="32"/>
+      <c r="A9" s="39"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="39"/>
       <c r="E9" s="12" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:5" s="5" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="32"/>
-      <c r="B10" s="36"/>
-      <c r="C10" s="33"/>
+      <c r="A10" s="39"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="40"/>
       <c r="D10" s="12"/>
       <c r="E10" s="13" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:5" s="3" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="32"/>
-      <c r="B11" s="34" t="s">
-        <v>143</v>
-      </c>
-      <c r="C11" s="31" t="s">
-        <v>144</v>
+      <c r="A11" s="39"/>
+      <c r="B11" s="35" t="s">
+        <v>137</v>
+      </c>
+      <c r="C11" s="38" t="s">
+        <v>138</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="32"/>
-      <c r="B12" s="35"/>
-      <c r="C12" s="32"/>
+      <c r="A12" s="39"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="39"/>
       <c r="E12" s="12" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:5" s="5" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="33"/>
-      <c r="B13" s="36"/>
-      <c r="C13" s="33"/>
+      <c r="A13" s="40"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="40"/>
       <c r="D13" s="12"/>
       <c r="E13" s="13" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:5" s="3" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="B14" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="C14" s="31" t="s">
-        <v>8</v>
+      <c r="A14" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="38" t="s">
+        <v>6</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="32"/>
-      <c r="B15" s="35"/>
-      <c r="C15" s="32"/>
+      <c r="A15" s="39"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="39"/>
       <c r="D15" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="39"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="32"/>
-      <c r="B16" s="35"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="12" t="s">
+    </row>
+    <row r="17" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="39"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="39"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="32"/>
-      <c r="B17" s="35"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="12" t="s">
+    <row r="19" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="39"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="32"/>
-      <c r="B18" s="35"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="12" t="s">
+    <row r="20" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="39"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="32"/>
-      <c r="B19" s="35"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="12" t="s">
+    <row r="21" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="39"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="32"/>
-      <c r="B20" s="35"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="12" t="s">
+    <row r="22" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="39"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="32"/>
-      <c r="B21" s="35"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="12" t="s">
+    <row r="23" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="39"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="32"/>
-      <c r="B22" s="35"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="32"/>
-      <c r="B23" s="35"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="12" t="s">
+    <row r="24" spans="1:5" s="5" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="39"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="E24" s="13"/>
+    </row>
+    <row r="25" spans="1:5" s="3" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="39"/>
+      <c r="B25" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25" s="11" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" s="5" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="32"/>
-      <c r="B24" s="36"/>
-      <c r="C24" s="33"/>
-      <c r="D24" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="E24" s="13"/>
-    </row>
-    <row r="25" spans="1:5" s="3" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="32"/>
-      <c r="B25" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="C25" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>20</v>
-      </c>
       <c r="E25" s="11" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="32"/>
-      <c r="B26" s="35"/>
-      <c r="C26" s="32"/>
+      <c r="A26" s="39"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="39"/>
       <c r="D26" s="12" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:5" s="5" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="32"/>
-      <c r="B27" s="36"/>
-      <c r="C27" s="33"/>
+      <c r="A27" s="39"/>
+      <c r="B27" s="37"/>
+      <c r="C27" s="40"/>
       <c r="D27" s="13"/>
       <c r="E27" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="39"/>
+      <c r="B28" s="35" t="s">
+        <v>122</v>
+      </c>
+      <c r="C28" s="38" t="s">
+        <v>123</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="39"/>
+      <c r="B29" s="37"/>
+      <c r="C29" s="40"/>
+      <c r="E29" s="12" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" s="3" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="39"/>
+      <c r="B30" s="35" t="s">
+        <v>167</v>
+      </c>
+      <c r="C30" s="38" t="s">
+        <v>168</v>
+      </c>
+      <c r="D30" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="E30" s="23" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="39"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="39"/>
+      <c r="D31" s="24" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="32"/>
-      <c r="B28" s="34" t="s">
-        <v>128</v>
-      </c>
-      <c r="C28" s="31" t="s">
-        <v>129</v>
-      </c>
-      <c r="D28" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="E28" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="32"/>
-      <c r="B29" s="36"/>
-      <c r="C29" s="33"/>
-      <c r="E29" s="12" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" s="3" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="32"/>
-      <c r="B30" s="34" t="s">
-        <v>173</v>
-      </c>
-      <c r="C30" s="31" t="s">
-        <v>174</v>
-      </c>
-      <c r="D30" s="23" t="s">
+      <c r="E31" s="24" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="39"/>
+      <c r="B32" s="36"/>
+      <c r="C32" s="39"/>
+      <c r="D32" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" s="24"/>
+    </row>
+    <row r="33" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="39"/>
+      <c r="B33" s="36"/>
+      <c r="C33" s="39"/>
+      <c r="D33" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33" s="24"/>
+    </row>
+    <row r="34" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="39"/>
+      <c r="B34" s="36"/>
+      <c r="C34" s="39"/>
+      <c r="D34" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="E34" s="24"/>
+    </row>
+    <row r="35" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="39"/>
+      <c r="B35" s="36"/>
+      <c r="C35" s="39"/>
+      <c r="D35" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E35" s="24"/>
+    </row>
+    <row r="36" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="39"/>
+      <c r="B36" s="36"/>
+      <c r="C36" s="39"/>
+      <c r="D36" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="E36" s="24"/>
+    </row>
+    <row r="37" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="39"/>
+      <c r="B37" s="36"/>
+      <c r="C37" s="39"/>
+      <c r="D37" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="E37" s="24"/>
+    </row>
+    <row r="38" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="39"/>
+      <c r="B38" s="36"/>
+      <c r="C38" s="39"/>
+      <c r="D38" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E38" s="24"/>
+    </row>
+    <row r="39" spans="1:5" s="5" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="39"/>
+      <c r="B39" s="37"/>
+      <c r="C39" s="40"/>
+      <c r="D39" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="E39" s="25"/>
+    </row>
+    <row r="40" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="39"/>
+      <c r="B40" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="C40" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="E30" s="23" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="32"/>
-      <c r="B31" s="35"/>
-      <c r="C31" s="32"/>
-      <c r="D31" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="E31" s="24" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="32"/>
-      <c r="B32" s="35"/>
-      <c r="C32" s="32"/>
-      <c r="D32" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="E32" s="24"/>
-    </row>
-    <row r="33" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="32"/>
-      <c r="B33" s="35"/>
-      <c r="C33" s="32"/>
-      <c r="D33" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="E33" s="24"/>
-    </row>
-    <row r="34" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="32"/>
-      <c r="B34" s="35"/>
-      <c r="C34" s="32"/>
-      <c r="D34" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="E34" s="24"/>
-    </row>
-    <row r="35" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="32"/>
-      <c r="B35" s="35"/>
-      <c r="C35" s="32"/>
-      <c r="D35" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="E35" s="24"/>
-    </row>
-    <row r="36" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="32"/>
-      <c r="B36" s="35"/>
-      <c r="C36" s="32"/>
-      <c r="D36" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="E36" s="24"/>
-    </row>
-    <row r="37" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="32"/>
-      <c r="B37" s="35"/>
-      <c r="C37" s="32"/>
-      <c r="D37" s="24" t="s">
+      <c r="D40" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="E40" s="24" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="39"/>
+      <c r="B41" s="36"/>
+      <c r="C41" s="39"/>
+      <c r="D41" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="E41" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="39"/>
+      <c r="B42" s="36"/>
+      <c r="C42" s="39"/>
+      <c r="D42" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E42" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="39"/>
+      <c r="B43" s="36"/>
+      <c r="C43" s="39"/>
+      <c r="D43" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="39"/>
+      <c r="B44" s="36"/>
+      <c r="C44" s="39"/>
+      <c r="D44" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="39"/>
+      <c r="B45" s="36"/>
+      <c r="C45" s="39"/>
+      <c r="D45" s="12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="39"/>
+      <c r="B46" s="36"/>
+      <c r="C46" s="39"/>
+      <c r="D46" s="12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="39"/>
+      <c r="B47" s="36"/>
+      <c r="C47" s="39"/>
+      <c r="D47" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E37" s="24"/>
-    </row>
-    <row r="38" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="32"/>
-      <c r="B38" s="35"/>
-      <c r="C38" s="32"/>
-      <c r="D38" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="E38" s="24"/>
-    </row>
-    <row r="39" spans="1:5" s="5" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="32"/>
-      <c r="B39" s="36"/>
-      <c r="C39" s="33"/>
-      <c r="D39" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="E39" s="25"/>
-    </row>
-    <row r="40" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="32"/>
-      <c r="B40" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="C40" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="D40" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="E40" s="24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="32"/>
-      <c r="B41" s="35"/>
-      <c r="C41" s="32"/>
-      <c r="D41" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="E41" s="12" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="32"/>
-      <c r="B42" s="35"/>
-      <c r="C42" s="32"/>
-      <c r="D42" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="E42" s="12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="32"/>
-      <c r="B43" s="35"/>
-      <c r="C43" s="32"/>
-      <c r="D43" s="12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="32"/>
-      <c r="B44" s="35"/>
-      <c r="C44" s="32"/>
-      <c r="D44" s="12" t="s">
+    </row>
+    <row r="48" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="39"/>
+      <c r="B48" s="36"/>
+      <c r="C48" s="39"/>
+      <c r="D48" s="12" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="32"/>
-      <c r="B45" s="35"/>
-      <c r="C45" s="32"/>
-      <c r="D45" s="12" t="s">
+    <row r="49" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="39"/>
+      <c r="B49" s="36"/>
+      <c r="C49" s="39"/>
+      <c r="D49" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="39"/>
+      <c r="B50" s="36"/>
+      <c r="C50" s="39"/>
+      <c r="D50" s="12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="39"/>
+      <c r="B51" s="36"/>
+      <c r="C51" s="39"/>
+      <c r="D51" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="39"/>
+      <c r="B52" s="36"/>
+      <c r="C52" s="39"/>
+      <c r="D52" s="12" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="39"/>
+      <c r="B53" s="36"/>
+      <c r="C53" s="39"/>
+      <c r="D53" s="12" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="39"/>
+      <c r="B54" s="36"/>
+      <c r="C54" s="39"/>
+      <c r="D54" s="12" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="39"/>
+      <c r="B55" s="36"/>
+      <c r="C55" s="39"/>
+      <c r="D55" s="12" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="39"/>
+      <c r="B56" s="36"/>
+      <c r="C56" s="39"/>
+      <c r="D56" s="12" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="39"/>
+      <c r="B57" s="36"/>
+      <c r="C57" s="39"/>
+      <c r="D57" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="39"/>
+      <c r="B58" s="36"/>
+      <c r="C58" s="39"/>
+      <c r="D58" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="39"/>
+      <c r="B59" s="36"/>
+      <c r="C59" s="39"/>
+      <c r="D59" s="12" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="32"/>
-      <c r="B46" s="35"/>
-      <c r="C46" s="32"/>
-      <c r="D46" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="32"/>
-      <c r="B47" s="35"/>
-      <c r="C47" s="32"/>
-      <c r="D47" s="12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="32"/>
-      <c r="B48" s="35"/>
-      <c r="C48" s="32"/>
-      <c r="D48" s="12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="32"/>
-      <c r="B49" s="35"/>
-      <c r="C49" s="32"/>
-      <c r="D49" s="12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="32"/>
-      <c r="B50" s="35"/>
-      <c r="C50" s="32"/>
-      <c r="D50" s="12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="32"/>
-      <c r="B51" s="35"/>
-      <c r="C51" s="32"/>
-      <c r="D51" s="12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="32"/>
-      <c r="B52" s="35"/>
-      <c r="C52" s="32"/>
-      <c r="D52" s="12" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="32"/>
-      <c r="B53" s="35"/>
-      <c r="C53" s="32"/>
-      <c r="D53" s="12" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="32"/>
-      <c r="B54" s="35"/>
-      <c r="C54" s="32"/>
-      <c r="D54" s="12" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="32"/>
-      <c r="B55" s="35"/>
-      <c r="C55" s="32"/>
-      <c r="D55" s="12" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="32"/>
-      <c r="B56" s="35"/>
-      <c r="C56" s="32"/>
-      <c r="D56" s="12" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="32"/>
-      <c r="B57" s="35"/>
-      <c r="C57" s="32"/>
-      <c r="D57" s="12" t="s">
+    <row r="60" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="39"/>
+      <c r="B60" s="36"/>
+      <c r="C60" s="39"/>
+      <c r="D60" s="12" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="32"/>
-      <c r="B58" s="35"/>
-      <c r="C58" s="32"/>
-      <c r="D58" s="12" t="s">
+    <row r="61" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="39"/>
+      <c r="B61" s="36"/>
+      <c r="C61" s="39"/>
+      <c r="D61" s="12" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="32"/>
-      <c r="B59" s="35"/>
-      <c r="C59" s="32"/>
-      <c r="D59" s="12" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="32"/>
-      <c r="B60" s="35"/>
-      <c r="C60" s="32"/>
-      <c r="D60" s="12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="32"/>
-      <c r="B61" s="35"/>
-      <c r="C61" s="32"/>
-      <c r="D61" s="12" t="s">
-        <v>33</v>
-      </c>
-    </row>
     <row r="62" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="32"/>
-      <c r="B62" s="35"/>
-      <c r="C62" s="32"/>
+      <c r="A62" s="39"/>
+      <c r="B62" s="36"/>
+      <c r="C62" s="39"/>
       <c r="D62" s="12" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="32"/>
-      <c r="B63" s="35"/>
-      <c r="C63" s="32"/>
+      <c r="A63" s="39"/>
+      <c r="B63" s="36"/>
+      <c r="C63" s="39"/>
       <c r="D63" s="20" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="E63" s="20"/>
     </row>
     <row r="64" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="32"/>
-      <c r="B64" s="35"/>
-      <c r="C64" s="32"/>
+      <c r="A64" s="39"/>
+      <c r="B64" s="36"/>
+      <c r="C64" s="39"/>
       <c r="D64" s="20" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="E64" s="20"/>
     </row>
     <row r="65" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="32"/>
-      <c r="B65" s="35"/>
-      <c r="C65" s="32"/>
+      <c r="A65" s="39"/>
+      <c r="B65" s="36"/>
+      <c r="C65" s="39"/>
       <c r="D65" s="12" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="32"/>
+      <c r="A66" s="39"/>
       <c r="B66" s="27"/>
       <c r="C66" s="26"/>
       <c r="D66" s="26" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="E66" s="26"/>
     </row>
     <row r="67" spans="1:5" s="3" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="32"/>
-      <c r="B67" s="34" t="s">
-        <v>179</v>
-      </c>
-      <c r="C67" s="31" t="s">
-        <v>178</v>
+      <c r="A67" s="39"/>
+      <c r="B67" s="35" t="s">
+        <v>173</v>
+      </c>
+      <c r="C67" s="38" t="s">
+        <v>172</v>
       </c>
       <c r="D67" s="28" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E67" s="28" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="32"/>
-      <c r="B68" s="35"/>
-      <c r="C68" s="32"/>
+      <c r="A68" s="39"/>
+      <c r="B68" s="36"/>
+      <c r="C68" s="39"/>
       <c r="D68" s="29"/>
       <c r="E68" s="29" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:5" s="5" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="32"/>
-      <c r="B69" s="36"/>
-      <c r="C69" s="33"/>
+      <c r="A69" s="39"/>
+      <c r="B69" s="37"/>
+      <c r="C69" s="40"/>
       <c r="D69" s="30"/>
       <c r="E69" s="30" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="70" spans="1:5" s="3" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="32"/>
-      <c r="B70" s="34" t="s">
+      <c r="A70" s="39"/>
+      <c r="B70" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="C70" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="D70" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E70" s="11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="39"/>
+      <c r="B71" s="36"/>
+      <c r="C71" s="39"/>
+      <c r="D71" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="C70" s="31" t="s">
+      <c r="E71" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D70" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E70" s="11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="32"/>
-      <c r="B71" s="35"/>
-      <c r="C71" s="32"/>
-      <c r="D71" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="E71" s="12" t="s">
-        <v>39</v>
-      </c>
     </row>
     <row r="72" spans="1:5" s="5" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="32"/>
-      <c r="B72" s="36"/>
-      <c r="C72" s="33"/>
+      <c r="A72" s="39"/>
+      <c r="B72" s="37"/>
+      <c r="C72" s="40"/>
       <c r="D72" s="13"/>
       <c r="E72" s="13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="32"/>
-      <c r="B73" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="C73" s="31" t="s">
-        <v>67</v>
+      <c r="A73" s="39"/>
+      <c r="B73" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="C73" s="38" t="s">
+        <v>63</v>
       </c>
       <c r="D73" s="12" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E73" s="12" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="33"/>
-      <c r="B74" s="36"/>
-      <c r="C74" s="33"/>
+      <c r="A74" s="40"/>
+      <c r="B74" s="37"/>
+      <c r="C74" s="40"/>
       <c r="D74" s="12" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E74" s="12" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="75" spans="1:5" s="3" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="B75" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="C75" s="31" t="s">
+      <c r="A75" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="B75" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="C75" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="D75" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E75" s="11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="39"/>
+      <c r="B76" s="36"/>
+      <c r="C76" s="39"/>
+      <c r="D76" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E76" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="39"/>
+      <c r="B77" s="36"/>
+      <c r="C77" s="39"/>
+      <c r="D77" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="39"/>
+      <c r="B78" s="36"/>
+      <c r="C78" s="39"/>
+      <c r="D78" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="39"/>
+      <c r="B79" s="36"/>
+      <c r="C79" s="39"/>
+      <c r="D79" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="39"/>
+      <c r="B80" s="36"/>
+      <c r="C80" s="39"/>
+      <c r="D80" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="39"/>
+      <c r="B81" s="36"/>
+      <c r="C81" s="39"/>
+      <c r="D81" s="12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" s="5" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="39"/>
+      <c r="B82" s="37"/>
+      <c r="C82" s="40"/>
+      <c r="D82" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="E82" s="13"/>
+    </row>
+    <row r="83" spans="1:5" s="3" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="39"/>
+      <c r="B83" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="C83" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="D75" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E75" s="11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="32"/>
-      <c r="B76" s="35"/>
-      <c r="C76" s="32"/>
-      <c r="D76" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E76" s="12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="32"/>
-      <c r="B77" s="35"/>
-      <c r="C77" s="32"/>
-      <c r="D77" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="32"/>
-      <c r="B78" s="35"/>
-      <c r="C78" s="32"/>
-      <c r="D78" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="32"/>
-      <c r="B79" s="35"/>
-      <c r="C79" s="32"/>
-      <c r="D79" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="32"/>
-      <c r="B80" s="35"/>
-      <c r="C80" s="32"/>
-      <c r="D80" s="12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="32"/>
-      <c r="B81" s="35"/>
-      <c r="C81" s="32"/>
-      <c r="D81" s="12" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" s="5" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="32"/>
-      <c r="B82" s="36"/>
-      <c r="C82" s="33"/>
-      <c r="D82" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="E82" s="13"/>
-    </row>
-    <row r="83" spans="1:5" s="3" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="32"/>
-      <c r="B83" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="C83" s="31" t="s">
-        <v>53</v>
-      </c>
       <c r="D83" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E83" s="11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="32"/>
-      <c r="B84" s="35"/>
-      <c r="C84" s="32"/>
+      <c r="A84" s="39"/>
+      <c r="B84" s="36"/>
+      <c r="C84" s="39"/>
       <c r="D84" s="12" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E84" s="12" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="85" spans="1:5" s="5" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="32"/>
-      <c r="B85" s="36"/>
-      <c r="C85" s="33"/>
+      <c r="A85" s="39"/>
+      <c r="B85" s="37"/>
+      <c r="C85" s="40"/>
       <c r="D85" s="13"/>
       <c r="E85" s="13" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="32"/>
-      <c r="B86" s="34" t="s">
-        <v>132</v>
-      </c>
-      <c r="C86" s="31" t="s">
-        <v>133</v>
+      <c r="A86" s="39"/>
+      <c r="B86" s="35" t="s">
+        <v>126</v>
+      </c>
+      <c r="C86" s="38" t="s">
+        <v>127</v>
       </c>
       <c r="D86" s="11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E86" s="11" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="32"/>
-      <c r="B87" s="36"/>
-      <c r="C87" s="33"/>
+      <c r="A87" s="39"/>
+      <c r="B87" s="37"/>
+      <c r="C87" s="40"/>
       <c r="D87" s="13"/>
       <c r="E87" s="13" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" s="3" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="39"/>
+      <c r="B88" s="35" t="s">
+        <v>169</v>
+      </c>
+      <c r="C88" s="38" t="s">
+        <v>170</v>
+      </c>
+      <c r="D88" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E88" s="23" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="39"/>
+      <c r="B89" s="36"/>
+      <c r="C89" s="39"/>
+      <c r="D89" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E89" s="24" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="39"/>
+      <c r="B90" s="36"/>
+      <c r="C90" s="39"/>
+      <c r="D90" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E90" s="24"/>
+    </row>
+    <row r="91" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="39"/>
+      <c r="B91" s="36"/>
+      <c r="C91" s="39"/>
+      <c r="D91" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="E91" s="24"/>
+    </row>
+    <row r="92" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="39"/>
+      <c r="B92" s="36"/>
+      <c r="C92" s="39"/>
+      <c r="D92" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E92" s="24"/>
+    </row>
+    <row r="93" spans="1:5" s="5" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A93" s="39"/>
+      <c r="B93" s="37"/>
+      <c r="C93" s="40"/>
+      <c r="D93" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="E93" s="25"/>
+    </row>
+    <row r="94" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="39"/>
+      <c r="B94" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="C94" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="D94" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E94" s="12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A95" s="39"/>
+      <c r="B95" s="37"/>
+      <c r="C95" s="40"/>
+      <c r="D95" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="E95" s="12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" s="3" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="39"/>
+      <c r="B96" s="35" t="s">
+        <v>101</v>
+      </c>
+      <c r="C96" s="38" t="s">
+        <v>102</v>
+      </c>
+      <c r="D96" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="E96" s="11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="39"/>
+      <c r="B97" s="36"/>
+      <c r="C97" s="39"/>
+      <c r="D97" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="E97" s="12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A98" s="39"/>
+      <c r="B98" s="37"/>
+      <c r="C98" s="40"/>
+      <c r="E98" s="12" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" s="3" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="39"/>
+      <c r="B99" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="C99" s="38" t="s">
+        <v>103</v>
+      </c>
+      <c r="D99" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="E99" s="11" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="39"/>
+      <c r="B100" s="36"/>
+      <c r="C100" s="39"/>
+      <c r="D100" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="E100" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" s="5" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A101" s="39"/>
+      <c r="B101" s="37"/>
+      <c r="C101" s="40"/>
+      <c r="D101" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="E101" s="13"/>
+    </row>
+    <row r="102" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="39"/>
+      <c r="B102" s="38" t="s">
+        <v>174</v>
+      </c>
+      <c r="C102" s="38" t="s">
+        <v>175</v>
+      </c>
+      <c r="D102" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="E102" s="12" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="39"/>
+      <c r="B103" s="39"/>
+      <c r="C103" s="39"/>
+      <c r="D103" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="E103" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="39"/>
+      <c r="B104" s="39"/>
+      <c r="C104" s="39"/>
+      <c r="D104" s="12" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A105" s="40"/>
+      <c r="B105" s="40"/>
+      <c r="C105" s="40"/>
+      <c r="D105" s="31" t="s">
+        <v>176</v>
+      </c>
+      <c r="E105" s="31"/>
+    </row>
+    <row r="106" spans="1:5" s="3" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="38" t="s">
+        <v>146</v>
+      </c>
+      <c r="B106" s="35" t="s">
+        <v>128</v>
+      </c>
+      <c r="C106" s="38" t="s">
+        <v>131</v>
+      </c>
+      <c r="D106" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="E106" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="39"/>
+      <c r="B107" s="36"/>
+      <c r="C107" s="39"/>
+      <c r="D107" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E107" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" s="5" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A108" s="39"/>
+      <c r="B108" s="37"/>
+      <c r="C108" s="40"/>
+      <c r="D108" s="13"/>
+      <c r="E108" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="39"/>
+      <c r="B109" s="35" t="s">
+        <v>129</v>
+      </c>
+      <c r="C109" s="38" t="s">
+        <v>132</v>
+      </c>
+      <c r="D109" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="E109" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A110" s="39"/>
+      <c r="B110" s="37"/>
+      <c r="C110" s="40"/>
+      <c r="D110" s="13"/>
+      <c r="E110" s="13" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="39"/>
+      <c r="B111" s="35" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" s="3" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="32"/>
-      <c r="B88" s="34" t="s">
-        <v>175</v>
-      </c>
-      <c r="C88" s="31" t="s">
-        <v>176</v>
-      </c>
-      <c r="D88" s="23" t="s">
+      <c r="C111" s="38" t="s">
+        <v>133</v>
+      </c>
+      <c r="D111" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="E111" s="12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A112" s="39"/>
+      <c r="B112" s="37"/>
+      <c r="C112" s="40"/>
+      <c r="D112" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E88" s="23" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="32"/>
-      <c r="B89" s="35"/>
-      <c r="C89" s="32"/>
-      <c r="D89" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="E89" s="24" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="32"/>
-      <c r="B90" s="35"/>
-      <c r="C90" s="32"/>
-      <c r="D90" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="E90" s="24"/>
-    </row>
-    <row r="91" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="32"/>
-      <c r="B91" s="35"/>
-      <c r="C91" s="32"/>
-      <c r="D91" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="E91" s="24"/>
-    </row>
-    <row r="92" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="32"/>
-      <c r="B92" s="35"/>
-      <c r="C92" s="32"/>
-      <c r="D92" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="E92" s="24"/>
-    </row>
-    <row r="93" spans="1:5" s="5" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A93" s="32"/>
-      <c r="B93" s="36"/>
-      <c r="C93" s="33"/>
-      <c r="D93" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="E93" s="25"/>
-    </row>
-    <row r="94" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="32"/>
-      <c r="B94" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="C94" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="D94" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="E94" s="12" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A95" s="32"/>
-      <c r="B95" s="36"/>
-      <c r="C95" s="33"/>
-      <c r="D95" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="E95" s="12" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" s="3" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="32"/>
-      <c r="B96" s="34" t="s">
-        <v>106</v>
-      </c>
-      <c r="C96" s="31" t="s">
-        <v>107</v>
-      </c>
-      <c r="D96" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="E96" s="11" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="32"/>
-      <c r="B97" s="35"/>
-      <c r="C97" s="32"/>
-      <c r="D97" s="12" t="s">
+      <c r="E112" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" s="3" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="39"/>
+      <c r="B113" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="C113" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="D113" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E113" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="39"/>
+      <c r="B114" s="36"/>
+      <c r="C114" s="39"/>
+      <c r="D114" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="E114" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="39"/>
+      <c r="B115" s="36"/>
+      <c r="C115" s="39"/>
+      <c r="D115" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="E115" s="12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="39"/>
+      <c r="B116" s="36"/>
+      <c r="C116" s="39"/>
+      <c r="D116" s="12" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="39"/>
+      <c r="B117" s="36"/>
+      <c r="C117" s="39"/>
+      <c r="D117" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="E117" s="24"/>
+    </row>
+    <row r="118" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="39"/>
+      <c r="B118" s="36"/>
+      <c r="C118" s="39"/>
+      <c r="D118" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="E118" s="24"/>
+    </row>
+    <row r="119" spans="1:5" s="5" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A119" s="39"/>
+      <c r="B119" s="37"/>
+      <c r="C119" s="40"/>
+      <c r="D119" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="E119" s="13"/>
+    </row>
+    <row r="120" spans="1:5" s="3" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="39"/>
+      <c r="B120" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="C120" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="D120" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E120" s="11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="39"/>
+      <c r="B121" s="36"/>
+      <c r="C121" s="39"/>
+      <c r="E121" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A122" s="39"/>
+      <c r="B122" s="36"/>
+      <c r="C122" s="39"/>
+      <c r="E122" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="E97" s="12" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A98" s="32"/>
-      <c r="B98" s="36"/>
-      <c r="C98" s="33"/>
-      <c r="E98" s="12" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" s="3" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="32"/>
-      <c r="B99" s="34" t="s">
-        <v>103</v>
-      </c>
-      <c r="C99" s="31" t="s">
-        <v>108</v>
-      </c>
-      <c r="D99" s="11" t="s">
+    </row>
+    <row r="123" spans="1:5" s="3" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="39"/>
+      <c r="B123" s="38" t="s">
+        <v>141</v>
+      </c>
+      <c r="C123" s="38" t="s">
+        <v>140</v>
+      </c>
+      <c r="D123" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="E123" s="11" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="39"/>
+      <c r="B124" s="39"/>
+      <c r="C124" s="39"/>
+      <c r="E124" s="12" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A125" s="39"/>
+      <c r="B125" s="40"/>
+      <c r="C125" s="40"/>
+      <c r="E125" s="12" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" s="3" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="39"/>
+      <c r="B126" s="38" t="s">
+        <v>147</v>
+      </c>
+      <c r="C126" s="38" t="s">
+        <v>148</v>
+      </c>
+      <c r="D126" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E126" s="11" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" s="5" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A127" s="39"/>
+      <c r="B127" s="40"/>
+      <c r="C127" s="40"/>
+      <c r="D127" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="E127" s="13" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="39"/>
+      <c r="B128" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="C128" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="D128" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="E99" s="11" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="32"/>
-      <c r="B100" s="35"/>
-      <c r="C100" s="32"/>
-      <c r="D100" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="E100" s="12" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" s="5" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A101" s="32"/>
-      <c r="B101" s="36"/>
-      <c r="C101" s="33"/>
-      <c r="D101" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="E101" s="13"/>
-    </row>
-    <row r="102" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="32"/>
-      <c r="B102" s="34" t="s">
-        <v>111</v>
-      </c>
-      <c r="C102" s="31" t="s">
-        <v>104</v>
-      </c>
-      <c r="D102" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="E102" s="12" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="32"/>
-      <c r="B103" s="35"/>
-      <c r="C103" s="32"/>
-      <c r="D103" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="E103" s="12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A104" s="33"/>
-      <c r="B104" s="36"/>
-      <c r="C104" s="33"/>
-      <c r="D104" s="12" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" s="3" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="31" t="s">
-        <v>152</v>
-      </c>
-      <c r="B105" s="34" t="s">
-        <v>134</v>
-      </c>
-      <c r="C105" s="31" t="s">
-        <v>137</v>
-      </c>
-      <c r="D105" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="E105" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="32"/>
-      <c r="B106" s="35"/>
-      <c r="C106" s="32"/>
-      <c r="D106" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E106" s="12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" s="5" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A107" s="32"/>
-      <c r="B107" s="36"/>
-      <c r="C107" s="33"/>
-      <c r="D107" s="13"/>
-      <c r="E107" s="13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="32"/>
-      <c r="B108" s="34" t="s">
-        <v>135</v>
-      </c>
-      <c r="C108" s="31" t="s">
-        <v>138</v>
-      </c>
-      <c r="D108" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="E108" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A109" s="32"/>
-      <c r="B109" s="36"/>
-      <c r="C109" s="33"/>
-      <c r="D109" s="13"/>
-      <c r="E109" s="13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="32"/>
-      <c r="B110" s="34" t="s">
-        <v>136</v>
-      </c>
-      <c r="C110" s="31" t="s">
-        <v>139</v>
-      </c>
-      <c r="D110" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="E110" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A111" s="32"/>
-      <c r="B111" s="36"/>
-      <c r="C111" s="33"/>
-      <c r="D111" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E111" s="12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" s="3" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="32"/>
-      <c r="B112" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="C112" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="D112" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="E112" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="32"/>
-      <c r="B113" s="35"/>
-      <c r="C113" s="32"/>
-      <c r="D113" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="E113" s="12" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="32"/>
-      <c r="B114" s="35"/>
-      <c r="C114" s="32"/>
-      <c r="D114" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="E114" s="12" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="32"/>
-      <c r="B115" s="35"/>
-      <c r="C115" s="32"/>
-      <c r="D115" s="12" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="32"/>
-      <c r="B116" s="35"/>
-      <c r="C116" s="32"/>
-      <c r="D116" s="24" t="s">
-        <v>170</v>
-      </c>
-      <c r="E116" s="24"/>
-    </row>
-    <row r="117" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="32"/>
-      <c r="B117" s="35"/>
-      <c r="C117" s="32"/>
-      <c r="D117" s="24" t="s">
-        <v>171</v>
-      </c>
-      <c r="E117" s="24"/>
-    </row>
-    <row r="118" spans="1:5" s="5" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A118" s="32"/>
-      <c r="B118" s="36"/>
-      <c r="C118" s="33"/>
-      <c r="D118" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="E118" s="13"/>
-    </row>
-    <row r="119" spans="1:5" s="3" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="32"/>
-      <c r="B119" s="34" t="s">
-        <v>59</v>
-      </c>
-      <c r="C119" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="D119" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="E119" s="11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="32"/>
-      <c r="B120" s="35"/>
-      <c r="C120" s="32"/>
-      <c r="E120" s="12" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A121" s="32"/>
-      <c r="B121" s="35"/>
-      <c r="C121" s="32"/>
-      <c r="E121" s="12" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" s="3" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="32"/>
-      <c r="B122" s="31" t="s">
-        <v>147</v>
-      </c>
-      <c r="C122" s="31" t="s">
-        <v>146</v>
-      </c>
-      <c r="D122" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="E122" s="11" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="32"/>
-      <c r="B123" s="32"/>
-      <c r="C123" s="32"/>
-      <c r="E123" s="12" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A124" s="32"/>
-      <c r="B124" s="33"/>
-      <c r="C124" s="33"/>
-      <c r="E124" s="12" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" s="3" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="32"/>
-      <c r="B125" s="31" t="s">
-        <v>153</v>
-      </c>
-      <c r="C125" s="31" t="s">
-        <v>154</v>
-      </c>
-      <c r="D125" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="E125" s="11" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" s="5" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A126" s="32"/>
-      <c r="B126" s="33"/>
-      <c r="C126" s="33"/>
-      <c r="D126" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="E126" s="13" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="32"/>
-      <c r="B127" s="34" t="s">
-        <v>62</v>
-      </c>
-      <c r="C127" s="31" t="s">
-        <v>97</v>
-      </c>
-      <c r="D127" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="E127" s="12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="32"/>
-      <c r="B128" s="35"/>
-      <c r="C128" s="32"/>
-      <c r="D128" s="12" t="s">
-        <v>91</v>
-      </c>
       <c r="E128" s="12" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" s="5" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A129" s="33"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="39"/>
       <c r="B129" s="36"/>
-      <c r="C129" s="33"/>
-      <c r="D129" s="13"/>
-      <c r="E129" s="13"/>
-    </row>
-    <row r="130" spans="1:5" s="8" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="37" t="s">
+      <c r="C129" s="39"/>
+      <c r="D129" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="E129" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" s="5" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A130" s="40"/>
+      <c r="B130" s="37"/>
+      <c r="C130" s="40"/>
+      <c r="D130" s="13"/>
+      <c r="E130" s="13"/>
+    </row>
+    <row r="131" spans="1:5" s="8" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="B131" s="41" t="s">
+        <v>81</v>
+      </c>
+      <c r="C131" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="B130" s="40" t="s">
-        <v>85</v>
-      </c>
-      <c r="C130" s="37" t="s">
-        <v>86</v>
-      </c>
-      <c r="D130" s="14"/>
-      <c r="E130" s="14" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" s="10" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="38"/>
-      <c r="B131" s="42"/>
-      <c r="C131" s="38"/>
-      <c r="D131" s="15"/>
-      <c r="E131" s="15" t="s">
-        <v>87</v>
+      <c r="D131" s="14"/>
+      <c r="E131" s="14" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="132" spans="1:5" s="10" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="38"/>
-      <c r="B132" s="42"/>
-      <c r="C132" s="38"/>
-      <c r="D132" s="18"/>
-      <c r="E132" s="18" t="s">
-        <v>156</v>
+      <c r="A132" s="33"/>
+      <c r="B132" s="43"/>
+      <c r="C132" s="33"/>
+      <c r="D132" s="15"/>
+      <c r="E132" s="15" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="133" spans="1:5" s="10" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="38"/>
-      <c r="B133" s="42"/>
-      <c r="C133" s="38"/>
+      <c r="A133" s="33"/>
+      <c r="B133" s="43"/>
+      <c r="C133" s="33"/>
       <c r="D133" s="18"/>
       <c r="E133" s="18" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" s="10" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="33"/>
+      <c r="B134" s="43"/>
+      <c r="C134" s="33"/>
+      <c r="D134" s="18"/>
+      <c r="E134" s="18" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" s="9" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A135" s="33"/>
+      <c r="B135" s="42"/>
+      <c r="C135" s="34"/>
+      <c r="D135" s="16"/>
+      <c r="E135" s="16" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" s="10" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A136" s="33"/>
+      <c r="B136" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="C136" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="D136" s="15" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="134" spans="1:5" s="9" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A134" s="38"/>
-      <c r="B134" s="41"/>
-      <c r="C134" s="39"/>
-      <c r="D134" s="16"/>
-      <c r="E134" s="16" t="s">
+      <c r="E136" s="15" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="135" spans="1:5" s="10" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A135" s="38"/>
-      <c r="B135" s="22" t="s">
+    <row r="137" spans="1:5" s="6" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A137" s="33"/>
+      <c r="B137" s="41" t="s">
+        <v>114</v>
+      </c>
+      <c r="C137" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="D137" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="E137" s="14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" s="7" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A138" s="33"/>
+      <c r="B138" s="42"/>
+      <c r="C138" s="34"/>
+      <c r="D138" s="16"/>
+      <c r="E138" s="16" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" s="3" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A139" s="33"/>
+      <c r="B139" s="35" t="s">
+        <v>108</v>
+      </c>
+      <c r="C139" s="38" t="s">
+        <v>109</v>
+      </c>
+      <c r="D139" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="E139" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A140" s="33"/>
+      <c r="B140" s="36"/>
+      <c r="C140" s="39"/>
+      <c r="E140" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="C135" s="21" t="s">
+    </row>
+    <row r="141" spans="1:5" s="5" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A141" s="34"/>
+      <c r="B141" s="37"/>
+      <c r="C141" s="40"/>
+      <c r="D141" s="13"/>
+      <c r="E141" s="13" t="s">
         <v>113</v>
-      </c>
-      <c r="D135" s="15" t="s">
-        <v>163</v>
-      </c>
-      <c r="E135" s="15" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" s="6" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="38"/>
-      <c r="B136" s="40" t="s">
-        <v>120</v>
-      </c>
-      <c r="C136" s="37" t="s">
-        <v>121</v>
-      </c>
-      <c r="D136" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="E136" s="14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" s="7" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A137" s="38"/>
-      <c r="B137" s="41"/>
-      <c r="C137" s="39"/>
-      <c r="D137" s="16"/>
-      <c r="E137" s="16" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" s="3" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="38"/>
-      <c r="B138" s="34" t="s">
-        <v>114</v>
-      </c>
-      <c r="C138" s="31" t="s">
-        <v>115</v>
-      </c>
-      <c r="D138" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="E138" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="38"/>
-      <c r="B139" s="35"/>
-      <c r="C139" s="32"/>
-      <c r="E139" s="12" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" s="5" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A140" s="39"/>
-      <c r="B140" s="36"/>
-      <c r="C140" s="33"/>
-      <c r="D140" s="13"/>
-      <c r="E140" s="13" t="s">
-        <v>119</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="67">
-    <mergeCell ref="A130:A140"/>
-    <mergeCell ref="B138:B140"/>
-    <mergeCell ref="C138:C140"/>
-    <mergeCell ref="B136:B137"/>
-    <mergeCell ref="C136:C137"/>
-    <mergeCell ref="B130:B134"/>
-    <mergeCell ref="C130:C134"/>
-    <mergeCell ref="A75:A104"/>
-    <mergeCell ref="B96:B98"/>
-    <mergeCell ref="C96:C98"/>
-    <mergeCell ref="B75:B82"/>
-    <mergeCell ref="C75:C82"/>
-    <mergeCell ref="B83:B85"/>
-    <mergeCell ref="C83:C85"/>
-    <mergeCell ref="B99:B101"/>
-    <mergeCell ref="C99:C101"/>
-    <mergeCell ref="B94:B95"/>
-    <mergeCell ref="C94:C95"/>
-    <mergeCell ref="B86:B87"/>
-    <mergeCell ref="C86:C87"/>
-    <mergeCell ref="C102:C104"/>
-    <mergeCell ref="B102:B104"/>
-    <mergeCell ref="B88:B93"/>
+    <mergeCell ref="A75:A105"/>
+    <mergeCell ref="A106:A130"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="A2:A13"/>
+    <mergeCell ref="B123:B125"/>
+    <mergeCell ref="C123:C125"/>
+    <mergeCell ref="B126:B127"/>
+    <mergeCell ref="C126:C127"/>
+    <mergeCell ref="B106:B108"/>
+    <mergeCell ref="C106:C108"/>
+    <mergeCell ref="B109:B110"/>
+    <mergeCell ref="C109:C110"/>
+    <mergeCell ref="B113:B119"/>
+    <mergeCell ref="C113:C119"/>
+    <mergeCell ref="B128:B130"/>
+    <mergeCell ref="C128:C130"/>
+    <mergeCell ref="C120:C122"/>
+    <mergeCell ref="B120:B122"/>
+    <mergeCell ref="B111:B112"/>
+    <mergeCell ref="C111:C112"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="C88:C93"/>
+    <mergeCell ref="C67:C69"/>
+    <mergeCell ref="C102:C105"/>
+    <mergeCell ref="B102:B105"/>
     <mergeCell ref="A14:A74"/>
     <mergeCell ref="B14:B24"/>
     <mergeCell ref="C14:C24"/>
@@ -2886,34 +2910,26 @@
     <mergeCell ref="B30:B39"/>
     <mergeCell ref="C30:C39"/>
     <mergeCell ref="B67:B69"/>
-    <mergeCell ref="C119:C121"/>
-    <mergeCell ref="B119:B121"/>
-    <mergeCell ref="B110:B111"/>
-    <mergeCell ref="C110:C111"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="C88:C93"/>
-    <mergeCell ref="C67:C69"/>
-    <mergeCell ref="A105:A129"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="A2:A13"/>
-    <mergeCell ref="B122:B124"/>
-    <mergeCell ref="C122:C124"/>
-    <mergeCell ref="B125:B126"/>
-    <mergeCell ref="C125:C126"/>
-    <mergeCell ref="B105:B107"/>
-    <mergeCell ref="C105:C107"/>
-    <mergeCell ref="B108:B109"/>
-    <mergeCell ref="C108:C109"/>
-    <mergeCell ref="B112:B118"/>
-    <mergeCell ref="C112:C118"/>
-    <mergeCell ref="B127:B129"/>
-    <mergeCell ref="C127:C129"/>
+    <mergeCell ref="B96:B98"/>
+    <mergeCell ref="C96:C98"/>
+    <mergeCell ref="B75:B82"/>
+    <mergeCell ref="C75:C82"/>
+    <mergeCell ref="B83:B85"/>
+    <mergeCell ref="C83:C85"/>
+    <mergeCell ref="B99:B101"/>
+    <mergeCell ref="C99:C101"/>
+    <mergeCell ref="B94:B95"/>
+    <mergeCell ref="C94:C95"/>
+    <mergeCell ref="B86:B87"/>
+    <mergeCell ref="C86:C87"/>
+    <mergeCell ref="B88:B93"/>
+    <mergeCell ref="A131:A141"/>
+    <mergeCell ref="B139:B141"/>
+    <mergeCell ref="C139:C141"/>
+    <mergeCell ref="B137:B138"/>
+    <mergeCell ref="C137:C138"/>
+    <mergeCell ref="B131:B135"/>
+    <mergeCell ref="C131:C135"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/BACKEND.xlsx
+++ b/BACKEND.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="185">
   <si>
     <t>msg: string</t>
   </si>
@@ -737,6 +737,22 @@
   </si>
   <si>
     <t>interface</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>displayForm: string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>surveyMethod: string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置申请分数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>setApplicationScore</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -934,7 +950,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -959,15 +975,36 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -977,6 +1014,24 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -986,85 +1041,19 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1380,26 +1369,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E141"/>
+  <dimension ref="A1:E144"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2:C4"/>
+      <pane ySplit="1" topLeftCell="A120" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F132" sqref="F132:F133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.83203125" defaultRowHeight="17.5" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.33203125" style="12" customWidth="1"/>
-    <col min="2" max="2" width="29.1640625" style="17" customWidth="1"/>
-    <col min="3" max="3" width="37.5" style="12" customWidth="1"/>
-    <col min="4" max="4" width="31.25" style="12" customWidth="1"/>
-    <col min="5" max="5" width="20.83203125" style="12"/>
+    <col min="1" max="1" width="8.33203125" style="10" customWidth="1"/>
+    <col min="2" max="2" width="29.1640625" style="11" customWidth="1"/>
+    <col min="3" max="3" width="37.5" style="19" customWidth="1"/>
+    <col min="4" max="4" width="31.25" style="19" customWidth="1"/>
+    <col min="5" max="5" width="20.83203125" style="19"/>
     <col min="6" max="16384" width="20.83203125" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2"/>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="12" t="s">
         <v>180</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -1413,1523 +1402,1542 @@
       </c>
     </row>
     <row r="2" spans="1:5" s="3" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="24" t="s">
         <v>159</v>
       </c>
-      <c r="C2" s="38" t="s">
+      <c r="C2" s="21" t="s">
         <v>160</v>
       </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11" t="s">
+      <c r="D2" s="18"/>
+      <c r="E2" s="18" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="39"/>
-      <c r="B3" s="36"/>
-      <c r="C3" s="39"/>
-      <c r="E3" s="12" t="s">
+      <c r="A3" s="22"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="22"/>
+      <c r="E3" s="19" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="5" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="39"/>
-      <c r="B4" s="37"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13" t="s">
+      <c r="A4" s="22"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="3" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="39"/>
-      <c r="B5" s="35" t="s">
+      <c r="A5" s="22"/>
+      <c r="B5" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="C5" s="38" t="s">
+      <c r="C5" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="18" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="39"/>
-      <c r="B6" s="36"/>
-      <c r="C6" s="39"/>
-      <c r="E6" s="12" t="s">
+      <c r="A6" s="22"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="22"/>
+      <c r="E6" s="19" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:5" s="5" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="39"/>
-      <c r="B7" s="37"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13" t="s">
+      <c r="A7" s="22"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:5" s="3" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="39"/>
-      <c r="B8" s="35" t="s">
+      <c r="A8" s="22"/>
+      <c r="B8" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="C8" s="38" t="s">
+      <c r="C8" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="18" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="39"/>
-      <c r="B9" s="36"/>
-      <c r="C9" s="39"/>
-      <c r="E9" s="12" t="s">
+      <c r="A9" s="22"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="22"/>
+      <c r="E9" s="19" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:5" s="5" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="39"/>
-      <c r="B10" s="37"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="13" t="s">
+      <c r="A10" s="22"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="20" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:5" s="3" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="39"/>
-      <c r="B11" s="35" t="s">
+      <c r="A11" s="22"/>
+      <c r="B11" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="C11" s="38" t="s">
+      <c r="C11" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="18" t="s">
         <v>139</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="18" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="39"/>
-      <c r="B12" s="36"/>
-      <c r="C12" s="39"/>
-      <c r="E12" s="12" t="s">
+      <c r="A12" s="22"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="22"/>
+      <c r="E12" s="19" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:5" s="5" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="40"/>
-      <c r="B13" s="37"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="13" t="s">
+      <c r="A13" s="23"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="20" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:5" s="3" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="38" t="s">
+      <c r="A14" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="35" t="s">
+      <c r="B14" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="38" t="s">
+      <c r="C14" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="11" t="s">
+      <c r="E14" s="18" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="39"/>
-      <c r="B15" s="36"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="12" t="s">
+      <c r="A15" s="22"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="12" t="s">
+      <c r="E15" s="19" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="39"/>
-      <c r="B16" s="36"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="12" t="s">
+      <c r="A16" s="22"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="19" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="39"/>
-      <c r="B17" s="36"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="12" t="s">
+      <c r="A17" s="22"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="19" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="39"/>
-      <c r="B18" s="36"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="12" t="s">
+      <c r="A18" s="22"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="19" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="39"/>
-      <c r="B19" s="36"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="12" t="s">
+      <c r="A19" s="22"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="19" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="39"/>
-      <c r="B20" s="36"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="12" t="s">
+      <c r="A20" s="22"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="19" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="39"/>
-      <c r="B21" s="36"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="12" t="s">
+      <c r="A21" s="22"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="19" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="39"/>
-      <c r="B22" s="36"/>
-      <c r="C22" s="39"/>
-      <c r="D22" s="12" t="s">
+      <c r="A22" s="22"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="19" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="39"/>
-      <c r="B23" s="36"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="12" t="s">
+      <c r="A23" s="22"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="19" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:5" s="5" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="39"/>
-      <c r="B24" s="37"/>
-      <c r="C24" s="40"/>
-      <c r="D24" s="13" t="s">
+      <c r="A24" s="22"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="E24" s="13"/>
+      <c r="E24" s="20"/>
     </row>
     <row r="25" spans="1:5" s="3" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="39"/>
-      <c r="B25" s="35" t="s">
+      <c r="A25" s="22"/>
+      <c r="B25" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="C25" s="38" t="s">
+      <c r="C25" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="D25" s="11" t="s">
+      <c r="D25" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="E25" s="11" t="s">
+      <c r="E25" s="18" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="39"/>
-      <c r="B26" s="36"/>
-      <c r="C26" s="39"/>
-      <c r="D26" s="12" t="s">
+      <c r="A26" s="22"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="E26" s="12" t="s">
+      <c r="E26" s="19" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:5" s="5" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="39"/>
-      <c r="B27" s="37"/>
-      <c r="C27" s="40"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13" t="s">
+      <c r="A27" s="22"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="39"/>
-      <c r="B28" s="35" t="s">
+      <c r="A28" s="22"/>
+      <c r="B28" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="C28" s="38" t="s">
+      <c r="C28" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="D28" s="12" t="s">
+      <c r="D28" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="E28" s="12" t="s">
+      <c r="E28" s="19" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="39"/>
-      <c r="B29" s="37"/>
-      <c r="C29" s="40"/>
-      <c r="E29" s="12" t="s">
+      <c r="A29" s="22"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="23"/>
+      <c r="E29" s="19" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="30" spans="1:5" s="3" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="39"/>
-      <c r="B30" s="35" t="s">
+      <c r="A30" s="22"/>
+      <c r="B30" s="24" t="s">
         <v>167</v>
       </c>
-      <c r="C30" s="38" t="s">
+      <c r="C30" s="21" t="s">
         <v>168</v>
       </c>
-      <c r="D30" s="23" t="s">
+      <c r="D30" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="E30" s="23" t="s">
+      <c r="E30" s="18" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="39"/>
-      <c r="B31" s="36"/>
-      <c r="C31" s="39"/>
-      <c r="D31" s="24" t="s">
+      <c r="A31" s="22"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="E31" s="24" t="s">
+      <c r="E31" s="19" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="39"/>
-      <c r="B32" s="36"/>
-      <c r="C32" s="39"/>
-      <c r="D32" s="24" t="s">
+      <c r="A32" s="22"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="E32" s="24"/>
     </row>
     <row r="33" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="39"/>
-      <c r="B33" s="36"/>
-      <c r="C33" s="39"/>
-      <c r="D33" s="24" t="s">
+      <c r="A33" s="22"/>
+      <c r="B33" s="25"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="E33" s="24"/>
     </row>
     <row r="34" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="39"/>
-      <c r="B34" s="36"/>
-      <c r="C34" s="39"/>
-      <c r="D34" s="24" t="s">
+      <c r="A34" s="22"/>
+      <c r="B34" s="25"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="E34" s="24"/>
     </row>
     <row r="35" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="39"/>
-      <c r="B35" s="36"/>
-      <c r="C35" s="39"/>
-      <c r="D35" s="24" t="s">
+      <c r="A35" s="22"/>
+      <c r="B35" s="25"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="E35" s="24"/>
     </row>
     <row r="36" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="39"/>
-      <c r="B36" s="36"/>
-      <c r="C36" s="39"/>
-      <c r="D36" s="24" t="s">
+      <c r="A36" s="22"/>
+      <c r="B36" s="25"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="E36" s="24"/>
     </row>
     <row r="37" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="39"/>
-      <c r="B37" s="36"/>
-      <c r="C37" s="39"/>
-      <c r="D37" s="24" t="s">
+      <c r="A37" s="22"/>
+      <c r="B37" s="25"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="E37" s="24"/>
     </row>
     <row r="38" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="39"/>
-      <c r="B38" s="36"/>
-      <c r="C38" s="39"/>
-      <c r="D38" s="24" t="s">
+      <c r="A38" s="22"/>
+      <c r="B38" s="25"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="E38" s="24"/>
     </row>
     <row r="39" spans="1:5" s="5" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="39"/>
-      <c r="B39" s="37"/>
-      <c r="C39" s="40"/>
-      <c r="D39" s="25" t="s">
+      <c r="A39" s="22"/>
+      <c r="B39" s="26"/>
+      <c r="C39" s="23"/>
+      <c r="D39" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="E39" s="25"/>
+      <c r="E39" s="20"/>
     </row>
     <row r="40" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="39"/>
-      <c r="B40" s="35" t="s">
+      <c r="A40" s="22"/>
+      <c r="B40" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="C40" s="38" t="s">
+      <c r="C40" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="D40" s="24" t="s">
+      <c r="D40" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="E40" s="24" t="s">
+      <c r="E40" s="19" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="39"/>
-      <c r="B41" s="36"/>
-      <c r="C41" s="39"/>
-      <c r="D41" s="12" t="s">
+      <c r="A41" s="22"/>
+      <c r="B41" s="25"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="E41" s="12" t="s">
+      <c r="E41" s="19" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="39"/>
-      <c r="B42" s="36"/>
-      <c r="C42" s="39"/>
-      <c r="D42" s="12" t="s">
+      <c r="A42" s="22"/>
+      <c r="B42" s="25"/>
+      <c r="C42" s="22"/>
+      <c r="D42" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="E42" s="12" t="s">
+      <c r="E42" s="19" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="39"/>
-      <c r="B43" s="36"/>
-      <c r="C43" s="39"/>
-      <c r="D43" s="12" t="s">
+      <c r="A43" s="22"/>
+      <c r="B43" s="25"/>
+      <c r="C43" s="22"/>
+      <c r="D43" s="19" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="39"/>
-      <c r="B44" s="36"/>
-      <c r="C44" s="39"/>
-      <c r="D44" s="12" t="s">
+      <c r="A44" s="22"/>
+      <c r="B44" s="25"/>
+      <c r="C44" s="22"/>
+      <c r="D44" s="19" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="39"/>
-      <c r="B45" s="36"/>
-      <c r="C45" s="39"/>
-      <c r="D45" s="12" t="s">
+      <c r="A45" s="22"/>
+      <c r="B45" s="25"/>
+      <c r="C45" s="22"/>
+      <c r="D45" s="19" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="39"/>
-      <c r="B46" s="36"/>
-      <c r="C46" s="39"/>
-      <c r="D46" s="12" t="s">
+      <c r="A46" s="22"/>
+      <c r="B46" s="25"/>
+      <c r="C46" s="22"/>
+      <c r="D46" s="19" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="39"/>
-      <c r="B47" s="36"/>
-      <c r="C47" s="39"/>
-      <c r="D47" s="12" t="s">
+      <c r="A47" s="22"/>
+      <c r="B47" s="25"/>
+      <c r="C47" s="22"/>
+      <c r="D47" s="19" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="39"/>
-      <c r="B48" s="36"/>
-      <c r="C48" s="39"/>
-      <c r="D48" s="12" t="s">
+      <c r="A48" s="22"/>
+      <c r="B48" s="25"/>
+      <c r="C48" s="22"/>
+      <c r="D48" s="19" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="39"/>
-      <c r="B49" s="36"/>
-      <c r="C49" s="39"/>
-      <c r="D49" s="12" t="s">
+    <row r="49" spans="1:4" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="22"/>
+      <c r="B49" s="25"/>
+      <c r="C49" s="22"/>
+      <c r="D49" s="19" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="39"/>
-      <c r="B50" s="36"/>
-      <c r="C50" s="39"/>
-      <c r="D50" s="12" t="s">
+    <row r="50" spans="1:4" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="22"/>
+      <c r="B50" s="25"/>
+      <c r="C50" s="22"/>
+      <c r="D50" s="19" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="39"/>
-      <c r="B51" s="36"/>
-      <c r="C51" s="39"/>
-      <c r="D51" s="12" t="s">
+    <row r="51" spans="1:4" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="22"/>
+      <c r="B51" s="25"/>
+      <c r="C51" s="22"/>
+      <c r="D51" s="19" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="39"/>
-      <c r="B52" s="36"/>
-      <c r="C52" s="39"/>
-      <c r="D52" s="12" t="s">
+    <row r="52" spans="1:4" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="22"/>
+      <c r="B52" s="25"/>
+      <c r="C52" s="22"/>
+      <c r="D52" s="19" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="39"/>
-      <c r="B53" s="36"/>
-      <c r="C53" s="39"/>
-      <c r="D53" s="12" t="s">
+    <row r="53" spans="1:4" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="22"/>
+      <c r="B53" s="25"/>
+      <c r="C53" s="22"/>
+      <c r="D53" s="19" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="39"/>
-      <c r="B54" s="36"/>
-      <c r="C54" s="39"/>
-      <c r="D54" s="12" t="s">
+    <row r="54" spans="1:4" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="22"/>
+      <c r="B54" s="25"/>
+      <c r="C54" s="22"/>
+      <c r="D54" s="19" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="39"/>
-      <c r="B55" s="36"/>
-      <c r="C55" s="39"/>
-      <c r="D55" s="12" t="s">
+    <row r="55" spans="1:4" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="22"/>
+      <c r="B55" s="25"/>
+      <c r="C55" s="22"/>
+      <c r="D55" s="19" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="39"/>
-      <c r="B56" s="36"/>
-      <c r="C56" s="39"/>
-      <c r="D56" s="12" t="s">
+    <row r="56" spans="1:4" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="22"/>
+      <c r="B56" s="25"/>
+      <c r="C56" s="22"/>
+      <c r="D56" s="19" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="39"/>
-      <c r="B57" s="36"/>
-      <c r="C57" s="39"/>
-      <c r="D57" s="12" t="s">
+    <row r="57" spans="1:4" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="22"/>
+      <c r="B57" s="25"/>
+      <c r="C57" s="22"/>
+      <c r="D57" s="19" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="39"/>
-      <c r="B58" s="36"/>
-      <c r="C58" s="39"/>
-      <c r="D58" s="12" t="s">
+    <row r="58" spans="1:4" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="22"/>
+      <c r="B58" s="25"/>
+      <c r="C58" s="22"/>
+      <c r="D58" s="19" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="39"/>
-      <c r="B59" s="36"/>
-      <c r="C59" s="39"/>
-      <c r="D59" s="12" t="s">
+    <row r="59" spans="1:4" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="22"/>
+      <c r="B59" s="25"/>
+      <c r="C59" s="22"/>
+      <c r="D59" s="19" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="39"/>
-      <c r="B60" s="36"/>
-      <c r="C60" s="39"/>
-      <c r="D60" s="12" t="s">
+    <row r="60" spans="1:4" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="22"/>
+      <c r="B60" s="25"/>
+      <c r="C60" s="22"/>
+      <c r="D60" s="19" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="39"/>
-      <c r="B61" s="36"/>
-      <c r="C61" s="39"/>
-      <c r="D61" s="12" t="s">
+    <row r="61" spans="1:4" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="22"/>
+      <c r="B61" s="25"/>
+      <c r="C61" s="22"/>
+      <c r="D61" s="19" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="22"/>
+      <c r="B62" s="25"/>
+      <c r="C62" s="22"/>
+      <c r="D62" s="19" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="22"/>
+      <c r="B63" s="25"/>
+      <c r="C63" s="22"/>
+      <c r="D63" s="19" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="39"/>
-      <c r="B62" s="36"/>
-      <c r="C62" s="39"/>
-      <c r="D62" s="12" t="s">
+    <row r="64" spans="1:4" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="22"/>
+      <c r="B64" s="25"/>
+      <c r="C64" s="22"/>
+      <c r="D64" s="19" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="39"/>
-      <c r="B63" s="36"/>
-      <c r="C63" s="39"/>
-      <c r="D63" s="20" t="s">
+    <row r="65" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="22"/>
+      <c r="B65" s="25"/>
+      <c r="C65" s="22"/>
+      <c r="D65" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="E63" s="20"/>
-    </row>
-    <row r="64" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="39"/>
-      <c r="B64" s="36"/>
-      <c r="C64" s="39"/>
-      <c r="D64" s="20" t="s">
+    </row>
+    <row r="66" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="22"/>
+      <c r="B66" s="25"/>
+      <c r="C66" s="22"/>
+      <c r="D66" s="19" t="s">
         <v>155</v>
       </c>
-      <c r="E64" s="20"/>
-    </row>
-    <row r="65" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="39"/>
-      <c r="B65" s="36"/>
-      <c r="C65" s="39"/>
-      <c r="D65" s="12" t="s">
+    </row>
+    <row r="67" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="22"/>
+      <c r="B67" s="25"/>
+      <c r="C67" s="22"/>
+      <c r="D67" s="19" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="39"/>
-      <c r="B66" s="27"/>
-      <c r="C66" s="26"/>
-      <c r="D66" s="26" t="s">
+    <row r="68" spans="1:5" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="22"/>
+      <c r="B68" s="14"/>
+      <c r="D68" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="E66" s="26"/>
-    </row>
-    <row r="67" spans="1:5" s="3" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="39"/>
-      <c r="B67" s="35" t="s">
+    </row>
+    <row r="69" spans="1:5" s="3" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="22"/>
+      <c r="B69" s="24" t="s">
         <v>173</v>
       </c>
-      <c r="C67" s="38" t="s">
+      <c r="C69" s="21" t="s">
         <v>172</v>
       </c>
-      <c r="D67" s="28" t="s">
+      <c r="D69" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="E67" s="28" t="s">
+      <c r="E69" s="18" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="39"/>
-      <c r="B68" s="36"/>
-      <c r="C68" s="39"/>
-      <c r="D68" s="29"/>
-      <c r="E68" s="29" t="s">
+    <row r="70" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="22"/>
+      <c r="B70" s="25"/>
+      <c r="C70" s="22"/>
+      <c r="E70" s="19" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:5" s="5" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="39"/>
-      <c r="B69" s="37"/>
-      <c r="C69" s="40"/>
-      <c r="D69" s="30"/>
-      <c r="E69" s="30" t="s">
+    <row r="71" spans="1:5" s="5" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="22"/>
+      <c r="B71" s="26"/>
+      <c r="C71" s="23"/>
+      <c r="D71" s="20"/>
+      <c r="E71" s="20" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:5" s="3" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="39"/>
-      <c r="B70" s="35" t="s">
+    <row r="72" spans="1:5" s="3" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="22"/>
+      <c r="B72" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="C70" s="38" t="s">
+      <c r="C72" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="D70" s="11" t="s">
+      <c r="D72" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="E70" s="11" t="s">
+      <c r="E72" s="18" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="39"/>
-      <c r="B71" s="36"/>
-      <c r="C71" s="39"/>
-      <c r="D71" s="12" t="s">
+    <row r="73" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="22"/>
+      <c r="B73" s="25"/>
+      <c r="C73" s="22"/>
+      <c r="D73" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="E71" s="12" t="s">
+      <c r="E73" s="19" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="72" spans="1:5" s="5" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="39"/>
-      <c r="B72" s="37"/>
-      <c r="C72" s="40"/>
-      <c r="D72" s="13"/>
-      <c r="E72" s="13" t="s">
+    <row r="74" spans="1:5" s="5" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="22"/>
+      <c r="B74" s="26"/>
+      <c r="C74" s="23"/>
+      <c r="D74" s="20"/>
+      <c r="E74" s="20" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="39"/>
-      <c r="B73" s="35" t="s">
+    <row r="75" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="22"/>
+      <c r="B75" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="C73" s="38" t="s">
+      <c r="C75" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="D73" s="12" t="s">
+      <c r="D75" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="E73" s="12" t="s">
+      <c r="E75" s="19" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="40"/>
-      <c r="B74" s="37"/>
-      <c r="C74" s="40"/>
-      <c r="D74" s="12" t="s">
+    <row r="76" spans="1:5" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="23"/>
+      <c r="B76" s="26"/>
+      <c r="C76" s="23"/>
+      <c r="D76" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="E74" s="12" t="s">
+      <c r="E76" s="19" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="75" spans="1:5" s="3" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="38" t="s">
+    <row r="77" spans="1:5" s="3" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="B75" s="35" t="s">
+      <c r="B77" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="C75" s="38" t="s">
+      <c r="C77" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="D75" s="11" t="s">
+      <c r="D77" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="E75" s="11" t="s">
+      <c r="E77" s="18" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="39"/>
-      <c r="B76" s="36"/>
-      <c r="C76" s="39"/>
-      <c r="D76" s="12" t="s">
+    <row r="78" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="22"/>
+      <c r="B78" s="25"/>
+      <c r="C78" s="22"/>
+      <c r="D78" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E76" s="12" t="s">
+      <c r="E78" s="19" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="39"/>
-      <c r="B77" s="36"/>
-      <c r="C77" s="39"/>
-      <c r="D77" s="12" t="s">
+    <row r="79" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="22"/>
+      <c r="B79" s="25"/>
+      <c r="C79" s="22"/>
+      <c r="D79" s="19" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="39"/>
-      <c r="B78" s="36"/>
-      <c r="C78" s="39"/>
-      <c r="D78" s="12" t="s">
+    <row r="80" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="22"/>
+      <c r="B80" s="25"/>
+      <c r="C80" s="22"/>
+      <c r="D80" s="19" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="39"/>
-      <c r="B79" s="36"/>
-      <c r="C79" s="39"/>
-      <c r="D79" s="12" t="s">
+    <row r="81" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="22"/>
+      <c r="B81" s="25"/>
+      <c r="C81" s="22"/>
+      <c r="D81" s="19" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="39"/>
-      <c r="B80" s="36"/>
-      <c r="C80" s="39"/>
-      <c r="D80" s="12" t="s">
+    <row r="82" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="22"/>
+      <c r="B82" s="25"/>
+      <c r="C82" s="22"/>
+      <c r="D82" s="19" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="39"/>
-      <c r="B81" s="36"/>
-      <c r="C81" s="39"/>
-      <c r="D81" s="12" t="s">
+    <row r="83" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="22"/>
+      <c r="B83" s="25"/>
+      <c r="C83" s="22"/>
+      <c r="D83" s="19" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="82" spans="1:5" s="5" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="39"/>
-      <c r="B82" s="37"/>
-      <c r="C82" s="40"/>
-      <c r="D82" s="13" t="s">
+    <row r="84" spans="1:5" s="5" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A84" s="22"/>
+      <c r="B84" s="26"/>
+      <c r="C84" s="23"/>
+      <c r="D84" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="E82" s="13"/>
-    </row>
-    <row r="83" spans="1:5" s="3" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="39"/>
-      <c r="B83" s="35" t="s">
+      <c r="E84" s="20"/>
+    </row>
+    <row r="85" spans="1:5" s="3" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="22"/>
+      <c r="B85" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="C83" s="38" t="s">
+      <c r="C85" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="D83" s="11" t="s">
+      <c r="D85" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="E83" s="11" t="s">
+      <c r="E85" s="18" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="39"/>
-      <c r="B84" s="36"/>
-      <c r="C84" s="39"/>
-      <c r="D84" s="12" t="s">
+    <row r="86" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="22"/>
+      <c r="B86" s="25"/>
+      <c r="C86" s="22"/>
+      <c r="D86" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="E84" s="12" t="s">
+      <c r="E86" s="19" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="85" spans="1:5" s="5" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="39"/>
-      <c r="B85" s="37"/>
-      <c r="C85" s="40"/>
-      <c r="D85" s="13"/>
-      <c r="E85" s="13" t="s">
+    <row r="87" spans="1:5" s="5" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A87" s="22"/>
+      <c r="B87" s="26"/>
+      <c r="C87" s="23"/>
+      <c r="D87" s="20"/>
+      <c r="E87" s="20" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="39"/>
-      <c r="B86" s="35" t="s">
+    <row r="88" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="22"/>
+      <c r="B88" s="24" t="s">
         <v>126</v>
       </c>
-      <c r="C86" s="38" t="s">
+      <c r="C88" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="D86" s="11" t="s">
+      <c r="D88" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="E86" s="11" t="s">
+      <c r="E88" s="18" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="39"/>
-      <c r="B87" s="37"/>
-      <c r="C87" s="40"/>
-      <c r="D87" s="13"/>
-      <c r="E87" s="13" t="s">
+    <row r="89" spans="1:5" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A89" s="22"/>
+      <c r="B89" s="26"/>
+      <c r="C89" s="23"/>
+      <c r="D89" s="20"/>
+      <c r="E89" s="20" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="88" spans="1:5" s="3" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="39"/>
-      <c r="B88" s="35" t="s">
+    <row r="90" spans="1:5" s="3" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="22"/>
+      <c r="B90" s="24" t="s">
         <v>169</v>
       </c>
-      <c r="C88" s="38" t="s">
+      <c r="C90" s="21" t="s">
         <v>170</v>
       </c>
-      <c r="D88" s="23" t="s">
+      <c r="D90" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="E88" s="23" t="s">
+      <c r="E90" s="18" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="39"/>
-      <c r="B89" s="36"/>
-      <c r="C89" s="39"/>
-      <c r="D89" s="24" t="s">
+    <row r="91" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="22"/>
+      <c r="B91" s="25"/>
+      <c r="C91" s="22"/>
+      <c r="D91" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="E89" s="24" t="s">
+      <c r="E91" s="19" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="39"/>
-      <c r="B90" s="36"/>
-      <c r="C90" s="39"/>
-      <c r="D90" s="24" t="s">
+    <row r="92" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="22"/>
+      <c r="B92" s="25"/>
+      <c r="C92" s="22"/>
+      <c r="D92" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="E90" s="24"/>
-    </row>
-    <row r="91" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="39"/>
-      <c r="B91" s="36"/>
-      <c r="C91" s="39"/>
-      <c r="D91" s="24" t="s">
+    </row>
+    <row r="93" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="22"/>
+      <c r="B93" s="25"/>
+      <c r="C93" s="22"/>
+      <c r="D93" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="E91" s="24"/>
-    </row>
-    <row r="92" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="39"/>
-      <c r="B92" s="36"/>
-      <c r="C92" s="39"/>
-      <c r="D92" s="24" t="s">
+    </row>
+    <row r="94" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="22"/>
+      <c r="B94" s="25"/>
+      <c r="C94" s="22"/>
+      <c r="D94" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="E92" s="24"/>
-    </row>
-    <row r="93" spans="1:5" s="5" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A93" s="39"/>
-      <c r="B93" s="37"/>
-      <c r="C93" s="40"/>
-      <c r="D93" s="25" t="s">
+    </row>
+    <row r="95" spans="1:5" s="5" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A95" s="22"/>
+      <c r="B95" s="26"/>
+      <c r="C95" s="23"/>
+      <c r="D95" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="E93" s="25"/>
-    </row>
-    <row r="94" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="39"/>
-      <c r="B94" s="35" t="s">
+      <c r="E95" s="20"/>
+    </row>
+    <row r="96" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="22"/>
+      <c r="B96" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="C94" s="38" t="s">
+      <c r="C96" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="D94" s="12" t="s">
+      <c r="D96" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="E94" s="12" t="s">
+      <c r="E96" s="19" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A95" s="39"/>
-      <c r="B95" s="37"/>
-      <c r="C95" s="40"/>
-      <c r="D95" s="12" t="s">
+    <row r="97" spans="1:5" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A97" s="22"/>
+      <c r="B97" s="26"/>
+      <c r="C97" s="23"/>
+      <c r="D97" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="E95" s="12" t="s">
+      <c r="E97" s="19" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="96" spans="1:5" s="3" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="39"/>
-      <c r="B96" s="35" t="s">
+    <row r="98" spans="1:5" s="3" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="22"/>
+      <c r="B98" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="C96" s="38" t="s">
+      <c r="C98" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="D96" s="11" t="s">
+      <c r="D98" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="E96" s="11" t="s">
+      <c r="E98" s="18" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="39"/>
-      <c r="B97" s="36"/>
-      <c r="C97" s="39"/>
-      <c r="D97" s="12" t="s">
+    <row r="99" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="22"/>
+      <c r="B99" s="25"/>
+      <c r="C99" s="22"/>
+      <c r="D99" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="E97" s="12" t="s">
+      <c r="E99" s="19" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A98" s="39"/>
-      <c r="B98" s="37"/>
-      <c r="C98" s="40"/>
-      <c r="E98" s="12" t="s">
+    <row r="100" spans="1:5" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A100" s="22"/>
+      <c r="B100" s="26"/>
+      <c r="C100" s="23"/>
+      <c r="E100" s="19" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="99" spans="1:5" s="3" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="39"/>
-      <c r="B99" s="35" t="s">
+    <row r="101" spans="1:5" s="3" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="22"/>
+      <c r="B101" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="C99" s="38" t="s">
+      <c r="C101" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="D99" s="11" t="s">
+      <c r="D101" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="E99" s="11" t="s">
+      <c r="E101" s="18" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="39"/>
-      <c r="B100" s="36"/>
-      <c r="C100" s="39"/>
-      <c r="D100" s="12" t="s">
+    <row r="102" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="22"/>
+      <c r="B102" s="25"/>
+      <c r="C102" s="22"/>
+      <c r="D102" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="E100" s="12" t="s">
+      <c r="E102" s="19" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:5" s="5" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A101" s="39"/>
-      <c r="B101" s="37"/>
-      <c r="C101" s="40"/>
-      <c r="D101" s="13" t="s">
+    <row r="103" spans="1:5" s="5" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A103" s="22"/>
+      <c r="B103" s="26"/>
+      <c r="C103" s="23"/>
+      <c r="D103" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="E101" s="13"/>
-    </row>
-    <row r="102" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="39"/>
-      <c r="B102" s="38" t="s">
+      <c r="E103" s="20"/>
+    </row>
+    <row r="104" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="22"/>
+      <c r="B104" s="24" t="s">
         <v>174</v>
       </c>
-      <c r="C102" s="38" t="s">
+      <c r="C104" s="21" t="s">
         <v>175</v>
       </c>
-      <c r="D102" s="12" t="s">
+      <c r="D104" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="E102" s="12" t="s">
+      <c r="E104" s="19" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="103" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="39"/>
-      <c r="B103" s="39"/>
-      <c r="C103" s="39"/>
-      <c r="D103" s="12" t="s">
+    <row r="105" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="22"/>
+      <c r="B105" s="25"/>
+      <c r="C105" s="22"/>
+      <c r="D105" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="E103" s="12" t="s">
+      <c r="E105" s="19" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="39"/>
-      <c r="B104" s="39"/>
-      <c r="C104" s="39"/>
-      <c r="D104" s="12" t="s">
+    <row r="106" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="22"/>
+      <c r="B106" s="25"/>
+      <c r="C106" s="22"/>
+      <c r="D106" s="19" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="105" spans="1:5" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A105" s="40"/>
-      <c r="B105" s="40"/>
-      <c r="C105" s="40"/>
-      <c r="D105" s="31" t="s">
+    <row r="107" spans="1:5" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A107" s="23"/>
+      <c r="B107" s="26"/>
+      <c r="C107" s="23"/>
+      <c r="D107" s="19" t="s">
         <v>176</v>
       </c>
-      <c r="E105" s="31"/>
-    </row>
-    <row r="106" spans="1:5" s="3" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="38" t="s">
+    </row>
+    <row r="108" spans="1:5" s="3" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="B106" s="35" t="s">
+      <c r="B108" s="24" t="s">
         <v>128</v>
       </c>
-      <c r="C106" s="38" t="s">
+      <c r="C108" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="D106" s="11" t="s">
+      <c r="D108" s="18" t="s">
         <v>134</v>
       </c>
-      <c r="E106" s="11" t="s">
+      <c r="E108" s="18" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="39"/>
-      <c r="B107" s="36"/>
-      <c r="C107" s="39"/>
-      <c r="D107" s="12" t="s">
+    <row r="109" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="22"/>
+      <c r="B109" s="25"/>
+      <c r="C109" s="22"/>
+      <c r="D109" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="E107" s="12" t="s">
+      <c r="E109" s="19" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:5" s="5" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A108" s="39"/>
-      <c r="B108" s="37"/>
-      <c r="C108" s="40"/>
-      <c r="D108" s="13"/>
-      <c r="E108" s="13" t="s">
+    <row r="110" spans="1:5" s="5" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A110" s="22"/>
+      <c r="B110" s="26"/>
+      <c r="C110" s="23"/>
+      <c r="D110" s="20"/>
+      <c r="E110" s="20" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="109" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="39"/>
-      <c r="B109" s="35" t="s">
+    <row r="111" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="22"/>
+      <c r="B111" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="C109" s="38" t="s">
+      <c r="C111" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="D109" s="11" t="s">
+      <c r="D111" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="E109" s="11" t="s">
+      <c r="E111" s="18" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="110" spans="1:5" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A110" s="39"/>
-      <c r="B110" s="37"/>
-      <c r="C110" s="40"/>
-      <c r="D110" s="13"/>
-      <c r="E110" s="13" t="s">
+    <row r="112" spans="1:5" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A112" s="22"/>
+      <c r="B112" s="26"/>
+      <c r="C112" s="23"/>
+      <c r="D112" s="20"/>
+      <c r="E112" s="20" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="39"/>
-      <c r="B111" s="35" t="s">
+    <row r="113" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="22"/>
+      <c r="B113" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="C111" s="38" t="s">
+      <c r="C113" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="D111" s="12" t="s">
+      <c r="D113" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="E111" s="12" t="s">
+      <c r="E113" s="19" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="112" spans="1:5" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A112" s="39"/>
-      <c r="B112" s="37"/>
-      <c r="C112" s="40"/>
-      <c r="D112" s="12" t="s">
+    <row r="114" spans="1:5" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A114" s="22"/>
+      <c r="B114" s="26"/>
+      <c r="C114" s="23"/>
+      <c r="D114" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E112" s="12" t="s">
+      <c r="E114" s="19" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:5" s="3" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="39"/>
-      <c r="B113" s="35" t="s">
+    <row r="115" spans="1:5" s="3" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="22"/>
+      <c r="B115" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="C113" s="38" t="s">
+      <c r="C115" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="D113" s="11" t="s">
+      <c r="D115" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="E113" s="11" t="s">
+      <c r="E115" s="18" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="39"/>
-      <c r="B114" s="36"/>
-      <c r="C114" s="39"/>
-      <c r="D114" s="12" t="s">
+    <row r="116" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="22"/>
+      <c r="B116" s="25"/>
+      <c r="C116" s="22"/>
+      <c r="D116" s="19" t="s">
         <v>162</v>
       </c>
-      <c r="E114" s="12" t="s">
+      <c r="E116" s="19" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="115" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="39"/>
-      <c r="B115" s="36"/>
-      <c r="C115" s="39"/>
-      <c r="D115" s="12" t="s">
+    <row r="117" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="22"/>
+      <c r="B117" s="25"/>
+      <c r="C117" s="22"/>
+      <c r="D117" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="E115" s="12" t="s">
+      <c r="E117" s="19" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="116" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="39"/>
-      <c r="B116" s="36"/>
-      <c r="C116" s="39"/>
-      <c r="D116" s="12" t="s">
+    <row r="118" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="22"/>
+      <c r="B118" s="25"/>
+      <c r="C118" s="22"/>
+      <c r="D118" s="19" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="117" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="39"/>
-      <c r="B117" s="36"/>
-      <c r="C117" s="39"/>
-      <c r="D117" s="24" t="s">
+    <row r="119" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="22"/>
+      <c r="B119" s="25"/>
+      <c r="C119" s="22"/>
+      <c r="D119" s="19" t="s">
         <v>164</v>
       </c>
-      <c r="E117" s="24"/>
-    </row>
-    <row r="118" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="39"/>
-      <c r="B118" s="36"/>
-      <c r="C118" s="39"/>
-      <c r="D118" s="24" t="s">
+    </row>
+    <row r="120" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="22"/>
+      <c r="B120" s="25"/>
+      <c r="C120" s="22"/>
+      <c r="D120" s="19" t="s">
         <v>165</v>
       </c>
-      <c r="E118" s="24"/>
-    </row>
-    <row r="119" spans="1:5" s="5" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A119" s="39"/>
-      <c r="B119" s="37"/>
-      <c r="C119" s="40"/>
-      <c r="D119" s="13" t="s">
+    </row>
+    <row r="121" spans="1:5" s="5" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A121" s="22"/>
+      <c r="B121" s="26"/>
+      <c r="C121" s="23"/>
+      <c r="D121" s="20" t="s">
         <v>166</v>
       </c>
-      <c r="E119" s="13"/>
-    </row>
-    <row r="120" spans="1:5" s="3" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="39"/>
-      <c r="B120" s="35" t="s">
+      <c r="E121" s="20"/>
+    </row>
+    <row r="122" spans="1:5" s="3" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="22"/>
+      <c r="B122" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="C120" s="38" t="s">
+      <c r="C122" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="D120" s="11" t="s">
+      <c r="D122" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="E120" s="11" t="s">
+      <c r="E122" s="18" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="121" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="39"/>
-      <c r="B121" s="36"/>
-      <c r="C121" s="39"/>
-      <c r="E121" s="12" t="s">
+    <row r="123" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="22"/>
+      <c r="B123" s="25"/>
+      <c r="C123" s="22"/>
+      <c r="E123" s="19" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="122" spans="1:5" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A122" s="39"/>
-      <c r="B122" s="36"/>
-      <c r="C122" s="39"/>
-      <c r="E122" s="12" t="s">
+    <row r="124" spans="1:5" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A124" s="22"/>
+      <c r="B124" s="26"/>
+      <c r="C124" s="23"/>
+      <c r="E124" s="19" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="123" spans="1:5" s="3" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="39"/>
-      <c r="B123" s="38" t="s">
+    <row r="125" spans="1:5" s="3" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="22"/>
+      <c r="B125" s="24" t="s">
         <v>141</v>
       </c>
-      <c r="C123" s="38" t="s">
+      <c r="C125" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="D123" s="11" t="s">
+      <c r="D125" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="E123" s="11" t="s">
+      <c r="E125" s="18" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="124" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="39"/>
-      <c r="B124" s="39"/>
-      <c r="C124" s="39"/>
-      <c r="E124" s="12" t="s">
+    <row r="126" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="22"/>
+      <c r="B126" s="25"/>
+      <c r="C126" s="22"/>
+      <c r="E126" s="19" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="125" spans="1:5" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A125" s="39"/>
-      <c r="B125" s="40"/>
-      <c r="C125" s="40"/>
-      <c r="E125" s="12" t="s">
+    <row r="127" spans="1:5" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A127" s="22"/>
+      <c r="B127" s="26"/>
+      <c r="C127" s="23"/>
+      <c r="E127" s="19" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="126" spans="1:5" s="3" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="39"/>
-      <c r="B126" s="38" t="s">
+    <row r="128" spans="1:5" s="3" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="22"/>
+      <c r="B128" s="24" t="s">
         <v>147</v>
       </c>
-      <c r="C126" s="38" t="s">
+      <c r="C128" s="21" t="s">
         <v>148</v>
       </c>
-      <c r="D126" s="11" t="s">
+      <c r="D128" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="E126" s="11" t="s">
+      <c r="E128" s="18" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="127" spans="1:5" s="5" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A127" s="39"/>
-      <c r="B127" s="40"/>
-      <c r="C127" s="40"/>
-      <c r="D127" s="13" t="s">
+    <row r="129" spans="1:5" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A129" s="22"/>
+      <c r="B129" s="26"/>
+      <c r="C129" s="23"/>
+      <c r="D129" s="19" t="s">
         <v>149</v>
       </c>
-      <c r="E127" s="13" t="s">
+      <c r="E129" s="19" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="128" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="39"/>
-      <c r="B128" s="35" t="s">
+    <row r="130" spans="1:5" s="3" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="22"/>
+      <c r="B130" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="C128" s="38" t="s">
+      <c r="C130" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="D128" s="12" t="s">
+      <c r="D130" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="E128" s="12" t="s">
+      <c r="E130" s="18" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="129" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="39"/>
-      <c r="B129" s="36"/>
-      <c r="C129" s="39"/>
-      <c r="D129" s="12" t="s">
+    <row r="131" spans="1:5" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A131" s="22"/>
+      <c r="B131" s="26"/>
+      <c r="C131" s="23"/>
+      <c r="D131" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="E129" s="12" t="s">
+      <c r="E131" s="19" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:5" s="5" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A130" s="40"/>
-      <c r="B130" s="37"/>
-      <c r="C130" s="40"/>
-      <c r="D130" s="13"/>
-      <c r="E130" s="13"/>
-    </row>
-    <row r="131" spans="1:5" s="8" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="32" t="s">
+    <row r="132" spans="1:5" s="3" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="22"/>
+      <c r="B132" s="33" t="s">
+        <v>183</v>
+      </c>
+      <c r="C132" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="D132" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="E132" s="18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" s="5" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A133" s="23"/>
+      <c r="B133" s="34"/>
+      <c r="C133" s="23"/>
+      <c r="D133" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="E133" s="19" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" s="9" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="B131" s="41" t="s">
+      <c r="B134" s="30" t="s">
         <v>81</v>
       </c>
-      <c r="C131" s="32" t="s">
+      <c r="C134" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="D131" s="14"/>
-      <c r="E131" s="14" t="s">
+      <c r="D134" s="16"/>
+      <c r="E134" s="16" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="132" spans="1:5" s="10" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="33"/>
-      <c r="B132" s="43"/>
-      <c r="C132" s="33"/>
-      <c r="D132" s="15"/>
-      <c r="E132" s="15" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" s="10" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="33"/>
-      <c r="B133" s="43"/>
-      <c r="C133" s="33"/>
-      <c r="D133" s="18"/>
-      <c r="E133" s="18" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" s="10" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="33"/>
-      <c r="B134" s="43"/>
-      <c r="C134" s="33"/>
-      <c r="D134" s="18"/>
-      <c r="E134" s="18" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" s="9" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A135" s="33"/>
-      <c r="B135" s="42"/>
-      <c r="C135" s="34"/>
+    <row r="135" spans="1:5" s="9" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A135" s="28"/>
+      <c r="B135" s="32"/>
+      <c r="C135" s="28"/>
       <c r="D135" s="16"/>
       <c r="E135" s="16" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" s="9" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A136" s="28"/>
+      <c r="B136" s="32"/>
+      <c r="C136" s="28"/>
+      <c r="D136" s="16"/>
+      <c r="E136" s="16" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" s="9" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A137" s="28"/>
+      <c r="B137" s="32"/>
+      <c r="C137" s="28"/>
+      <c r="D137" s="16"/>
+      <c r="E137" s="16" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" s="8" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A138" s="28"/>
+      <c r="B138" s="31"/>
+      <c r="C138" s="29"/>
+      <c r="D138" s="17"/>
+      <c r="E138" s="17" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="136" spans="1:5" s="10" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A136" s="33"/>
-      <c r="B136" s="22" t="s">
+    <row r="139" spans="1:5" s="9" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A139" s="28"/>
+      <c r="B139" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="C136" s="21" t="s">
+      <c r="C139" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="D136" s="15" t="s">
+      <c r="D139" s="16" t="s">
         <v>157</v>
       </c>
-      <c r="E136" s="15" t="s">
+      <c r="E139" s="16" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="137" spans="1:5" s="6" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="33"/>
-      <c r="B137" s="41" t="s">
+    <row r="140" spans="1:5" s="6" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A140" s="28"/>
+      <c r="B140" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="C137" s="32" t="s">
+      <c r="C140" s="27" t="s">
         <v>115</v>
       </c>
-      <c r="D137" s="14" t="s">
+      <c r="D140" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="E137" s="14" t="s">
+      <c r="E140" s="15" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="138" spans="1:5" s="7" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A138" s="33"/>
-      <c r="B138" s="42"/>
-      <c r="C138" s="34"/>
-      <c r="D138" s="16"/>
-      <c r="E138" s="16" t="s">
+    <row r="141" spans="1:5" s="7" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A141" s="28"/>
+      <c r="B141" s="31"/>
+      <c r="C141" s="29"/>
+      <c r="D141" s="17"/>
+      <c r="E141" s="17" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:5" s="3" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="33"/>
-      <c r="B139" s="35" t="s">
+    <row r="142" spans="1:5" s="3" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A142" s="28"/>
+      <c r="B142" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="C139" s="38" t="s">
+      <c r="C142" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="D139" s="11" t="s">
+      <c r="D142" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="E139" s="11" t="s">
+      <c r="E142" s="18" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="140" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="33"/>
-      <c r="B140" s="36"/>
-      <c r="C140" s="39"/>
-      <c r="E140" s="12" t="s">
+    <row r="143" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A143" s="28"/>
+      <c r="B143" s="25"/>
+      <c r="C143" s="22"/>
+      <c r="E143" s="19" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="141" spans="1:5" s="5" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A141" s="34"/>
-      <c r="B141" s="37"/>
-      <c r="C141" s="40"/>
-      <c r="D141" s="13"/>
-      <c r="E141" s="13" t="s">
+    <row r="144" spans="1:5" s="5" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A144" s="29"/>
+      <c r="B144" s="26"/>
+      <c r="C144" s="23"/>
+      <c r="D144" s="20"/>
+      <c r="E144" s="20" t="s">
         <v>113</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="67">
-    <mergeCell ref="A75:A105"/>
-    <mergeCell ref="A106:A130"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="A2:A13"/>
-    <mergeCell ref="B123:B125"/>
-    <mergeCell ref="C123:C125"/>
-    <mergeCell ref="B126:B127"/>
-    <mergeCell ref="C126:C127"/>
-    <mergeCell ref="B106:B108"/>
-    <mergeCell ref="C106:C108"/>
-    <mergeCell ref="B109:B110"/>
-    <mergeCell ref="C109:C110"/>
-    <mergeCell ref="B113:B119"/>
-    <mergeCell ref="C113:C119"/>
-    <mergeCell ref="B128:B130"/>
-    <mergeCell ref="C128:C130"/>
-    <mergeCell ref="C120:C122"/>
-    <mergeCell ref="B120:B122"/>
-    <mergeCell ref="B111:B112"/>
-    <mergeCell ref="C111:C112"/>
+  <mergeCells count="69">
+    <mergeCell ref="A108:A133"/>
+    <mergeCell ref="B132:B133"/>
+    <mergeCell ref="C132:C133"/>
+    <mergeCell ref="A134:A144"/>
+    <mergeCell ref="B142:B144"/>
+    <mergeCell ref="C142:C144"/>
+    <mergeCell ref="B140:B141"/>
+    <mergeCell ref="C140:C141"/>
+    <mergeCell ref="B134:B138"/>
+    <mergeCell ref="C134:C138"/>
+    <mergeCell ref="B101:B103"/>
+    <mergeCell ref="C101:C103"/>
+    <mergeCell ref="B96:B97"/>
+    <mergeCell ref="C96:C97"/>
+    <mergeCell ref="B88:B89"/>
+    <mergeCell ref="C88:C89"/>
+    <mergeCell ref="B90:B95"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="B30:B39"/>
+    <mergeCell ref="C30:C39"/>
+    <mergeCell ref="B69:B71"/>
+    <mergeCell ref="B98:B100"/>
+    <mergeCell ref="C98:C100"/>
+    <mergeCell ref="B77:B84"/>
+    <mergeCell ref="C77:C84"/>
+    <mergeCell ref="B85:B87"/>
+    <mergeCell ref="C85:C87"/>
+    <mergeCell ref="C90:C95"/>
+    <mergeCell ref="C69:C71"/>
+    <mergeCell ref="C104:C107"/>
+    <mergeCell ref="B104:B107"/>
+    <mergeCell ref="A14:A76"/>
+    <mergeCell ref="B14:B24"/>
+    <mergeCell ref="C14:C24"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="C40:C67"/>
+    <mergeCell ref="B40:B67"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="B72:B74"/>
+    <mergeCell ref="C72:C74"/>
+    <mergeCell ref="C75:C76"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="C2:C4"/>
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="C5:C7"/>
     <mergeCell ref="B8:B10"/>
     <mergeCell ref="C8:C10"/>
-    <mergeCell ref="C88:C93"/>
-    <mergeCell ref="C67:C69"/>
-    <mergeCell ref="C102:C105"/>
-    <mergeCell ref="B102:B105"/>
-    <mergeCell ref="A14:A74"/>
-    <mergeCell ref="B14:B24"/>
-    <mergeCell ref="C14:C24"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="C25:C27"/>
-    <mergeCell ref="C40:C65"/>
-    <mergeCell ref="B40:B65"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="B70:B72"/>
-    <mergeCell ref="C70:C72"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="B30:B39"/>
-    <mergeCell ref="C30:C39"/>
-    <mergeCell ref="B67:B69"/>
-    <mergeCell ref="B96:B98"/>
-    <mergeCell ref="C96:C98"/>
-    <mergeCell ref="B75:B82"/>
-    <mergeCell ref="C75:C82"/>
-    <mergeCell ref="B83:B85"/>
-    <mergeCell ref="C83:C85"/>
-    <mergeCell ref="B99:B101"/>
-    <mergeCell ref="C99:C101"/>
-    <mergeCell ref="B94:B95"/>
-    <mergeCell ref="C94:C95"/>
-    <mergeCell ref="B86:B87"/>
-    <mergeCell ref="C86:C87"/>
-    <mergeCell ref="B88:B93"/>
-    <mergeCell ref="A131:A141"/>
-    <mergeCell ref="B139:B141"/>
-    <mergeCell ref="C139:C141"/>
-    <mergeCell ref="B137:B138"/>
-    <mergeCell ref="C137:C138"/>
-    <mergeCell ref="B131:B135"/>
-    <mergeCell ref="C131:C135"/>
+    <mergeCell ref="C122:C124"/>
+    <mergeCell ref="B122:B124"/>
+    <mergeCell ref="B113:B114"/>
+    <mergeCell ref="C113:C114"/>
+    <mergeCell ref="C130:C131"/>
+    <mergeCell ref="B130:B131"/>
+    <mergeCell ref="A77:A107"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="A2:A13"/>
+    <mergeCell ref="B125:B127"/>
+    <mergeCell ref="C125:C127"/>
+    <mergeCell ref="B128:B129"/>
+    <mergeCell ref="C128:C129"/>
+    <mergeCell ref="B108:B110"/>
+    <mergeCell ref="C108:C110"/>
+    <mergeCell ref="B111:B112"/>
+    <mergeCell ref="C111:C112"/>
+    <mergeCell ref="B115:B121"/>
+    <mergeCell ref="C115:C121"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
